--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0FCF4265-DBA8-4463-90A2-A236CF54E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB8D67-56AD-4121-88B4-3295A51BB46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1020" windowWidth="23775" windowHeight="12570"/>
+    <workbookView xWindow="270" yWindow="1170" windowWidth="28530" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$517</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$519</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="887">
   <si>
     <t>Context</t>
   </si>
@@ -2689,7 +2689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3537,13 +3537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D517"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D522" sqref="D522"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3897,7 +3896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -4799,7 +4798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -5206,7 +5205,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>286</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>286</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>286</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>286</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>286</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>286</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>286</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>286</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>286</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>286</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>286</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>286</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>286</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>286</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>286</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>286</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>286</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>286</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>286</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>286</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>286</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>286</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>286</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>286</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>286</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>286</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>286</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>286</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>286</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>286</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>286</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>286</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>286</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>286</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>286</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>286</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>286</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>286</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>286</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>286</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>286</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>286</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>286</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>286</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>286</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>286</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>286</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>286</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>286</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>286</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>286</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>286</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>286</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>286</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>286</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>286</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>286</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>286</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>286</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>286</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>286</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>286</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>286</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>286</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>286</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>286</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>286</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>286</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>286</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>286</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>286</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>286</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>286</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>286</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>286</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>286</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>286</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>286</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>286</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>286</v>
       </c>
@@ -6108,1456 +6107,1456 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>286</v>
       </c>
       <c r="B233" t="s">
+        <v>719</v>
+      </c>
+      <c r="D233" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>286</v>
+      </c>
+      <c r="B234" t="s">
+        <v>721</v>
+      </c>
+      <c r="D234" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>286</v>
+      </c>
+      <c r="B235" t="s">
         <v>438</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D235" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>286</v>
-      </c>
-      <c r="B234" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>286</v>
+      </c>
+      <c r="B236" t="s">
         <v>440</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D236" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>286</v>
-      </c>
-      <c r="B235" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>286</v>
+      </c>
+      <c r="B237" t="s">
         <v>442</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D237" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>286</v>
-      </c>
-      <c r="B236" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>286</v>
+      </c>
+      <c r="B238" t="s">
         <v>444</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D238" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>286</v>
-      </c>
-      <c r="B237" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>286</v>
+      </c>
+      <c r="B239" t="s">
         <v>446</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D239" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>286</v>
-      </c>
-      <c r="B238" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>286</v>
+      </c>
+      <c r="B240" t="s">
         <v>448</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D240" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>286</v>
-      </c>
-      <c r="B239" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>286</v>
+      </c>
+      <c r="B241" t="s">
         <v>449</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D241" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>286</v>
-      </c>
-      <c r="B240" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>286</v>
+      </c>
+      <c r="B242" t="s">
         <v>451</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D242" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>286</v>
-      </c>
-      <c r="B241" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>286</v>
+      </c>
+      <c r="B243" t="s">
         <v>453</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D243" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>286</v>
-      </c>
-      <c r="B242" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>286</v>
+      </c>
+      <c r="B244" t="s">
         <v>455</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D244" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>286</v>
-      </c>
-      <c r="B243" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>286</v>
+      </c>
+      <c r="B245" t="s">
         <v>457</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D245" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>286</v>
-      </c>
-      <c r="B244" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>286</v>
+      </c>
+      <c r="B246" t="s">
         <v>459</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D246" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>286</v>
-      </c>
-      <c r="B245" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>286</v>
+      </c>
+      <c r="B247" t="s">
         <v>460</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D247" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>286</v>
-      </c>
-      <c r="B246" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>286</v>
+      </c>
+      <c r="B248" t="s">
         <v>462</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D248" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>286</v>
-      </c>
-      <c r="B247" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>286</v>
+      </c>
+      <c r="B249" t="s">
         <v>464</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D249" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>286</v>
-      </c>
-      <c r="B248" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>286</v>
+      </c>
+      <c r="B250" t="s">
         <v>466</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D250" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>286</v>
-      </c>
-      <c r="B249" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>286</v>
+      </c>
+      <c r="B251" t="s">
         <v>468</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D251" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>286</v>
-      </c>
-      <c r="B250" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>286</v>
+      </c>
+      <c r="B252" t="s">
         <v>470</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D252" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>286</v>
-      </c>
-      <c r="B251" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>286</v>
+      </c>
+      <c r="B253" t="s">
         <v>472</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D253" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>286</v>
-      </c>
-      <c r="B252" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>286</v>
+      </c>
+      <c r="B254" t="s">
         <v>474</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D254" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>286</v>
-      </c>
-      <c r="B253" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>286</v>
+      </c>
+      <c r="B255" t="s">
         <v>476</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D255" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>286</v>
-      </c>
-      <c r="B254" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>286</v>
+      </c>
+      <c r="B256" t="s">
         <v>478</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D256" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>286</v>
-      </c>
-      <c r="B255" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>286</v>
+      </c>
+      <c r="B257" t="s">
         <v>480</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D257" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>286</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>286</v>
+      </c>
+      <c r="B258" t="s">
         <v>230</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D258" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>286</v>
-      </c>
-      <c r="B257" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>286</v>
+      </c>
+      <c r="B259" t="s">
         <v>482</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D259" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>286</v>
-      </c>
-      <c r="B258" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>286</v>
+      </c>
+      <c r="B260" t="s">
         <v>484</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D260" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>286</v>
-      </c>
-      <c r="B259" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>286</v>
+      </c>
+      <c r="B261" t="s">
         <v>485</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D261" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>286</v>
-      </c>
-      <c r="B260" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>286</v>
+      </c>
+      <c r="B262" t="s">
         <v>487</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D262" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>286</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>286</v>
+      </c>
+      <c r="B263" t="s">
         <v>489</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D263" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>286</v>
-      </c>
-      <c r="B262" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>286</v>
+      </c>
+      <c r="B264" t="s">
         <v>491</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D264" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>286</v>
-      </c>
-      <c r="B263" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>286</v>
+      </c>
+      <c r="B265" t="s">
         <v>493</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D265" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>286</v>
-      </c>
-      <c r="B264" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>286</v>
+      </c>
+      <c r="B266" t="s">
         <v>495</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D266" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>286</v>
-      </c>
-      <c r="B265" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>286</v>
+      </c>
+      <c r="B267" t="s">
         <v>497</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D267" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>286</v>
-      </c>
-      <c r="B266" t="s">
-        <v>17</v>
-      </c>
-      <c r="D266" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>286</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>286</v>
-      </c>
-      <c r="B267" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>286</v>
+      </c>
+      <c r="B269" t="s">
         <v>499</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D269" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>286</v>
-      </c>
-      <c r="B268" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>286</v>
+      </c>
+      <c r="B270" t="s">
         <v>501</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D270" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>286</v>
-      </c>
-      <c r="B269" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>286</v>
+      </c>
+      <c r="B271" t="s">
         <v>503</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D271" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>286</v>
-      </c>
-      <c r="B270" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>286</v>
+      </c>
+      <c r="B272" t="s">
         <v>505</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D272" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>286</v>
-      </c>
-      <c r="B271" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>286</v>
+      </c>
+      <c r="B273" t="s">
         <v>507</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D273" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>286</v>
-      </c>
-      <c r="B272" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>286</v>
+      </c>
+      <c r="B274" t="s">
         <v>509</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D274" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>286</v>
-      </c>
-      <c r="B273" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>286</v>
+      </c>
+      <c r="B275" t="s">
         <v>511</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D275" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>286</v>
-      </c>
-      <c r="B274" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>286</v>
+      </c>
+      <c r="B276" t="s">
         <v>513</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D276" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>286</v>
-      </c>
-      <c r="B275" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277" t="s">
         <v>515</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D277" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>286</v>
-      </c>
-      <c r="B276" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278" t="s">
         <v>517</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D278" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>286</v>
-      </c>
-      <c r="B277" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>286</v>
+      </c>
+      <c r="B279" t="s">
         <v>519</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D279" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>286</v>
-      </c>
-      <c r="B278" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280" t="s">
         <v>521</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D280" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>286</v>
-      </c>
-      <c r="B279" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" t="s">
         <v>523</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D281" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>286</v>
-      </c>
-      <c r="B280" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282" t="s">
         <v>525</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D282" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>286</v>
-      </c>
-      <c r="B281" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" t="s">
         <v>527</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D283" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>286</v>
-      </c>
-      <c r="B282" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="s">
         <v>529</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D284" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>286</v>
-      </c>
-      <c r="B283" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s">
         <v>531</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D285" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>286</v>
-      </c>
-      <c r="B284" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="s">
         <v>532</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D286" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>286</v>
-      </c>
-      <c r="B285" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
         <v>534</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D287" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
         <v>536</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D288" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289" t="s">
         <v>538</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D289" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288" t="s">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" t="s">
         <v>540</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D290" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289" t="s">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>286</v>
+      </c>
+      <c r="B291" t="s">
         <v>542</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D291" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>286</v>
-      </c>
-      <c r="B290" t="s">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>286</v>
+      </c>
+      <c r="B292" t="s">
         <v>544</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D292" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" t="s">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>286</v>
+      </c>
+      <c r="B293" t="s">
         <v>546</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D293" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>286</v>
-      </c>
-      <c r="B292" t="s">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>286</v>
+      </c>
+      <c r="B294" t="s">
         <v>547</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D294" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>286</v>
-      </c>
-      <c r="B293" t="s">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>286</v>
+      </c>
+      <c r="B295" t="s">
         <v>549</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D295" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>286</v>
-      </c>
-      <c r="B294" t="s">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>286</v>
+      </c>
+      <c r="B296" t="s">
         <v>551</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D296" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>286</v>
-      </c>
-      <c r="B295" t="s">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>286</v>
+      </c>
+      <c r="B297" t="s">
         <v>553</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D297" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>286</v>
-      </c>
-      <c r="B296" t="s">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>286</v>
+      </c>
+      <c r="B298" t="s">
         <v>555</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D298" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>286</v>
-      </c>
-      <c r="B297" t="s">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>286</v>
+      </c>
+      <c r="B299" t="s">
         <v>557</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D299" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>286</v>
-      </c>
-      <c r="B298" t="s">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>286</v>
+      </c>
+      <c r="B300" t="s">
         <v>559</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D300" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>286</v>
-      </c>
-      <c r="B299" t="s">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>286</v>
+      </c>
+      <c r="B301" t="s">
         <v>561</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D301" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>286</v>
-      </c>
-      <c r="B300" t="s">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>286</v>
+      </c>
+      <c r="B302" t="s">
         <v>563</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D302" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>565</v>
-      </c>
-      <c r="B301" t="s">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>565</v>
+      </c>
+      <c r="B303" t="s">
         <v>21</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D303" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>565</v>
-      </c>
-      <c r="B302" t="s">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>565</v>
+      </c>
+      <c r="B304" t="s">
         <v>566</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D304" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>565</v>
-      </c>
-      <c r="B303" t="s">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>565</v>
+      </c>
+      <c r="B305" t="s">
         <v>568</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D305" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>565</v>
-      </c>
-      <c r="B304" t="s">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>565</v>
+      </c>
+      <c r="B306" t="s">
         <v>570</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D306" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>565</v>
-      </c>
-      <c r="B305" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>565</v>
+      </c>
+      <c r="B307" t="s">
         <v>572</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D307" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>565</v>
-      </c>
-      <c r="B306" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>565</v>
+      </c>
+      <c r="B308" t="s">
         <v>574</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D308" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>565</v>
-      </c>
-      <c r="B307" t="s">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>565</v>
+      </c>
+      <c r="B309" t="s">
         <v>576</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D309" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>565</v>
-      </c>
-      <c r="B308" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>565</v>
+      </c>
+      <c r="B310" t="s">
         <v>578</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D310" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>565</v>
-      </c>
-      <c r="B309" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>565</v>
+      </c>
+      <c r="B311" t="s">
         <v>580</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D311" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>565</v>
-      </c>
-      <c r="B310" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>565</v>
+      </c>
+      <c r="B312" t="s">
         <v>30</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D312" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>565</v>
-      </c>
-      <c r="B311" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>565</v>
+      </c>
+      <c r="B313" t="s">
         <v>581</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D313" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>565</v>
-      </c>
-      <c r="B312" t="s">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>565</v>
+      </c>
+      <c r="B314" t="s">
         <v>34</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D314" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>565</v>
-      </c>
-      <c r="B313" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>565</v>
+      </c>
+      <c r="B315" t="s">
         <v>583</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D315" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>565</v>
-      </c>
-      <c r="B314" t="s">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>565</v>
+      </c>
+      <c r="B316" t="s">
         <v>584</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D316" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>565</v>
-      </c>
-      <c r="B315" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>565</v>
+      </c>
+      <c r="B317" t="s">
         <v>586</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D317" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>565</v>
-      </c>
-      <c r="B316" t="s">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>565</v>
+      </c>
+      <c r="B318" t="s">
         <v>588</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D318" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>565</v>
-      </c>
-      <c r="B317" t="s">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>565</v>
+      </c>
+      <c r="B319" t="s">
         <v>38</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D319" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>565</v>
-      </c>
-      <c r="B318" t="s">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>565</v>
+      </c>
+      <c r="B320" t="s">
         <v>590</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D320" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>565</v>
-      </c>
-      <c r="B319" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>565</v>
+      </c>
+      <c r="B321" t="s">
         <v>592</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D321" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>565</v>
-      </c>
-      <c r="B320" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>565</v>
+      </c>
+      <c r="B322" t="s">
         <v>594</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D322" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>565</v>
-      </c>
-      <c r="B321" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>565</v>
+      </c>
+      <c r="B323" t="s">
         <v>596</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D323" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>565</v>
-      </c>
-      <c r="B322" t="s">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>565</v>
+      </c>
+      <c r="B324" t="s">
         <v>598</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D324" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>565</v>
-      </c>
-      <c r="B323" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>565</v>
+      </c>
+      <c r="B325" t="s">
         <v>600</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D325" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>565</v>
-      </c>
-      <c r="B324" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>565</v>
+      </c>
+      <c r="B326" t="s">
         <v>44</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D326" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>565</v>
-      </c>
-      <c r="B325" t="s">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>565</v>
+      </c>
+      <c r="B327" t="s">
         <v>50</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D327" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>565</v>
-      </c>
-      <c r="B326" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>565</v>
+      </c>
+      <c r="B328" t="s">
         <v>52</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D328" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>565</v>
-      </c>
-      <c r="B327" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>565</v>
+      </c>
+      <c r="B329" t="s">
         <v>54</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D329" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>565</v>
-      </c>
-      <c r="B328" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>565</v>
+      </c>
+      <c r="B330" t="s">
         <v>602</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D330" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>565</v>
-      </c>
-      <c r="B329" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>565</v>
+      </c>
+      <c r="B331" t="s">
         <v>604</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D331" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>565</v>
-      </c>
-      <c r="B330" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>565</v>
+      </c>
+      <c r="B332" t="s">
         <v>56</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D332" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>565</v>
-      </c>
-      <c r="B331" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>565</v>
+      </c>
+      <c r="B333" t="s">
         <v>606</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D333" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>565</v>
-      </c>
-      <c r="B332" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>565</v>
+      </c>
+      <c r="B334" t="s">
         <v>608</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D334" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>565</v>
-      </c>
-      <c r="B333" t="s">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>565</v>
+      </c>
+      <c r="B335" t="s">
         <v>610</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D335" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>565</v>
-      </c>
-      <c r="B334" t="s">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>565</v>
+      </c>
+      <c r="B336" t="s">
         <v>612</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D336" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>565</v>
-      </c>
-      <c r="B335" t="s">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>565</v>
+      </c>
+      <c r="B337" t="s">
         <v>613</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D337" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>565</v>
-      </c>
-      <c r="B336" t="s">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>565</v>
+      </c>
+      <c r="B338" t="s">
         <v>615</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D338" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>565</v>
-      </c>
-      <c r="B337" t="s">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>565</v>
+      </c>
+      <c r="B339" t="s">
         <v>617</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D339" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>565</v>
-      </c>
-      <c r="B338" t="s">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>565</v>
+      </c>
+      <c r="B340" t="s">
         <v>619</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D340" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>565</v>
-      </c>
-      <c r="B339" t="s">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>565</v>
+      </c>
+      <c r="B341" t="s">
         <v>621</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D341" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>565</v>
-      </c>
-      <c r="B340" t="s">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>565</v>
+      </c>
+      <c r="B342" t="s">
         <v>623</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D342" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>565</v>
-      </c>
-      <c r="B341" t="s">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>565</v>
+      </c>
+      <c r="B343" t="s">
         <v>625</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D343" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>565</v>
-      </c>
-      <c r="B342" t="s">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>565</v>
+      </c>
+      <c r="B344" t="s">
         <v>332</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D344" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>565</v>
-      </c>
-      <c r="B343" t="s">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>565</v>
+      </c>
+      <c r="B345" t="s">
         <v>627</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D345" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>565</v>
-      </c>
-      <c r="B344" t="s">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>565</v>
+      </c>
+      <c r="B346" t="s">
         <v>629</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D346" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>565</v>
-      </c>
-      <c r="B345" t="s">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>565</v>
+      </c>
+      <c r="B347" t="s">
         <v>631</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D347" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>565</v>
-      </c>
-      <c r="B346" t="s">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>565</v>
+      </c>
+      <c r="B348" t="s">
         <v>633</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D348" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>565</v>
-      </c>
-      <c r="B347" t="s">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>565</v>
+      </c>
+      <c r="B349" t="s">
         <v>635</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D349" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>565</v>
-      </c>
-      <c r="B348" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>565</v>
+      </c>
+      <c r="B350" t="s">
         <v>637</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D350" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>565</v>
-      </c>
-      <c r="B349" t="s">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>565</v>
+      </c>
+      <c r="B351" t="s">
         <v>639</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D351" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>565</v>
-      </c>
-      <c r="B350" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>565</v>
+      </c>
+      <c r="B352" t="s">
         <v>640</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D352" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>565</v>
-      </c>
-      <c r="B351" t="s">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>565</v>
+      </c>
+      <c r="B353" t="s">
         <v>642</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D353" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>565</v>
-      </c>
-      <c r="B352" t="s">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>565</v>
+      </c>
+      <c r="B354" t="s">
         <v>61</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D354" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>565</v>
-      </c>
-      <c r="B353" t="s">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>565</v>
+      </c>
+      <c r="B355" t="s">
         <v>63</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D355" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>565</v>
-      </c>
-      <c r="B354" t="s">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>565</v>
+      </c>
+      <c r="B356" t="s">
         <v>65</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D356" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>565</v>
-      </c>
-      <c r="B355" t="s">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>565</v>
+      </c>
+      <c r="B357" t="s">
         <v>644</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D357" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>565</v>
-      </c>
-      <c r="B356" t="s">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>565</v>
+      </c>
+      <c r="B358" t="s">
         <v>646</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D358" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>565</v>
-      </c>
-      <c r="B357" t="s">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>565</v>
+      </c>
+      <c r="B359" t="s">
         <v>648</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D359" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>565</v>
-      </c>
-      <c r="B358" t="s">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>565</v>
+      </c>
+      <c r="B360" t="s">
         <v>650</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D360" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>565</v>
-      </c>
-      <c r="B359" t="s">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>565</v>
+      </c>
+      <c r="B361" t="s">
         <v>651</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D361" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>565</v>
-      </c>
-      <c r="B360" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>565</v>
+      </c>
+      <c r="B362" t="s">
         <v>653</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D362" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>565</v>
-      </c>
-      <c r="B361" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>565</v>
+      </c>
+      <c r="B363" t="s">
         <v>654</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D363" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>565</v>
-      </c>
-      <c r="B362" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>565</v>
+      </c>
+      <c r="B364" t="s">
         <v>656</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D364" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>565</v>
-      </c>
-      <c r="B363" t="s">
-        <v>658</v>
-      </c>
-      <c r="D363" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>565</v>
-      </c>
-      <c r="B364" t="s">
-        <v>75</v>
-      </c>
-      <c r="D364" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7565,1692 +7564,1708 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
+        <v>658</v>
+      </c>
+      <c r="D365" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>565</v>
+      </c>
+      <c r="B366" t="s">
+        <v>75</v>
+      </c>
+      <c r="D366" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>565</v>
+      </c>
+      <c r="B367" t="s">
         <v>77</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D367" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>565</v>
-      </c>
-      <c r="B366" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>565</v>
+      </c>
+      <c r="B368" t="s">
         <v>379</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D368" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>565</v>
-      </c>
-      <c r="B367" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>565</v>
+      </c>
+      <c r="B369" t="s">
         <v>660</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D369" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>565</v>
-      </c>
-      <c r="B368" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>565</v>
+      </c>
+      <c r="B370" t="s">
         <v>662</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D370" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>565</v>
-      </c>
-      <c r="B369" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>565</v>
+      </c>
+      <c r="B371" t="s">
         <v>664</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D371" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>565</v>
-      </c>
-      <c r="B370" t="s">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>565</v>
+      </c>
+      <c r="B372" t="s">
         <v>666</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D372" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>565</v>
-      </c>
-      <c r="B371" t="s">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>565</v>
+      </c>
+      <c r="B373" t="s">
         <v>668</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D373" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>565</v>
-      </c>
-      <c r="B372" t="s">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>565</v>
+      </c>
+      <c r="B374" t="s">
         <v>669</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D374" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>565</v>
-      </c>
-      <c r="B373" t="s">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>565</v>
+      </c>
+      <c r="B375" t="s">
         <v>671</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D375" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>565</v>
-      </c>
-      <c r="B374" t="s">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>565</v>
+      </c>
+      <c r="B376" t="s">
         <v>393</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D376" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>565</v>
-      </c>
-      <c r="B375" t="s">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>565</v>
+      </c>
+      <c r="B377" t="s">
         <v>672</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D377" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>565</v>
-      </c>
-      <c r="B376" t="s">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>565</v>
+      </c>
+      <c r="B378" t="s">
         <v>674</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D378" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>565</v>
-      </c>
-      <c r="B377" t="s">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>565</v>
+      </c>
+      <c r="B379" t="s">
         <v>676</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D379" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>565</v>
-      </c>
-      <c r="B378" t="s">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>565</v>
+      </c>
+      <c r="B380" t="s">
         <v>678</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D380" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>565</v>
-      </c>
-      <c r="B379" t="s">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>565</v>
+      </c>
+      <c r="B381" t="s">
         <v>680</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D381" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>565</v>
-      </c>
-      <c r="B380" t="s">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>565</v>
+      </c>
+      <c r="B382" t="s">
         <v>682</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D382" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>565</v>
-      </c>
-      <c r="B381" t="s">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>565</v>
+      </c>
+      <c r="B383" t="s">
         <v>684</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D383" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>565</v>
-      </c>
-      <c r="B382" t="s">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>565</v>
+      </c>
+      <c r="B384" t="s">
         <v>686</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D384" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>565</v>
-      </c>
-      <c r="B383" t="s">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>565</v>
+      </c>
+      <c r="B385" t="s">
         <v>688</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D385" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>565</v>
-      </c>
-      <c r="B384" t="s">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>565</v>
+      </c>
+      <c r="B386" t="s">
         <v>690</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D386" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>565</v>
-      </c>
-      <c r="B385" t="s">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>565</v>
+      </c>
+      <c r="B387" t="s">
         <v>692</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D387" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>565</v>
-      </c>
-      <c r="B386" t="s">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>565</v>
+      </c>
+      <c r="B388" t="s">
         <v>694</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D388" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>565</v>
-      </c>
-      <c r="B387" t="s">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>565</v>
+      </c>
+      <c r="B389" t="s">
         <v>696</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D389" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>565</v>
-      </c>
-      <c r="B388" t="s">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>565</v>
+      </c>
+      <c r="B390" t="s">
         <v>697</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D390" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>565</v>
-      </c>
-      <c r="B389" t="s">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>565</v>
+      </c>
+      <c r="B391" t="s">
         <v>699</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D391" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>565</v>
-      </c>
-      <c r="B390" t="s">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>565</v>
+      </c>
+      <c r="B392" t="s">
         <v>101</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D392" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>565</v>
-      </c>
-      <c r="B391" t="s">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>565</v>
+      </c>
+      <c r="B393" t="s">
         <v>103</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D393" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>565</v>
-      </c>
-      <c r="B392" t="s">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>565</v>
+      </c>
+      <c r="B394" t="s">
         <v>105</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D394" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>565</v>
-      </c>
-      <c r="B393" t="s">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>565</v>
+      </c>
+      <c r="B395" t="s">
         <v>107</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D395" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>565</v>
-      </c>
-      <c r="B394" t="s">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>565</v>
+      </c>
+      <c r="B396" t="s">
         <v>109</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D396" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>565</v>
-      </c>
-      <c r="B395" t="s">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>565</v>
+      </c>
+      <c r="B397" t="s">
         <v>111</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D397" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>565</v>
-      </c>
-      <c r="B396" t="s">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>565</v>
+      </c>
+      <c r="B398" t="s">
         <v>113</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D398" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>565</v>
-      </c>
-      <c r="B397" t="s">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>565</v>
+      </c>
+      <c r="B399" t="s">
         <v>115</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D399" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>565</v>
-      </c>
-      <c r="B398" t="s">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>565</v>
+      </c>
+      <c r="B400" t="s">
         <v>117</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D400" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>565</v>
-      </c>
-      <c r="B399" t="s">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>565</v>
+      </c>
+      <c r="B401" t="s">
         <v>119</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D401" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>565</v>
-      </c>
-      <c r="B400" t="s">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>565</v>
+      </c>
+      <c r="B402" t="s">
         <v>121</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D402" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>565</v>
-      </c>
-      <c r="B401" t="s">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>565</v>
+      </c>
+      <c r="B403" t="s">
         <v>701</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D403" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>565</v>
-      </c>
-      <c r="B402" t="s">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>565</v>
+      </c>
+      <c r="B404" t="s">
         <v>421</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D404" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>565</v>
-      </c>
-      <c r="B403" t="s">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>565</v>
+      </c>
+      <c r="B405" t="s">
         <v>703</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D405" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>565</v>
-      </c>
-      <c r="B404" t="s">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>565</v>
+      </c>
+      <c r="B406" t="s">
         <v>705</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D406" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>565</v>
-      </c>
-      <c r="B405" t="s">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>565</v>
+      </c>
+      <c r="B407" t="s">
         <v>707</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D407" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>565</v>
-      </c>
-      <c r="B406" t="s">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>565</v>
+      </c>
+      <c r="B408" t="s">
         <v>125</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D408" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>565</v>
-      </c>
-      <c r="B407" t="s">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>565</v>
+      </c>
+      <c r="B409" t="s">
         <v>708</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D409" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>565</v>
-      </c>
-      <c r="B408" t="s">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>565</v>
+      </c>
+      <c r="B410" t="s">
         <v>127</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D410" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>565</v>
-      </c>
-      <c r="B409" t="s">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>565</v>
+      </c>
+      <c r="B411" t="s">
         <v>709</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D411" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>565</v>
-      </c>
-      <c r="B410" t="s">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>565</v>
+      </c>
+      <c r="B412" t="s">
         <v>710</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D412" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>565</v>
-      </c>
-      <c r="B411" t="s">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>565</v>
+      </c>
+      <c r="B413" t="s">
         <v>711</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D413" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>565</v>
-      </c>
-      <c r="B412" t="s">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>565</v>
+      </c>
+      <c r="B414" t="s">
         <v>713</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D414" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>565</v>
-      </c>
-      <c r="B413" t="s">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>565</v>
+      </c>
+      <c r="B415" t="s">
         <v>715</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D415" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>565</v>
-      </c>
-      <c r="B414" t="s">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>565</v>
+      </c>
+      <c r="B416" t="s">
         <v>717</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D416" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>565</v>
-      </c>
-      <c r="B415" t="s">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>565</v>
+      </c>
+      <c r="B417" t="s">
         <v>719</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D417" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>565</v>
-      </c>
-      <c r="B416" t="s">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>565</v>
+      </c>
+      <c r="B418" t="s">
         <v>721</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D418" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>565</v>
-      </c>
-      <c r="B417" t="s">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>565</v>
+      </c>
+      <c r="B419" t="s">
         <v>723</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D419" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>565</v>
-      </c>
-      <c r="B418" t="s">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>565</v>
+      </c>
+      <c r="B420" t="s">
         <v>135</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D420" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>565</v>
-      </c>
-      <c r="B419" t="s">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>565</v>
+      </c>
+      <c r="B421" t="s">
         <v>725</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D421" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>565</v>
-      </c>
-      <c r="B420" t="s">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>565</v>
+      </c>
+      <c r="B422" t="s">
         <v>727</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D422" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>565</v>
-      </c>
-      <c r="B421" t="s">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>565</v>
+      </c>
+      <c r="B423" t="s">
         <v>729</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D423" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>565</v>
-      </c>
-      <c r="B422" t="s">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>565</v>
+      </c>
+      <c r="B424" t="s">
         <v>731</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D424" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>565</v>
-      </c>
-      <c r="B423" t="s">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>565</v>
+      </c>
+      <c r="B425" t="s">
         <v>733</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D425" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>565</v>
-      </c>
-      <c r="B424" t="s">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>565</v>
+      </c>
+      <c r="B426" t="s">
         <v>735</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D426" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>565</v>
-      </c>
-      <c r="B425" t="s">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>565</v>
+      </c>
+      <c r="B427" t="s">
         <v>737</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D427" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>565</v>
-      </c>
-      <c r="B426" t="s">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>565</v>
+      </c>
+      <c r="B428" t="s">
         <v>739</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D428" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>565</v>
-      </c>
-      <c r="B427" t="s">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>565</v>
+      </c>
+      <c r="B429" t="s">
         <v>741</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D429" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>565</v>
-      </c>
-      <c r="B428" t="s">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>565</v>
+      </c>
+      <c r="B430" t="s">
         <v>743</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D430" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>565</v>
-      </c>
-      <c r="B429" t="s">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>565</v>
+      </c>
+      <c r="B431" t="s">
         <v>745</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D431" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>565</v>
-      </c>
-      <c r="B430" t="s">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>565</v>
+      </c>
+      <c r="B432" t="s">
         <v>747</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D432" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>565</v>
-      </c>
-      <c r="B431" t="s">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>565</v>
+      </c>
+      <c r="B433" t="s">
         <v>749</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D433" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>565</v>
-      </c>
-      <c r="B432" t="s">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>565</v>
+      </c>
+      <c r="B434" t="s">
         <v>750</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D434" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>565</v>
-      </c>
-      <c r="B433" t="s">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>565</v>
+      </c>
+      <c r="B435" t="s">
         <v>751</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D435" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>565</v>
-      </c>
-      <c r="B434" t="s">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>565</v>
+      </c>
+      <c r="B436" t="s">
         <v>753</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D436" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>565</v>
-      </c>
-      <c r="B435" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>565</v>
+      </c>
+      <c r="B437" t="s">
         <v>755</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D437" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>565</v>
-      </c>
-      <c r="B436" t="s">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>565</v>
+      </c>
+      <c r="B438" t="s">
         <v>757</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D438" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>565</v>
-      </c>
-      <c r="B437" t="s">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>565</v>
+      </c>
+      <c r="B439" t="s">
         <v>759</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D439" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>565</v>
-      </c>
-      <c r="B438" t="s">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>565</v>
+      </c>
+      <c r="B440" t="s">
         <v>448</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D440" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>565</v>
-      </c>
-      <c r="B439" t="s">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>565</v>
+      </c>
+      <c r="B441" t="s">
         <v>459</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D441" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>565</v>
-      </c>
-      <c r="B440" t="s">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>565</v>
+      </c>
+      <c r="B442" t="s">
         <v>460</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D442" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>565</v>
-      </c>
-      <c r="B441" t="s">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>565</v>
+      </c>
+      <c r="B443" t="s">
         <v>761</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D443" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>565</v>
-      </c>
-      <c r="B442" t="s">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>565</v>
+      </c>
+      <c r="B444" t="s">
         <v>762</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D444" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>565</v>
-      </c>
-      <c r="B443" t="s">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>565</v>
+      </c>
+      <c r="B445" t="s">
         <v>764</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D445" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>565</v>
-      </c>
-      <c r="B444" t="s">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>565</v>
+      </c>
+      <c r="B446" t="s">
         <v>766</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D446" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>565</v>
-      </c>
-      <c r="B445" t="s">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>565</v>
+      </c>
+      <c r="B447" t="s">
         <v>768</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D447" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>565</v>
-      </c>
-      <c r="B446" t="s">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>565</v>
+      </c>
+      <c r="B448" t="s">
         <v>770</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D448" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>565</v>
-      </c>
-      <c r="B447" t="s">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>565</v>
+      </c>
+      <c r="B449" t="s">
         <v>772</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D449" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>565</v>
-      </c>
-      <c r="B448" t="s">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>565</v>
+      </c>
+      <c r="B450" t="s">
         <v>774</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D450" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>565</v>
-      </c>
-      <c r="B449" t="s">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>565</v>
+      </c>
+      <c r="B451" t="s">
         <v>470</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D451" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>565</v>
-      </c>
-      <c r="B450" t="s">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>565</v>
+      </c>
+      <c r="B452" t="s">
         <v>776</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D452" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>565</v>
-      </c>
-      <c r="B451" t="s">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>565</v>
+      </c>
+      <c r="B453" t="s">
         <v>778</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D453" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>565</v>
-      </c>
-      <c r="B452" t="s">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>565</v>
+      </c>
+      <c r="B454" t="s">
         <v>780</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D454" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>565</v>
-      </c>
-      <c r="B453" t="s">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>565</v>
+      </c>
+      <c r="B455" t="s">
         <v>472</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D455" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>565</v>
-      </c>
-      <c r="B454" t="s">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>565</v>
+      </c>
+      <c r="B456" t="s">
         <v>782</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D456" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>565</v>
-      </c>
-      <c r="B455" t="s">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>565</v>
+      </c>
+      <c r="B457" t="s">
         <v>156</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D457" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>565</v>
-      </c>
-      <c r="B456" t="s">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>565</v>
+      </c>
+      <c r="B458" t="s">
         <v>784</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D458" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>565</v>
-      </c>
-      <c r="B457" t="s">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>565</v>
+      </c>
+      <c r="B459" t="s">
         <v>785</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D459" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>565</v>
-      </c>
-      <c r="B458" t="s">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>565</v>
+      </c>
+      <c r="B460" t="s">
         <v>787</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D460" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>565</v>
-      </c>
-      <c r="B459" t="s">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>565</v>
+      </c>
+      <c r="B461" t="s">
         <v>789</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D461" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>565</v>
-      </c>
-      <c r="B460" t="s">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>565</v>
+      </c>
+      <c r="B462" t="s">
         <v>791</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D462" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>565</v>
-      </c>
-      <c r="B461" t="s">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>565</v>
+      </c>
+      <c r="B463" t="s">
         <v>793</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D463" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>565</v>
-      </c>
-      <c r="B462" t="s">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>565</v>
+      </c>
+      <c r="B464" t="s">
         <v>795</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D464" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>565</v>
-      </c>
-      <c r="B463" t="s">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>565</v>
+      </c>
+      <c r="B465" t="s">
         <v>484</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D465" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>565</v>
-      </c>
-      <c r="B464" t="s">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>565</v>
+      </c>
+      <c r="B466" t="s">
         <v>487</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D466" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>565</v>
-      </c>
-      <c r="B465" t="s">
-        <v>17</v>
-      </c>
-      <c r="D465" t="s">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>565</v>
+      </c>
+      <c r="B467" t="s">
+        <v>17</v>
+      </c>
+      <c r="D467" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>565</v>
-      </c>
-      <c r="B466" t="s">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>565</v>
+      </c>
+      <c r="B468" t="s">
         <v>507</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D468" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>565</v>
-      </c>
-      <c r="B467" t="s">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>565</v>
+      </c>
+      <c r="B469" t="s">
         <v>797</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D469" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>565</v>
-      </c>
-      <c r="B468" t="s">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>565</v>
+      </c>
+      <c r="B470" t="s">
         <v>799</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D470" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>565</v>
-      </c>
-      <c r="B469" t="s">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>565</v>
+      </c>
+      <c r="B471" t="s">
         <v>801</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D471" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>565</v>
-      </c>
-      <c r="B470" t="s">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>565</v>
+      </c>
+      <c r="B472" t="s">
         <v>803</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D472" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>565</v>
-      </c>
-      <c r="B471" t="s">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>565</v>
+      </c>
+      <c r="B473" t="s">
         <v>805</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D473" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>565</v>
-      </c>
-      <c r="B472" t="s">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>565</v>
+      </c>
+      <c r="B474" t="s">
         <v>807</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D474" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>565</v>
-      </c>
-      <c r="B473" t="s">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>565</v>
+      </c>
+      <c r="B475" t="s">
         <v>809</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D475" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>565</v>
-      </c>
-      <c r="B474" t="s">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>565</v>
+      </c>
+      <c r="B476" t="s">
         <v>519</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D476" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>565</v>
-      </c>
-      <c r="B475" t="s">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>565</v>
+      </c>
+      <c r="B477" t="s">
         <v>178</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D477" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>565</v>
-      </c>
-      <c r="B476" t="s">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>565</v>
+      </c>
+      <c r="B478" t="s">
         <v>180</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D478" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>565</v>
-      </c>
-      <c r="B477" t="s">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>565</v>
+      </c>
+      <c r="B479" t="s">
         <v>182</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D479" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>565</v>
-      </c>
-      <c r="B478" t="s">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>565</v>
+      </c>
+      <c r="B480" t="s">
         <v>811</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D480" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>565</v>
-      </c>
-      <c r="B479" t="s">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>565</v>
+      </c>
+      <c r="B481" t="s">
         <v>813</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D481" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>565</v>
-      </c>
-      <c r="B480" t="s">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>565</v>
+      </c>
+      <c r="B482" t="s">
         <v>187</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D482" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>565</v>
-      </c>
-      <c r="B481" t="s">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>565</v>
+      </c>
+      <c r="B483" t="s">
         <v>815</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D483" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>565</v>
-      </c>
-      <c r="B482" t="s">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>565</v>
+      </c>
+      <c r="B484" t="s">
         <v>817</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D484" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>565</v>
-      </c>
-      <c r="B483" t="s">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>565</v>
+      </c>
+      <c r="B485" t="s">
         <v>819</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D485" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>565</v>
-      </c>
-      <c r="B484" t="s">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>565</v>
+      </c>
+      <c r="B486" t="s">
         <v>821</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D486" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>565</v>
-      </c>
-      <c r="B485" t="s">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>565</v>
+      </c>
+      <c r="B487" t="s">
         <v>823</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D487" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>565</v>
-      </c>
-      <c r="B486" t="s">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>565</v>
+      </c>
+      <c r="B488" t="s">
         <v>825</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D488" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>565</v>
-      </c>
-      <c r="B487" t="s">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>565</v>
+      </c>
+      <c r="B489" t="s">
         <v>827</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D489" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>565</v>
-      </c>
-      <c r="B488" t="s">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>565</v>
+      </c>
+      <c r="B490" t="s">
         <v>829</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D490" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>565</v>
-      </c>
-      <c r="B489" t="s">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>565</v>
+      </c>
+      <c r="B491" t="s">
         <v>831</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D491" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>565</v>
-      </c>
-      <c r="B490" t="s">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>565</v>
+      </c>
+      <c r="B492" t="s">
         <v>833</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D492" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>565</v>
-      </c>
-      <c r="B491" t="s">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>565</v>
+      </c>
+      <c r="B493" t="s">
         <v>196</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D493" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>565</v>
-      </c>
-      <c r="B492" t="s">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>565</v>
+      </c>
+      <c r="B494" t="s">
         <v>835</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D494" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>565</v>
-      </c>
-      <c r="B493" t="s">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>565</v>
+      </c>
+      <c r="B495" t="s">
         <v>837</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D495" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>565</v>
-      </c>
-      <c r="B494" t="s">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>565</v>
+      </c>
+      <c r="B496" t="s">
         <v>839</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D496" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>565</v>
-      </c>
-      <c r="B495" t="s">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>565</v>
+      </c>
+      <c r="B497" t="s">
         <v>841</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D497" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>565</v>
-      </c>
-      <c r="B496" t="s">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>565</v>
+      </c>
+      <c r="B498" t="s">
         <v>843</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D498" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>565</v>
-      </c>
-      <c r="B497" t="s">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>565</v>
+      </c>
+      <c r="B499" t="s">
         <v>845</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D499" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>565</v>
-      </c>
-      <c r="B498" t="s">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>565</v>
+      </c>
+      <c r="B500" t="s">
         <v>847</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D500" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>565</v>
-      </c>
-      <c r="B499" t="s">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>565</v>
+      </c>
+      <c r="B501" t="s">
         <v>849</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D501" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>565</v>
-      </c>
-      <c r="B500" t="s">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>565</v>
+      </c>
+      <c r="B502" t="s">
         <v>851</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D502" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>565</v>
-      </c>
-      <c r="B501" t="s">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>565</v>
+      </c>
+      <c r="B503" t="s">
         <v>853</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D503" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>565</v>
-      </c>
-      <c r="B502" t="s">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>565</v>
+      </c>
+      <c r="B504" t="s">
         <v>855</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D504" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>565</v>
-      </c>
-      <c r="B503" t="s">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>565</v>
+      </c>
+      <c r="B505" t="s">
         <v>857</v>
       </c>
-      <c r="D503" t="s">
+      <c r="D505" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>565</v>
-      </c>
-      <c r="B504" t="s">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>565</v>
+      </c>
+      <c r="B506" t="s">
         <v>859</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D506" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>565</v>
-      </c>
-      <c r="B505" t="s">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>565</v>
+      </c>
+      <c r="B507" t="s">
         <v>861</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D507" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>565</v>
-      </c>
-      <c r="B506" t="s">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>565</v>
+      </c>
+      <c r="B508" t="s">
         <v>863</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D508" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>565</v>
-      </c>
-      <c r="B507" t="s">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>565</v>
+      </c>
+      <c r="B509" t="s">
         <v>865</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D509" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>565</v>
-      </c>
-      <c r="B508" t="s">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>565</v>
+      </c>
+      <c r="B510" t="s">
         <v>867</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D510" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>565</v>
-      </c>
-      <c r="B509" t="s">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>565</v>
+      </c>
+      <c r="B511" t="s">
         <v>869</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D511" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>565</v>
-      </c>
-      <c r="B510" t="s">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>565</v>
+      </c>
+      <c r="B512" t="s">
         <v>871</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D512" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>565</v>
-      </c>
-      <c r="B511" t="s">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>565</v>
+      </c>
+      <c r="B513" t="s">
         <v>873</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D513" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>565</v>
-      </c>
-      <c r="B512" t="s">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>565</v>
+      </c>
+      <c r="B514" t="s">
         <v>875</v>
       </c>
-      <c r="D512" t="s">
+      <c r="D514" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>565</v>
-      </c>
-      <c r="B513" t="s">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>565</v>
+      </c>
+      <c r="B515" t="s">
         <v>877</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D515" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>565</v>
-      </c>
-      <c r="B514" t="s">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>565</v>
+      </c>
+      <c r="B516" t="s">
         <v>879</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D516" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>565</v>
-      </c>
-      <c r="B515" t="s">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>565</v>
+      </c>
+      <c r="B517" t="s">
         <v>881</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D517" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>565</v>
-      </c>
-      <c r="B516" t="s">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>565</v>
+      </c>
+      <c r="B518" t="s">
         <v>883</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D518" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>565</v>
-      </c>
-      <c r="B517" t="s">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>565</v>
+      </c>
+      <c r="B519" t="s">
         <v>885</v>
       </c>
-      <c r="D517" t="s">
+      <c r="D519" t="s">
         <v>886</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D517">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Equals"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D519" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB8D67-56AD-4121-88B4-3295A51BB46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B6C03-641D-4EB2-A6D9-DA2FD95091E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1170" windowWidth="28530" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="1125" windowWidth="23235" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$519</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$522</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="893">
   <si>
     <t>Context</t>
   </si>
@@ -2684,6 +2684,24 @@
   </si>
   <si>
     <t>Oui (la génération sera annulée s'il n'y a pas d'enregistrements)</t>
+  </si>
+  <si>
+    <t>Enter your security code</t>
+  </si>
+  <si>
+    <t>Entrer votre code de sécurité</t>
+  </si>
+  <si>
+    <t>Invalid security code</t>
+  </si>
+  <si>
+    <t>Code sécurité invalide</t>
+  </si>
+  <si>
+    <t>Veuillez trouver votre code pour la connection</t>
+  </si>
+  <si>
+    <t>Please find your authentication code</t>
   </si>
 </sst>
 </file>
@@ -3538,11 +3556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D519"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E234" sqref="E234"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,10 +4469,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>892</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>891</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4462,10 +4480,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4473,10 +4491,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,10 +4502,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,10 +4513,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,10 +4524,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,10 +4535,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4528,10 +4546,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,10 +4557,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,10 +4568,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,10 +4579,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4572,10 +4590,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,10 +4601,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,10 +4612,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,10 +4623,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4616,10 +4634,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,10 +4645,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4638,10 +4656,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,10 +4667,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4660,10 +4678,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,10 +4689,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,10 +4700,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4693,10 +4711,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,10 +4722,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,10 +4733,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,7 +4744,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D107" t="s">
         <v>201</v>
@@ -4737,10 +4755,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,10 +4766,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,10 +4777,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4770,10 +4788,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,10 +4799,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,10 +4810,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,10 +4821,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,10 +4832,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,10 +4843,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,10 +4854,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,10 +4865,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,10 +4876,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4869,10 +4887,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4880,10 +4898,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,10 +4909,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,10 +4920,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,10 +4931,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,10 +4942,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,10 +4953,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4946,10 +4964,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,10 +4975,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,10 +4986,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,10 +4997,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,10 +5008,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,10 +5019,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,10 +5030,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5023,10 +5041,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5034,10 +5052,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,10 +5063,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,10 +5074,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,10 +5085,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,10 +5096,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,10 +5107,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5100,10 +5118,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,10 +5129,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,10 +5140,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,10 +5151,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,10 +5162,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,10 +5173,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,10 +5184,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5177,10 +5195,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5188,21 +5206,21 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,10 +5228,10 @@
         <v>286</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,10 +5239,10 @@
         <v>286</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,10 +5250,10 @@
         <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,10 +5261,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5254,10 +5272,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,10 +5283,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="D156" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5276,10 +5294,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D157" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,10 +5305,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,10 +5316,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,10 +5327,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,10 +5338,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,10 +5349,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,10 +5360,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5353,10 +5371,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,10 +5382,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,10 +5393,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,10 +5404,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,10 +5415,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D168" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5408,10 +5426,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5419,10 +5437,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D170" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,10 +5448,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,10 +5459,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5452,10 +5470,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D173" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,10 +5481,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D174" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,10 +5492,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,10 +5503,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D176" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5496,10 +5514,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D177" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5507,10 +5525,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D178" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,10 +5536,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,10 +5547,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,10 +5558,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D181" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5551,10 +5569,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D182" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,10 +5580,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D183" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5573,10 +5591,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,10 +5602,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D185" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,10 +5613,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,10 +5624,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D187" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,10 +5635,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="D188" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,10 +5646,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,10 +5657,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5650,10 +5668,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,10 +5679,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D192" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,10 +5690,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D193" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,10 +5701,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,10 +5712,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,10 +5723,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D196" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5716,10 +5734,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,10 +5745,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D198" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,10 +5756,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5749,10 +5767,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,10 +5778,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D201" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,10 +5789,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>887</v>
       </c>
       <c r="D202" t="s">
-        <v>382</v>
+        <v>888</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5782,10 +5800,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D203" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,10 +5811,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="D204" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5804,10 +5822,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,10 +5833,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="D206" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,10 +5844,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D207" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,10 +5855,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D208" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5848,10 +5866,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D209" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,10 +5877,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,10 +5888,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D211" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5881,10 +5899,10 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D212" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,10 +5910,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D213" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,10 +5921,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D214" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,10 +5932,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D215" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,10 +5943,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D216" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,10 +5954,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D217" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,10 +5965,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D218" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,10 +5976,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D219" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,10 +5987,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D220" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,10 +5998,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>889</v>
       </c>
       <c r="D221" t="s">
-        <v>416</v>
+        <v>890</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,10 +6009,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D222" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,10 +6020,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D223" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,10 +6031,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D224" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6024,10 +6042,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D225" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6035,10 +6053,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D226" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,10 +6064,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D227" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,10 +6075,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D228" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,10 +6086,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D229" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,10 +6097,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D230" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,10 +6108,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D231" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,10 +6119,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D232" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,10 +6130,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>719</v>
+        <v>432</v>
       </c>
       <c r="D233" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6123,10 +6141,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>721</v>
+        <v>434</v>
       </c>
       <c r="D234" t="s">
-        <v>722</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,10 +6152,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D235" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,10 +6163,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>440</v>
+        <v>719</v>
       </c>
       <c r="D236" t="s">
-        <v>441</v>
+        <v>720</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6156,10 +6174,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>442</v>
+        <v>721</v>
       </c>
       <c r="D237" t="s">
-        <v>443</v>
+        <v>722</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,10 +6185,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D238" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,10 +6196,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D239" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,10 +6207,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D240" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,10 +6218,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D241" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6211,10 +6229,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D242" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6222,10 +6240,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D243" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,10 +6251,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D244" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6244,10 +6262,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D245" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6255,10 +6273,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D246" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6266,10 +6284,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D247" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6277,10 +6295,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D248" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,10 +6306,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D249" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,10 +6317,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D250" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,10 +6328,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D251" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,10 +6339,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D252" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6332,10 +6350,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D253" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6343,10 +6361,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D254" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,10 +6372,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D255" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6365,10 +6383,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D256" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6376,10 +6394,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D257" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,10 +6405,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="D258" t="s">
-        <v>231</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6398,10 +6416,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D259" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6409,10 +6427,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D260" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6420,10 +6438,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>485</v>
+        <v>230</v>
       </c>
       <c r="D261" t="s">
-        <v>486</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6431,10 +6449,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D262" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,10 +6460,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D263" t="s">
-        <v>490</v>
+        <v>351</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6453,10 +6471,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D264" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6464,10 +6482,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D265" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,10 +6493,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D266" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6486,10 +6504,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D267" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6497,10 +6515,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>493</v>
       </c>
       <c r="D268" t="s">
-        <v>164</v>
+        <v>494</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6508,10 +6526,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D269" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,10 +6537,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6530,10 +6548,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="D271" t="s">
-        <v>504</v>
+        <v>164</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,10 +6559,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D272" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6552,10 +6570,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D273" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6563,10 +6581,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D274" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6574,10 +6592,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D275" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6585,10 +6603,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D276" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6596,10 +6614,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D277" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6607,10 +6625,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D278" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6618,10 +6636,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D279" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,10 +6647,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D280" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6640,10 +6658,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D281" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6651,10 +6669,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D282" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6662,10 +6680,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D283" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,10 +6691,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D284" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,10 +6702,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D285" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,10 +6713,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D286" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6706,10 +6724,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D287" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6717,10 +6735,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D288" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6728,10 +6746,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D289" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6739,10 +6757,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D290" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,10 +6768,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D291" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,10 +6779,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D292" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6772,10 +6790,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D293" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6783,10 +6801,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D294" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6794,10 +6812,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D295" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6805,10 +6823,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D296" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,10 +6834,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D297" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,10 +6845,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D298" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6838,10 +6856,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D299" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,10 +6867,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D300" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6860,10 +6878,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D301" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6871,43 +6889,43 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D302" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>21</v>
+        <v>559</v>
       </c>
       <c r="D303" t="s">
-        <v>22</v>
+        <v>560</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D304" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D305" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6915,10 +6933,10 @@
         <v>565</v>
       </c>
       <c r="B306" t="s">
-        <v>570</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>571</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6926,10 +6944,10 @@
         <v>565</v>
       </c>
       <c r="B307" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D307" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6937,10 +6955,10 @@
         <v>565</v>
       </c>
       <c r="B308" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D308" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6948,10 +6966,10 @@
         <v>565</v>
       </c>
       <c r="B309" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D309" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6959,10 +6977,10 @@
         <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D310" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,10 +6988,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D311" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6981,10 +6999,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>30</v>
+        <v>576</v>
       </c>
       <c r="D312" t="s">
-        <v>31</v>
+        <v>577</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6992,10 +7010,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D313" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,10 +7021,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>34</v>
+        <v>580</v>
       </c>
       <c r="D314" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7014,10 +7032,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>583</v>
+        <v>30</v>
       </c>
       <c r="D315" t="s">
-        <v>583</v>
+        <v>31</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7025,10 +7043,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D316" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7036,10 +7054,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>586</v>
+        <v>34</v>
       </c>
       <c r="D317" t="s">
-        <v>587</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7047,10 +7065,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D318" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7058,10 +7076,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>38</v>
+        <v>584</v>
       </c>
       <c r="D319" t="s">
-        <v>39</v>
+        <v>585</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7069,10 +7087,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D320" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7080,10 +7098,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D321" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7091,10 +7109,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>594</v>
+        <v>38</v>
       </c>
       <c r="D322" t="s">
-        <v>595</v>
+        <v>39</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7102,10 +7120,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D323" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7113,10 +7131,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D324" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7124,10 +7142,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D325" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7135,10 +7153,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>44</v>
+        <v>596</v>
       </c>
       <c r="D326" t="s">
-        <v>45</v>
+        <v>597</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7146,10 +7164,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>50</v>
+        <v>598</v>
       </c>
       <c r="D327" t="s">
-        <v>51</v>
+        <v>599</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,10 +7175,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>52</v>
+        <v>600</v>
       </c>
       <c r="D328" t="s">
-        <v>53</v>
+        <v>601</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7168,10 +7186,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D329" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,10 +7197,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>602</v>
+        <v>50</v>
       </c>
       <c r="D330" t="s">
-        <v>603</v>
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7190,10 +7208,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="D331" t="s">
-        <v>605</v>
+        <v>53</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7201,10 +7219,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D332" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7212,10 +7230,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D333" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7223,10 +7241,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D334" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7234,10 +7252,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D335" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7245,10 +7263,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D336" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7256,10 +7274,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D337" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7267,10 +7285,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D338" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7278,10 +7296,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D339" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7289,10 +7307,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D340" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7300,10 +7318,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D341" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,10 +7329,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D342" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7322,10 +7340,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D343" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7333,10 +7351,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
       <c r="D344" t="s">
-        <v>333</v>
+        <v>622</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,10 +7362,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D345" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7355,10 +7373,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D346" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7366,10 +7384,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>631</v>
+        <v>332</v>
       </c>
       <c r="D347" t="s">
-        <v>632</v>
+        <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7377,10 +7395,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D348" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7388,10 +7406,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D349" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7399,10 +7417,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D350" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7410,10 +7428,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D351" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7421,10 +7439,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D352" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,10 +7450,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D353" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7443,10 +7461,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>61</v>
+        <v>639</v>
       </c>
       <c r="D354" t="s">
-        <v>64</v>
+        <v>639</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7454,10 +7472,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>63</v>
+        <v>640</v>
       </c>
       <c r="D355" t="s">
-        <v>66</v>
+        <v>641</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,10 +7483,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="D356" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,10 +7494,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>644</v>
+        <v>61</v>
       </c>
       <c r="D357" t="s">
-        <v>645</v>
+        <v>64</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,10 +7505,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>646</v>
+        <v>63</v>
       </c>
       <c r="D358" t="s">
-        <v>647</v>
+        <v>66</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,10 +7516,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>648</v>
+        <v>65</v>
       </c>
       <c r="D359" t="s">
-        <v>649</v>
+        <v>62</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7509,10 +7527,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D360" t="s">
-        <v>362</v>
+        <v>645</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7520,10 +7538,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D361" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7531,10 +7549,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D362" t="s">
-        <v>175</v>
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7542,10 +7560,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D363" t="s">
-        <v>655</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7553,10 +7571,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D364" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7564,10 +7582,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D365" t="s">
-        <v>659</v>
+        <v>175</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7575,10 +7593,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="D366" t="s">
-        <v>76</v>
+        <v>655</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,10 +7604,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>77</v>
+        <v>656</v>
       </c>
       <c r="D367" t="s">
-        <v>78</v>
+        <v>657</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7597,10 +7615,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>379</v>
+        <v>658</v>
       </c>
       <c r="D368" t="s">
-        <v>380</v>
+        <v>659</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7608,10 +7626,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>660</v>
+        <v>75</v>
       </c>
       <c r="D369" t="s">
-        <v>661</v>
+        <v>76</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,10 +7637,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>662</v>
+        <v>77</v>
       </c>
       <c r="D370" t="s">
-        <v>663</v>
+        <v>78</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7630,10 +7648,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>664</v>
+        <v>379</v>
       </c>
       <c r="D371" t="s">
-        <v>665</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7641,10 +7659,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D372" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7652,10 +7670,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D373" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7663,10 +7681,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D374" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7674,10 +7692,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D375" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,10 +7703,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>393</v>
+        <v>668</v>
       </c>
       <c r="D376" t="s">
-        <v>394</v>
+        <v>668</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7696,10 +7714,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D377" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7707,10 +7725,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D378" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7718,10 +7736,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>676</v>
+        <v>393</v>
       </c>
       <c r="D379" t="s">
-        <v>677</v>
+        <v>394</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7729,10 +7747,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D380" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,10 +7758,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D381" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7751,10 +7769,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D382" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7762,10 +7780,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D383" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,10 +7791,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D384" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7784,10 +7802,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D385" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7795,10 +7813,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D386" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,10 +7824,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D387" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7817,10 +7835,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D388" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7828,10 +7846,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D389" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,10 +7857,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D390" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7850,10 +7868,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D391" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7861,10 +7879,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>101</v>
+        <v>696</v>
       </c>
       <c r="D392" t="s">
-        <v>102</v>
+        <v>696</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7872,10 +7890,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>103</v>
+        <v>697</v>
       </c>
       <c r="D393" t="s">
-        <v>104</v>
+        <v>698</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,10 +7901,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>105</v>
+        <v>699</v>
       </c>
       <c r="D394" t="s">
-        <v>106</v>
+        <v>700</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7894,10 +7912,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D395" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7905,10 +7923,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D396" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7916,10 +7934,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D397" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7927,10 +7945,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D398" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7938,10 +7956,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D399" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7949,10 +7967,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D400" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7960,10 +7978,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D401" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7971,10 +7989,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D402" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -7982,10 +8000,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>701</v>
+        <v>117</v>
       </c>
       <c r="D403" t="s">
-        <v>702</v>
+        <v>118</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7993,10 +8011,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
       <c r="D404" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,10 +8022,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>703</v>
+        <v>121</v>
       </c>
       <c r="D405" t="s">
-        <v>704</v>
+        <v>122</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8015,10 +8033,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D406" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8026,10 +8044,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>707</v>
+        <v>421</v>
       </c>
       <c r="D407" t="s">
-        <v>707</v>
+        <v>422</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8037,10 +8055,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>125</v>
+        <v>703</v>
       </c>
       <c r="D408" t="s">
-        <v>126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,10 +8066,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D409" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8059,10 +8077,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>127</v>
+        <v>707</v>
       </c>
       <c r="D410" t="s">
-        <v>128</v>
+        <v>707</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8070,10 +8088,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>709</v>
+        <v>125</v>
       </c>
       <c r="D411" t="s">
-        <v>709</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8081,10 +8099,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D412" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8092,10 +8110,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>711</v>
+        <v>127</v>
       </c>
       <c r="D413" t="s">
-        <v>712</v>
+        <v>128</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8103,10 +8121,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D414" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,10 +8132,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D415" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8125,10 +8143,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D416" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,10 +8154,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D417" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,10 +8165,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D418" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8158,10 +8176,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D419" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,10 +8187,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>135</v>
+        <v>719</v>
       </c>
       <c r="D420" t="s">
-        <v>136</v>
+        <v>720</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8180,10 +8198,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D421" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8191,10 +8209,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D422" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,10 +8220,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>729</v>
+        <v>135</v>
       </c>
       <c r="D423" t="s">
-        <v>730</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,10 +8231,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D424" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8224,10 +8242,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D425" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,10 +8253,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D426" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8246,10 +8264,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D427" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,10 +8275,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D428" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8268,10 +8286,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D429" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8279,10 +8297,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D430" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8290,10 +8308,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D431" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8301,10 +8319,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D432" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8312,7 +8330,7 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D433" t="s">
         <v>744</v>
@@ -8323,10 +8341,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D434" t="s">
-        <v>605</v>
+        <v>746</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8334,10 +8352,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D435" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8345,10 +8363,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D436" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,10 +8374,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D437" t="s">
-        <v>756</v>
+        <v>605</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8367,10 +8385,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D438" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,10 +8396,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D439" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,10 +8407,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>448</v>
+        <v>755</v>
       </c>
       <c r="D440" t="s">
-        <v>448</v>
+        <v>756</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8400,10 +8418,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>459</v>
+        <v>757</v>
       </c>
       <c r="D441" t="s">
-        <v>459</v>
+        <v>758</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8411,10 +8429,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>460</v>
+        <v>759</v>
       </c>
       <c r="D442" t="s">
-        <v>461</v>
+        <v>760</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,10 +8440,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>761</v>
+        <v>448</v>
       </c>
       <c r="D443" t="s">
-        <v>761</v>
+        <v>448</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8433,10 +8451,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>762</v>
+        <v>459</v>
       </c>
       <c r="D444" t="s">
-        <v>763</v>
+        <v>459</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8444,10 +8462,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>764</v>
+        <v>460</v>
       </c>
       <c r="D445" t="s">
-        <v>765</v>
+        <v>461</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8455,10 +8473,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D446" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8466,10 +8484,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D447" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8477,10 +8495,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D448" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8488,10 +8506,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D449" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8499,10 +8517,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D450" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,10 +8528,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>470</v>
+        <v>770</v>
       </c>
       <c r="D451" t="s">
-        <v>471</v>
+        <v>771</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8521,10 +8539,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D452" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8532,10 +8550,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D453" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,10 +8561,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>780</v>
+        <v>470</v>
       </c>
       <c r="D454" t="s">
-        <v>781</v>
+        <v>471</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8554,10 +8572,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>472</v>
+        <v>776</v>
       </c>
       <c r="D455" t="s">
-        <v>473</v>
+        <v>777</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8565,10 +8583,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D456" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,10 +8594,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D457" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8587,10 +8605,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D458" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8598,10 +8616,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D459" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,10 +8627,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>787</v>
+        <v>156</v>
       </c>
       <c r="D460" t="s">
-        <v>788</v>
+        <v>157</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8620,10 +8638,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D461" t="s">
-        <v>790</v>
+        <v>479</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8631,10 +8649,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D462" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8642,10 +8660,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D463" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8653,10 +8671,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D464" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,10 +8682,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>484</v>
+        <v>791</v>
       </c>
       <c r="D465" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,10 +8693,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>487</v>
+        <v>793</v>
       </c>
       <c r="D466" t="s">
-        <v>488</v>
+        <v>794</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8686,10 +8704,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>17</v>
+        <v>795</v>
       </c>
       <c r="D467" t="s">
-        <v>164</v>
+        <v>795</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,10 +8715,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D468" t="s">
-        <v>508</v>
+        <v>796</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,10 +8726,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>797</v>
+        <v>487</v>
       </c>
       <c r="D469" t="s">
-        <v>798</v>
+        <v>488</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,10 +8737,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>799</v>
+        <v>17</v>
       </c>
       <c r="D470" t="s">
-        <v>800</v>
+        <v>164</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8730,10 +8748,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>801</v>
+        <v>507</v>
       </c>
       <c r="D471" t="s">
-        <v>802</v>
+        <v>508</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8741,10 +8759,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D472" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8752,10 +8770,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D473" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8763,10 +8781,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D474" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,10 +8792,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D475" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8785,10 +8803,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>519</v>
+        <v>805</v>
       </c>
       <c r="D476" t="s">
-        <v>520</v>
+        <v>806</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8796,10 +8814,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>178</v>
+        <v>807</v>
       </c>
       <c r="D477" t="s">
-        <v>179</v>
+        <v>808</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8807,10 +8825,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>180</v>
+        <v>809</v>
       </c>
       <c r="D478" t="s">
-        <v>181</v>
+        <v>810</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8818,10 +8836,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>182</v>
+        <v>519</v>
       </c>
       <c r="D479" t="s">
-        <v>33</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,10 +8847,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>811</v>
+        <v>178</v>
       </c>
       <c r="D480" t="s">
-        <v>812</v>
+        <v>179</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,10 +8858,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>813</v>
+        <v>180</v>
       </c>
       <c r="D481" t="s">
-        <v>814</v>
+        <v>181</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,10 +8869,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D482" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8862,10 +8880,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D483" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8873,10 +8891,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D484" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,10 +8902,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>819</v>
+        <v>187</v>
       </c>
       <c r="D485" t="s">
-        <v>820</v>
+        <v>188</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8895,10 +8913,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D486" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,10 +8924,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D487" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8917,10 +8935,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="D488" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8928,10 +8946,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D489" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8939,10 +8957,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D490" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8950,10 +8968,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D491" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,10 +8979,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D492" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8972,10 +8990,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>196</v>
+        <v>829</v>
       </c>
       <c r="D493" t="s">
-        <v>197</v>
+        <v>830</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -8983,10 +9001,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D494" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -8994,10 +9012,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D495" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9005,10 +9023,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>839</v>
+        <v>196</v>
       </c>
       <c r="D496" t="s">
-        <v>840</v>
+        <v>197</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,10 +9034,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="D497" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9027,10 +9045,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D498" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9038,10 +9056,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D499" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9049,10 +9067,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="D500" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9060,10 +9078,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D501" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9071,10 +9089,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D502" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9082,10 +9100,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D503" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9093,10 +9111,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D504" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9104,10 +9122,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D505" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9115,10 +9133,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D506" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,10 +9144,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D507" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9137,10 +9155,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D508" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9148,10 +9166,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D509" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9159,10 +9177,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="D510" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9170,10 +9188,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="D511" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9181,10 +9199,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D512" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9192,10 +9210,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D513" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9203,10 +9221,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D514" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,10 +9232,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D515" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9225,10 +9243,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D516" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9236,10 +9254,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D517" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9247,10 +9265,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D518" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9258,14 +9276,47 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
+        <v>879</v>
+      </c>
+      <c r="D519" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>565</v>
+      </c>
+      <c r="B520" t="s">
+        <v>881</v>
+      </c>
+      <c r="D520" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>565</v>
+      </c>
+      <c r="B521" t="s">
+        <v>883</v>
+      </c>
+      <c r="D521" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>565</v>
+      </c>
+      <c r="B522" t="s">
         <v>885</v>
       </c>
-      <c r="D519" t="s">
+      <c r="D522" t="s">
         <v>886</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D519" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D522" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B6C03-641D-4EB2-A6D9-DA2FD95091E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEF7BE-C122-4E93-8EBF-C0D527C888DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="1125" windowWidth="23235" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$523</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="895">
   <si>
     <t>Context</t>
   </si>
@@ -2702,6 +2702,12 @@
   </si>
   <si>
     <t>Please find your authentication code</t>
+  </si>
+  <si>
+    <t>Please enter at least a value</t>
+  </si>
+  <si>
+    <t>Veuillez entrer au moins une valeur</t>
   </si>
 </sst>
 </file>
@@ -3556,11 +3562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D522"/>
+  <dimension ref="A1:D523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,10 +3661,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,10 +3672,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,10 +3683,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,10 +3760,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,10 +3771,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,10 +3870,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,10 +3881,10 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,10 +3892,10 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,10 +3903,10 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,10 +3914,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,10 +3925,10 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3930,10 +3936,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,10 +3947,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,10 +3958,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,10 +3969,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,10 +3980,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,10 +3991,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,10 +4002,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,10 +4013,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,10 +4024,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,10 +4035,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,10 +4046,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,10 +4057,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,10 +4068,10 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4073,10 +4079,10 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,10 +4090,10 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,10 +4101,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,10 +4112,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,10 +4123,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,10 +4134,10 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,10 +4145,10 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,10 +4156,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,10 +4167,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,10 +4178,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,10 +4189,10 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4194,10 +4200,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,10 +4211,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,10 +4222,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,10 +4233,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,10 +4244,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,10 +4255,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,10 +4266,10 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,10 +4277,10 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,10 +4288,10 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,10 +4299,10 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,10 +4310,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,10 +4321,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,10 +4332,10 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,10 +4343,10 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4348,10 +4354,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,10 +4365,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,10 +4376,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,10 +4387,10 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,10 +4398,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,10 +4409,10 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,10 +4420,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,10 +4431,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,10 +4442,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,10 +4453,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,10 +4464,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,10 +4475,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>892</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>891</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,10 +4486,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4491,10 +4497,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4502,10 +4508,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4513,10 +4519,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,10 +4530,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,10 +4541,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4546,10 +4552,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,10 +4563,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,10 +4574,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,10 +4585,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,10 +4596,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>893</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>894</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,10 +4607,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,10 +4618,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>892</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>891</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,10 +4629,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,10 +4640,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="D97" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,10 +4651,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,10 +4662,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4667,10 +4673,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,10 +4684,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D101" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,10 +4695,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,10 +4706,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,10 +4717,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4722,10 +4728,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,10 +4739,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,10 +4750,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,10 +4761,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,10 +4772,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,10 +4783,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,10 +4794,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,10 +4805,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D112" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4810,10 +4816,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4821,10 +4827,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,10 +4838,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,10 +4849,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4854,10 +4860,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="D117" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,10 +4871,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,10 +4882,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,10 +4893,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D120" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,10 +4904,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,10 +4915,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,10 +4926,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,10 +4937,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,10 +4948,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D125" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,10 +4959,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="D126" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4964,10 +4970,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="D127" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4975,10 +4981,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,10 +4992,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,10 +5003,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,10 +5014,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,10 +5025,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="D132" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,10 +5036,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,10 +5047,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="D134" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,10 +5058,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,10 +5069,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,10 +5080,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,10 +5091,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,10 +5102,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,10 +5113,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="D140" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5118,10 +5124,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,10 +5135,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="D142" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,10 +5146,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,10 +5157,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="D144" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5162,10 +5168,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D145" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,10 +5179,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,10 +5190,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,10 +5201,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,10 +5212,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,21 +5223,21 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="D150" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,10 +5245,10 @@
         <v>286</v>
       </c>
       <c r="B152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,10 +5256,10 @@
         <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5261,10 +5267,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5272,10 +5278,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D155" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,10 +5289,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,10 +5300,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,10 +5311,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5316,10 +5322,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,10 +5333,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D160" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,10 +5344,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,10 +5355,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,10 +5366,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,10 +5377,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D164" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,10 +5388,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,10 +5399,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D166" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5404,10 +5410,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D167" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,10 +5421,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D168" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5426,10 +5432,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,10 +5443,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,10 +5454,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5503,10 +5509,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D176" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,10 +5520,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6350,10 +6356,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D253" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6361,10 +6367,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D254" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,10 +6378,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D255" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6383,10 +6389,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D256" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6394,10 +6400,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D257" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,10 +6411,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D258" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6416,10 +6422,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D259" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6427,10 +6433,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D260" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +6444,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D261" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,10 +6455,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D262" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,10 +6466,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D263" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,10 +6477,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D264" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6482,10 +6488,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D265" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6493,10 +6499,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D266" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6504,10 +6510,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D267" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6515,10 +6521,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D268" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6526,10 +6532,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D269" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,10 +6543,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D270" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6548,10 +6554,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D271" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,10 +6565,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D272" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6570,10 +6576,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D273" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6581,10 +6587,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D274" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,10 +6598,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D275" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6603,10 +6609,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D276" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6614,10 +6620,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D277" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,10 +6631,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D278" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6636,10 +6642,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D279" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6647,10 +6653,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D280" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6658,10 +6664,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D281" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,10 +6675,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D282" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6680,10 +6686,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D283" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,10 +6697,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D284" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6702,10 +6708,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D285" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,10 +6719,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D286" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6724,10 +6730,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D287" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6735,10 +6741,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D288" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6746,10 +6752,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D289" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,10 +6763,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D290" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6768,10 +6774,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D291" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,10 +6785,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D292" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6790,10 +6796,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D293" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6801,10 +6807,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D294" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6812,10 +6818,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D295" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6823,10 +6829,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D296" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,10 +6840,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D297" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6845,10 +6851,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D298" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6856,10 +6862,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D299" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6867,10 +6873,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D300" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6878,10 +6884,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D301" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,10 +6906,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D303" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6911,10 +6917,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D304" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6930,13 +6936,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D306" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6944,10 +6950,10 @@
         <v>565</v>
       </c>
       <c r="B307" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6955,10 +6961,10 @@
         <v>565</v>
       </c>
       <c r="B308" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D308" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6966,10 +6972,10 @@
         <v>565</v>
       </c>
       <c r="B309" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D309" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6977,10 +6983,10 @@
         <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D310" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6988,10 +6994,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D311" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,10 +7005,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D312" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7010,10 +7016,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D313" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7021,10 +7027,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D314" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,10 +7038,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D315" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7043,10 +7049,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D316" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7054,10 +7060,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D317" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7065,10 +7071,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D318" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7076,10 +7082,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D319" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,10 +7093,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D320" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7098,10 +7104,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D321" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7109,10 +7115,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D322" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7120,10 +7126,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D323" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7131,10 +7137,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D324" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7142,10 +7148,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D325" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7153,10 +7159,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D326" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,10 +7170,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D327" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7175,10 +7181,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D328" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7186,10 +7192,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D329" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7197,10 +7203,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D330" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7208,10 +7214,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>52</v>
+        <v>627</v>
       </c>
       <c r="D331" t="s">
-        <v>53</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7219,10 +7225,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D332" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7230,10 +7236,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="D333" t="s">
-        <v>603</v>
+        <v>55</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,10 +7247,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="D334" t="s">
-        <v>605</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7252,10 +7258,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>56</v>
+        <v>602</v>
       </c>
       <c r="D335" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7263,10 +7269,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D336" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7274,10 +7280,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>608</v>
+        <v>56</v>
       </c>
       <c r="D337" t="s">
-        <v>609</v>
+        <v>57</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7296,10 +7302,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D339" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7307,10 +7313,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D340" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7318,10 +7324,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D341" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7329,10 +7335,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D342" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7340,10 +7346,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>619</v>
+        <v>332</v>
       </c>
       <c r="D343" t="s">
-        <v>620</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7351,10 +7357,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D344" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,10 +7368,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D345" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7373,10 +7379,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D346" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7384,10 +7390,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>621</v>
       </c>
       <c r="D347" t="s">
-        <v>333</v>
+        <v>622</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,10 +7401,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D348" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7406,10 +7412,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D349" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7417,10 +7423,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D350" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7428,10 +7434,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D351" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7439,10 +7445,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D352" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7450,10 +7456,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D353" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7461,10 +7467,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D354" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7472,10 +7478,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D355" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7483,10 +7489,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D356" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7494,10 +7500,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D357" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7505,10 +7511,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D358" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7527,10 +7533,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D360" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7538,10 +7544,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D361" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,10 +7555,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D362" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7560,10 +7566,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D363" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7571,10 +7577,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D364" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7582,10 +7588,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D365" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7593,10 +7599,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D366" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7604,10 +7610,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D367" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7615,10 +7621,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D368" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7626,10 +7632,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D369" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7637,10 +7643,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D370" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7648,10 +7654,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D371" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7659,10 +7665,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>660</v>
+        <v>379</v>
       </c>
       <c r="D372" t="s">
-        <v>661</v>
+        <v>380</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7670,10 +7676,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D373" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7681,10 +7687,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D374" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7692,10 +7698,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D375" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,10 +7709,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D376" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7714,10 +7720,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D377" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7725,10 +7731,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D378" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7736,10 +7742,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D379" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7747,10 +7753,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D380" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7758,10 +7764,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D381" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,10 +7775,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D382" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,10 +7786,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D383" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7791,10 +7797,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D384" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7802,10 +7808,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D385" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7813,10 +7819,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D386" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,10 +7830,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D387" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7835,10 +7841,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D388" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7846,10 +7852,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D389" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,10 +7863,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D390" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7868,10 +7874,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D391" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7879,10 +7885,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D392" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7890,10 +7896,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D393" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7901,10 +7907,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D394" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7912,10 +7918,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D395" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,10 +7929,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D396" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,10 +7940,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D397" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7945,10 +7951,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D398" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7956,10 +7962,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D399" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7967,10 +7973,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D400" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7978,10 +7984,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D401" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7989,10 +7995,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D402" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8000,10 +8006,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D403" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,10 +8017,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D404" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8022,10 +8028,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D405" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8033,10 +8039,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>701</v>
+        <v>121</v>
       </c>
       <c r="D406" t="s">
-        <v>702</v>
+        <v>122</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8055,10 +8061,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D408" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8066,10 +8072,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D409" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8077,10 +8083,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D410" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8088,10 +8094,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D411" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8099,10 +8105,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D412" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8110,10 +8116,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D413" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8121,10 +8127,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D414" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8132,10 +8138,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D415" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8143,10 +8149,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D416" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8154,10 +8160,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D417" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,10 +8171,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D418" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8176,10 +8182,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D419" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,10 +8215,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D422" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8220,10 +8226,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D423" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,10 +8237,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D424" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8242,10 +8248,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D425" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8253,10 +8259,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D426" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8264,10 +8270,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D427" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8275,10 +8281,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D428" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8286,10 +8292,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D429" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8297,10 +8303,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D430" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8308,10 +8314,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D431" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,10 +8325,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D432" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8330,10 +8336,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D433" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8341,10 +8347,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D434" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,10 +8358,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D435" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,10 +8369,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D436" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8374,10 +8380,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D437" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8385,10 +8391,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D438" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8396,10 +8402,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D439" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8407,10 +8413,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D440" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8418,10 +8424,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D441" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8429,10 +8435,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D442" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8451,10 +8457,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D444" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8462,10 +8468,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D445" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8473,10 +8479,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D446" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8484,10 +8490,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D447" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8495,10 +8501,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D448" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8506,10 +8512,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D449" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8517,10 +8523,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D450" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8528,10 +8534,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D451" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8539,10 +8545,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D452" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8550,10 +8556,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D453" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8561,10 +8567,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="D454" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8572,10 +8578,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D455" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8583,10 +8589,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>778</v>
+        <v>470</v>
       </c>
       <c r="D456" t="s">
-        <v>779</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8594,10 +8600,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D457" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8605,10 +8611,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>472</v>
+        <v>778</v>
       </c>
       <c r="D458" t="s">
-        <v>473</v>
+        <v>779</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8616,10 +8622,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D459" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,10 +8644,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D461" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8649,10 +8655,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D462" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8660,10 +8666,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D463" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8671,10 +8677,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D464" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8682,10 +8688,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D465" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,10 +8699,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D466" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8704,10 +8710,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D467" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8715,10 +8721,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D468" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8726,10 +8732,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D469" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8737,10 +8743,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D470" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8748,10 +8754,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>507</v>
+        <v>17</v>
       </c>
       <c r="D471" t="s">
-        <v>508</v>
+        <v>164</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8825,10 +8831,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D478" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,10 +8842,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D479" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8847,10 +8853,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D480" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,10 +8864,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D481" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8869,10 +8875,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D482" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8880,10 +8886,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D483" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8891,10 +8897,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D484" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8902,10 +8908,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D485" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8913,10 +8919,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D486" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8924,10 +8930,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D487" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8935,10 +8941,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D488" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8946,10 +8952,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D489" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8957,10 +8963,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D490" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8968,10 +8974,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D491" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8979,10 +8985,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D492" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8990,10 +8996,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D493" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9001,10 +9007,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D494" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9012,10 +9018,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D495" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9023,10 +9029,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D496" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9034,10 +9040,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D497" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9045,10 +9051,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D498" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9056,10 +9062,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D499" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9067,10 +9073,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D500" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9078,10 +9084,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D501" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9089,10 +9095,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D502" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9100,10 +9106,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D503" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9111,10 +9117,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D504" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9122,10 +9128,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D505" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9133,10 +9139,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D506" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9144,10 +9150,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D507" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9155,10 +9161,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D508" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9166,10 +9172,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D509" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9177,10 +9183,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D510" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9188,10 +9194,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D511" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9199,10 +9205,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D512" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9210,10 +9216,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D513" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9221,10 +9227,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D514" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9232,10 +9238,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D515" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +9249,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D516" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9254,10 +9260,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D517" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9265,10 +9271,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D518" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9276,10 +9282,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D519" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9298,10 +9304,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D521" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9309,14 +9315,30 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D522" t="s">
-        <v>886</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>565</v>
+      </c>
+      <c r="B523" t="s">
+        <v>883</v>
+      </c>
+      <c r="D523" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D522" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D523" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D523">
+      <sortCondition ref="A2:A523"/>
+      <sortCondition ref="B2:B523"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEF7BE-C122-4E93-8EBF-C0D527C888DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD3AB7-9063-4E8B-B4DF-AEAFB34BE829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="420" windowWidth="23535" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$524</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="897">
   <si>
     <t>Context</t>
   </si>
@@ -2698,9 +2698,6 @@
     <t>Code sécurité invalide</t>
   </si>
   <si>
-    <t>Veuillez trouver votre code pour la connection</t>
-  </si>
-  <si>
     <t>Please find your authentication code</t>
   </si>
   <si>
@@ -2708,6 +2705,15 @@
   </si>
   <si>
     <t>Veuillez entrer au moins une valeur</t>
+  </si>
+  <si>
+    <t>Two-Factor Authentication</t>
+  </si>
+  <si>
+    <t>Authentification 2-Facteurs</t>
+  </si>
+  <si>
+    <t>Veuillez trouver votre code pour la connexion</t>
   </si>
 </sst>
 </file>
@@ -3562,11 +3568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D523"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,10 +4602,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
+        <v>892</v>
+      </c>
+      <c r="D93" t="s">
         <v>893</v>
-      </c>
-      <c r="D93" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,10 +4624,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D95" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -6851,10 +6857,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D298" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6862,10 +6868,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D299" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,10 +6879,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D300" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6884,10 +6890,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D301" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,10 +6901,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D302" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,10 +6912,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D303" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6917,10 +6923,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D304" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,10 +6934,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D305" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,21 +6945,21 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D306" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D307" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,10 +6967,10 @@
         <v>565</v>
       </c>
       <c r="B308" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D308" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,10 +6978,10 @@
         <v>565</v>
       </c>
       <c r="B309" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D309" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,10 +6989,10 @@
         <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D310" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6994,10 +7000,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D311" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,10 +7011,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D312" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7016,10 +7022,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D313" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,10 +7033,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D314" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,10 +7044,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D315" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7049,10 +7055,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D316" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,10 +7066,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D317" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7071,10 +7077,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D318" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,10 +7088,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D319" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,10 +7099,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D320" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,10 +7110,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D321" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7121,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D322" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7126,10 +7132,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D323" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7137,10 +7143,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D324" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,10 +7154,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D325" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7159,10 +7165,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D326" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,10 +7176,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D327" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,10 +7187,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D328" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7192,10 +7198,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D329" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,10 +7209,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D330" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7214,10 +7220,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D331" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7225,10 +7231,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D332" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,10 +7242,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D333" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,10 +7253,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D334" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7258,10 +7264,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D335" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7275,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D336" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7280,10 +7286,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D337" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7291,10 +7297,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D338" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,10 +7308,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D339" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7313,10 +7319,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D340" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,10 +7330,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D341" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,10 +7341,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D342" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7346,10 +7352,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D343" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,10 +7363,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D344" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7368,10 +7374,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D345" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7379,10 +7385,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D346" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,10 +7396,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D347" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,10 +7407,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D348" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7412,10 +7418,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D349" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7429,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D350" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,10 +7440,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D351" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7445,10 +7451,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D352" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7456,10 +7462,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D353" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7467,10 +7473,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D354" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7478,10 +7484,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D355" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,10 +7495,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D356" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,10 +7506,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D357" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,10 +7517,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D358" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7522,10 +7528,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D359" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7533,10 +7539,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D360" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,10 +7550,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D361" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7555,10 +7561,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D362" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7566,10 +7572,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D363" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7583,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D364" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,10 +7594,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D365" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,10 +7605,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D366" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7610,10 +7616,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D367" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7621,10 +7627,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D368" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,10 +7638,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D369" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,10 +7649,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D370" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7654,10 +7660,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D371" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7665,10 +7671,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D372" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7676,10 +7682,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D373" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7687,10 +7693,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D374" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,10 +7704,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D375" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7709,7 +7715,7 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D376" t="s">
         <v>661</v>
@@ -7720,10 +7726,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D377" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7737,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D378" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7742,10 +7748,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D379" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7753,10 +7759,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D380" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,10 +7770,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D381" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7775,10 +7781,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D382" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,10 +7792,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D383" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7797,10 +7803,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D384" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7808,10 +7814,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D385" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7819,10 +7825,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D386" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7830,10 +7836,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D387" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7841,10 +7847,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D388" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7852,10 +7858,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D389" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7863,10 +7869,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D390" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7874,10 +7880,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D391" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7885,10 +7891,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D392" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,10 +7902,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D393" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7907,10 +7913,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D394" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7918,10 +7924,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D395" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,10 +7935,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D396" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7940,10 +7946,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D397" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,10 +7957,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D398" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,10 +7968,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D399" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,10 +7979,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D400" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7984,10 +7990,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D401" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -7995,10 +8001,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D402" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,10 +8012,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D403" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8017,10 +8023,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D404" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8028,10 +8034,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D405" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,10 +8045,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D406" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8050,10 +8056,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D407" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8061,10 +8067,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D408" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,10 +8078,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D409" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8083,10 +8089,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D410" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8094,10 +8100,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D411" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8105,10 +8111,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D412" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8116,10 +8122,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D413" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8127,10 +8133,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D414" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8138,10 +8144,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D415" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,10 +8155,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D416" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,10 +8166,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D417" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,10 +8177,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D418" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,10 +8188,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D419" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8199,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D420" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,10 +8210,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D421" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8215,10 +8221,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D422" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,10 +8232,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D423" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8237,10 +8243,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D424" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,10 +8254,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D425" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,10 +8265,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D426" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8270,10 +8276,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D427" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8281,10 +8287,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D428" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8292,10 +8298,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D429" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,10 +8309,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D430" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8314,10 +8320,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D431" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8325,10 +8331,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D432" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8336,10 +8342,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D433" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8347,10 +8353,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D434" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,10 +8364,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D435" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8369,10 +8375,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D436" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8380,10 +8386,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D437" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8391,10 +8397,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D438" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8402,10 +8408,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D439" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,10 +8419,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D440" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,10 +8430,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D441" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,10 +8441,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D442" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,10 +8452,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D443" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,10 +8463,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D444" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8474,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D445" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8479,10 +8485,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D446" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,10 +8496,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D447" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8501,10 +8507,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D448" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8512,10 +8518,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D449" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,10 +8529,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D450" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,10 +8540,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D451" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8545,10 +8551,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D452" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8556,10 +8562,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D453" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,10 +8573,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D454" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,10 +8584,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D455" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,10 +8595,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D456" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8600,10 +8606,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D457" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8611,10 +8617,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D458" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8622,10 +8628,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D459" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,10 +8639,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D460" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8644,10 +8650,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D461" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8655,10 +8661,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D462" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,10 +8672,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D463" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,10 +8683,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D464" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8688,10 +8694,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D465" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8699,10 +8705,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D466" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8710,10 +8716,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D467" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8721,10 +8727,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D468" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,10 +8738,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D469" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8743,10 +8749,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D470" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8754,10 +8760,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D471" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8765,10 +8771,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D472" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,10 +8782,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D473" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8787,10 +8793,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D474" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8798,10 +8804,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D475" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8809,10 +8815,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D476" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,10 +8826,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D477" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8831,10 +8837,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D478" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,10 +8848,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D479" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8853,10 +8859,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D480" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8864,10 +8870,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D481" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8875,10 +8881,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D482" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,10 +8892,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D483" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8897,10 +8903,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D484" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8908,10 +8914,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D485" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8919,10 +8925,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D486" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8930,10 +8936,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D487" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8941,10 +8947,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D488" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8952,10 +8958,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D489" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8963,10 +8969,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D490" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8974,10 +8980,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D491" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8985,10 +8991,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D492" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -8996,10 +9002,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D493" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9007,10 +9013,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D494" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,10 +9024,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D495" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9029,10 +9035,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D496" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9040,10 +9046,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D497" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9051,10 +9057,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D498" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9062,10 +9068,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D499" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9073,10 +9079,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D500" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9084,10 +9090,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D501" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9095,10 +9101,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D502" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9106,10 +9112,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D503" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9117,10 +9123,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D504" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9128,10 +9134,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D505" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9139,10 +9145,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D506" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9150,10 +9156,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D507" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9161,10 +9167,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D508" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9172,10 +9178,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D509" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,10 +9189,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D510" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9194,10 +9200,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D511" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9205,10 +9211,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D512" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9216,10 +9222,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D513" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9227,10 +9233,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D514" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9238,10 +9244,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D515" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9249,10 +9255,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D516" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9260,10 +9266,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D517" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,10 +9277,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D518" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9282,10 +9288,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D519" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9293,10 +9299,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D520" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9304,10 +9310,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D521" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9315,10 +9321,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D522" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9326,17 +9332,28 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
+        <v>879</v>
+      </c>
+      <c r="D523" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>565</v>
+      </c>
+      <c r="B524" t="s">
         <v>883</v>
       </c>
-      <c r="D523" t="s">
+      <c r="D524" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D523" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D523">
-      <sortCondition ref="A2:A523"/>
-      <sortCondition ref="B2:B523"/>
+  <autoFilter ref="A1:D524" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D524">
+      <sortCondition ref="A2:A524"/>
+      <sortCondition ref="B2:B524"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD3AB7-9063-4E8B-B4DF-AEAFB34BE829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C37255-A261-4E12-8684-78F0CFEF6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="420" windowWidth="23535" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1230" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$524</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$525</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="899">
   <si>
     <t>Context</t>
   </si>
@@ -2714,6 +2714,12 @@
   </si>
   <si>
     <t>Veuillez trouver votre code pour la connexion</t>
+  </si>
+  <si>
+    <t>Security code</t>
+  </si>
+  <si>
+    <t>Code de sécurité</t>
   </si>
 </sst>
 </file>
@@ -3568,11 +3574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6703,10 +6709,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>521</v>
+        <v>897</v>
       </c>
       <c r="D284" t="s">
-        <v>522</v>
+        <v>898</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6714,10 +6720,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D285" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6725,10 +6731,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D286" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6736,10 +6742,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D287" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6747,10 +6753,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D288" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6758,10 +6764,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D289" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,10 +6775,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D290" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,10 +6786,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D291" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6791,10 +6797,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D292" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6802,10 +6808,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D293" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6813,10 +6819,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D294" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6824,10 +6830,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D295" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,10 +6841,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D296" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6846,10 +6852,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D297" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6857,10 +6863,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="D298" t="s">
-        <v>895</v>
+        <v>546</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6868,10 +6874,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D299" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6879,10 +6885,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D300" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6890,10 +6896,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D301" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6901,10 +6907,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D302" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6912,10 +6918,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D303" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6923,10 +6929,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D304" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6934,10 +6940,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D305" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6945,10 +6951,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D306" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6956,21 +6962,21 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D307" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D308" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6978,10 +6984,10 @@
         <v>565</v>
       </c>
       <c r="B309" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,10 +6995,10 @@
         <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D310" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7000,10 +7006,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D311" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7011,10 +7017,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D312" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7022,10 +7028,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D313" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7033,10 +7039,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D314" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,10 +7050,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D315" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7055,10 +7061,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D316" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7066,10 +7072,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D317" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7077,10 +7083,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D318" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7088,10 +7094,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D319" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7099,10 +7105,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D320" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7110,10 +7116,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D321" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7121,10 +7127,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D322" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7132,10 +7138,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D323" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,10 +7149,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D324" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7154,10 +7160,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D325" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7165,10 +7171,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D326" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7176,10 +7182,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D327" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7187,10 +7193,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D328" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7198,10 +7204,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D329" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,10 +7215,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D330" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7220,10 +7226,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D331" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7231,10 +7237,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D332" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7242,10 +7248,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D333" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7253,10 +7259,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D334" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7264,10 +7270,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D335" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7275,10 +7281,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D336" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7286,10 +7292,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D337" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,10 +7303,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D338" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7308,10 +7314,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D339" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7319,10 +7325,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D340" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7330,10 +7336,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D341" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7341,10 +7347,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D342" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7352,10 +7358,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D343" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,10 +7369,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D344" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7374,10 +7380,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D345" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7385,10 +7391,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D346" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7396,10 +7402,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D347" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7407,10 +7413,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D348" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,10 +7424,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D349" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,10 +7435,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D350" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7440,10 +7446,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D351" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,10 +7457,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D352" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7462,10 +7468,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D353" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7473,10 +7479,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D354" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7484,10 +7490,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D355" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7495,10 +7501,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D356" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,10 +7512,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D357" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7517,10 +7523,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D358" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7528,10 +7534,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D359" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7539,10 +7545,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D360" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7550,10 +7556,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D361" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7561,10 +7567,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D362" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7572,10 +7578,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D363" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7583,10 +7589,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D364" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7594,10 +7600,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D365" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7605,10 +7611,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D366" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7616,10 +7622,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D367" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7627,10 +7633,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D368" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7638,10 +7644,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D369" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7649,10 +7655,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D370" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7660,10 +7666,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D371" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,10 +7677,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D372" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7682,10 +7688,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D373" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7693,10 +7699,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D374" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,10 +7710,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D375" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7715,10 +7721,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D376" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7726,7 +7732,7 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D377" t="s">
         <v>661</v>
@@ -7737,10 +7743,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D378" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7748,10 +7754,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D379" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,10 +7765,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D380" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7770,10 +7776,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D381" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7781,10 +7787,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D382" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7792,10 +7798,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D383" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7803,10 +7809,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D384" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7814,10 +7820,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D385" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7825,10 +7831,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D386" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,10 +7842,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D387" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,10 +7853,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D388" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7858,10 +7864,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D389" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7869,10 +7875,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D390" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7880,10 +7886,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D391" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7891,10 +7897,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D392" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7902,10 +7908,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D393" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7913,10 +7919,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D394" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7924,10 +7930,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D395" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7935,10 +7941,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D396" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7946,10 +7952,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D397" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7957,10 +7963,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D398" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7968,10 +7974,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D399" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7979,10 +7985,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D400" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7990,10 +7996,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D401" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8001,10 +8007,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D402" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8012,10 +8018,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D403" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8023,10 +8029,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D404" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8034,10 +8040,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D405" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8045,10 +8051,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D406" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8056,10 +8062,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D407" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8067,10 +8073,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D408" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8078,10 +8084,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D409" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8089,10 +8095,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D410" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8100,10 +8106,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D411" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8111,10 +8117,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D412" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,10 +8128,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D413" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8133,10 +8139,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D414" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8144,10 +8150,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D415" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8155,10 +8161,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D416" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8166,10 +8172,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D417" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8177,10 +8183,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D418" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8188,10 +8194,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D419" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8199,10 +8205,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D420" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8210,10 +8216,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D421" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,10 +8227,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D422" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8232,10 +8238,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D423" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8243,10 +8249,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D424" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8254,10 +8260,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D425" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8265,10 +8271,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D426" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8276,10 +8282,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D427" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8287,10 +8293,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D428" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8298,10 +8304,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D429" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8309,10 +8315,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D430" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8320,10 +8326,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D431" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8331,10 +8337,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D432" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8342,10 +8348,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D433" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8353,10 +8359,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D434" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8364,10 +8370,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D435" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8375,10 +8381,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D436" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8386,10 +8392,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D437" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8397,10 +8403,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D438" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8408,10 +8414,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D439" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8419,10 +8425,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D440" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8430,10 +8436,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D441" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8441,10 +8447,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D442" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8452,10 +8458,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D443" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8463,10 +8469,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D444" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8474,10 +8480,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D445" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8485,10 +8491,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D446" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8496,10 +8502,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D447" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8507,10 +8513,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D448" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8518,10 +8524,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D449" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8529,10 +8535,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D450" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8540,10 +8546,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D451" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8551,10 +8557,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D452" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8562,10 +8568,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D453" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8573,10 +8579,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D454" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8584,10 +8590,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D455" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8595,10 +8601,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D456" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8606,10 +8612,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D457" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8617,10 +8623,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D458" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8628,10 +8634,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D459" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8639,10 +8645,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D460" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8650,10 +8656,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D461" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8661,10 +8667,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D462" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8672,10 +8678,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D463" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8683,10 +8689,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D464" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8694,10 +8700,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D465" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8705,10 +8711,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D466" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8716,10 +8722,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D467" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8727,10 +8733,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D468" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8738,10 +8744,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D469" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8749,10 +8755,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D470" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,10 +8766,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D471" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8771,10 +8777,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D472" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8782,10 +8788,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D473" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8793,10 +8799,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D474" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8804,10 +8810,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D475" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,10 +8821,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D476" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8826,10 +8832,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D477" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8837,10 +8843,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D478" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,10 +8854,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D479" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8859,10 +8865,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D480" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8870,10 +8876,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D481" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8881,10 +8887,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D482" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8892,10 +8898,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D483" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8903,10 +8909,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D484" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8914,10 +8920,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D485" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8925,10 +8931,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D486" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8936,10 +8942,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D487" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8947,10 +8953,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D488" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8958,10 +8964,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D489" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8969,10 +8975,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D490" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8980,10 +8986,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D491" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8991,10 +8997,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D492" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9002,10 +9008,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D493" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9013,10 +9019,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D494" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9024,10 +9030,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D495" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9035,10 +9041,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D496" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9046,10 +9052,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D497" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9057,10 +9063,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D498" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9068,10 +9074,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D499" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9079,10 +9085,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D500" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9090,10 +9096,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D501" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9101,10 +9107,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D502" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9112,10 +9118,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D503" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9123,10 +9129,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D504" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9134,10 +9140,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D505" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9145,10 +9151,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D506" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9156,10 +9162,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D507" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9167,10 +9173,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D508" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,10 +9184,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D509" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9189,10 +9195,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D510" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9200,10 +9206,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D511" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9211,10 +9217,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D512" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9222,10 +9228,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D513" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9233,10 +9239,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D514" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9244,10 +9250,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D515" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9255,10 +9261,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D516" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9266,10 +9272,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D517" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9277,10 +9283,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D518" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9288,10 +9294,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D519" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9299,10 +9305,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D520" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9310,10 +9316,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D521" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9321,10 +9327,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D522" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9332,10 +9338,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D523" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9343,17 +9349,28 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
+        <v>879</v>
+      </c>
+      <c r="D524" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>565</v>
+      </c>
+      <c r="B525" t="s">
         <v>883</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D525" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D524" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D524">
-      <sortCondition ref="A2:A524"/>
-      <sortCondition ref="B2:B524"/>
+  <autoFilter ref="A1:D525" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D525">
+      <sortCondition ref="A2:A525"/>
+      <sortCondition ref="B2:B525"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C37255-A261-4E12-8684-78F0CFEF6477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63146BEA-F983-4BDB-9800-4B024ACBE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1230" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$525</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$526</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="900">
   <si>
     <t>Context</t>
   </si>
@@ -2720,6 +2720,9 @@
   </si>
   <si>
     <t>Code de sécurité</t>
+  </si>
+  <si>
+    <t>Information</t>
   </si>
 </sst>
 </file>
@@ -3574,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,10 +6008,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>409</v>
+        <v>899</v>
       </c>
       <c r="D220" t="s">
-        <v>410</v>
+        <v>899</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,10 +6019,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>889</v>
+        <v>409</v>
       </c>
       <c r="D221" t="s">
-        <v>890</v>
+        <v>410</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,10 +6030,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>411</v>
+        <v>889</v>
       </c>
       <c r="D222" t="s">
-        <v>412</v>
+        <v>890</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6038,10 +6041,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D223" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6049,10 +6052,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D224" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,10 +6063,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D225" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,10 +6074,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,10 +6085,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,10 +6096,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,10 +6107,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D229" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6115,10 +6118,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D230" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,10 +6129,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D231" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,10 +6140,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D232" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6148,10 +6151,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D233" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,10 +6162,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D234" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,10 +6173,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D235" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,10 +6184,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>719</v>
+        <v>436</v>
       </c>
       <c r="D236" t="s">
-        <v>720</v>
+        <v>437</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6192,10 +6195,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D237" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6203,10 +6206,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D238" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,10 +6217,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,10 +6228,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D240" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,10 +6239,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D241" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,10 +6250,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,10 +6261,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D243" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6269,10 +6272,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D244" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,10 +6283,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D245" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6291,10 +6294,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D246" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6302,10 +6305,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D247" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6313,10 +6316,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D248" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,10 +6327,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D249" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,10 +6338,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D250" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6346,10 +6349,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D251" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,10 +6360,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D252" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,10 +6371,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D253" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6379,10 +6382,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D254" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,10 +6393,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D255" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,10 +6404,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D256" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,10 +6415,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D257" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,10 +6426,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D258" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6434,10 +6437,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D259" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6445,10 +6448,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D260" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,10 +6459,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D261" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6467,10 +6470,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D262" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6478,10 +6481,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D263" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,10 +6492,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D264" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6500,10 +6503,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D265" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6511,10 +6514,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D266" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,10 +6525,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D267" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6533,10 +6536,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D268" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6544,10 +6547,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D269" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6558,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6566,10 +6569,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D271" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6577,10 +6580,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D272" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,10 +6591,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6599,10 +6602,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D274" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,10 +6613,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D275" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,10 +6624,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D276" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6632,10 +6635,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D277" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,10 +6646,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D278" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,10 +6657,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D279" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6665,10 +6668,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D280" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,10 +6679,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D281" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,10 +6690,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D282" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6698,10 +6701,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D283" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,10 +6712,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>897</v>
+        <v>519</v>
       </c>
       <c r="D284" t="s">
-        <v>898</v>
+        <v>520</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6720,10 +6723,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>521</v>
+        <v>897</v>
       </c>
       <c r="D285" t="s">
-        <v>522</v>
+        <v>898</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6731,10 +6734,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D286" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,10 +6745,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D287" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6753,10 +6756,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D288" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,10 +6767,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D289" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,10 +6778,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D290" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6786,10 +6789,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D291" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,10 +6800,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D292" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6808,10 +6811,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D293" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,10 +6822,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D294" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,10 +6833,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D295" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6841,10 +6844,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D296" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,10 +6855,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D297" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,10 +6866,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D298" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6874,10 +6877,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="D299" t="s">
-        <v>895</v>
+        <v>546</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6885,10 +6888,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D300" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6896,10 +6899,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D301" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6907,10 +6910,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D302" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6918,10 +6921,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D303" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,10 +6932,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D304" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6940,10 +6943,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D305" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,10 +6954,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D306" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,10 +6965,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D307" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6973,21 +6976,21 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D308" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D309" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6995,10 +6998,10 @@
         <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7006,10 +7009,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D311" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,10 +7020,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D312" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,10 +7031,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D313" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7039,10 +7042,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D314" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,10 +7053,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D315" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7061,10 +7064,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D316" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7072,10 +7075,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D317" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,10 +7086,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D318" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7094,10 +7097,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D319" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,10 +7108,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D320" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7116,10 +7119,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D321" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7127,10 +7130,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D322" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,10 +7141,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D323" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,10 +7152,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D324" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7160,10 +7163,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D325" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,10 +7174,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D326" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,10 +7185,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D327" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7193,10 +7196,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D328" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7204,10 +7207,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D329" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7215,10 +7218,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D330" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7226,10 +7229,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D331" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,10 +7240,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D332" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7248,10 +7251,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D333" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7259,10 +7262,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D334" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7270,10 +7273,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D335" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7281,10 +7284,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D336" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,10 +7295,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D337" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,10 +7306,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D338" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,10 +7317,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D339" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,10 +7328,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D340" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7336,10 +7339,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D341" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7347,10 +7350,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D342" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7358,10 +7361,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D343" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7369,10 +7372,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D344" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7380,10 +7383,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D345" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7391,10 +7394,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D346" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7402,10 +7405,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D347" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7413,10 +7416,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D348" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7424,10 +7427,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D349" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7435,10 +7438,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D350" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,10 +7449,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D351" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7457,10 +7460,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D352" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7468,10 +7471,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D353" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,10 +7482,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D354" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7490,10 +7493,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D355" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7501,10 +7504,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D356" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,10 +7515,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D357" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7523,10 +7526,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D358" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7534,10 +7537,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D359" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7545,10 +7548,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D360" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7556,10 +7559,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D361" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7567,10 +7570,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D362" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7578,10 +7581,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D363" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7589,10 +7592,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D364" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,10 +7603,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D365" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7611,10 +7614,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D366" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7622,10 +7625,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D367" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7633,10 +7636,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D368" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,10 +7647,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D369" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,10 +7658,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D370" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7666,10 +7669,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D371" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7677,10 +7680,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D372" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7688,10 +7691,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D373" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,10 +7702,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D374" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7710,10 +7713,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D375" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,10 +7724,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D376" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7732,10 +7735,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D377" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7743,7 +7746,7 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D378" t="s">
         <v>661</v>
@@ -7754,10 +7757,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D379" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7765,10 +7768,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D380" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7776,10 +7779,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D381" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,10 +7790,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D382" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,10 +7801,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D383" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7809,10 +7812,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D384" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7820,10 +7823,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D385" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7831,10 +7834,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D386" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7842,10 +7845,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D387" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,10 +7856,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D388" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7864,10 +7867,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D389" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7875,10 +7878,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D390" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7886,10 +7889,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D391" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,10 +7900,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D392" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,10 +7911,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D393" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7919,10 +7922,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D394" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7930,10 +7933,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D395" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,10 +7944,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D396" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,10 +7955,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D397" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7963,10 +7966,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D398" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7974,10 +7977,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D399" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7985,10 +7988,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D400" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,10 +7999,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D401" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8007,10 +8010,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D402" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8018,10 +8021,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D403" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8029,10 +8032,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D404" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8040,10 +8043,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D405" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8051,10 +8054,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D406" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,10 +8065,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D407" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8073,10 +8076,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D408" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8084,10 +8087,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D409" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,10 +8098,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D410" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8106,10 +8109,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D411" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8117,10 +8120,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D412" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8128,10 +8131,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D413" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8139,10 +8142,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D414" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8150,10 +8153,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D415" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8161,10 +8164,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D416" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,10 +8175,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D417" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8183,10 +8186,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D418" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8194,10 +8197,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D419" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8205,10 +8208,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D420" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,10 +8219,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D421" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8227,10 +8230,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D422" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8238,10 +8241,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D423" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8249,10 +8252,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D424" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8260,10 +8263,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D425" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8271,10 +8274,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D426" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,10 +8285,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D427" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8293,10 +8296,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D428" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8304,10 +8307,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D429" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,10 +8318,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D430" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8326,10 +8329,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D431" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8337,10 +8340,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D432" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8348,10 +8351,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D433" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8359,10 +8362,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D434" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,10 +8373,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D435" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8381,10 +8384,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D436" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8392,10 +8395,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D437" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8403,10 +8406,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D438" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,10 +8417,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D439" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8425,10 +8428,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D440" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8436,10 +8439,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D441" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8447,10 +8450,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D442" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8458,10 +8461,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D443" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,10 +8472,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D444" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,10 +8483,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D445" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8491,10 +8494,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D446" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,10 +8505,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D447" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8513,10 +8516,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D448" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8524,10 +8527,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D449" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8535,10 +8538,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D450" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8546,10 +8549,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D451" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8557,10 +8560,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D452" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8568,10 +8571,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D453" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8579,10 +8582,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D454" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8590,10 +8593,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D455" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8601,10 +8604,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D456" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8612,10 +8615,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D457" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8623,10 +8626,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D458" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,10 +8637,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D459" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8645,10 +8648,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D460" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8656,10 +8659,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D461" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8667,10 +8670,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D462" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8678,10 +8681,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D463" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8689,10 +8692,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D464" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8700,10 +8703,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D465" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,10 +8714,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D466" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,10 +8725,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D467" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8733,10 +8736,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D468" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,10 +8747,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D469" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8755,10 +8758,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D470" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8766,10 +8769,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D471" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,10 +8780,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D472" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,10 +8791,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D473" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8799,10 +8802,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D474" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,10 +8813,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D475" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8821,10 +8824,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D476" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8832,10 +8835,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D477" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,10 +8846,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D478" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8854,10 +8857,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D479" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8865,10 +8868,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D480" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8876,10 +8879,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D481" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8887,10 +8890,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D482" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,10 +8901,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D483" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8909,10 +8912,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D484" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8920,10 +8923,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D485" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,10 +8934,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D486" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,10 +8945,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D487" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8953,10 +8956,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D488" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8964,10 +8967,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D489" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,10 +8978,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D490" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8986,10 +8989,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D491" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -8997,10 +9000,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D492" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9008,10 +9011,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D493" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,10 +9022,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D494" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9030,10 +9033,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D495" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9041,10 +9044,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D496" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9052,10 +9055,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D497" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9063,10 +9066,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D498" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9074,10 +9077,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D499" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9085,10 +9088,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D500" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,10 +9099,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D501" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9107,10 +9110,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D502" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9118,10 +9121,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D503" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9129,10 +9132,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D504" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9140,10 +9143,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D505" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9151,10 +9154,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D506" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9162,10 +9165,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D507" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9173,10 +9176,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D508" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9184,10 +9187,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D509" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9195,10 +9198,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D510" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9206,10 +9209,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D511" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9217,10 +9220,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D512" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,10 +9231,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D513" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,10 +9242,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D514" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,10 +9253,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D515" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9261,10 +9264,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D516" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9272,10 +9275,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D517" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9283,10 +9286,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D518" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9294,10 +9297,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D519" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9305,10 +9308,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D520" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9316,10 +9319,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D521" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9327,10 +9330,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D522" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9338,10 +9341,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D523" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9349,10 +9352,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D524" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9360,17 +9363,28 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
+        <v>879</v>
+      </c>
+      <c r="D525" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>565</v>
+      </c>
+      <c r="B526" t="s">
         <v>883</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D526" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D525" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D525">
-      <sortCondition ref="A2:A525"/>
-      <sortCondition ref="B2:B525"/>
+  <autoFilter ref="A1:D526" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D526">
+      <sortCondition ref="A2:A526"/>
+      <sortCondition ref="B2:B526"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63146BEA-F983-4BDB-9800-4B024ACBE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28FF26-1FCF-4647-9BD2-80E8084FE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$527</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="902">
   <si>
     <t>Context</t>
   </si>
@@ -2723,6 +2736,12 @@
   </si>
   <si>
     <t>Information</t>
+  </si>
+  <si>
+    <t>Génération du résultat…</t>
+  </si>
+  <si>
+    <t>Generating result...</t>
   </si>
 </sst>
 </file>
@@ -3577,11 +3596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,10 +4190,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>901</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,10 +4201,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,10 +4212,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,10 +4223,10 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,10 +4234,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,10 +4245,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,10 +4256,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,10 +4267,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,10 +4278,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,10 +4289,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,10 +4300,10 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4292,10 +4311,10 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4303,10 +4322,10 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,10 +4333,10 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,10 +4344,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4336,10 +4355,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,10 +4366,10 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4358,10 +4377,10 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,10 +4388,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,10 +4399,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,10 +4410,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,10 +4421,10 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,10 +4432,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,10 +4443,10 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,10 +4454,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4446,10 +4465,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,10 +4476,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,10 +4487,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,10 +4498,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,10 +4509,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,10 +4520,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4512,10 +4531,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,10 +4542,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,10 +4553,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,10 +4564,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,10 +4575,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,10 +4586,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,10 +4597,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,10 +4608,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4600,10 +4619,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4611,10 +4630,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>892</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>893</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,10 +4641,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>892</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,10 +4652,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>891</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>896</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4644,10 +4663,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>891</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>896</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,10 +4674,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,10 +4685,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,10 +4696,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,10 +4707,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,10 +4718,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,10 +4729,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,10 +4740,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,10 +4751,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,10 +4762,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,10 +4773,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,10 +4784,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,10 +4795,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,10 +4806,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4798,10 +4817,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,10 +4828,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,10 +4839,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,10 +4850,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,10 +4861,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,10 +4872,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,10 +4883,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,10 +4894,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,10 +4905,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D118" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,10 +4916,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,10 +4927,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4919,10 +4938,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,10 +4949,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,10 +4960,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,10 +4971,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,10 +4982,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,10 +4993,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,10 +5004,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D127" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,10 +5015,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,10 +5026,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +5037,7 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" t="s">
         <v>201</v>
@@ -5029,10 +5048,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,10 +5059,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5051,10 +5070,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5062,10 +5081,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,10 +5092,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,10 +5103,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5114,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,10 +5125,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,10 +5136,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5128,10 +5147,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,10 +5158,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,10 +5169,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,10 +5180,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5172,10 +5191,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,10 +5202,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,10 +5213,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,10 +5224,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5216,10 +5235,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5227,10 +5246,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,10 +5257,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,21 +5268,21 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D151" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D152" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,10 +5290,10 @@
         <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,10 +5301,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,10 +5312,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,10 +5323,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,10 +5334,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,10 +5345,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,10 +5356,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,10 +5367,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,10 +5378,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,10 +5389,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D162" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,10 +5400,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,10 +5411,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,10 +5422,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D165" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,10 +5433,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,10 +5444,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D167" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,10 +5455,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,10 +5466,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,10 +5477,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,10 +5488,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,10 +5499,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,10 +5510,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D173" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,10 +5521,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D174" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,10 +5532,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,10 +5543,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,10 +5554,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D177" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,10 +5565,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,10 +5576,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5568,10 +5587,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,10 +5598,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,10 +5609,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D182" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5601,10 +5620,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,10 +5631,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,10 +5642,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,10 +5653,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5664,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,10 +5675,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D188" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,10 +5686,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="D189" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,10 +5697,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,10 +5708,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D191" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,10 +5719,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5730,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D193" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,10 +5741,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D194" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,10 +5752,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D195" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,10 +5763,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,10 +5774,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,10 +5785,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,10 +5796,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D199" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,10 +5807,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,10 +5818,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,10 +5829,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>887</v>
+        <v>377</v>
       </c>
       <c r="D202" t="s">
-        <v>888</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,10 +5840,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>887</v>
       </c>
       <c r="D203" t="s">
-        <v>380</v>
+        <v>888</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,10 +5851,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,10 +5862,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D205" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,10 +5873,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="D206" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +5884,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="D207" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,10 +5895,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +5906,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,10 +5917,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D210" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,10 +5928,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D211" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,7 +5939,7 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D212" t="s">
         <v>394</v>
@@ -5931,10 +5950,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,10 +5961,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D214" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,10 +5972,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D215" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,10 +5983,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D216" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,10 +5994,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D217" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,10 +6005,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D218" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,10 +6016,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D219" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,10 +6027,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>899</v>
+        <v>407</v>
       </c>
       <c r="D220" t="s">
-        <v>899</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,10 +6038,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>409</v>
+        <v>899</v>
       </c>
       <c r="D221" t="s">
-        <v>410</v>
+        <v>899</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6049,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>889</v>
+        <v>409</v>
       </c>
       <c r="D222" t="s">
-        <v>890</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6060,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>411</v>
+        <v>889</v>
       </c>
       <c r="D223" t="s">
-        <v>412</v>
+        <v>890</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,10 +6071,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D224" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6063,10 +6082,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D225" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,10 +6093,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D226" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,10 +6104,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D227" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,10 +6115,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6126,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D229" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,10 +6137,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D230" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,10 +6148,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,10 +6159,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D232" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,10 +6170,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D233" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,10 +6181,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D234" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,10 +6192,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,10 +6203,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D236" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,10 +6214,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>719</v>
+        <v>436</v>
       </c>
       <c r="D237" t="s">
-        <v>720</v>
+        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,10 +6225,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D238" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6217,10 +6236,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D239" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,10 +6247,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D240" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6239,10 +6258,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D241" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,10 +6269,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D242" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,10 +6280,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D243" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,10 +6291,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D244" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,10 +6302,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D245" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,10 +6313,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D246" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,10 +6324,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D247" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +6335,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D248" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,10 +6346,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D249" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,10 +6357,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D250" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +6368,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D251" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6360,10 +6379,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D252" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,10 +6390,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D253" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +6401,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D254" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6393,10 +6412,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D255" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,10 +6423,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D256" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +6434,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D257" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,10 +6445,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D258" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,10 +6456,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D259" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,10 +6467,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D260" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,10 +6478,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D261" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,10 +6489,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D262" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,10 +6500,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D263" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,10 +6511,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D264" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +6522,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D265" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +6533,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D266" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,10 +6544,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D267" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,10 +6555,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D268" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,10 +6566,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D269" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,10 +6577,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D270" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +6588,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D271" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,10 +6599,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D272" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,10 +6610,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D273" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,10 +6621,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D274" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6613,10 +6632,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D275" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +6643,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D276" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,10 +6654,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D277" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6646,10 +6665,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D278" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +6676,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D279" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,10 +6687,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D280" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6679,10 +6698,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D281" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,10 +6709,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D282" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,10 +6720,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D283" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,10 +6731,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D284" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +6742,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>897</v>
+        <v>519</v>
       </c>
       <c r="D285" t="s">
-        <v>898</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6734,10 +6753,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>521</v>
+        <v>897</v>
       </c>
       <c r="D286" t="s">
-        <v>522</v>
+        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +6764,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D287" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,10 +6775,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D288" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +6786,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D289" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +6797,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D290" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,10 +6808,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6800,10 +6819,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D292" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +6830,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D293" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,10 +6841,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D294" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6833,10 +6852,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D295" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,10 +6863,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D296" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,10 +6874,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D297" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6866,10 +6885,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D298" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +6896,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D299" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,10 +6907,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="D300" t="s">
-        <v>895</v>
+        <v>546</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6899,10 +6918,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D301" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +6929,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D302" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +6940,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D303" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +6951,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D304" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +6962,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D305" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,10 +6973,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D306" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,10 +6984,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D307" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,10 +6995,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D308" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6987,21 +7006,21 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D309" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D310" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,10 +7028,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,10 +7039,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7050,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D313" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,10 +7061,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D314" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7053,10 +7072,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D315" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,10 +7083,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D316" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,10 +7094,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D317" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,10 +7105,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D318" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,10 +7116,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D319" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7108,10 +7127,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D320" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,10 +7138,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D321" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7130,10 +7149,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D322" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7141,10 +7160,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D323" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,10 +7171,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D324" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,10 +7182,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D325" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7174,10 +7193,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D326" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +7204,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D327" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,10 +7215,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D328" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7207,10 +7226,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D329" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7218,10 +7237,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D330" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7229,10 +7248,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D331" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,10 +7259,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D332" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,10 +7270,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D333" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7262,10 +7281,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D334" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,10 +7292,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D335" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,10 +7303,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D336" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7295,10 +7314,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D337" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,10 +7325,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D338" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,10 +7336,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D339" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7328,10 +7347,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D340" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7358,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D341" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,10 +7369,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D342" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7361,10 +7380,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D343" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7372,10 +7391,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D344" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7383,10 +7402,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D345" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +7413,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D346" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,10 +7424,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D347" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,10 +7435,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D348" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,10 +7446,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D349" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7438,10 +7457,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D350" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,10 +7468,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D351" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,10 +7479,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D352" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,10 +7490,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D353" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7482,10 +7501,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D354" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,10 +7512,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D355" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7504,10 +7523,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D356" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7515,10 +7534,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D357" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,10 +7545,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D358" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7537,10 +7556,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D359" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,10 +7567,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D360" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7559,10 +7578,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D361" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,10 +7589,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D362" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7581,10 +7600,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D363" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7592,10 +7611,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D364" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7603,10 +7622,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D365" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,10 +7633,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D366" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7625,10 +7644,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D367" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,10 +7655,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D368" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,10 +7666,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D369" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,10 +7677,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D370" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,10 +7688,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D371" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,10 +7699,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D372" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,10 +7710,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D373" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,10 +7721,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D374" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7713,10 +7732,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D375" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,10 +7743,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D376" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,10 +7754,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D377" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7746,10 +7765,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D378" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7757,7 +7776,7 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D379" t="s">
         <v>661</v>
@@ -7768,10 +7787,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D380" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,10 +7798,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D381" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,10 +7809,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D382" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7820,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D383" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,10 +7831,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D384" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,10 +7842,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D385" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,10 +7853,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D386" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7845,10 +7864,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D387" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,10 +7875,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D388" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,10 +7886,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D389" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,10 +7897,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D390" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,10 +7908,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D391" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,10 +7919,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D392" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,10 +7930,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D393" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,10 +7941,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D394" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,10 +7952,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D395" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,10 +7963,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D396" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,10 +7974,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D397" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,10 +7985,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D398" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7977,10 +7996,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D399" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,10 +8007,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D400" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7999,10 +8018,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D401" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8010,10 +8029,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D402" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8021,10 +8040,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D403" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8032,10 +8051,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D404" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8043,10 +8062,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D405" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8054,10 +8073,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D406" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,10 +8084,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D407" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,10 +8095,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D408" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,10 +8106,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D409" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8098,10 +8117,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D410" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8128,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D411" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8120,10 +8139,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D412" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8131,10 +8150,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D413" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,10 +8161,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D414" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8153,10 +8172,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D415" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,10 +8183,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D416" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,10 +8194,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D417" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,10 +8205,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D418" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,10 +8216,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D419" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8208,10 +8227,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D420" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,10 +8238,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D421" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8249,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D422" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8241,10 +8260,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D423" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,10 +8271,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D424" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8282,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D425" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,10 +8293,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D426" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8285,10 +8304,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D427" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8296,10 +8315,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D428" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8307,10 +8326,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D429" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8318,10 +8337,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D430" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,10 +8348,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D431" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8340,10 +8359,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D432" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,10 +8370,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D433" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8362,10 +8381,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D434" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8373,10 +8392,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D435" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8384,10 +8403,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D436" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8395,10 +8414,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D437" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,10 +8425,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D438" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8417,10 +8436,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D439" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,10 +8447,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D440" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8439,10 +8458,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D441" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8450,10 +8469,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D442" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8461,10 +8480,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D443" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,10 +8491,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D444" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,10 +8502,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D445" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,10 +8513,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D446" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8505,10 +8524,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D447" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8516,10 +8535,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D448" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8527,10 +8546,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D449" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,10 +8557,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D450" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8549,10 +8568,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D451" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8560,10 +8579,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D452" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8571,10 +8590,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D453" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8582,10 +8601,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D454" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,10 +8612,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D455" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,10 +8623,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D456" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8615,10 +8634,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D457" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,10 +8645,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D458" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,10 +8656,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D459" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,10 +8667,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D460" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8659,10 +8678,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D461" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8670,10 +8689,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D462" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8681,10 +8700,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D463" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,10 +8711,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D464" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,10 +8722,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D465" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8714,10 +8733,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D466" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8725,10 +8744,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D467" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8736,10 +8755,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D468" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8747,10 +8766,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D469" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,10 +8777,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D470" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8769,10 +8788,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D471" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,10 +8799,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D472" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,10 +8810,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D473" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,10 +8821,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D474" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,10 +8832,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D475" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8824,10 +8843,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D476" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8835,10 +8854,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D477" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,10 +8865,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D478" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,10 +8876,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D479" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,10 +8887,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D480" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,10 +8898,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D481" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,10 +8909,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D482" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8901,10 +8920,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D483" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8912,10 +8931,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D484" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8923,10 +8942,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D485" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8934,10 +8953,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D486" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,10 +8964,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D487" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,10 +8975,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D488" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8967,10 +8986,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D489" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8978,10 +8997,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D490" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,10 +9008,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D491" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,10 +9019,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D492" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9011,10 +9030,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D493" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9022,10 +9041,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D494" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,10 +9052,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D495" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9044,10 +9063,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D496" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,10 +9074,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D497" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,10 +9085,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D498" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9077,10 +9096,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D499" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9088,10 +9107,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D500" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9099,10 +9118,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D501" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9110,10 +9129,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D502" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9121,10 +9140,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D503" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9132,10 +9151,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D504" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,10 +9162,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D505" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9154,10 +9173,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D506" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,10 +9184,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D507" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9176,10 +9195,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D508" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9206,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D509" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,10 +9217,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D510" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9209,10 +9228,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D511" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9220,10 +9239,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D512" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9231,10 +9250,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D513" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,10 +9261,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D514" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,10 +9272,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D515" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9264,10 +9283,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D516" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,10 +9294,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D517" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9286,10 +9305,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D518" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9297,10 +9316,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D519" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9308,10 +9327,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D520" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,10 +9338,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D521" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,10 +9349,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D522" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9360,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D523" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,10 +9371,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D524" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9363,10 +9382,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D525" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9374,17 +9393,28 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
+        <v>879</v>
+      </c>
+      <c r="D526" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>565</v>
+      </c>
+      <c r="B527" t="s">
         <v>883</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D527" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D526" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D526">
-      <sortCondition ref="A2:A526"/>
-      <sortCondition ref="B2:B526"/>
+  <autoFilter ref="A1:D527" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D527">
+      <sortCondition ref="A2:A527"/>
+      <sortCondition ref="B2:B527"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28FF26-1FCF-4647-9BD2-80E8084FE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63146BEA-F983-4BDB-9800-4B024ACBE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$527</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$526</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="900">
   <si>
     <t>Context</t>
   </si>
@@ -2736,12 +2723,6 @@
   </si>
   <si>
     <t>Information</t>
-  </si>
-  <si>
-    <t>Génération du résultat…</t>
-  </si>
-  <si>
-    <t>Generating result...</t>
   </si>
 </sst>
 </file>
@@ -3596,11 +3577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,10 +4171,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>901</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>900</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,10 +4182,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,10 +4193,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,10 +4204,10 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,10 +4215,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,10 +4226,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,10 +4237,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,10 +4248,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4278,10 +4259,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,10 +4270,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,10 +4281,10 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,10 +4292,10 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4322,10 +4303,10 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,10 +4325,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,10 +4336,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,10 +4347,10 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,10 +4358,10 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,10 +4369,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,10 +4380,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,10 +4391,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,10 +4402,10 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,10 +4413,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,10 +4424,10 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,10 +4435,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,10 +4446,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,10 +4457,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,10 +4468,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4498,10 +4479,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,10 +4490,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,10 +4501,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,10 +4512,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,10 +4523,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,10 +4534,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,10 +4545,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,10 +4556,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4586,10 +4567,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,10 +4578,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4608,10 +4589,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,10 +4600,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4630,10 +4611,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>892</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>893</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,10 +4622,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>892</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s">
-        <v>893</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,10 +4633,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>891</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,10 +4644,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>891</v>
+        <v>266</v>
       </c>
       <c r="D96" t="s">
-        <v>896</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,10 +4655,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,10 +4666,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,10 +4677,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,10 +4688,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,10 +4699,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,10 +4710,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,10 +4721,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,10 +4732,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,10 +4743,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,10 +4754,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4784,10 +4765,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,10 +4776,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4806,10 +4787,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,10 +4798,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,10 +4809,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,10 +4820,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,10 +4831,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,10 +4842,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,10 +4853,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,10 +4864,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4894,10 +4875,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,10 +4886,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,10 +4897,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,10 +4908,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,10 +4919,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,10 +4930,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,10 +4941,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D123" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,10 +4952,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D124" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,10 +4963,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D125" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,10 +4974,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,10 +4985,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,10 +4996,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="D128" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,10 +5007,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5037,7 +5018,7 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D130" t="s">
         <v>201</v>
@@ -5048,10 +5029,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,10 +5040,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D132" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,10 +5062,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D134" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5092,10 +5073,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,10 +5084,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5114,10 +5095,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D137" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,10 +5106,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,10 +5117,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D139" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,10 +5128,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D140" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5158,10 +5139,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,10 +5150,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,10 +5161,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,10 +5172,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D144" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5202,10 +5183,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,10 +5194,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,10 +5205,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,10 +5216,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5246,10 +5227,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,10 +5238,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5268,21 +5249,21 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="D152" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5290,10 +5271,10 @@
         <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D153" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,10 +5282,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5312,10 +5293,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,10 +5304,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D156" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,10 +5315,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5345,10 +5326,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5356,10 +5337,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D159" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5367,10 +5348,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D160" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,10 +5359,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,10 +5370,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5400,10 +5381,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,10 +5392,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D164" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5422,10 +5403,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,10 +5414,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D166" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5444,10 +5425,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D167" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,10 +5436,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D168" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,10 +5447,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="D169" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,10 +5458,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,10 +5469,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,10 +5480,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D172" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5510,10 +5491,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,10 +5502,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D174" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,10 +5513,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D175" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,10 +5524,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D176" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5554,10 +5535,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,10 +5546,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D178" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5576,10 +5557,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D179" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5587,10 +5568,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,10 +5579,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D181" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5609,10 +5590,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D182" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,10 +5601,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D183" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,10 +5612,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D184" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5642,10 +5623,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D185" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,10 +5634,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D186" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,10 +5645,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D187" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,10 +5656,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D188" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,10 +5667,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,10 +5678,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D190" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5708,10 +5689,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,10 +5700,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D192" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5730,10 +5711,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D193" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5741,10 +5722,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D194" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,10 +5733,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D195" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5763,10 +5744,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D196" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,10 +5755,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,10 +5766,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D198" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,10 +5777,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,10 +5788,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D200" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5818,10 +5799,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D201" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,10 +5810,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>887</v>
       </c>
       <c r="D202" t="s">
-        <v>378</v>
+        <v>888</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,10 +5821,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>887</v>
+        <v>379</v>
       </c>
       <c r="D203" t="s">
-        <v>888</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,10 +5832,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D204" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,10 +5843,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D205" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,10 +5854,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="D206" t="s">
-        <v>384</v>
+        <v>80</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5884,10 +5865,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="D207" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,10 +5876,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D208" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5906,10 +5887,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D209" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5917,10 +5898,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D210" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,10 +5909,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D211" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,7 +5920,7 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D212" t="s">
         <v>394</v>
@@ -5950,10 +5931,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D213" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,10 +5942,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D214" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5972,10 +5953,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D215" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5983,10 +5964,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D216" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,10 +5975,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D217" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,10 +5986,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D218" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,10 +5997,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D219" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,10 +6008,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>407</v>
+        <v>899</v>
       </c>
       <c r="D220" t="s">
-        <v>408</v>
+        <v>899</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6038,10 +6019,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>899</v>
+        <v>409</v>
       </c>
       <c r="D221" t="s">
-        <v>899</v>
+        <v>410</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6049,10 +6030,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>889</v>
       </c>
       <c r="D222" t="s">
-        <v>410</v>
+        <v>890</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,10 +6041,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>889</v>
+        <v>411</v>
       </c>
       <c r="D223" t="s">
-        <v>890</v>
+        <v>412</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,10 +6052,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D224" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,10 +6063,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D225" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,10 +6074,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D226" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,10 +6085,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D227" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6115,10 +6096,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D228" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,10 +6107,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D229" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,10 +6118,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D230" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6148,10 +6129,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D231" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,10 +6140,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,10 +6151,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D233" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,10 +6162,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D234" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6192,10 +6173,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D235" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6203,10 +6184,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D236" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,10 +6195,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>436</v>
+        <v>719</v>
       </c>
       <c r="D237" t="s">
-        <v>437</v>
+        <v>720</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,10 +6206,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D238" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6236,10 +6217,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>721</v>
+        <v>438</v>
       </c>
       <c r="D239" t="s">
-        <v>722</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,10 +6228,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D240" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,10 +6239,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D241" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6269,10 +6250,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D242" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,10 +6261,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D243" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6291,10 +6272,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D244" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6302,10 +6283,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D245" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6313,10 +6294,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D246" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6324,10 +6305,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,10 +6316,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D248" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6346,10 +6327,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D249" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,10 +6338,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D250" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,10 +6349,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D251" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6379,10 +6360,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,10 +6371,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D253" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,10 +6382,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="D254" t="s">
-        <v>465</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6412,10 +6393,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="D255" t="s">
-        <v>322</v>
+        <v>467</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,10 +6404,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D256" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6434,10 +6415,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D257" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6445,10 +6426,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D258" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,10 +6437,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D259" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6467,10 +6448,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D260" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6478,10 +6459,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D261" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,10 +6470,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D262" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6500,10 +6481,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="D263" t="s">
-        <v>481</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6511,10 +6492,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="D264" t="s">
-        <v>231</v>
+        <v>483</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,10 +6503,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D265" t="s">
-        <v>483</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6533,10 +6514,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D266" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6544,10 +6525,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D267" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6536,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D268" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6566,10 +6547,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D269" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6577,10 +6558,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,10 +6569,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D271" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6599,10 +6580,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D272" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,10 +6591,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>495</v>
+        <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>496</v>
+        <v>164</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,10 +6602,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>499</v>
       </c>
       <c r="D274" t="s">
-        <v>164</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6632,10 +6613,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D275" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,10 +6624,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D276" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,10 +6635,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D277" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6665,10 +6646,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D278" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6676,10 +6657,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D279" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6687,10 +6668,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D280" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6698,10 +6679,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D281" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,10 +6690,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D282" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6720,10 +6701,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D283" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6731,10 +6712,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D284" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6742,10 +6723,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>519</v>
+        <v>897</v>
       </c>
       <c r="D285" t="s">
-        <v>520</v>
+        <v>898</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6753,10 +6734,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>897</v>
+        <v>521</v>
       </c>
       <c r="D286" t="s">
-        <v>898</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,10 +6745,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D287" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,10 +6756,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D288" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6786,10 +6767,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D289" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,10 +6778,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D290" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6808,10 +6789,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D291" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6819,10 +6800,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D292" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,10 +6811,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D293" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6841,10 +6822,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D294" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,10 +6833,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D295" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,10 +6844,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D296" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6874,10 +6855,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D297" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6885,10 +6866,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D298" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6896,10 +6877,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D299" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6907,10 +6888,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="D300" t="s">
-        <v>546</v>
+        <v>895</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6918,10 +6899,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>894</v>
+        <v>547</v>
       </c>
       <c r="D301" t="s">
-        <v>895</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,10 +6910,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D302" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6940,10 +6921,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D303" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6951,10 +6932,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D304" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,10 +6943,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D305" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6973,10 +6954,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D306" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6984,10 +6965,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D307" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6995,10 +6976,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D308" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7006,21 +6987,21 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D309" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>286</v>
+        <v>565</v>
       </c>
       <c r="B310" t="s">
-        <v>561</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
-        <v>562</v>
+        <v>22</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7028,10 +7009,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>21</v>
+        <v>566</v>
       </c>
       <c r="D311" t="s">
-        <v>22</v>
+        <v>567</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7039,10 +7020,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D312" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,10 +7031,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D313" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7061,10 +7042,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D314" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7072,10 +7053,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D315" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,10 +7064,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D316" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7094,10 +7075,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D317" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,10 +7086,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D318" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7116,10 +7097,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>580</v>
+        <v>30</v>
       </c>
       <c r="D319" t="s">
-        <v>580</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7127,10 +7108,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>30</v>
+        <v>581</v>
       </c>
       <c r="D320" t="s">
-        <v>31</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7138,10 +7119,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>581</v>
+        <v>34</v>
       </c>
       <c r="D321" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7149,10 +7130,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>34</v>
+        <v>583</v>
       </c>
       <c r="D322" t="s">
-        <v>35</v>
+        <v>583</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7160,10 +7141,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D323" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,10 +7152,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D324" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7182,10 +7163,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D325" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7193,10 +7174,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>588</v>
+        <v>38</v>
       </c>
       <c r="D326" t="s">
-        <v>589</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7204,10 +7185,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="D327" t="s">
-        <v>39</v>
+        <v>591</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7215,10 +7196,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D328" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7226,10 +7207,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D329" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,10 +7218,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D330" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7248,10 +7229,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D331" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7259,10 +7240,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D332" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7270,10 +7251,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="D333" t="s">
-        <v>601</v>
+        <v>45</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7281,10 +7262,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>44</v>
+        <v>627</v>
       </c>
       <c r="D334" t="s">
-        <v>45</v>
+        <v>628</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,10 +7273,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>627</v>
+        <v>50</v>
       </c>
       <c r="D335" t="s">
-        <v>628</v>
+        <v>51</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,10 +7284,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D336" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7314,10 +7295,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D337" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,10 +7306,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>52</v>
+        <v>602</v>
       </c>
       <c r="D338" t="s">
-        <v>53</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7336,10 +7317,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D339" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7347,10 +7328,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>604</v>
+        <v>56</v>
       </c>
       <c r="D340" t="s">
-        <v>605</v>
+        <v>57</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7358,10 +7339,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>56</v>
+        <v>610</v>
       </c>
       <c r="D341" t="s">
-        <v>57</v>
+        <v>611</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7369,10 +7350,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D342" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7380,10 +7361,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D343" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7391,10 +7372,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D344" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7402,10 +7383,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D345" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7413,10 +7394,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>613</v>
+        <v>332</v>
       </c>
       <c r="D346" t="s">
-        <v>614</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7424,10 +7405,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>615</v>
       </c>
       <c r="D347" t="s">
-        <v>333</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7435,10 +7416,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D348" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7446,10 +7427,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D349" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7457,10 +7438,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D350" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7468,10 +7449,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D351" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,10 +7460,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D352" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7490,10 +7471,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D353" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7501,10 +7482,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D354" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7512,10 +7493,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D355" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7523,10 +7504,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D356" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7534,10 +7515,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D357" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7545,10 +7526,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D358" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7556,10 +7537,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D359" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7567,10 +7548,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D360" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7578,10 +7559,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>642</v>
+        <v>61</v>
       </c>
       <c r="D361" t="s">
-        <v>643</v>
+        <v>64</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7589,10 +7570,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D362" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7600,10 +7581,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D363" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7611,10 +7592,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>63</v>
+        <v>644</v>
       </c>
       <c r="D364" t="s">
-        <v>66</v>
+        <v>645</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7622,10 +7603,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D365" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7633,10 +7614,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D366" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7644,10 +7625,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D367" t="s">
-        <v>649</v>
+        <v>362</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7655,10 +7636,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D368" t="s">
-        <v>362</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7666,10 +7647,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D369" t="s">
-        <v>652</v>
+        <v>175</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7677,10 +7658,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D370" t="s">
-        <v>175</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7688,10 +7669,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D371" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,10 +7680,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D372" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7710,10 +7691,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>658</v>
+        <v>75</v>
       </c>
       <c r="D373" t="s">
-        <v>659</v>
+        <v>76</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,10 +7702,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D374" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7732,10 +7713,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="D375" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7743,10 +7724,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>379</v>
+        <v>668</v>
       </c>
       <c r="D376" t="s">
-        <v>380</v>
+        <v>668</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7754,10 +7735,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D377" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7765,10 +7746,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D378" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7776,7 +7757,7 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="D379" t="s">
         <v>661</v>
@@ -7787,10 +7768,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D380" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7798,10 +7779,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D381" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7809,10 +7790,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D382" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7820,10 +7801,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>666</v>
+        <v>393</v>
       </c>
       <c r="D383" t="s">
-        <v>667</v>
+        <v>394</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7831,10 +7812,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>393</v>
+        <v>672</v>
       </c>
       <c r="D384" t="s">
-        <v>394</v>
+        <v>673</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7842,10 +7823,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D385" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,10 +7834,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D386" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7864,10 +7845,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D387" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7875,10 +7856,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D388" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7886,10 +7867,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D389" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7897,10 +7878,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D390" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7908,10 +7889,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D391" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7919,10 +7900,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D392" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7930,10 +7911,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D393" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,10 +7922,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D394" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7952,10 +7933,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D395" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7963,10 +7944,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D396" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7974,10 +7955,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D397" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7985,10 +7966,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D398" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,10 +7977,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>699</v>
+        <v>101</v>
       </c>
       <c r="D399" t="s">
-        <v>700</v>
+        <v>102</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8007,10 +7988,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D400" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8018,10 +7999,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D401" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8029,10 +8010,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D402" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8040,10 +8021,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D403" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8051,10 +8032,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D404" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8062,10 +8043,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D405" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8073,10 +8054,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D406" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8084,10 +8065,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D407" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,10 +8076,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D408" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8106,10 +8087,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D409" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8117,10 +8098,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="D410" t="s">
-        <v>122</v>
+        <v>422</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8128,10 +8109,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>421</v>
+        <v>701</v>
       </c>
       <c r="D411" t="s">
-        <v>422</v>
+        <v>702</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8139,10 +8120,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D412" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8150,10 +8131,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D413" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8161,10 +8142,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D414" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,10 +8153,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>707</v>
+        <v>125</v>
       </c>
       <c r="D415" t="s">
-        <v>707</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8183,10 +8164,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>125</v>
+        <v>708</v>
       </c>
       <c r="D416" t="s">
-        <v>126</v>
+        <v>708</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8194,10 +8175,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>708</v>
+        <v>127</v>
       </c>
       <c r="D417" t="s">
-        <v>708</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8205,10 +8186,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>127</v>
+        <v>709</v>
       </c>
       <c r="D418" t="s">
-        <v>128</v>
+        <v>709</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,10 +8197,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D419" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8227,10 +8208,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D420" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8238,10 +8219,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D421" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8249,10 +8230,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D422" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8260,10 +8241,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D423" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8271,10 +8252,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D424" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8282,10 +8263,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D425" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8293,10 +8274,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D426" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8304,10 +8285,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>723</v>
+        <v>135</v>
       </c>
       <c r="D427" t="s">
-        <v>724</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,10 +8296,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>135</v>
+        <v>725</v>
       </c>
       <c r="D428" t="s">
-        <v>136</v>
+        <v>726</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8326,10 +8307,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D429" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8337,10 +8318,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D430" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8348,10 +8329,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D431" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8359,10 +8340,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D432" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,10 +8351,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D433" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8381,10 +8362,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D434" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8392,10 +8373,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D435" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8403,10 +8384,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D436" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8414,10 +8395,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D437" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8425,10 +8406,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D438" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8436,10 +8417,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D439" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8447,10 +8428,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D440" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8458,10 +8439,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D441" t="s">
-        <v>744</v>
+        <v>605</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,10 +8450,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D442" t="s">
-        <v>605</v>
+        <v>752</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,10 +8461,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D443" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8491,10 +8472,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D444" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8502,10 +8483,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D445" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8513,10 +8494,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>757</v>
+        <v>448</v>
       </c>
       <c r="D446" t="s">
-        <v>758</v>
+        <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8524,10 +8505,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>448</v>
+        <v>759</v>
       </c>
       <c r="D447" t="s">
-        <v>448</v>
+        <v>760</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8535,10 +8516,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>759</v>
+        <v>459</v>
       </c>
       <c r="D448" t="s">
-        <v>760</v>
+        <v>459</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8546,10 +8527,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D449" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8557,10 +8538,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>460</v>
+        <v>761</v>
       </c>
       <c r="D450" t="s">
-        <v>461</v>
+        <v>761</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8568,10 +8549,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D451" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8579,10 +8560,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D452" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8590,10 +8571,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D453" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8601,10 +8582,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D454" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8612,10 +8593,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D455" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8623,10 +8604,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D456" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,10 +8615,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D457" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8645,10 +8626,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="D458" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8656,10 +8637,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>782</v>
+        <v>470</v>
       </c>
       <c r="D459" t="s">
-        <v>783</v>
+        <v>471</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8667,10 +8648,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>470</v>
+        <v>776</v>
       </c>
       <c r="D460" t="s">
-        <v>471</v>
+        <v>777</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8678,10 +8659,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D461" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8689,10 +8670,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D462" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8700,10 +8681,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>780</v>
+        <v>156</v>
       </c>
       <c r="D463" t="s">
-        <v>781</v>
+        <v>157</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,10 +8692,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>156</v>
+        <v>472</v>
       </c>
       <c r="D464" t="s">
-        <v>157</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8722,10 +8703,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>472</v>
+        <v>784</v>
       </c>
       <c r="D465" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8733,10 +8714,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D466" t="s">
-        <v>479</v>
+        <v>786</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,10 +8725,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D467" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8755,10 +8736,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D468" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8766,10 +8747,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D469" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,10 +8758,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D470" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,10 +8769,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D471" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8799,10 +8780,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>795</v>
+        <v>484</v>
       </c>
       <c r="D472" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,10 +8791,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D473" t="s">
-        <v>796</v>
+        <v>488</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8821,10 +8802,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>487</v>
+        <v>17</v>
       </c>
       <c r="D474" t="s">
-        <v>488</v>
+        <v>164</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8832,10 +8813,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>17</v>
+        <v>797</v>
       </c>
       <c r="D475" t="s">
-        <v>164</v>
+        <v>798</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8843,10 +8824,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D476" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8854,10 +8835,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D477" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8865,10 +8846,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D478" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8876,10 +8857,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D479" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8887,10 +8868,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D480" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,10 +8879,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>807</v>
+        <v>507</v>
       </c>
       <c r="D481" t="s">
-        <v>808</v>
+        <v>508</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8909,10 +8890,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>507</v>
+        <v>809</v>
       </c>
       <c r="D482" t="s">
-        <v>508</v>
+        <v>810</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8920,10 +8901,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>809</v>
+        <v>519</v>
       </c>
       <c r="D483" t="s">
-        <v>810</v>
+        <v>520</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8931,10 +8912,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="D484" t="s">
-        <v>520</v>
+        <v>179</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,10 +8923,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D485" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8953,10 +8934,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D486" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8964,10 +8945,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>182</v>
+        <v>811</v>
       </c>
       <c r="D487" t="s">
-        <v>33</v>
+        <v>812</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,10 +8956,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D488" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8986,10 +8967,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>813</v>
+        <v>187</v>
       </c>
       <c r="D489" t="s">
-        <v>814</v>
+        <v>188</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8997,10 +8978,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>187</v>
+        <v>815</v>
       </c>
       <c r="D490" t="s">
-        <v>188</v>
+        <v>816</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9008,10 +8989,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D491" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,10 +9000,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D492" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9030,10 +9011,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D493" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9041,10 +9022,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D494" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9052,10 +9033,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D495" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9063,10 +9044,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D496" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9074,10 +9055,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D497" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9085,10 +9066,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D498" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,10 +9077,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D499" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9107,10 +9088,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>833</v>
+        <v>196</v>
       </c>
       <c r="D500" t="s">
-        <v>834</v>
+        <v>197</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9118,10 +9099,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>196</v>
+        <v>835</v>
       </c>
       <c r="D501" t="s">
-        <v>197</v>
+        <v>836</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9129,10 +9110,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D502" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9140,10 +9121,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D503" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9151,10 +9132,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D504" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9162,10 +9143,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D505" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9173,10 +9154,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D506" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9184,10 +9165,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D507" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9195,10 +9176,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D508" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9206,10 +9187,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D509" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9217,10 +9198,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D510" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,10 +9209,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D511" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,10 +9220,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D512" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,10 +9231,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D513" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9261,10 +9242,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D514" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9272,10 +9253,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D515" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9283,10 +9264,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D516" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9294,10 +9275,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D517" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9305,10 +9286,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D518" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9316,10 +9297,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D519" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9327,10 +9308,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D520" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9338,10 +9319,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D521" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9349,10 +9330,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D522" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9360,10 +9341,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D523" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9371,10 +9352,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D524" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9382,10 +9363,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D525" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9393,28 +9374,17 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D526" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>565</v>
-      </c>
-      <c r="B527" t="s">
-        <v>883</v>
-      </c>
-      <c r="D527" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D527" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D527">
-      <sortCondition ref="A2:A527"/>
-      <sortCondition ref="B2:B527"/>
+  <autoFilter ref="A1:D526" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D526">
+      <sortCondition ref="A2:A526"/>
+      <sortCondition ref="B2:B526"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63146BEA-F983-4BDB-9800-4B024ACBE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF869FD4-702E-4B3A-AD03-18D52F821EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$527</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="902">
   <si>
     <t>Context</t>
   </si>
@@ -2723,6 +2723,12 @@
   </si>
   <si>
     <t>Information</t>
+  </si>
+  <si>
+    <t>Please wait, the report result is being generated in another window</t>
+  </si>
+  <si>
+    <t>Veuillez patienter, votre rapport est en train d'être généré dans une autre fenêtre</t>
   </si>
 </sst>
 </file>
@@ -3577,11 +3583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,10 +4650,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>900</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,10 +4661,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,10 +4672,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,10 +4683,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,10 +4694,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,10 +4705,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,10 +4716,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,10 +4727,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,10 +4738,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,10 +4749,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,10 +4760,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D106" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,10 +4771,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,10 +4782,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,10 +4793,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4798,10 +4804,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,10 +4815,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,10 +4826,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,10 +4837,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,10 +4848,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,10 +4859,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,10 +4870,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,10 +4881,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,10 +4892,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D118" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,10 +4903,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,10 +4914,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4919,10 +4925,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,10 +4936,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,10 +4947,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,10 +4958,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,10 +4969,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,10 +4980,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,10 +4991,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D127" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,10 +5002,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,10 +5013,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +5024,7 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" t="s">
         <v>201</v>
@@ -5029,10 +5035,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,10 +5046,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5051,10 +5057,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5062,10 +5068,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5073,10 +5079,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,10 +5090,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5101,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,10 +5112,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,10 +5123,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5128,10 +5134,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,10 +5145,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,10 +5156,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,10 +5167,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5172,10 +5178,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,10 +5189,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,10 +5200,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,10 +5211,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D147" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5216,10 +5222,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5227,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,10 +5244,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,21 +5255,21 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D151" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D152" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,10 +5277,10 @@
         <v>286</v>
       </c>
       <c r="B153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,10 +5288,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,10 +5299,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,10 +5310,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,10 +5321,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,10 +5332,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,10 +5343,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,10 +5354,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,10 +5365,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,10 +5376,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D162" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,10 +5387,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D163" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,10 +5398,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,10 +5409,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D165" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,10 +5420,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,10 +5431,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D167" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,10 +5442,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,10 +5453,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,10 +5464,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,10 +5475,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D171" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,10 +5486,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,10 +5497,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D173" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,10 +5508,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D174" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,10 +5519,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,10 +5530,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,10 +5541,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D177" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,10 +5552,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,10 +5563,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5568,10 +5574,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,10 +5585,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,10 +5596,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D182" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5601,10 +5607,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,10 +5618,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,10 +5629,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,10 +5640,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5651,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,10 +5662,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D188" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,10 +5673,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="D189" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,10 +5684,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,10 +5695,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D191" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,10 +5706,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5717,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D193" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,10 +5728,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D194" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,10 +5739,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D195" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,10 +5750,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,10 +5761,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,10 +5772,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,10 +5783,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D199" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,10 +5794,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,10 +5805,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D201" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,10 +5816,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>887</v>
+        <v>377</v>
       </c>
       <c r="D202" t="s">
-        <v>888</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,10 +5827,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>887</v>
       </c>
       <c r="D203" t="s">
-        <v>380</v>
+        <v>888</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,10 +5838,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,10 +5849,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D205" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,10 +5860,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="D206" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +5871,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="D207" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,10 +5882,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +5893,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,10 +5904,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D210" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,10 +5915,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D211" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,7 +5926,7 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D212" t="s">
         <v>394</v>
@@ -5931,10 +5937,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,10 +5948,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D214" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,10 +5959,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D215" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,10 +5970,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D216" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,10 +5981,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D217" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,10 +5992,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D218" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,10 +6003,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D219" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,10 +6014,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>899</v>
+        <v>407</v>
       </c>
       <c r="D220" t="s">
-        <v>899</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,10 +6025,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>409</v>
+        <v>899</v>
       </c>
       <c r="D221" t="s">
-        <v>410</v>
+        <v>899</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6036,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>889</v>
+        <v>409</v>
       </c>
       <c r="D222" t="s">
-        <v>890</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6047,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>411</v>
+        <v>889</v>
       </c>
       <c r="D223" t="s">
-        <v>412</v>
+        <v>890</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,10 +6058,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D224" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6063,10 +6069,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D225" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,10 +6080,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D226" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,10 +6091,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D227" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,10 +6102,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D228" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6113,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D229" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,10 +6124,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D230" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,10 +6135,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,10 +6146,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D232" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,10 +6157,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D233" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,10 +6168,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D234" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,10 +6179,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,10 +6190,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D236" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,10 +6201,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>719</v>
+        <v>436</v>
       </c>
       <c r="D237" t="s">
-        <v>720</v>
+        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,10 +6212,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D238" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6217,10 +6223,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D239" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,10 +6234,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D240" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6239,10 +6245,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D241" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,10 +6256,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D242" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,10 +6267,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D243" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,10 +6278,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D244" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,10 +6289,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D245" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,10 +6300,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D246" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,10 +6311,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D247" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +6322,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D248" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,10 +6333,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D249" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,10 +6344,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D250" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +6355,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D251" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6360,10 +6366,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D252" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,10 +6377,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D253" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +6388,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D254" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6393,10 +6399,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D255" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,10 +6410,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D256" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +6421,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D257" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,10 +6432,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D258" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,10 +6443,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D259" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,10 +6454,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D260" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,10 +6465,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D261" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,10 +6476,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D262" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,10 +6487,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D263" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,10 +6498,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D264" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +6509,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D265" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +6520,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D266" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,10 +6531,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D267" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,10 +6542,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D268" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,10 +6553,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D269" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,10 +6564,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D270" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +6575,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D271" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,10 +6586,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D272" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,10 +6597,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D273" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,10 +6608,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D274" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6613,10 +6619,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D275" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +6630,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D276" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,10 +6641,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D277" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6646,10 +6652,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D278" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +6663,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D279" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,10 +6674,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D280" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6679,10 +6685,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D281" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,10 +6696,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D282" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,10 +6707,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D283" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,10 +6718,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D284" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +6729,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>897</v>
+        <v>519</v>
       </c>
       <c r="D285" t="s">
-        <v>898</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6734,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>521</v>
+        <v>897</v>
       </c>
       <c r="D286" t="s">
-        <v>522</v>
+        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +6751,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D287" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,10 +6762,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D288" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +6773,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D289" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +6784,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D290" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,10 +6795,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6800,10 +6806,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D292" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +6817,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D293" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,10 +6828,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D294" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6833,10 +6839,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D295" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,10 +6850,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D296" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,10 +6861,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D297" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6866,10 +6872,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D298" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +6883,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D299" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,10 +6894,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="D300" t="s">
-        <v>895</v>
+        <v>546</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6899,10 +6905,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D301" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +6916,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D302" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +6927,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D303" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +6938,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D304" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +6949,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D305" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,10 +6960,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D306" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,10 +6971,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D307" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,10 +6982,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D308" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6987,21 +6993,21 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D309" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D310" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,10 +7015,10 @@
         <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,10 +7026,10 @@
         <v>565</v>
       </c>
       <c r="B312" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D312" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7037,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D313" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,10 +7048,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D314" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7053,10 +7059,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D315" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,10 +7070,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D316" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,10 +7081,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D317" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,10 +7092,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D318" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,10 +7103,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D319" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7108,10 +7114,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D320" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,10 +7125,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D321" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7130,10 +7136,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D322" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7141,10 +7147,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D323" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,10 +7158,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D324" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,10 +7169,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D325" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7174,10 +7180,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D326" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +7191,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D327" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,10 +7202,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D328" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7207,10 +7213,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D329" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7218,10 +7224,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D330" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7229,10 +7235,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D331" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,10 +7246,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D332" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,10 +7257,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D333" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7262,10 +7268,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D334" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,10 +7279,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D335" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,10 +7290,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D336" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7295,10 +7301,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D337" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,10 +7312,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D338" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,10 +7323,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D339" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7328,10 +7334,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D340" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7345,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D341" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,10 +7356,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D342" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7361,10 +7367,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D343" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7372,10 +7378,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D344" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7383,10 +7389,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D345" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +7400,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D346" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,10 +7411,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D347" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,10 +7422,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D348" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,10 +7433,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D349" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7438,10 +7444,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D350" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,10 +7455,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D351" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,10 +7466,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D352" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,10 +7477,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D353" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7482,10 +7488,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D354" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,10 +7499,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D355" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7504,10 +7510,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D356" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7515,10 +7521,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D357" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,10 +7532,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D358" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7537,10 +7543,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D359" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,10 +7554,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D360" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7559,10 +7565,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D361" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,10 +7576,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D362" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7581,10 +7587,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D363" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7592,10 +7598,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D364" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7603,10 +7609,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D365" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,10 +7620,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D366" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7625,10 +7631,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D367" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,10 +7642,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D368" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,10 +7653,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D369" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,10 +7664,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D370" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,10 +7675,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D371" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,10 +7686,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D372" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,10 +7697,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D373" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,10 +7708,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D374" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7713,10 +7719,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D375" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,10 +7730,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D376" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,10 +7741,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D377" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7746,10 +7752,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D378" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7757,7 +7763,7 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D379" t="s">
         <v>661</v>
@@ -7768,10 +7774,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D380" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,10 +7785,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D381" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,10 +7796,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D382" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7807,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D383" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,10 +7818,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D384" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,10 +7829,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D385" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,10 +7840,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D386" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7845,10 +7851,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D387" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,10 +7862,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D388" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,10 +7873,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D389" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,10 +7884,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D390" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,10 +7895,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D391" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,10 +7906,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D392" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,10 +7917,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D393" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,10 +7928,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D394" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,10 +7939,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D395" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,10 +7950,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D396" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,10 +7961,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D397" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,10 +7972,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D398" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7977,10 +7983,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D399" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,10 +7994,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D400" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7999,10 +8005,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D401" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8010,10 +8016,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D402" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8021,10 +8027,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D403" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8032,10 +8038,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D404" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8043,10 +8049,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D405" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8054,10 +8060,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D406" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,10 +8071,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D407" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,10 +8082,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D408" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,10 +8093,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D409" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8098,10 +8104,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D410" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8115,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D411" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8120,10 +8126,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D412" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8131,10 +8137,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D413" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,10 +8148,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D414" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8153,10 +8159,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D415" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,10 +8170,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D416" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,10 +8181,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D417" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,10 +8192,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D418" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,10 +8203,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D419" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8208,10 +8214,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D420" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,10 +8225,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D421" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8236,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D422" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8241,10 +8247,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D423" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,10 +8258,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D424" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8269,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D425" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,10 +8280,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D426" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8285,10 +8291,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D427" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8296,10 +8302,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D428" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8307,10 +8313,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D429" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8318,10 +8324,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D430" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,10 +8335,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D431" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8340,10 +8346,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D432" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,10 +8357,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D433" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8362,10 +8368,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D434" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8373,10 +8379,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D435" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8384,10 +8390,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D436" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8395,10 +8401,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D437" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,10 +8412,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D438" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8417,10 +8423,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D439" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,10 +8434,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D440" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8439,10 +8445,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D441" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8450,10 +8456,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D442" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8461,10 +8467,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D443" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,10 +8478,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D444" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,10 +8489,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D445" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,10 +8500,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D446" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8505,10 +8511,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D447" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8516,10 +8522,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D448" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8527,10 +8533,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D449" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,10 +8544,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D450" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8549,10 +8555,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D451" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8560,10 +8566,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D452" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8571,10 +8577,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D453" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8582,10 +8588,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D454" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,10 +8599,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D455" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,10 +8610,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D456" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8615,10 +8621,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D457" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,10 +8632,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D458" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,10 +8643,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D459" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,10 +8654,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D460" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8659,10 +8665,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D461" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8670,10 +8676,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D462" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8681,10 +8687,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D463" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,10 +8698,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D464" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,10 +8709,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D465" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8714,10 +8720,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D466" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8725,10 +8731,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D467" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8736,10 +8742,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D468" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8747,10 +8753,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D469" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,10 +8764,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D470" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8769,10 +8775,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D471" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,10 +8786,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D472" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,10 +8797,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D473" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,10 +8808,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D474" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,10 +8819,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D475" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8824,10 +8830,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D476" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8835,10 +8841,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D477" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,10 +8852,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D478" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,10 +8863,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D479" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,10 +8874,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D480" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,10 +8885,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D481" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,10 +8896,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D482" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8901,10 +8907,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D483" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8912,10 +8918,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D484" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8923,10 +8929,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D485" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8934,10 +8940,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D486" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,10 +8951,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D487" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,10 +8962,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D488" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8967,10 +8973,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D489" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8978,10 +8984,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D490" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,10 +8995,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D491" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,10 +9006,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D492" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9011,10 +9017,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D493" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9022,10 +9028,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D494" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,10 +9039,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D495" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9044,10 +9050,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D496" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,10 +9061,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D497" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,10 +9072,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D498" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9077,10 +9083,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D499" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9088,10 +9094,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D500" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9099,10 +9105,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D501" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9110,10 +9116,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D502" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9121,10 +9127,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D503" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9132,10 +9138,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D504" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,10 +9149,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D505" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9154,10 +9160,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D506" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,10 +9171,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D507" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9176,10 +9182,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D508" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9193,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D509" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,10 +9204,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D510" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9209,10 +9215,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D511" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9220,10 +9226,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D512" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9231,10 +9237,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D513" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,10 +9248,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D514" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,10 +9259,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D515" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9264,10 +9270,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D516" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,10 +9281,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D517" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9286,10 +9292,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D518" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9297,10 +9303,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D519" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9308,10 +9314,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D520" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,10 +9325,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D521" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,10 +9336,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D522" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9347,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D523" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,10 +9358,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D524" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9363,10 +9369,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D525" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9374,17 +9380,28 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
+        <v>879</v>
+      </c>
+      <c r="D526" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>565</v>
+      </c>
+      <c r="B527" t="s">
         <v>883</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D527" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D526" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D526">
-      <sortCondition ref="A2:A526"/>
-      <sortCondition ref="B2:B526"/>
+  <autoFilter ref="A1:D527" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D527">
+      <sortCondition ref="A2:A527"/>
+      <sortCondition ref="B2:B527"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF869FD4-702E-4B3A-AD03-18D52F821EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95686F49-D9CC-4FD1-97C6-993E3FDA766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="1155" windowWidth="24810" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$527</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$528</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="906">
   <si>
     <t>Context</t>
   </si>
@@ -2729,6 +2729,18 @@
   </si>
   <si>
     <t>Veuillez patienter, votre rapport est en train d'être généré dans une autre fenêtre</t>
+  </si>
+  <si>
+    <t>Edit entry</t>
+  </si>
+  <si>
+    <t>Modifier un enregistrement</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Editer</t>
   </si>
 </sst>
 </file>
@@ -3583,11 +3595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5717,10 +5729,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>360</v>
+        <v>904</v>
       </c>
       <c r="D193" t="s">
-        <v>360</v>
+        <v>905</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5728,10 +5740,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>361</v>
+        <v>902</v>
       </c>
       <c r="D194" t="s">
-        <v>362</v>
+        <v>903</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,10 +5751,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D195" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5750,10 +5762,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D196" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,10 +5773,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5772,10 +5784,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D198" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,10 +5795,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5794,10 +5806,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D200" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,10 +5817,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D201" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,10 +5828,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D202" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,10 +5839,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>887</v>
+        <v>375</v>
       </c>
       <c r="D203" t="s">
-        <v>888</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5838,10 +5850,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,10 +5861,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>381</v>
+        <v>887</v>
       </c>
       <c r="D205" t="s">
-        <v>382</v>
+        <v>888</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5860,10 +5872,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D206" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5871,10 +5883,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="D207" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,10 +5894,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D208" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,10 +5905,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="D209" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5904,10 +5916,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,10 +5927,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D211" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,10 +5938,10 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D212" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,10 +5949,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,10 +5960,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D214" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5959,10 +5971,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D215" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,10 +5982,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D216" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,10 +5993,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5992,10 +6004,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D218" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6003,10 +6015,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D219" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6014,10 +6026,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D220" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6025,10 +6037,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>899</v>
+        <v>405</v>
       </c>
       <c r="D221" t="s">
-        <v>899</v>
+        <v>406</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,10 +6048,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D222" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,10 +6059,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>889</v>
+        <v>409</v>
       </c>
       <c r="D223" t="s">
-        <v>890</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,10 +6070,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>411</v>
+        <v>899</v>
       </c>
       <c r="D224" t="s">
-        <v>412</v>
+        <v>899</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,10 +6081,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>413</v>
+        <v>889</v>
       </c>
       <c r="D225" t="s">
-        <v>414</v>
+        <v>890</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,10 +6092,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D226" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6091,10 +6103,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D227" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,10 +6114,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D228" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,10 +6125,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D229" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,10 +6136,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D230" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,10 +6147,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,10 +6158,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6157,10 +6169,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D233" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,10 +6180,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D234" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6179,10 +6191,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D235" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +6202,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D236" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,10 +6213,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D237" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6212,10 +6224,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>719</v>
+        <v>434</v>
       </c>
       <c r="D238" t="s">
-        <v>720</v>
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,10 +6235,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>721</v>
+        <v>436</v>
       </c>
       <c r="D239" t="s">
-        <v>722</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,10 +6246,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="D240" t="s">
-        <v>439</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,10 +6257,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>440</v>
+        <v>721</v>
       </c>
       <c r="D241" t="s">
-        <v>441</v>
+        <v>722</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,10 +6268,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D242" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,10 +6279,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D243" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,10 +6290,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D244" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,10 +6301,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D245" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,10 +6312,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D246" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6311,10 +6323,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6322,10 +6334,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D248" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6333,10 +6345,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D249" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6344,10 +6356,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D250" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,10 +6367,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D251" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6366,10 +6378,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,10 +6389,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D253" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6388,10 +6400,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D254" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,10 +6411,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="D255" t="s">
-        <v>322</v>
+        <v>463</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,10 +6422,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D256" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,10 +6433,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>468</v>
+        <v>321</v>
       </c>
       <c r="D257" t="s">
-        <v>469</v>
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,10 +6444,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D258" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,10 +6455,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D259" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6454,10 +6466,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D260" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,10 +6477,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D261" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,10 +6488,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D262" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,10 +6499,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D263" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,10 +6510,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>230</v>
+        <v>478</v>
       </c>
       <c r="D264" t="s">
-        <v>231</v>
+        <v>479</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,10 +6521,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D265" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,10 +6532,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>484</v>
+        <v>230</v>
       </c>
       <c r="D266" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,10 +6543,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D267" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6542,10 +6554,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D268" t="s">
-        <v>488</v>
+        <v>351</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,10 +6565,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D269" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,10 +6576,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D270" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6575,10 +6587,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D271" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,10 +6598,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D272" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,10 +6609,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D273" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6608,10 +6620,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>493</v>
       </c>
       <c r="D274" t="s">
-        <v>164</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6619,10 +6631,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D275" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,10 +6642,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>501</v>
+        <v>17</v>
       </c>
       <c r="D276" t="s">
-        <v>502</v>
+        <v>164</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6641,10 +6653,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D277" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,10 +6664,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D278" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,10 +6675,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D279" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6674,10 +6686,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D280" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,10 +6697,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D281" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6696,10 +6708,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D282" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6707,10 +6719,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D283" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,10 +6730,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D284" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,10 +6741,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D285" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6740,10 +6752,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>897</v>
+        <v>517</v>
       </c>
       <c r="D286" t="s">
-        <v>898</v>
+        <v>518</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,10 +6763,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D287" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6762,10 +6774,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D288" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,10 +6785,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>525</v>
+        <v>897</v>
       </c>
       <c r="D289" t="s">
-        <v>526</v>
+        <v>898</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6784,10 +6796,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D290" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,10 +6807,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D291" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6806,10 +6818,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D292" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,10 +6829,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D293" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6828,10 +6840,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D294" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,10 +6851,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D295" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6850,10 +6862,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D296" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6861,10 +6873,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D297" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,10 +6884,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D298" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6883,10 +6895,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D299" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,10 +6906,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D300" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,10 +6917,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>894</v>
+        <v>544</v>
       </c>
       <c r="D301" t="s">
-        <v>895</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6916,10 +6928,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>547</v>
+        <v>894</v>
       </c>
       <c r="D302" t="s">
-        <v>548</v>
+        <v>895</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6927,10 +6939,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D303" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6938,10 +6950,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D304" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6949,10 +6961,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D305" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6960,10 +6972,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D306" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,10 +6983,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D307" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6982,10 +6994,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D308" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,10 +7005,10 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D309" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,32 +7016,32 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D310" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>21</v>
+        <v>563</v>
       </c>
       <c r="D311" t="s">
-        <v>22</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B312" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D312" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7037,10 +7049,10 @@
         <v>565</v>
       </c>
       <c r="B313" t="s">
-        <v>568</v>
+        <v>21</v>
       </c>
       <c r="D313" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7048,10 +7060,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D314" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,10 +7071,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D315" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7070,10 +7082,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D316" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7081,10 +7093,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D317" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7092,10 +7104,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D318" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7103,10 +7115,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D319" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,10 +7126,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>30</v>
+        <v>578</v>
       </c>
       <c r="D320" t="s">
-        <v>31</v>
+        <v>579</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7125,10 +7137,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D321" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7136,10 +7148,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D322" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,10 +7159,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D323" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7158,10 +7170,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="D324" t="s">
-        <v>585</v>
+        <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7169,10 +7181,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D325" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,10 +7192,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D326" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7191,10 +7203,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="D327" t="s">
-        <v>39</v>
+        <v>587</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7202,10 +7214,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D328" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,10 +7225,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="D329" t="s">
-        <v>593</v>
+        <v>39</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,10 +7236,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D330" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7235,10 +7247,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D331" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7246,10 +7258,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D332" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7257,10 +7269,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D333" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7268,10 +7280,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>44</v>
+        <v>598</v>
       </c>
       <c r="D334" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,10 +7291,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="D335" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,10 +7302,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D336" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,10 +7313,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>54</v>
+        <v>627</v>
       </c>
       <c r="D337" t="s">
-        <v>55</v>
+        <v>628</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7312,10 +7324,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D338" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7323,10 +7335,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="D339" t="s">
-        <v>603</v>
+        <v>55</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,10 +7346,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="D340" t="s">
-        <v>605</v>
+        <v>53</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7345,10 +7357,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>56</v>
+        <v>602</v>
       </c>
       <c r="D341" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,10 +7368,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D342" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,10 +7379,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>608</v>
+        <v>56</v>
       </c>
       <c r="D343" t="s">
-        <v>609</v>
+        <v>57</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7378,10 +7390,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D344" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,10 +7401,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D345" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7400,10 +7412,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D346" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7411,10 +7423,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>612</v>
       </c>
       <c r="D347" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,10 +7434,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D348" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,10 +7445,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>617</v>
+        <v>332</v>
       </c>
       <c r="D349" t="s">
-        <v>618</v>
+        <v>333</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7444,10 +7456,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D350" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7455,10 +7467,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D351" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7466,10 +7478,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D352" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7477,10 +7489,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D353" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,10 +7500,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D354" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7499,10 +7511,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D355" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7510,10 +7522,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D356" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,10 +7533,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D357" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,10 +7544,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D358" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7543,10 +7555,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D359" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,10 +7566,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D360" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7565,10 +7577,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D361" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7576,10 +7588,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>61</v>
+        <v>640</v>
       </c>
       <c r="D362" t="s">
-        <v>64</v>
+        <v>641</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,10 +7599,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="D363" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7598,10 +7610,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D364" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7609,10 +7621,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>644</v>
+        <v>65</v>
       </c>
       <c r="D365" t="s">
-        <v>645</v>
+        <v>62</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7620,10 +7632,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>646</v>
+        <v>63</v>
       </c>
       <c r="D366" t="s">
-        <v>647</v>
+        <v>66</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7631,10 +7643,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D367" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,10 +7654,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D368" t="s">
-        <v>362</v>
+        <v>647</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7653,10 +7665,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D369" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7664,10 +7676,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D370" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,10 +7687,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D371" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7686,10 +7698,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D372" t="s">
-        <v>657</v>
+        <v>175</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7697,10 +7709,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D373" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7708,10 +7720,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>75</v>
+        <v>656</v>
       </c>
       <c r="D374" t="s">
-        <v>76</v>
+        <v>657</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7719,10 +7731,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>77</v>
+        <v>658</v>
       </c>
       <c r="D375" t="s">
-        <v>78</v>
+        <v>659</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7730,10 +7742,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="D376" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7741,10 +7753,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>668</v>
+        <v>77</v>
       </c>
       <c r="D377" t="s">
-        <v>668</v>
+        <v>78</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,10 +7764,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>669</v>
+        <v>379</v>
       </c>
       <c r="D378" t="s">
-        <v>670</v>
+        <v>380</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7763,10 +7775,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D379" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7774,10 +7786,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D380" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7785,10 +7797,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D381" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7796,10 +7808,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D382" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7807,10 +7819,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D383" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7818,10 +7830,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>393</v>
+        <v>664</v>
       </c>
       <c r="D384" t="s">
-        <v>394</v>
+        <v>665</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,10 +7841,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D385" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7840,10 +7852,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>674</v>
+        <v>393</v>
       </c>
       <c r="D386" t="s">
-        <v>675</v>
+        <v>394</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7851,10 +7863,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D387" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7862,10 +7874,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D388" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7873,10 +7885,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D389" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,10 +7896,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D390" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,10 +7907,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D391" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,10 +7918,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D392" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7917,10 +7929,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D393" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7928,10 +7940,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D394" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7939,10 +7951,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D395" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7950,10 +7962,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D396" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7961,10 +7973,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D397" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7972,10 +7984,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D398" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7983,10 +7995,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D399" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7994,10 +8006,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>101</v>
+        <v>697</v>
       </c>
       <c r="D400" t="s">
-        <v>102</v>
+        <v>698</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8005,10 +8017,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>103</v>
+        <v>699</v>
       </c>
       <c r="D401" t="s">
-        <v>104</v>
+        <v>700</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8016,10 +8028,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D402" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8027,10 +8039,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D403" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8038,10 +8050,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D404" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8049,10 +8061,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D405" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8060,10 +8072,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D406" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8071,10 +8083,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D407" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8082,10 +8094,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D408" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8093,10 +8105,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D409" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8104,10 +8116,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D410" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8115,10 +8127,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
       <c r="D411" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8126,10 +8138,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>701</v>
+        <v>121</v>
       </c>
       <c r="D412" t="s">
-        <v>702</v>
+        <v>122</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,10 +8149,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>703</v>
+        <v>421</v>
       </c>
       <c r="D413" t="s">
-        <v>704</v>
+        <v>422</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8148,10 +8160,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D414" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8159,10 +8171,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D415" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8170,10 +8182,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>125</v>
+        <v>705</v>
       </c>
       <c r="D416" t="s">
-        <v>126</v>
+        <v>706</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8181,10 +8193,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D417" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8192,10 +8204,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D418" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8203,10 +8215,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D419" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8214,10 +8226,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>710</v>
+        <v>127</v>
       </c>
       <c r="D420" t="s">
-        <v>710</v>
+        <v>128</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8225,10 +8237,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D421" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8236,10 +8248,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D422" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8247,10 +8259,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D423" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8258,10 +8270,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D424" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8269,10 +8281,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D425" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8280,10 +8292,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D426" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8291,10 +8303,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D427" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8302,10 +8314,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>135</v>
+        <v>717</v>
       </c>
       <c r="D428" t="s">
-        <v>136</v>
+        <v>718</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8313,10 +8325,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D429" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8324,10 +8336,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>727</v>
+        <v>135</v>
       </c>
       <c r="D430" t="s">
-        <v>728</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8335,10 +8347,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D431" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8346,10 +8358,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D432" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8357,10 +8369,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D433" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8368,10 +8380,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D434" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8379,10 +8391,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D435" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8390,10 +8402,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D436" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,10 +8413,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D437" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8412,10 +8424,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D438" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8423,10 +8435,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D439" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8434,10 +8446,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D440" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8445,10 +8457,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D441" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8456,10 +8468,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D442" t="s">
-        <v>605</v>
+        <v>748</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8467,10 +8479,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D443" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8478,10 +8490,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D444" t="s">
-        <v>754</v>
+        <v>605</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8489,10 +8501,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D445" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8500,10 +8512,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D446" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8511,10 +8523,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>448</v>
+        <v>755</v>
       </c>
       <c r="D447" t="s">
-        <v>448</v>
+        <v>756</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8522,10 +8534,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D448" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8533,10 +8545,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D449" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8544,10 +8556,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>460</v>
+        <v>759</v>
       </c>
       <c r="D450" t="s">
-        <v>461</v>
+        <v>760</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8555,10 +8567,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
       <c r="D451" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8566,10 +8578,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>762</v>
+        <v>460</v>
       </c>
       <c r="D452" t="s">
-        <v>763</v>
+        <v>461</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8577,10 +8589,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D453" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8588,10 +8600,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D454" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8599,10 +8611,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D455" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8610,10 +8622,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D456" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8621,10 +8633,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D457" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8632,10 +8644,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D458" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8643,10 +8655,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D459" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8654,10 +8666,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="D460" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8665,10 +8677,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D461" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8676,10 +8688,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>778</v>
+        <v>470</v>
       </c>
       <c r="D462" t="s">
-        <v>779</v>
+        <v>471</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8687,10 +8699,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D463" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8698,10 +8710,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>156</v>
+        <v>778</v>
       </c>
       <c r="D464" t="s">
-        <v>157</v>
+        <v>779</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8709,10 +8721,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="D465" t="s">
-        <v>473</v>
+        <v>781</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,10 +8732,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="D466" t="s">
-        <v>479</v>
+        <v>157</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,10 +8743,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>785</v>
+        <v>472</v>
       </c>
       <c r="D467" t="s">
-        <v>786</v>
+        <v>473</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8742,10 +8754,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D468" t="s">
-        <v>788</v>
+        <v>479</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8753,10 +8765,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D469" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8764,10 +8776,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D470" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8775,10 +8787,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D471" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,10 +8798,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D472" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8797,10 +8809,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>484</v>
+        <v>793</v>
       </c>
       <c r="D473" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8808,10 +8820,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>487</v>
+        <v>795</v>
       </c>
       <c r="D474" t="s">
-        <v>488</v>
+        <v>795</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8819,10 +8831,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D475" t="s">
-        <v>164</v>
+        <v>796</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,10 +8842,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>797</v>
+        <v>487</v>
       </c>
       <c r="D476" t="s">
-        <v>798</v>
+        <v>488</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,10 +8853,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>799</v>
+        <v>17</v>
       </c>
       <c r="D477" t="s">
-        <v>800</v>
+        <v>164</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8852,10 +8864,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D478" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8863,10 +8875,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D479" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,10 +8886,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D480" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,10 +8897,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D481" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8896,10 +8908,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>507</v>
+        <v>805</v>
       </c>
       <c r="D482" t="s">
-        <v>508</v>
+        <v>806</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8907,10 +8919,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D483" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8918,10 +8930,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D484" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8929,10 +8941,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>178</v>
+        <v>809</v>
       </c>
       <c r="D485" t="s">
-        <v>179</v>
+        <v>810</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8940,10 +8952,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D486" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8951,10 +8963,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D487" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8962,10 +8974,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>811</v>
+        <v>180</v>
       </c>
       <c r="D488" t="s">
-        <v>812</v>
+        <v>181</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8973,10 +8985,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>813</v>
+        <v>182</v>
       </c>
       <c r="D489" t="s">
-        <v>814</v>
+        <v>33</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8984,10 +8996,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>187</v>
+        <v>811</v>
       </c>
       <c r="D490" t="s">
-        <v>188</v>
+        <v>812</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -8995,10 +9007,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D491" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9006,10 +9018,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>817</v>
+        <v>187</v>
       </c>
       <c r="D492" t="s">
-        <v>818</v>
+        <v>188</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9017,10 +9029,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D493" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9028,10 +9040,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D494" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9039,10 +9051,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D495" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9050,10 +9062,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D496" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9061,10 +9073,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D497" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9072,10 +9084,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D498" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9083,10 +9095,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D499" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9094,10 +9106,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D500" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9105,10 +9117,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>196</v>
+        <v>831</v>
       </c>
       <c r="D501" t="s">
-        <v>197</v>
+        <v>832</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9116,10 +9128,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D502" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9127,10 +9139,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>837</v>
+        <v>196</v>
       </c>
       <c r="D503" t="s">
-        <v>838</v>
+        <v>197</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9138,10 +9150,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D504" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9149,10 +9161,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D505" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9160,10 +9172,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D506" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9171,10 +9183,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D507" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9182,10 +9194,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D508" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9193,10 +9205,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D509" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9204,10 +9216,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D510" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9215,10 +9227,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D511" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9226,10 +9238,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D512" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9237,10 +9249,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D513" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9248,10 +9260,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D514" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9259,10 +9271,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D515" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9270,10 +9282,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D516" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9281,10 +9293,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D517" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9292,10 +9304,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D518" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,10 +9315,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D519" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9314,10 +9326,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D520" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9325,10 +9337,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D521" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9336,10 +9348,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D522" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9347,10 +9359,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D523" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9358,10 +9370,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D524" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9369,10 +9381,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D525" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9380,10 +9392,10 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D526" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9391,19 +9403,40 @@
         <v>565</v>
       </c>
       <c r="B527" t="s">
+        <v>885</v>
+      </c>
+      <c r="D527" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>565</v>
+      </c>
+      <c r="B528" t="s">
+        <v>879</v>
+      </c>
+      <c r="D528" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>565</v>
+      </c>
+      <c r="B529" t="s">
         <v>883</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D529" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D527" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D527">
-      <sortCondition ref="A2:A527"/>
-      <sortCondition ref="B2:B527"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D528" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D529">
+    <sortCondition ref="A2:A529"/>
+    <sortCondition ref="B2:B529"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95686F49-D9CC-4FD1-97C6-993E3FDA766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBF359-E9ED-424A-B4C6-8AE8C4E31D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1155" windowWidth="24810" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$528</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$530</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="909">
   <si>
     <t>Context</t>
   </si>
@@ -2741,6 +2741,15 @@
   </si>
   <si>
     <t>Editer</t>
+  </si>
+  <si>
+    <t>Count Distinct of</t>
+  </si>
+  <si>
+    <t>Nombre distinct de</t>
+  </si>
+  <si>
+    <t>Count distinct of</t>
   </si>
 </sst>
 </file>
@@ -3595,11 +3604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D529"/>
+  <dimension ref="A1:D531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,10 +3978,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>906</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,10 +3989,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,10 +4000,10 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4002,10 +4011,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,10 +4022,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4024,10 +4033,10 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,10 +4044,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,10 +4055,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4057,10 +4066,10 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,10 +4077,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,10 +4088,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,10 +4099,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,10 +4110,10 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,10 +4121,10 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,10 +4132,10 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,10 +4143,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,10 +4154,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,10 +4165,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,10 +4176,10 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,10 +4187,10 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,10 +4198,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,10 +4209,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,10 +4220,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,10 +4231,10 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,10 +4242,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,10 +4253,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,10 +4264,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,10 +4275,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,10 +4286,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,10 +4297,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,10 +4308,10 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,10 +4319,10 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,10 +4330,10 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4332,10 +4341,10 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,10 +4352,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,10 +4363,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,10 +4374,10 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4376,10 +4385,10 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4387,10 +4396,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,10 +4407,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,10 +4418,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,10 +4429,10 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,10 +4440,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4442,10 +4451,10 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,10 +4462,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,10 +4473,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,10 +4484,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,10 +4495,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,10 +4506,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,10 +4528,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4530,10 +4539,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4541,10 +4550,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,10 +4561,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,10 +4572,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4574,10 +4583,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,10 +4594,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4596,10 +4605,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,10 +4616,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4618,10 +4627,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,10 +4638,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>892</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>893</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,10 +4649,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>892</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,10 +4660,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>891</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>896</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,10 +4671,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D96" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,10 +4682,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>900</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>901</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,10 +4693,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,10 +4704,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D99" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,10 +4715,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,10 +4726,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="D101" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4728,10 +4737,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,10 +4748,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4750,10 +4759,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,10 +4770,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,10 +4781,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,10 +4792,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,10 +4803,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,10 +4814,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,10 +4825,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,10 +4836,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,10 +4847,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,10 +4858,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,10 +4869,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,10 +4880,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,10 +4891,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,10 +4902,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,10 +4913,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,10 +4924,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4926,10 +4935,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,10 +4946,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,10 +4957,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,10 +4968,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,10 +4979,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,10 +4990,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4992,10 +5001,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,10 +5012,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,10 +5023,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D128" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,10 +5034,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5036,10 +5045,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,7 +5056,7 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D131" t="s">
         <v>201</v>
@@ -5058,10 +5067,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D132" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,10 +5078,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,10 +5089,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D134" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,10 +5100,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D135" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5102,10 +5111,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D136" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,10 +5122,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D137" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,10 +5133,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,10 +5144,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D139" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5146,10 +5155,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,10 +5166,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,10 +5177,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,10 +5188,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,10 +5199,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,10 +5210,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5212,10 +5221,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,10 +5232,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,10 +5243,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D148" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,10 +5254,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5256,10 +5265,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,10 +5276,10 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D151" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5278,21 +5287,21 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D152" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D153" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,10 +5309,10 @@
         <v>286</v>
       </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5311,10 +5320,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D155" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,10 +5331,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D156" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,10 +5342,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5344,10 +5353,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,10 +5364,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="D159" t="s">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,10 +5375,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5377,10 +5386,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,10 +5397,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,10 +5408,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5410,10 +5419,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D164" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,10 +5430,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,10 +5441,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5443,10 +5452,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,10 +5463,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D168" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5465,10 +5474,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,10 +5485,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,10 +5496,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5498,10 +5507,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D172" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,10 +5518,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5520,10 +5529,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D174" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5531,10 +5540,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D175" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,10 +5551,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D176" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,10 +5562,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,10 +5573,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D178" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,10 +5584,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D179" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,10 +5595,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,10 +5606,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D181" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5608,10 +5617,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D182" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,10 +5628,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D183" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,10 +5639,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D184" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,10 +5650,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D185" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,10 +5661,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D186" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5663,10 +5672,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D187" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5674,10 +5683,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D188" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5685,10 +5694,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D189" t="s">
-        <v>60</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,10 +5705,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="D190" t="s">
-        <v>355</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5707,10 +5716,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D191" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,10 +5727,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D192" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,10 +5738,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>904</v>
+        <v>358</v>
       </c>
       <c r="D193" t="s">
-        <v>905</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,10 +5749,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D194" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,10 +5760,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>360</v>
+        <v>902</v>
       </c>
       <c r="D195" t="s">
-        <v>360</v>
+        <v>903</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5762,10 +5771,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D196" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,10 +5782,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D197" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,10 +5793,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D198" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,10 +5804,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D199" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5806,10 +5815,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D200" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,10 +5826,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5828,10 +5837,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D202" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5839,10 +5848,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,10 +5859,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D204" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,10 +5870,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>887</v>
+        <v>377</v>
       </c>
       <c r="D205" t="s">
-        <v>888</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,10 +5881,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>379</v>
+        <v>887</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>888</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,10 +5892,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5894,10 +5903,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D208" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,10 +5914,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="D209" t="s">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5916,10 +5925,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="D210" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,10 +5936,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,10 +5947,10 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D212" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,10 +5958,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D213" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,10 +5969,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D215" t="s">
         <v>394</v>
@@ -5982,10 +5991,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D216" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5993,10 +6002,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D217" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,10 +6013,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D218" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,10 +6024,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D219" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6026,10 +6035,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D220" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,10 +6046,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D221" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,10 +6057,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D222" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6059,10 +6068,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D223" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6070,10 +6079,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>899</v>
+        <v>409</v>
       </c>
       <c r="D224" t="s">
-        <v>899</v>
+        <v>410</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6081,10 +6090,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="D225" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,10 +6101,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>411</v>
+        <v>889</v>
       </c>
       <c r="D226" t="s">
-        <v>412</v>
+        <v>890</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,10 +6112,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D227" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6114,10 +6123,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D228" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,10 +6134,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D229" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,10 +6145,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D230" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6147,10 +6156,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D231" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,10 +6167,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D232" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6169,10 +6178,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D233" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,10 +6189,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D234" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,10 +6200,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D235" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6202,10 +6211,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D236" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6213,10 +6222,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D237" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6224,10 +6233,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D238" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6235,10 +6244,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D239" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,10 +6255,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>719</v>
+        <v>436</v>
       </c>
       <c r="D240" t="s">
-        <v>720</v>
+        <v>437</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,10 +6266,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D241" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,10 +6277,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D242" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,10 +6288,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D243" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6290,10 +6299,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D244" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6301,10 +6310,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D245" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6321,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D246" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6323,10 +6332,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D247" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6334,10 +6343,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D248" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,10 +6354,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D249" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6356,10 +6365,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D250" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6367,10 +6376,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D251" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6378,10 +6387,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D252" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6389,10 +6398,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,10 +6409,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D254" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,10 +6420,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D255" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6422,10 +6431,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D256" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,10 +6442,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D257" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6453,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D258" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6455,10 +6464,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D259" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,10 +6475,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D260" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6477,10 +6486,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D261" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6488,10 +6497,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D262" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,10 +6508,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D263" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6510,10 +6519,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D264" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6530,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D265" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6532,10 +6541,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D266" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6543,10 +6552,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D267" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,10 +6563,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D268" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,10 +6574,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D269" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6585,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D270" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,10 +6596,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D271" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6598,10 +6607,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D272" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6609,10 +6618,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D273" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6620,10 +6629,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D274" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6631,10 +6640,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D275" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6642,10 +6651,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D276" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,10 +6662,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D277" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6664,10 +6673,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D278" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6675,10 +6684,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D279" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6686,10 +6695,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D280" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6697,10 +6706,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D281" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6708,10 +6717,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D282" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6719,10 +6728,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D283" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6730,10 +6739,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D284" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,10 +6750,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D285" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6752,10 +6761,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D286" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6763,10 +6772,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D287" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6774,10 +6783,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D288" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6785,10 +6794,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>897</v>
+        <v>521</v>
       </c>
       <c r="D289" t="s">
-        <v>898</v>
+        <v>522</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6796,10 +6805,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>523</v>
+        <v>897</v>
       </c>
       <c r="D290" t="s">
-        <v>524</v>
+        <v>898</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,10 +6816,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D291" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6818,10 +6827,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D292" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6829,10 +6838,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D293" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,10 +6849,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D294" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6851,10 +6860,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D295" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6862,10 +6871,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D296" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,10 +6882,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D297" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6884,10 +6893,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D298" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,10 +6904,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D299" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6906,10 +6915,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D300" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6917,10 +6926,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D301" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6928,10 +6937,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>894</v>
+        <v>544</v>
       </c>
       <c r="D302" t="s">
-        <v>895</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6939,10 +6948,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="D303" t="s">
-        <v>546</v>
+        <v>895</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6950,10 +6959,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D304" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,10 +6970,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D305" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6972,10 +6981,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D306" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,10 +6992,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D307" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6994,10 +7003,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D308" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,10 +7014,10 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D309" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7016,10 +7025,10 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D310" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,10 +7036,10 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D311" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,21 +7047,21 @@
         <v>286</v>
       </c>
       <c r="B312" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D312" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B313" t="s">
-        <v>21</v>
+        <v>561</v>
       </c>
       <c r="D313" t="s">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,10 +7069,10 @@
         <v>565</v>
       </c>
       <c r="B314" t="s">
-        <v>566</v>
+        <v>21</v>
       </c>
       <c r="D314" t="s">
-        <v>567</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7071,10 +7080,10 @@
         <v>565</v>
       </c>
       <c r="B315" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D315" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7082,10 +7091,10 @@
         <v>565</v>
       </c>
       <c r="B316" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D316" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7093,10 +7102,10 @@
         <v>565</v>
       </c>
       <c r="B317" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D317" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7104,10 +7113,10 @@
         <v>565</v>
       </c>
       <c r="B318" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D318" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7124,10 @@
         <v>565</v>
       </c>
       <c r="B319" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D319" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7126,10 +7135,10 @@
         <v>565</v>
       </c>
       <c r="B320" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D320" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7137,10 +7146,10 @@
         <v>565</v>
       </c>
       <c r="B321" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D321" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7148,10 +7157,10 @@
         <v>565</v>
       </c>
       <c r="B322" t="s">
-        <v>30</v>
+        <v>580</v>
       </c>
       <c r="D322" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7159,10 +7168,10 @@
         <v>565</v>
       </c>
       <c r="B323" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="D323" t="s">
-        <v>582</v>
+        <v>31</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,10 +7179,10 @@
         <v>565</v>
       </c>
       <c r="B324" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="D324" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,10 +7190,10 @@
         <v>565</v>
       </c>
       <c r="B325" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="D325" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7192,10 +7201,10 @@
         <v>565</v>
       </c>
       <c r="B326" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D326" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7203,10 +7212,10 @@
         <v>565</v>
       </c>
       <c r="B327" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D327" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7214,10 +7223,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D328" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7225,10 +7234,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
       <c r="D329" t="s">
-        <v>39</v>
+        <v>589</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,10 +7245,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="D330" t="s">
-        <v>591</v>
+        <v>39</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7247,10 +7256,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D331" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7258,10 +7267,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D332" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7278,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D333" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7280,10 +7289,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D334" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7291,10 +7300,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D335" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7302,10 +7311,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="D336" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7313,10 +7322,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D337" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,10 +7333,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>50</v>
+        <v>627</v>
       </c>
       <c r="D338" t="s">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,10 +7344,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D339" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7346,10 +7355,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D340" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,10 +7366,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="D341" t="s">
-        <v>603</v>
+        <v>53</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7368,10 +7377,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D342" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7379,10 +7388,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>56</v>
+        <v>604</v>
       </c>
       <c r="D343" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,10 +7399,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>610</v>
+        <v>56</v>
       </c>
       <c r="D344" t="s">
-        <v>611</v>
+        <v>57</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7401,10 +7410,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>608</v>
+        <v>908</v>
       </c>
       <c r="D345" t="s">
-        <v>609</v>
+        <v>907</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7412,10 +7421,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D346" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7432,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D347" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7434,10 +7443,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D348" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7445,10 +7454,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>332</v>
+        <v>612</v>
       </c>
       <c r="D349" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7456,10 +7465,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D350" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7467,10 +7476,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>617</v>
+        <v>332</v>
       </c>
       <c r="D351" t="s">
-        <v>618</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7478,10 +7487,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D352" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,10 +7498,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D353" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,10 +7509,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D354" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,10 +7520,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D355" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7522,10 +7531,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D356" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7533,10 +7542,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D357" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7544,10 +7553,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D358" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7555,10 +7564,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D359" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7566,10 +7575,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D360" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7586,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D361" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7588,10 +7597,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D362" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7599,10 +7608,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D363" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7610,10 +7619,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>61</v>
+        <v>640</v>
       </c>
       <c r="D364" t="s">
-        <v>64</v>
+        <v>641</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7621,10 +7630,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="D365" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,10 +7641,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D366" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,10 +7652,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>644</v>
+        <v>65</v>
       </c>
       <c r="D367" t="s">
-        <v>645</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7654,10 +7663,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>646</v>
+        <v>63</v>
       </c>
       <c r="D368" t="s">
-        <v>647</v>
+        <v>66</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7665,10 +7674,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D369" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7676,10 +7685,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D370" t="s">
-        <v>362</v>
+        <v>647</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7687,10 +7696,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D371" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7698,10 +7707,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D372" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7709,10 +7718,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D373" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7720,10 +7729,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D374" t="s">
-        <v>657</v>
+        <v>175</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7740,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D375" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7742,10 +7751,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>75</v>
+        <v>656</v>
       </c>
       <c r="D376" t="s">
-        <v>76</v>
+        <v>657</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7753,10 +7762,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>77</v>
+        <v>658</v>
       </c>
       <c r="D377" t="s">
-        <v>78</v>
+        <v>659</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7764,10 +7773,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="D378" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7775,10 +7784,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>668</v>
+        <v>77</v>
       </c>
       <c r="D379" t="s">
-        <v>668</v>
+        <v>78</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,10 +7795,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>669</v>
+        <v>379</v>
       </c>
       <c r="D380" t="s">
-        <v>670</v>
+        <v>380</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7797,10 +7806,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D381" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7808,10 +7817,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D382" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7819,10 +7828,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D383" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7830,10 +7839,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D384" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7841,10 +7850,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D385" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7852,10 +7861,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>393</v>
+        <v>664</v>
       </c>
       <c r="D386" t="s">
-        <v>394</v>
+        <v>665</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7863,10 +7872,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D387" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7874,10 +7883,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>674</v>
+        <v>393</v>
       </c>
       <c r="D388" t="s">
-        <v>675</v>
+        <v>394</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7885,10 +7894,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D389" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7896,10 +7905,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D390" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7907,10 +7916,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D391" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7918,10 +7927,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D392" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7929,10 +7938,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D393" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7940,10 +7949,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D394" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,10 +7960,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D395" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,10 +7971,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D396" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,10 +7982,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D397" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7984,10 +7993,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D398" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7995,10 +8004,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D399" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,10 +8015,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D400" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8017,10 +8026,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D401" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8028,10 +8037,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>101</v>
+        <v>697</v>
       </c>
       <c r="D402" t="s">
-        <v>102</v>
+        <v>698</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,10 +8048,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>103</v>
+        <v>699</v>
       </c>
       <c r="D403" t="s">
-        <v>104</v>
+        <v>700</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8050,10 +8059,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D404" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8061,10 +8070,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D405" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8072,10 +8081,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D406" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8083,10 +8092,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D407" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8094,10 +8103,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D408" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8105,10 +8114,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D409" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8116,10 +8125,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D410" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8127,10 +8136,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D411" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8138,10 +8147,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D412" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8149,10 +8158,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
       <c r="D413" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8160,10 +8169,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>701</v>
+        <v>121</v>
       </c>
       <c r="D414" t="s">
-        <v>702</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,10 +8180,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>703</v>
+        <v>421</v>
       </c>
       <c r="D415" t="s">
-        <v>704</v>
+        <v>422</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,10 +8191,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D416" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8202,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D417" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8204,10 +8213,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>125</v>
+        <v>705</v>
       </c>
       <c r="D418" t="s">
-        <v>126</v>
+        <v>706</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8215,10 +8224,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D419" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8226,10 +8235,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D420" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8237,10 +8246,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D421" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,10 +8257,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>710</v>
+        <v>127</v>
       </c>
       <c r="D422" t="s">
-        <v>710</v>
+        <v>128</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,10 +8268,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D423" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8270,10 +8279,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D424" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8281,10 +8290,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D425" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8292,10 +8301,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D426" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,10 +8312,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D427" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8314,10 +8323,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D428" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8325,10 +8334,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D429" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8336,10 +8345,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>135</v>
+        <v>717</v>
       </c>
       <c r="D430" t="s">
-        <v>136</v>
+        <v>718</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8347,10 +8356,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D431" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,10 +8367,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>727</v>
+        <v>135</v>
       </c>
       <c r="D432" t="s">
-        <v>728</v>
+        <v>136</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8369,10 +8378,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D433" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8380,10 +8389,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D434" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8391,10 +8400,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D435" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8402,10 +8411,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D436" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,10 +8422,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D437" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,10 +8433,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D438" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8435,10 +8444,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D439" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8446,10 +8455,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D440" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,10 +8466,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D441" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +8477,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D442" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8479,10 +8488,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D443" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8490,10 +8499,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D444" t="s">
-        <v>605</v>
+        <v>748</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8501,10 +8510,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D445" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8512,10 +8521,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D446" t="s">
-        <v>754</v>
+        <v>605</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,10 +8532,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D447" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8534,10 +8543,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D448" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8545,10 +8554,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>448</v>
+        <v>755</v>
       </c>
       <c r="D449" t="s">
-        <v>448</v>
+        <v>756</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8556,10 +8565,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D450" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,10 +8576,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D451" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,10 +8587,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>460</v>
+        <v>759</v>
       </c>
       <c r="D452" t="s">
-        <v>461</v>
+        <v>760</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8589,10 +8598,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
       <c r="D453" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8600,10 +8609,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>762</v>
+        <v>460</v>
       </c>
       <c r="D454" t="s">
-        <v>763</v>
+        <v>461</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8611,10 +8620,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D455" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8622,10 +8631,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D456" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,10 +8642,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D457" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8644,10 +8653,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D458" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8655,10 +8664,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D459" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8666,10 +8675,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D460" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8677,10 +8686,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D461" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8688,10 +8697,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="D462" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8699,10 +8708,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D463" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8710,10 +8719,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>778</v>
+        <v>470</v>
       </c>
       <c r="D464" t="s">
-        <v>779</v>
+        <v>471</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8721,10 +8730,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D465" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,10 +8741,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>156</v>
+        <v>778</v>
       </c>
       <c r="D466" t="s">
-        <v>157</v>
+        <v>779</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8743,10 +8752,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="D467" t="s">
-        <v>473</v>
+        <v>781</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8754,10 +8763,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="D468" t="s">
-        <v>479</v>
+        <v>157</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8765,10 +8774,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>785</v>
+        <v>472</v>
       </c>
       <c r="D469" t="s">
-        <v>786</v>
+        <v>473</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,10 +8785,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D470" t="s">
-        <v>788</v>
+        <v>479</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8787,10 +8796,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D471" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8798,10 +8807,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D472" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8809,10 +8818,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D473" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8820,10 +8829,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D474" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8831,10 +8840,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>484</v>
+        <v>793</v>
       </c>
       <c r="D475" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,10 +8851,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>487</v>
+        <v>795</v>
       </c>
       <c r="D476" t="s">
-        <v>488</v>
+        <v>795</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8853,10 +8862,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D477" t="s">
-        <v>164</v>
+        <v>796</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8864,10 +8873,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>797</v>
+        <v>487</v>
       </c>
       <c r="D478" t="s">
-        <v>798</v>
+        <v>488</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8875,10 +8884,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>799</v>
+        <v>17</v>
       </c>
       <c r="D479" t="s">
-        <v>800</v>
+        <v>164</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,10 +8895,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D480" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8897,10 +8906,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D481" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8908,10 +8917,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D482" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8919,10 +8928,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D483" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8930,10 +8939,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>507</v>
+        <v>805</v>
       </c>
       <c r="D484" t="s">
-        <v>508</v>
+        <v>806</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8941,10 +8950,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D485" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8952,10 +8961,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D486" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8963,10 +8972,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>178</v>
+        <v>809</v>
       </c>
       <c r="D487" t="s">
-        <v>179</v>
+        <v>810</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8974,10 +8983,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D488" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8985,10 +8994,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D489" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -8996,10 +9005,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>811</v>
+        <v>180</v>
       </c>
       <c r="D490" t="s">
-        <v>812</v>
+        <v>181</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9007,10 +9016,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>813</v>
+        <v>182</v>
       </c>
       <c r="D491" t="s">
-        <v>814</v>
+        <v>33</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,10 +9027,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>187</v>
+        <v>811</v>
       </c>
       <c r="D492" t="s">
-        <v>188</v>
+        <v>812</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9029,10 +9038,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D493" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9040,10 +9049,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>817</v>
+        <v>187</v>
       </c>
       <c r="D494" t="s">
-        <v>818</v>
+        <v>188</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9051,10 +9060,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D495" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9062,10 +9071,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D496" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9073,10 +9082,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D497" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9084,10 +9093,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D498" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9095,10 +9104,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D499" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9106,10 +9115,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D500" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9117,10 +9126,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D501" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9128,10 +9137,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D502" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9139,10 +9148,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>196</v>
+        <v>831</v>
       </c>
       <c r="D503" t="s">
-        <v>197</v>
+        <v>832</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9150,10 +9159,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D504" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9161,10 +9170,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>837</v>
+        <v>196</v>
       </c>
       <c r="D505" t="s">
-        <v>838</v>
+        <v>197</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9172,10 +9181,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D506" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,10 +9192,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D507" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9194,10 +9203,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D508" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9205,10 +9214,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D509" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9216,10 +9225,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D510" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9227,10 +9236,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D511" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9238,10 +9247,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D512" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9249,10 +9258,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D513" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9260,10 +9269,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D514" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,10 +9280,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D515" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9282,10 +9291,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D516" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9293,10 +9302,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D517" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9304,10 +9313,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D518" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9315,10 +9324,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D519" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9326,10 +9335,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D520" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9337,10 +9346,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D521" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9348,10 +9357,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D522" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9359,10 +9368,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D523" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9370,10 +9379,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D524" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9381,10 +9390,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D525" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9392,10 +9401,10 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D526" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9403,10 +9412,10 @@
         <v>565</v>
       </c>
       <c r="B527" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D527" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9414,10 +9423,10 @@
         <v>565</v>
       </c>
       <c r="B528" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D528" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9425,17 +9434,39 @@
         <v>565</v>
       </c>
       <c r="B529" t="s">
+        <v>885</v>
+      </c>
+      <c r="D529" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>565</v>
+      </c>
+      <c r="B530" t="s">
+        <v>879</v>
+      </c>
+      <c r="D530" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>565</v>
+      </c>
+      <c r="B531" t="s">
         <v>883</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D531" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D528" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D529">
-    <sortCondition ref="A2:A529"/>
-    <sortCondition ref="B2:B529"/>
+  <autoFilter ref="A1:D530" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D531">
+    <sortCondition ref="A2:A531"/>
+    <sortCondition ref="B2:B531"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CBF359-E9ED-424A-B4C6-8AE8C4E31D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D797DF-CD23-417C-8F31-07925B72A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="2130" windowWidth="25755" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$531</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="911">
   <si>
     <t>Context</t>
   </si>
@@ -2750,6 +2750,12 @@
   </si>
   <si>
     <t>Count distinct of</t>
+  </si>
+  <si>
+    <t>Count distinct</t>
+  </si>
+  <si>
+    <t>Nombre distinct</t>
   </si>
 </sst>
 </file>
@@ -3604,11 +3610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D531"/>
+  <dimension ref="A1:D532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B346" sqref="B346"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7410,10 +7416,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D345" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7421,10 +7427,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>610</v>
+        <v>908</v>
       </c>
       <c r="D346" t="s">
-        <v>611</v>
+        <v>907</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,10 +7438,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D347" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7443,10 +7449,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D348" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7454,10 +7460,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D349" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,10 +7471,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D350" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7476,10 +7482,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>332</v>
+        <v>613</v>
       </c>
       <c r="D351" t="s">
-        <v>333</v>
+        <v>614</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,10 +7493,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="D352" t="s">
-        <v>616</v>
+        <v>333</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,10 +7504,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D353" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7509,10 +7515,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D354" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7520,10 +7526,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D355" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7531,10 +7537,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D356" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7542,10 +7548,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D357" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7553,10 +7559,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D358" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7564,10 +7570,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D359" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7575,10 +7581,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D360" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7586,10 +7592,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D361" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7597,10 +7603,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D362" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7608,10 +7614,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D363" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,10 +7625,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D364" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7630,10 +7636,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D365" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7641,10 +7647,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="D366" t="s">
-        <v>64</v>
+        <v>643</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7652,10 +7658,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D367" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7663,10 +7669,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D368" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7674,10 +7680,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>644</v>
+        <v>63</v>
       </c>
       <c r="D369" t="s">
-        <v>645</v>
+        <v>66</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,10 +7691,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D370" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7696,10 +7702,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D371" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7707,10 +7713,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D372" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7718,10 +7724,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D373" t="s">
-        <v>652</v>
+        <v>362</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7729,10 +7735,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D374" t="s">
-        <v>175</v>
+        <v>652</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7740,10 +7746,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D375" t="s">
-        <v>655</v>
+        <v>175</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7751,10 +7757,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D376" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7762,10 +7768,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D377" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,10 +7779,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>75</v>
+        <v>658</v>
       </c>
       <c r="D378" t="s">
-        <v>76</v>
+        <v>659</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7784,10 +7790,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D379" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7795,10 +7801,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="D380" t="s">
-        <v>380</v>
+        <v>78</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,10 +7812,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>668</v>
+        <v>379</v>
       </c>
       <c r="D381" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7817,10 +7823,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D382" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7828,10 +7834,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="D383" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,7 +7845,7 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D384" t="s">
         <v>661</v>
@@ -7850,10 +7856,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D385" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7861,10 +7867,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D386" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7872,10 +7878,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D387" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7883,10 +7889,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D388" t="s">
-        <v>394</v>
+        <v>667</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7894,10 +7900,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>672</v>
+        <v>393</v>
       </c>
       <c r="D389" t="s">
-        <v>673</v>
+        <v>394</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7905,10 +7911,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D390" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7916,10 +7922,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D391" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7927,10 +7933,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D392" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7938,10 +7944,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D393" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7949,10 +7955,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D394" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7960,10 +7966,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D395" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7971,10 +7977,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D396" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7982,10 +7988,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D397" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7993,10 +7999,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D398" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8004,10 +8010,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D399" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8015,10 +8021,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D400" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8026,10 +8032,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D401" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8037,10 +8043,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D402" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,10 +8054,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D403" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8059,10 +8065,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D404" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8070,10 +8076,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D405" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8081,10 +8087,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D406" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8092,10 +8098,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D407" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8103,10 +8109,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D408" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,10 +8120,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D409" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8125,10 +8131,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D410" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,10 +8142,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D411" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,10 +8153,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D412" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8158,10 +8164,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D413" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8169,10 +8175,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D414" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8180,10 +8186,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="D415" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8191,10 +8197,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="D416" t="s">
-        <v>702</v>
+        <v>422</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8202,10 +8208,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D417" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,10 +8219,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D418" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8224,10 +8230,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D419" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,10 +8241,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>125</v>
+        <v>707</v>
       </c>
       <c r="D420" t="s">
-        <v>126</v>
+        <v>707</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8246,10 +8252,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>708</v>
+        <v>125</v>
       </c>
       <c r="D421" t="s">
-        <v>708</v>
+        <v>126</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8257,10 +8263,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>127</v>
+        <v>708</v>
       </c>
       <c r="D422" t="s">
-        <v>128</v>
+        <v>708</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8268,10 +8274,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>709</v>
+        <v>127</v>
       </c>
       <c r="D423" t="s">
-        <v>709</v>
+        <v>128</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8279,10 +8285,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D424" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8290,10 +8296,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D425" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8301,10 +8307,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D426" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8312,10 +8318,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D427" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8323,10 +8329,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D428" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8334,10 +8340,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D429" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8345,10 +8351,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D430" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,10 +8362,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D431" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8367,10 +8373,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D432" t="s">
-        <v>136</v>
+        <v>724</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,10 +8384,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="D433" t="s">
-        <v>726</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,10 +8395,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D434" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8400,10 +8406,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D435" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8411,10 +8417,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D436" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8422,10 +8428,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D437" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8433,10 +8439,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D438" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8444,10 +8450,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D439" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8455,10 +8461,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D440" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8466,10 +8472,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D441" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8477,10 +8483,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D442" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8488,10 +8494,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D443" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8499,10 +8505,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D444" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,10 +8516,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D445" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8521,10 +8527,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D446" t="s">
-        <v>605</v>
+        <v>744</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8532,10 +8538,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D447" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,10 +8549,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D448" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8554,10 +8560,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D449" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8565,10 +8571,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D450" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,10 +8582,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="D451" t="s">
-        <v>448</v>
+        <v>758</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8587,10 +8593,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="D452" t="s">
-        <v>760</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8598,10 +8604,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>459</v>
+        <v>759</v>
       </c>
       <c r="D453" t="s">
-        <v>459</v>
+        <v>760</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,10 +8615,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D454" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8620,10 +8626,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>761</v>
+        <v>460</v>
       </c>
       <c r="D455" t="s">
-        <v>761</v>
+        <v>461</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8631,10 +8637,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D456" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8642,10 +8648,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D457" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8653,10 +8659,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D458" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8664,10 +8670,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D459" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8675,10 +8681,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D460" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8686,10 +8692,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D461" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,10 +8703,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D462" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8708,10 +8714,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D463" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8719,10 +8725,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="D464" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8730,10 +8736,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>776</v>
+        <v>470</v>
       </c>
       <c r="D465" t="s">
-        <v>777</v>
+        <v>471</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8741,10 +8747,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D466" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8752,10 +8758,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D467" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8763,10 +8769,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>156</v>
+        <v>780</v>
       </c>
       <c r="D468" t="s">
-        <v>157</v>
+        <v>781</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,10 +8780,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>472</v>
+        <v>156</v>
       </c>
       <c r="D469" t="s">
-        <v>473</v>
+        <v>157</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8785,10 +8791,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>784</v>
+        <v>472</v>
       </c>
       <c r="D470" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8796,10 +8802,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D471" t="s">
-        <v>786</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8807,10 +8813,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D472" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8818,10 +8824,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D473" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8829,10 +8835,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D474" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,10 +8846,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D475" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,10 +8857,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D476" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8862,10 +8868,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="D477" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8873,10 +8879,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D478" t="s">
-        <v>488</v>
+        <v>796</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8884,10 +8890,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="D479" t="s">
-        <v>164</v>
+        <v>488</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8895,10 +8901,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>797</v>
+        <v>17</v>
       </c>
       <c r="D480" t="s">
-        <v>798</v>
+        <v>164</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,10 +8912,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D481" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8917,10 +8923,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D482" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8928,10 +8934,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D483" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8939,10 +8945,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D484" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8950,10 +8956,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D485" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,10 +8967,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>507</v>
+        <v>807</v>
       </c>
       <c r="D486" t="s">
-        <v>508</v>
+        <v>808</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8972,10 +8978,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>809</v>
+        <v>507</v>
       </c>
       <c r="D487" t="s">
-        <v>810</v>
+        <v>508</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8983,10 +8989,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="D488" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -8994,10 +9000,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D489" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9005,10 +9011,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D490" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9016,10 +9022,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D491" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9027,10 +9033,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>811</v>
+        <v>182</v>
       </c>
       <c r="D492" t="s">
-        <v>812</v>
+        <v>33</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9038,10 +9044,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D493" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9049,10 +9055,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>187</v>
+        <v>813</v>
       </c>
       <c r="D494" t="s">
-        <v>188</v>
+        <v>814</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9060,10 +9066,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="D495" t="s">
-        <v>816</v>
+        <v>188</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9071,10 +9077,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D496" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9082,10 +9088,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D497" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9093,10 +9099,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D498" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9104,10 +9110,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D499" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9115,10 +9121,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D500" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9126,10 +9132,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D501" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9137,10 +9143,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D502" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9148,10 +9154,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D503" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9159,10 +9165,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D504" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9170,10 +9176,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>196</v>
+        <v>833</v>
       </c>
       <c r="D505" t="s">
-        <v>197</v>
+        <v>834</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9181,10 +9187,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>835</v>
+        <v>196</v>
       </c>
       <c r="D506" t="s">
-        <v>836</v>
+        <v>197</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9192,10 +9198,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D507" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9203,10 +9209,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D508" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,10 +9220,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D509" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9225,10 +9231,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D510" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9236,10 +9242,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D511" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9247,10 +9253,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D512" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9258,10 +9264,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D513" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9269,10 +9275,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D514" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9280,10 +9286,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D515" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9291,10 +9297,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D516" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9302,10 +9308,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D517" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9313,10 +9319,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D518" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9324,10 +9330,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D519" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9335,10 +9341,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D520" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9346,10 +9352,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D521" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9357,10 +9363,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D522" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9368,10 +9374,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D523" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9379,10 +9385,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D524" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9390,10 +9396,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D525" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9401,10 +9407,10 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D526" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9412,10 +9418,10 @@
         <v>565</v>
       </c>
       <c r="B527" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D527" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9423,10 +9429,10 @@
         <v>565</v>
       </c>
       <c r="B528" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D528" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9434,10 +9440,10 @@
         <v>565</v>
       </c>
       <c r="B529" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D529" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9445,10 +9451,10 @@
         <v>565</v>
       </c>
       <c r="B530" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D530" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9456,17 +9462,28 @@
         <v>565</v>
       </c>
       <c r="B531" t="s">
+        <v>879</v>
+      </c>
+      <c r="D531" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>565</v>
+      </c>
+      <c r="B532" t="s">
         <v>883</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D532" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D530" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D531">
-    <sortCondition ref="A2:A531"/>
-    <sortCondition ref="B2:B531"/>
+  <autoFilter ref="A1:D531" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D532">
+    <sortCondition ref="A2:A532"/>
+    <sortCondition ref="B2:B532"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D797DF-CD23-417C-8F31-07925B72A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE23735-1518-43F0-96EE-A3E8BFF41875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2130" windowWidth="25755" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$557</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="956">
   <si>
     <t>Context</t>
   </si>
@@ -2756,6 +2756,141 @@
   </si>
   <si>
     <t>Nombre distinct</t>
+  </si>
+  <si>
+    <t>Table name</t>
+  </si>
+  <si>
+    <t>Nom de la table</t>
+  </si>
+  <si>
+    <t>Tab name</t>
+  </si>
+  <si>
+    <t>Onglet</t>
+  </si>
+  <si>
+    <t>Name of the table to generate in the database</t>
+  </si>
+  <si>
+    <t>Nom de la table générée dans la base</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Container CSS</t>
+  </si>
+  <si>
+    <t>CSS du cadre</t>
+  </si>
+  <si>
+    <t>View type</t>
+  </si>
+  <si>
+    <t>Type de la vue</t>
+  </si>
+  <si>
+    <t>New View of type Model</t>
+  </si>
+  <si>
+    <t>Nouvelle Vue de type Modèle</t>
+  </si>
+  <si>
+    <t>New View of type Card</t>
+  </si>
+  <si>
+    <t>Nouvelle Vue de type Carte</t>
+  </si>
+  <si>
+    <t>Nouvelle Vue de type Texte</t>
+  </si>
+  <si>
+    <t>New View of type Text</t>
+  </si>
+  <si>
+    <t>New Model</t>
+  </si>
+  <si>
+    <t>Nouveau Modèle</t>
+  </si>
+  <si>
+    <t>New SQL Model</t>
+  </si>
+  <si>
+    <t>Nouveau Modèle SQL</t>
+  </si>
+  <si>
+    <t>Model options</t>
+  </si>
+  <si>
+    <t>Options du modèle</t>
+  </si>
+  <si>
+    <t>View options</t>
+  </si>
+  <si>
+    <t>Options de la vue</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Mise en page</t>
+  </si>
+  <si>
+    <t>Custom folder</t>
+  </si>
+  <si>
+    <t>Répertoire spécifique</t>
+  </si>
+  <si>
+    <t>Card CSS</t>
+  </si>
+  <si>
+    <t>CSS de la carte</t>
+  </si>
+  <si>
+    <t>Optional card title</t>
+  </si>
+  <si>
+    <t>Titre optionnel de la carte</t>
+  </si>
+  <si>
+    <t>Show name</t>
+  </si>
+  <si>
+    <t>Afficher le nom</t>
+  </si>
+  <si>
+    <t>Show title</t>
+  </si>
+  <si>
+    <t>Afficher le titre</t>
+  </si>
+  <si>
+    <t>Invert title and name</t>
+  </si>
+  <si>
+    <t>Inverser le titre et le nom</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Carte</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>Use SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>Utiliser SELECT DISTINCT</t>
   </si>
 </sst>
 </file>
@@ -3610,11 +3745,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D532"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B348" sqref="B348"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,10 +5384,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>855</v>
       </c>
       <c r="D148" t="s">
-        <v>233</v>
+        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5260,10 +5395,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D149" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,10 +5406,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D150" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,10 +5417,10 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,10 +5428,10 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D152" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,21 +5439,21 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D153" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,10 +5461,10 @@
         <v>286</v>
       </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,10 +5472,10 @@
         <v>286</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D156" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,10 +5483,10 @@
         <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,10 +5494,10 @@
         <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D158" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,10 +5505,10 @@
         <v>286</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,10 +5516,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>296</v>
+        <v>940</v>
       </c>
       <c r="D160" t="s">
-        <v>297</v>
+        <v>941</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,10 +5527,10 @@
         <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,10 +5538,10 @@
         <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D162" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,10 +5549,10 @@
         <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D163" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,10 +5560,10 @@
         <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,10 +5571,10 @@
         <v>286</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D165" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,10 +5582,10 @@
         <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D166" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,10 +5593,10 @@
         <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,10 +5604,10 @@
         <v>286</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D168" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5480,10 +5615,10 @@
         <v>286</v>
       </c>
       <c r="B169" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D169" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,10 +5626,10 @@
         <v>286</v>
       </c>
       <c r="B170" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D170" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,10 +5637,10 @@
         <v>286</v>
       </c>
       <c r="B171" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="D171" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,10 +5648,10 @@
         <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,10 +5659,10 @@
         <v>286</v>
       </c>
       <c r="B173" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="D173" t="s">
-        <v>320</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,10 +5670,10 @@
         <v>286</v>
       </c>
       <c r="B174" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,10 +5681,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D175" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,10 +5692,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>327</v>
+        <v>918</v>
       </c>
       <c r="D176" t="s">
-        <v>328</v>
+        <v>919</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5568,10 +5703,10 @@
         <v>286</v>
       </c>
       <c r="B177" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D177" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,10 +5714,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D178" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,10 +5725,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D179" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5601,10 +5736,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D180" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,10 +5747,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D181" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,10 +5758,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D182" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,10 +5769,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>938</v>
       </c>
       <c r="D183" t="s">
-        <v>341</v>
+        <v>939</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5780,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D184" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,10 +5791,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,10 +5802,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D186" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,10 +5813,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D187" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,10 +5824,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D188" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,10 +5835,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D189" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,10 +5846,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="D190" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,10 +5857,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D191" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,10 +5868,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D192" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,10 +5879,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D193" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5755,10 +5890,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>904</v>
+        <v>60</v>
       </c>
       <c r="D194" t="s">
-        <v>905</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,10 +5901,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>902</v>
+        <v>354</v>
       </c>
       <c r="D195" t="s">
-        <v>903</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,10 +5912,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D196" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5788,10 +5923,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,10 +5934,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>363</v>
+        <v>904</v>
       </c>
       <c r="D198" t="s">
-        <v>364</v>
+        <v>905</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,10 +5945,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>365</v>
+        <v>902</v>
       </c>
       <c r="D199" t="s">
-        <v>366</v>
+        <v>903</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,10 +5956,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D200" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,10 +5967,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D201" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,10 +5978,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D202" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,10 +5989,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D203" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,10 +6000,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D204" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,10 +6011,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D205" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +6022,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>887</v>
+        <v>371</v>
       </c>
       <c r="D206" t="s">
-        <v>888</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,10 +6033,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D207" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,10 +6044,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D208" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,10 +6055,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D209" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,10 +6066,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>79</v>
+        <v>887</v>
       </c>
       <c r="D210" t="s">
-        <v>80</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,10 +6077,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D211" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,10 +6088,10 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D212" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,10 +6099,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D213" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,10 +6110,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="D214" t="s">
-        <v>392</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,10 +6121,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D215" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,10 +6132,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D216" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,10 +6143,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D217" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,10 +6154,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D218" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6165,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D219" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6176,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D220" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,10 +6187,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D221" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6063,10 +6198,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D222" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6074,10 +6209,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D223" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,10 +6220,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D224" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,10 +6231,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>899</v>
+        <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>899</v>
+        <v>404</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6242,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>889</v>
+        <v>405</v>
       </c>
       <c r="D226" t="s">
-        <v>890</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,10 +6253,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D227" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,10 +6264,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D228" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,10 +6275,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>415</v>
+        <v>899</v>
       </c>
       <c r="D229" t="s">
-        <v>416</v>
+        <v>899</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,10 +6286,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>417</v>
+        <v>889</v>
       </c>
       <c r="D230" t="s">
-        <v>418</v>
+        <v>890</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,10 +6297,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D231" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,10 +6308,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D232" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,10 +6319,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D233" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,10 +6330,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D234" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,10 +6341,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6217,10 +6352,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D236" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,10 +6363,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D237" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6239,10 +6374,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>432</v>
+        <v>936</v>
       </c>
       <c r="D238" t="s">
-        <v>433</v>
+        <v>937</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,10 +6385,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D239" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,10 +6396,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D240" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,10 +6407,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>719</v>
+        <v>428</v>
       </c>
       <c r="D241" t="s">
-        <v>720</v>
+        <v>429</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,10 +6418,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>721</v>
+        <v>430</v>
       </c>
       <c r="D242" t="s">
-        <v>722</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,10 +6429,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D243" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,10 +6440,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D244" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +6451,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D245" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,10 +6462,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="D246" t="s">
-        <v>445</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,10 +6473,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>446</v>
+        <v>932</v>
       </c>
       <c r="D247" t="s">
-        <v>447</v>
+        <v>933</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +6484,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>448</v>
+        <v>719</v>
       </c>
       <c r="D248" t="s">
-        <v>448</v>
+        <v>720</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6360,10 +6495,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>449</v>
+        <v>721</v>
       </c>
       <c r="D249" t="s">
-        <v>450</v>
+        <v>722</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,10 +6506,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D250" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +6517,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>453</v>
+        <v>915</v>
       </c>
       <c r="D251" t="s">
-        <v>454</v>
+        <v>916</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6393,10 +6528,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D252" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,10 +6539,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D253" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +6550,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="D254" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,10 +6561,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D255" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,10 +6572,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D256" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,10 +6583,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D257" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,10 +6594,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="D258" t="s">
-        <v>322</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,10 +6605,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D259" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,10 +6616,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D260" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,10 +6627,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D261" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +6638,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>472</v>
+        <v>942</v>
       </c>
       <c r="D262" t="s">
-        <v>473</v>
+        <v>943</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +6649,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D263" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,10 +6660,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D264" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,10 +6671,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D265" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,10 +6682,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D266" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,10 +6693,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="D267" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +6704,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D268" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,10 +6715,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D269" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,10 +6726,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D270" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,10 +6737,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>487</v>
+        <v>917</v>
       </c>
       <c r="D271" t="s">
-        <v>488</v>
+        <v>917</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6613,10 +6748,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D272" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +6759,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D273" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,10 +6770,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="D274" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6646,10 +6781,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D275" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +6792,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D276" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,10 +6803,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D277" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6679,10 +6814,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D278" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,10 +6825,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D279" t="s">
-        <v>502</v>
+        <v>351</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,10 +6836,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D280" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,10 +6847,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D281" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +6858,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D282" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6734,10 +6869,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D283" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +6880,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D284" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,10 +6891,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="D285" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +6902,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="D286" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +6913,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>517</v>
+        <v>17</v>
       </c>
       <c r="D287" t="s">
-        <v>518</v>
+        <v>164</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,10 +6924,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="D288" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6800,10 +6935,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="D289" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +6946,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>897</v>
+        <v>503</v>
       </c>
       <c r="D290" t="s">
-        <v>898</v>
+        <v>504</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,10 +6957,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="D291" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6833,10 +6968,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D292" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,10 +6979,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D293" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,10 +6990,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="D294" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6866,10 +7001,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="D295" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +7012,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="D296" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,10 +7023,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D297" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6899,10 +7034,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="D298" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +7045,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D299" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +7056,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>540</v>
+        <v>897</v>
       </c>
       <c r="D300" t="s">
-        <v>541</v>
+        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +7067,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="D301" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +7078,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D302" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,10 +7089,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>894</v>
+        <v>527</v>
       </c>
       <c r="D303" t="s">
-        <v>895</v>
+        <v>528</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,10 +7100,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D304" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,10 +7111,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="D305" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6987,10 +7122,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D306" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,10 +7133,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D307" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,10 +7144,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D308" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,10 +7155,10 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>557</v>
+        <v>911</v>
       </c>
       <c r="D309" t="s">
-        <v>558</v>
+        <v>912</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7166,10 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>555</v>
+        <v>913</v>
       </c>
       <c r="D310" t="s">
-        <v>556</v>
+        <v>914</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,10 +7177,10 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D311" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7053,10 +7188,10 @@
         <v>286</v>
       </c>
       <c r="B312" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="D312" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,164 +7199,164 @@
         <v>286</v>
       </c>
       <c r="B313" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D313" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B314" t="s">
-        <v>21</v>
+        <v>544</v>
       </c>
       <c r="D314" t="s">
-        <v>22</v>
+        <v>545</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B315" t="s">
-        <v>566</v>
+        <v>894</v>
       </c>
       <c r="D315" t="s">
-        <v>567</v>
+        <v>895</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B316" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="D316" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B317" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="D317" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B318" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="D318" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B319" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="D319" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B320" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="D320" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B321" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="D321" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B322" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="D322" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B323" t="s">
-        <v>30</v>
+        <v>934</v>
       </c>
       <c r="D323" t="s">
-        <v>31</v>
+        <v>935</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B324" t="s">
-        <v>581</v>
+        <v>920</v>
       </c>
       <c r="D324" t="s">
-        <v>582</v>
+        <v>921</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B325" t="s">
-        <v>34</v>
+        <v>559</v>
       </c>
       <c r="D325" t="s">
-        <v>35</v>
+        <v>560</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B326" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="D326" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B327" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="D327" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7229,10 +7364,10 @@
         <v>565</v>
       </c>
       <c r="B328" t="s">
-        <v>586</v>
+        <v>21</v>
       </c>
       <c r="D328" t="s">
-        <v>587</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,10 +7375,10 @@
         <v>565</v>
       </c>
       <c r="B329" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="D329" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,10 +7386,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>38</v>
+        <v>568</v>
       </c>
       <c r="D330" t="s">
-        <v>39</v>
+        <v>569</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7262,10 +7397,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D331" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,10 +7408,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D332" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,10 +7419,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="D333" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7295,10 +7430,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="D334" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,10 +7441,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="D335" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7317,10 +7452,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="D336" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7328,10 +7463,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D337" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7474,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="D338" t="s">
-        <v>628</v>
+        <v>582</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,10 +7485,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D339" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7361,10 +7496,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>54</v>
+        <v>583</v>
       </c>
       <c r="D340" t="s">
-        <v>55</v>
+        <v>583</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7372,10 +7507,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
       <c r="D341" t="s">
-        <v>53</v>
+        <v>585</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7383,10 +7518,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D342" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +7529,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="D343" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,10 +7540,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D344" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,10 +7551,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>909</v>
+        <v>590</v>
       </c>
       <c r="D345" t="s">
-        <v>910</v>
+        <v>591</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,10 +7562,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>908</v>
+        <v>592</v>
       </c>
       <c r="D346" t="s">
-        <v>907</v>
+        <v>593</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7438,10 +7573,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="D347" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,10 +7584,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D348" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,10 +7595,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D349" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,10 +7606,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D350" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7482,10 +7617,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>613</v>
+        <v>44</v>
       </c>
       <c r="D351" t="s">
-        <v>614</v>
+        <v>45</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,10 +7628,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>332</v>
+        <v>950</v>
       </c>
       <c r="D352" t="s">
-        <v>333</v>
+        <v>951</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7504,10 +7639,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="D353" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7515,10 +7650,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>617</v>
+        <v>50</v>
       </c>
       <c r="D354" t="s">
-        <v>618</v>
+        <v>51</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7526,10 +7661,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>619</v>
+        <v>54</v>
       </c>
       <c r="D355" t="s">
-        <v>620</v>
+        <v>55</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7537,10 +7672,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>621</v>
+        <v>52</v>
       </c>
       <c r="D356" t="s">
-        <v>622</v>
+        <v>53</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,10 +7683,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D357" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7559,10 +7694,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="D358" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,10 +7705,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>629</v>
+        <v>56</v>
       </c>
       <c r="D359" t="s">
-        <v>630</v>
+        <v>57</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7581,10 +7716,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>631</v>
+        <v>909</v>
       </c>
       <c r="D360" t="s">
-        <v>632</v>
+        <v>910</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7592,10 +7727,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>633</v>
+        <v>908</v>
       </c>
       <c r="D361" t="s">
-        <v>634</v>
+        <v>907</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7603,10 +7738,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="D362" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7614,10 +7749,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="D363" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7625,10 +7760,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="D364" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7636,10 +7771,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="D365" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,10 +7782,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="D366" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,10 +7793,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
       <c r="D367" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,10 +7804,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>65</v>
+        <v>615</v>
       </c>
       <c r="D368" t="s">
-        <v>62</v>
+        <v>616</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,10 +7815,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>63</v>
+        <v>617</v>
       </c>
       <c r="D369" t="s">
-        <v>66</v>
+        <v>618</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,10 +7826,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D370" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,10 +7837,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="D371" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7713,10 +7848,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D372" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,10 +7859,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D373" t="s">
-        <v>362</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7735,10 +7870,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="D374" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7746,10 +7881,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="D375" t="s">
-        <v>175</v>
+        <v>632</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7757,10 +7892,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="D376" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7768,10 +7903,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="D377" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,10 +7914,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="D378" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,10 +7925,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>75</v>
+        <v>639</v>
       </c>
       <c r="D379" t="s">
-        <v>76</v>
+        <v>639</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7936,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>77</v>
+        <v>640</v>
       </c>
       <c r="D380" t="s">
-        <v>78</v>
+        <v>641</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,10 +7947,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>379</v>
+        <v>642</v>
       </c>
       <c r="D381" t="s">
-        <v>380</v>
+        <v>643</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,10 +7958,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>668</v>
+        <v>61</v>
       </c>
       <c r="D382" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,10 +7969,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>669</v>
+        <v>65</v>
       </c>
       <c r="D383" t="s">
-        <v>670</v>
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7845,10 +7980,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>660</v>
+        <v>63</v>
       </c>
       <c r="D384" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,10 +7991,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="D385" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,10 +8002,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="D386" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,10 +8013,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="D387" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,10 +8024,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D388" t="s">
-        <v>667</v>
+        <v>362</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,10 +8035,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>393</v>
+        <v>651</v>
       </c>
       <c r="D389" t="s">
-        <v>394</v>
+        <v>652</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,10 +8046,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="D390" t="s">
-        <v>673</v>
+        <v>175</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,10 +8057,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="D391" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,10 +8068,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="D392" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,10 +8079,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="D393" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,10 +8090,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>680</v>
+        <v>75</v>
       </c>
       <c r="D394" t="s">
-        <v>681</v>
+        <v>76</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7966,10 +8101,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>682</v>
+        <v>77</v>
       </c>
       <c r="D395" t="s">
-        <v>683</v>
+        <v>78</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7977,10 +8112,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>684</v>
+        <v>379</v>
       </c>
       <c r="D396" t="s">
-        <v>685</v>
+        <v>380</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7988,10 +8123,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="D397" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7999,10 +8134,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="D398" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8010,10 +8145,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="D399" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8021,10 +8156,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="D400" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8032,10 +8167,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="D401" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8043,10 +8178,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="D402" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8054,10 +8189,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="D403" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8065,10 +8200,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>699</v>
+        <v>393</v>
       </c>
       <c r="D404" t="s">
-        <v>700</v>
+        <v>394</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8076,10 +8211,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>101</v>
+        <v>672</v>
       </c>
       <c r="D405" t="s">
-        <v>102</v>
+        <v>673</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8087,10 +8222,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>103</v>
+        <v>674</v>
       </c>
       <c r="D406" t="s">
-        <v>104</v>
+        <v>675</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8098,10 +8233,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>105</v>
+        <v>676</v>
       </c>
       <c r="D407" t="s">
-        <v>106</v>
+        <v>677</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8244,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>107</v>
+        <v>678</v>
       </c>
       <c r="D408" t="s">
-        <v>108</v>
+        <v>679</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8120,10 +8255,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>109</v>
+        <v>680</v>
       </c>
       <c r="D409" t="s">
-        <v>110</v>
+        <v>681</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8131,10 +8266,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>111</v>
+        <v>682</v>
       </c>
       <c r="D410" t="s">
-        <v>112</v>
+        <v>683</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8142,10 +8277,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>113</v>
+        <v>684</v>
       </c>
       <c r="D411" t="s">
-        <v>114</v>
+        <v>685</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8153,10 +8288,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D412" t="s">
-        <v>116</v>
+        <v>687</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,10 +8299,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>117</v>
+        <v>688</v>
       </c>
       <c r="D413" t="s">
-        <v>118</v>
+        <v>689</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,10 +8310,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>119</v>
+        <v>690</v>
       </c>
       <c r="D414" t="s">
-        <v>120</v>
+        <v>691</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8186,10 +8321,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>121</v>
+        <v>692</v>
       </c>
       <c r="D415" t="s">
-        <v>122</v>
+        <v>693</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8197,10 +8332,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>421</v>
+        <v>694</v>
       </c>
       <c r="D416" t="s">
-        <v>422</v>
+        <v>695</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8208,10 +8343,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D417" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8219,10 +8354,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D418" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8365,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D419" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8241,10 +8376,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>707</v>
+        <v>948</v>
       </c>
       <c r="D420" t="s">
-        <v>707</v>
+        <v>949</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8252,10 +8387,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D421" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8398,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>708</v>
+        <v>103</v>
       </c>
       <c r="D422" t="s">
-        <v>708</v>
+        <v>104</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8274,10 +8409,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D423" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8285,10 +8420,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>709</v>
+        <v>107</v>
       </c>
       <c r="D424" t="s">
-        <v>709</v>
+        <v>108</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8296,10 +8431,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>710</v>
+        <v>109</v>
       </c>
       <c r="D425" t="s">
-        <v>710</v>
+        <v>110</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8307,10 +8442,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>711</v>
+        <v>111</v>
       </c>
       <c r="D426" t="s">
-        <v>712</v>
+        <v>112</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8318,10 +8453,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>713</v>
+        <v>113</v>
       </c>
       <c r="D427" t="s">
-        <v>714</v>
+        <v>114</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,10 +8464,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>715</v>
+        <v>115</v>
       </c>
       <c r="D428" t="s">
-        <v>716</v>
+        <v>116</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8340,10 +8475,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>719</v>
+        <v>117</v>
       </c>
       <c r="D429" t="s">
-        <v>720</v>
+        <v>118</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8351,10 +8486,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>721</v>
+        <v>119</v>
       </c>
       <c r="D430" t="s">
-        <v>722</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8362,10 +8497,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>717</v>
+        <v>121</v>
       </c>
       <c r="D431" t="s">
-        <v>718</v>
+        <v>122</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8373,10 +8508,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>723</v>
+        <v>421</v>
       </c>
       <c r="D432" t="s">
-        <v>724</v>
+        <v>422</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8384,10 +8519,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>135</v>
+        <v>701</v>
       </c>
       <c r="D433" t="s">
-        <v>136</v>
+        <v>702</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8395,10 +8530,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="D434" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,10 +8541,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="D435" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8417,10 +8552,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="D436" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8428,10 +8563,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>731</v>
+        <v>125</v>
       </c>
       <c r="D437" t="s">
-        <v>732</v>
+        <v>126</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8439,10 +8574,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="D438" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8450,10 +8585,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>735</v>
+        <v>127</v>
       </c>
       <c r="D439" t="s">
-        <v>736</v>
+        <v>128</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8461,10 +8596,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="D440" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,10 +8607,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="D441" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,10 +8618,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>741</v>
+        <v>129</v>
       </c>
       <c r="D442" t="s">
-        <v>742</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,10 +8629,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="D443" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8505,10 +8640,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="D444" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8516,10 +8651,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="D445" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8527,10 +8662,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="D446" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,10 +8673,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="D447" t="s">
-        <v>605</v>
+        <v>722</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8549,10 +8684,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="D448" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8560,10 +8695,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="D449" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8571,10 +8706,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>755</v>
+        <v>135</v>
       </c>
       <c r="D450" t="s">
-        <v>756</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8582,10 +8717,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>757</v>
+        <v>928</v>
       </c>
       <c r="D451" t="s">
-        <v>758</v>
+        <v>929</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,10 +8728,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>448</v>
+        <v>930</v>
       </c>
       <c r="D452" t="s">
-        <v>448</v>
+        <v>931</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8604,10 +8739,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="D453" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8615,10 +8750,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>459</v>
+        <v>922</v>
       </c>
       <c r="D454" t="s">
-        <v>459</v>
+        <v>923</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,10 +8761,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>460</v>
+        <v>924</v>
       </c>
       <c r="D455" t="s">
-        <v>461</v>
+        <v>925</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8637,10 +8772,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>761</v>
+        <v>927</v>
       </c>
       <c r="D456" t="s">
-        <v>761</v>
+        <v>926</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,10 +8783,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>762</v>
+        <v>727</v>
       </c>
       <c r="D457" t="s">
-        <v>763</v>
+        <v>728</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8659,10 +8794,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>764</v>
+        <v>729</v>
       </c>
       <c r="D458" t="s">
-        <v>765</v>
+        <v>730</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8670,10 +8805,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="D459" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8681,10 +8816,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="D460" t="s">
-        <v>769</v>
+        <v>734</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8692,10 +8827,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="D461" t="s">
-        <v>771</v>
+        <v>736</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8703,10 +8838,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="D462" t="s">
-        <v>773</v>
+        <v>738</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8714,10 +8849,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>774</v>
+        <v>739</v>
       </c>
       <c r="D463" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8725,10 +8860,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>782</v>
+        <v>741</v>
       </c>
       <c r="D464" t="s">
-        <v>783</v>
+        <v>742</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8736,10 +8871,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>470</v>
+        <v>743</v>
       </c>
       <c r="D465" t="s">
-        <v>471</v>
+        <v>744</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8747,10 +8882,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="D466" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8758,10 +8893,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="D467" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8769,10 +8904,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="D468" t="s">
-        <v>781</v>
+        <v>744</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,10 +8915,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>156</v>
+        <v>750</v>
       </c>
       <c r="D469" t="s">
-        <v>157</v>
+        <v>605</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8791,10 +8926,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>472</v>
+        <v>751</v>
       </c>
       <c r="D470" t="s">
-        <v>473</v>
+        <v>752</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,10 +8937,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="D471" t="s">
-        <v>479</v>
+        <v>754</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8813,10 +8948,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="D472" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8824,10 +8959,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="D473" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8835,10 +8970,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>789</v>
+        <v>448</v>
       </c>
       <c r="D474" t="s">
-        <v>790</v>
+        <v>448</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,10 +8981,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="D475" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8857,10 +8992,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>793</v>
+        <v>459</v>
       </c>
       <c r="D476" t="s">
-        <v>794</v>
+        <v>459</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -8868,10 +9003,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>795</v>
+        <v>460</v>
       </c>
       <c r="D477" t="s">
-        <v>795</v>
+        <v>461</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,10 +9014,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>484</v>
+        <v>761</v>
       </c>
       <c r="D478" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -8890,10 +9025,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>487</v>
+        <v>762</v>
       </c>
       <c r="D479" t="s">
-        <v>488</v>
+        <v>763</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -8901,10 +9036,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>17</v>
+        <v>764</v>
       </c>
       <c r="D480" t="s">
-        <v>164</v>
+        <v>765</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -8912,10 +9047,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="D481" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -8923,10 +9058,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="D482" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -8934,10 +9069,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="D483" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,10 +9080,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="D484" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,10 +9091,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="D485" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -8967,10 +9102,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="D486" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -8978,10 +9113,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="D487" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,10 +9124,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="D488" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -9000,10 +9135,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>519</v>
+        <v>778</v>
       </c>
       <c r="D489" t="s">
-        <v>520</v>
+        <v>779</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9011,10 +9146,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>178</v>
+        <v>780</v>
       </c>
       <c r="D490" t="s">
-        <v>179</v>
+        <v>781</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9022,10 +9157,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D491" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,10 +9168,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>182</v>
+        <v>472</v>
       </c>
       <c r="D492" t="s">
-        <v>33</v>
+        <v>473</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9044,10 +9179,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="D493" t="s">
-        <v>812</v>
+        <v>479</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9055,10 +9190,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="D494" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,10 +9201,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>187</v>
+        <v>787</v>
       </c>
       <c r="D495" t="s">
-        <v>188</v>
+        <v>788</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9077,10 +9212,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="D496" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9088,10 +9223,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="D497" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9099,10 +9234,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="D498" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9110,10 +9245,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="D499" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9121,10 +9256,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>823</v>
+        <v>484</v>
       </c>
       <c r="D500" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9132,10 +9267,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>825</v>
+        <v>487</v>
       </c>
       <c r="D501" t="s">
-        <v>826</v>
+        <v>488</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9143,10 +9278,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>827</v>
+        <v>17</v>
       </c>
       <c r="D502" t="s">
-        <v>828</v>
+        <v>164</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9154,10 +9289,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="D503" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9165,10 +9300,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="D504" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9176,10 +9311,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="D505" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9322,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>196</v>
+        <v>803</v>
       </c>
       <c r="D506" t="s">
-        <v>197</v>
+        <v>804</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9198,10 +9333,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="D507" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9209,10 +9344,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="D508" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9220,10 +9355,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>839</v>
+        <v>507</v>
       </c>
       <c r="D509" t="s">
-        <v>840</v>
+        <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9231,10 +9366,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="D510" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,10 +9377,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>843</v>
+        <v>519</v>
       </c>
       <c r="D511" t="s">
-        <v>844</v>
+        <v>520</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,10 +9388,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>845</v>
+        <v>178</v>
       </c>
       <c r="D512" t="s">
-        <v>846</v>
+        <v>179</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9264,10 +9399,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>847</v>
+        <v>180</v>
       </c>
       <c r="D513" t="s">
-        <v>848</v>
+        <v>181</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,10 +9410,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>853</v>
+        <v>182</v>
       </c>
       <c r="D514" t="s">
-        <v>854</v>
+        <v>33</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9286,10 +9421,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="D515" t="s">
-        <v>850</v>
+        <v>812</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9297,10 +9432,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="D516" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9308,10 +9443,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>855</v>
+        <v>187</v>
       </c>
       <c r="D517" t="s">
-        <v>856</v>
+        <v>188</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9319,10 +9454,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="D518" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9330,10 +9465,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D519" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9476,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="D520" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9352,10 +9487,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="D521" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9363,10 +9498,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="D522" t="s">
-        <v>866</v>
+        <v>824</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9374,10 +9509,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="D523" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9385,10 +9520,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="D524" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,10 +9531,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="D525" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9407,10 +9542,10 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>873</v>
+        <v>944</v>
       </c>
       <c r="D526" t="s">
-        <v>874</v>
+        <v>945</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,10 +9553,10 @@
         <v>565</v>
       </c>
       <c r="B527" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="D527" t="s">
-        <v>876</v>
+        <v>947</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9429,10 +9564,10 @@
         <v>565</v>
       </c>
       <c r="B528" t="s">
-        <v>877</v>
+        <v>831</v>
       </c>
       <c r="D528" t="s">
-        <v>878</v>
+        <v>832</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9440,10 +9575,10 @@
         <v>565</v>
       </c>
       <c r="B529" t="s">
-        <v>881</v>
+        <v>833</v>
       </c>
       <c r="D529" t="s">
-        <v>882</v>
+        <v>834</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9451,10 +9586,10 @@
         <v>565</v>
       </c>
       <c r="B530" t="s">
-        <v>885</v>
+        <v>196</v>
       </c>
       <c r="D530" t="s">
-        <v>886</v>
+        <v>197</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9462,10 +9597,10 @@
         <v>565</v>
       </c>
       <c r="B531" t="s">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="D531" t="s">
-        <v>880</v>
+        <v>836</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9473,17 +9608,303 @@
         <v>565</v>
       </c>
       <c r="B532" t="s">
+        <v>952</v>
+      </c>
+      <c r="D532" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>565</v>
+      </c>
+      <c r="B533" t="s">
+        <v>837</v>
+      </c>
+      <c r="D533" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>565</v>
+      </c>
+      <c r="B534" t="s">
+        <v>839</v>
+      </c>
+      <c r="D534" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>565</v>
+      </c>
+      <c r="B535" t="s">
+        <v>841</v>
+      </c>
+      <c r="D535" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>565</v>
+      </c>
+      <c r="B536" t="s">
+        <v>843</v>
+      </c>
+      <c r="D536" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>565</v>
+      </c>
+      <c r="B537" t="s">
+        <v>845</v>
+      </c>
+      <c r="D537" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>565</v>
+      </c>
+      <c r="B538" t="s">
+        <v>847</v>
+      </c>
+      <c r="D538" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>565</v>
+      </c>
+      <c r="B539" t="s">
+        <v>853</v>
+      </c>
+      <c r="D539" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>565</v>
+      </c>
+      <c r="B540" t="s">
+        <v>849</v>
+      </c>
+      <c r="D540" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>565</v>
+      </c>
+      <c r="B541" t="s">
+        <v>851</v>
+      </c>
+      <c r="D541" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>565</v>
+      </c>
+      <c r="B542" t="s">
+        <v>954</v>
+      </c>
+      <c r="D542" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>565</v>
+      </c>
+      <c r="B543" t="s">
+        <v>855</v>
+      </c>
+      <c r="D543" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>565</v>
+      </c>
+      <c r="B544" t="s">
+        <v>857</v>
+      </c>
+      <c r="D544" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>565</v>
+      </c>
+      <c r="B545" t="s">
+        <v>859</v>
+      </c>
+      <c r="D545" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>565</v>
+      </c>
+      <c r="B546" t="s">
+        <v>861</v>
+      </c>
+      <c r="D546" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>565</v>
+      </c>
+      <c r="B547" t="s">
+        <v>863</v>
+      </c>
+      <c r="D547" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>565</v>
+      </c>
+      <c r="B548" t="s">
+        <v>865</v>
+      </c>
+      <c r="D548" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>565</v>
+      </c>
+      <c r="B549" t="s">
+        <v>867</v>
+      </c>
+      <c r="D549" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>565</v>
+      </c>
+      <c r="B550" t="s">
+        <v>869</v>
+      </c>
+      <c r="D550" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>565</v>
+      </c>
+      <c r="B551" t="s">
+        <v>871</v>
+      </c>
+      <c r="D551" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>565</v>
+      </c>
+      <c r="B552" t="s">
+        <v>873</v>
+      </c>
+      <c r="D552" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>565</v>
+      </c>
+      <c r="B553" t="s">
+        <v>875</v>
+      </c>
+      <c r="D553" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>565</v>
+      </c>
+      <c r="B554" t="s">
+        <v>877</v>
+      </c>
+      <c r="D554" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>565</v>
+      </c>
+      <c r="B555" t="s">
+        <v>881</v>
+      </c>
+      <c r="D555" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>565</v>
+      </c>
+      <c r="B556" t="s">
+        <v>885</v>
+      </c>
+      <c r="D556" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>565</v>
+      </c>
+      <c r="B557" t="s">
+        <v>879</v>
+      </c>
+      <c r="D557" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>565</v>
+      </c>
+      <c r="B558" t="s">
         <v>883</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D558" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D531" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D532">
-    <sortCondition ref="A2:A532"/>
-    <sortCondition ref="B2:B532"/>
+  <autoFilter ref="A1:D557" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D558">
+    <sortCondition ref="A2:A558"/>
+    <sortCondition ref="B2:B558"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE23735-1518-43F0-96EE-A3E8BFF41875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013F394-F80B-4072-A2F0-30E04EF524DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$557</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$559</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="960">
   <si>
     <t>Context</t>
   </si>
@@ -2891,6 +2891,18 @@
   </si>
   <si>
     <t>Utiliser SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Modèles</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Vues</t>
   </si>
 </sst>
 </file>
@@ -3745,11 +3757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,10 +6485,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="D247" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,10 +6496,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>719</v>
+        <v>932</v>
       </c>
       <c r="D248" t="s">
-        <v>720</v>
+        <v>933</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,10 +6507,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D249" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6506,10 +6518,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
       <c r="D250" t="s">
-        <v>439</v>
+        <v>722</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,10 +6529,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>915</v>
+        <v>438</v>
       </c>
       <c r="D251" t="s">
-        <v>916</v>
+        <v>439</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6528,10 +6540,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>440</v>
+        <v>915</v>
       </c>
       <c r="D252" t="s">
-        <v>441</v>
+        <v>916</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6539,10 +6551,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D253" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,10 +6562,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D254" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6561,10 +6573,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D255" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6572,10 +6584,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D256" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,10 +6595,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D257" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,10 +6606,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D258" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6605,10 +6617,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D259" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6616,10 +6628,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D260" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6627,10 +6639,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D261" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6638,10 +6650,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>942</v>
+        <v>457</v>
       </c>
       <c r="D262" t="s">
-        <v>943</v>
+        <v>458</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6649,10 +6661,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>459</v>
+        <v>942</v>
       </c>
       <c r="D263" t="s">
-        <v>459</v>
+        <v>943</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6660,10 +6672,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6671,10 +6683,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D265" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6682,10 +6694,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D266" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6693,10 +6705,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D267" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6704,10 +6716,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>466</v>
+        <v>321</v>
       </c>
       <c r="D268" t="s">
-        <v>467</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6715,10 +6727,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D269" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6726,10 +6738,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D270" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,10 +6749,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>917</v>
+        <v>470</v>
       </c>
       <c r="D271" t="s">
-        <v>917</v>
+        <v>471</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6748,10 +6760,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>472</v>
+        <v>917</v>
       </c>
       <c r="D272" t="s">
-        <v>473</v>
+        <v>917</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6759,10 +6771,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D273" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6770,10 +6782,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D274" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6781,10 +6793,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D275" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6792,10 +6804,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D276" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6803,10 +6815,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D277" t="s">
-        <v>231</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6814,10 +6826,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="D278" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,10 +6837,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D279" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6836,10 +6848,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D280" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6847,10 +6859,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D281" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6858,10 +6870,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D282" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6869,10 +6881,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D283" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6880,10 +6892,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D284" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,10 +6903,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D285" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6902,10 +6914,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D286" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6913,10 +6925,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="D287" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6924,10 +6936,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>499</v>
+        <v>17</v>
       </c>
       <c r="D288" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6935,10 +6947,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D289" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6946,10 +6958,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D290" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6957,10 +6969,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D291" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6968,10 +6980,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D292" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6979,10 +6991,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D293" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6990,10 +7002,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D294" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7001,10 +7013,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D295" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7012,10 +7024,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D296" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7023,10 +7035,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D297" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7034,10 +7046,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D298" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,10 +7057,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D299" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7056,10 +7068,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>897</v>
+        <v>521</v>
       </c>
       <c r="D300" t="s">
-        <v>898</v>
+        <v>522</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7067,10 +7079,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>523</v>
+        <v>897</v>
       </c>
       <c r="D301" t="s">
-        <v>524</v>
+        <v>898</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7078,10 +7090,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D302" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7089,10 +7101,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D303" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7100,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D304" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,10 +7123,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D305" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7122,10 +7134,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D306" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7133,10 +7145,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D307" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7144,10 +7156,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D308" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7155,10 +7167,10 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>911</v>
+        <v>536</v>
       </c>
       <c r="D309" t="s">
-        <v>912</v>
+        <v>537</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7166,10 +7178,10 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D310" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7177,10 +7189,10 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>538</v>
+        <v>913</v>
       </c>
       <c r="D311" t="s">
-        <v>539</v>
+        <v>914</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7188,10 +7200,10 @@
         <v>286</v>
       </c>
       <c r="B312" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D312" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,10 +7211,10 @@
         <v>286</v>
       </c>
       <c r="B313" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D313" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7210,10 +7222,10 @@
         <v>286</v>
       </c>
       <c r="B314" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D314" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7221,10 +7233,10 @@
         <v>286</v>
       </c>
       <c r="B315" t="s">
-        <v>894</v>
+        <v>544</v>
       </c>
       <c r="D315" t="s">
-        <v>895</v>
+        <v>545</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7232,10 +7244,10 @@
         <v>286</v>
       </c>
       <c r="B316" t="s">
-        <v>546</v>
+        <v>894</v>
       </c>
       <c r="D316" t="s">
-        <v>546</v>
+        <v>895</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7243,10 +7255,10 @@
         <v>286</v>
       </c>
       <c r="B317" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D317" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,10 +7266,10 @@
         <v>286</v>
       </c>
       <c r="B318" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D318" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7265,10 +7277,10 @@
         <v>286</v>
       </c>
       <c r="B319" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D319" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7276,10 +7288,10 @@
         <v>286</v>
       </c>
       <c r="B320" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D320" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7287,10 +7299,10 @@
         <v>286</v>
       </c>
       <c r="B321" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D321" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7298,10 +7310,10 @@
         <v>286</v>
       </c>
       <c r="B322" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D322" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7309,10 +7321,10 @@
         <v>286</v>
       </c>
       <c r="B323" t="s">
-        <v>934</v>
+        <v>555</v>
       </c>
       <c r="D323" t="s">
-        <v>935</v>
+        <v>556</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7320,10 +7332,10 @@
         <v>286</v>
       </c>
       <c r="B324" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="D324" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7331,10 +7343,10 @@
         <v>286</v>
       </c>
       <c r="B325" t="s">
-        <v>559</v>
+        <v>920</v>
       </c>
       <c r="D325" t="s">
-        <v>560</v>
+        <v>921</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7342,10 +7354,10 @@
         <v>286</v>
       </c>
       <c r="B326" t="s">
-        <v>563</v>
+        <v>958</v>
       </c>
       <c r="D326" t="s">
-        <v>564</v>
+        <v>959</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,32 +7365,32 @@
         <v>286</v>
       </c>
       <c r="B327" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D327" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B328" t="s">
-        <v>21</v>
+        <v>563</v>
       </c>
       <c r="D328" t="s">
-        <v>22</v>
+        <v>564</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B329" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D329" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7386,10 +7398,10 @@
         <v>565</v>
       </c>
       <c r="B330" t="s">
-        <v>568</v>
+        <v>21</v>
       </c>
       <c r="D330" t="s">
-        <v>569</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7397,10 +7409,10 @@
         <v>565</v>
       </c>
       <c r="B331" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D331" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7408,10 +7420,10 @@
         <v>565</v>
       </c>
       <c r="B332" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D332" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,10 +7431,10 @@
         <v>565</v>
       </c>
       <c r="B333" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D333" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7430,10 +7442,10 @@
         <v>565</v>
       </c>
       <c r="B334" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D334" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7441,10 +7453,10 @@
         <v>565</v>
       </c>
       <c r="B335" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D335" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7452,10 +7464,10 @@
         <v>565</v>
       </c>
       <c r="B336" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D336" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7463,10 +7475,10 @@
         <v>565</v>
       </c>
       <c r="B337" t="s">
-        <v>30</v>
+        <v>578</v>
       </c>
       <c r="D337" t="s">
-        <v>31</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,10 +7486,10 @@
         <v>565</v>
       </c>
       <c r="B338" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D338" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7485,10 +7497,10 @@
         <v>565</v>
       </c>
       <c r="B339" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D339" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7496,10 +7508,10 @@
         <v>565</v>
       </c>
       <c r="B340" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D340" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,10 +7519,10 @@
         <v>565</v>
       </c>
       <c r="B341" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="D341" t="s">
-        <v>585</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7518,10 +7530,10 @@
         <v>565</v>
       </c>
       <c r="B342" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D342" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7529,10 +7541,10 @@
         <v>565</v>
       </c>
       <c r="B343" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D343" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7540,10 +7552,10 @@
         <v>565</v>
       </c>
       <c r="B344" t="s">
-        <v>38</v>
+        <v>586</v>
       </c>
       <c r="D344" t="s">
-        <v>39</v>
+        <v>587</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7551,10 +7563,10 @@
         <v>565</v>
       </c>
       <c r="B345" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D345" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7562,10 +7574,10 @@
         <v>565</v>
       </c>
       <c r="B346" t="s">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="D346" t="s">
-        <v>593</v>
+        <v>39</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7573,10 +7585,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D347" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,10 +7596,10 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D348" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7595,10 +7607,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D349" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7606,10 +7618,10 @@
         <v>565</v>
       </c>
       <c r="B350" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D350" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7617,10 +7629,10 @@
         <v>565</v>
       </c>
       <c r="B351" t="s">
-        <v>44</v>
+        <v>598</v>
       </c>
       <c r="D351" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7628,10 +7640,10 @@
         <v>565</v>
       </c>
       <c r="B352" t="s">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="D352" t="s">
-        <v>951</v>
+        <v>601</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7639,10 +7651,10 @@
         <v>565</v>
       </c>
       <c r="B353" t="s">
-        <v>627</v>
+        <v>44</v>
       </c>
       <c r="D353" t="s">
-        <v>628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7650,10 +7662,10 @@
         <v>565</v>
       </c>
       <c r="B354" t="s">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="D354" t="s">
-        <v>51</v>
+        <v>951</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,10 +7673,10 @@
         <v>565</v>
       </c>
       <c r="B355" t="s">
-        <v>54</v>
+        <v>627</v>
       </c>
       <c r="D355" t="s">
-        <v>55</v>
+        <v>628</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7672,10 +7684,10 @@
         <v>565</v>
       </c>
       <c r="B356" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D356" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7683,10 +7695,10 @@
         <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="D357" t="s">
-        <v>603</v>
+        <v>55</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7694,10 +7706,10 @@
         <v>565</v>
       </c>
       <c r="B358" t="s">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="D358" t="s">
-        <v>605</v>
+        <v>53</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7705,10 +7717,10 @@
         <v>565</v>
       </c>
       <c r="B359" t="s">
-        <v>56</v>
+        <v>602</v>
       </c>
       <c r="D359" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7716,10 +7728,10 @@
         <v>565</v>
       </c>
       <c r="B360" t="s">
-        <v>909</v>
+        <v>604</v>
       </c>
       <c r="D360" t="s">
-        <v>910</v>
+        <v>605</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7727,10 +7739,10 @@
         <v>565</v>
       </c>
       <c r="B361" t="s">
-        <v>908</v>
+        <v>56</v>
       </c>
       <c r="D361" t="s">
-        <v>907</v>
+        <v>57</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7738,10 +7750,10 @@
         <v>565</v>
       </c>
       <c r="B362" t="s">
-        <v>610</v>
+        <v>909</v>
       </c>
       <c r="D362" t="s">
-        <v>611</v>
+        <v>910</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7749,10 +7761,10 @@
         <v>565</v>
       </c>
       <c r="B363" t="s">
-        <v>608</v>
+        <v>908</v>
       </c>
       <c r="D363" t="s">
-        <v>609</v>
+        <v>907</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7760,10 +7772,10 @@
         <v>565</v>
       </c>
       <c r="B364" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D364" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7771,10 +7783,10 @@
         <v>565</v>
       </c>
       <c r="B365" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D365" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7782,10 +7794,10 @@
         <v>565</v>
       </c>
       <c r="B366" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D366" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7793,10 +7805,10 @@
         <v>565</v>
       </c>
       <c r="B367" t="s">
-        <v>332</v>
+        <v>612</v>
       </c>
       <c r="D367" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7804,10 +7816,10 @@
         <v>565</v>
       </c>
       <c r="B368" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D368" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7815,10 +7827,10 @@
         <v>565</v>
       </c>
       <c r="B369" t="s">
-        <v>617</v>
+        <v>332</v>
       </c>
       <c r="D369" t="s">
-        <v>618</v>
+        <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7826,10 +7838,10 @@
         <v>565</v>
       </c>
       <c r="B370" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D370" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7837,10 +7849,10 @@
         <v>565</v>
       </c>
       <c r="B371" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D371" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7848,10 +7860,10 @@
         <v>565</v>
       </c>
       <c r="B372" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D372" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7859,10 +7871,10 @@
         <v>565</v>
       </c>
       <c r="B373" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D373" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7870,10 +7882,10 @@
         <v>565</v>
       </c>
       <c r="B374" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D374" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,10 +7893,10 @@
         <v>565</v>
       </c>
       <c r="B375" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D375" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7892,10 +7904,10 @@
         <v>565</v>
       </c>
       <c r="B376" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D376" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7903,10 +7915,10 @@
         <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D377" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7914,10 +7926,10 @@
         <v>565</v>
       </c>
       <c r="B378" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D378" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7925,10 +7937,10 @@
         <v>565</v>
       </c>
       <c r="B379" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D379" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7936,10 +7948,10 @@
         <v>565</v>
       </c>
       <c r="B380" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D380" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7947,10 +7959,10 @@
         <v>565</v>
       </c>
       <c r="B381" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D381" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7958,10 +7970,10 @@
         <v>565</v>
       </c>
       <c r="B382" t="s">
-        <v>61</v>
+        <v>640</v>
       </c>
       <c r="D382" t="s">
-        <v>64</v>
+        <v>641</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,10 +7981,10 @@
         <v>565</v>
       </c>
       <c r="B383" t="s">
-        <v>65</v>
+        <v>642</v>
       </c>
       <c r="D383" t="s">
-        <v>62</v>
+        <v>643</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7980,10 +7992,10 @@
         <v>565</v>
       </c>
       <c r="B384" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D384" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7991,10 +8003,10 @@
         <v>565</v>
       </c>
       <c r="B385" t="s">
-        <v>644</v>
+        <v>65</v>
       </c>
       <c r="D385" t="s">
-        <v>645</v>
+        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -8002,10 +8014,10 @@
         <v>565</v>
       </c>
       <c r="B386" t="s">
-        <v>646</v>
+        <v>63</v>
       </c>
       <c r="D386" t="s">
-        <v>647</v>
+        <v>66</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8013,10 +8025,10 @@
         <v>565</v>
       </c>
       <c r="B387" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D387" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -8024,10 +8036,10 @@
         <v>565</v>
       </c>
       <c r="B388" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D388" t="s">
-        <v>362</v>
+        <v>647</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,10 +8047,10 @@
         <v>565</v>
       </c>
       <c r="B389" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D389" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8046,10 +8058,10 @@
         <v>565</v>
       </c>
       <c r="B390" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D390" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8057,10 +8069,10 @@
         <v>565</v>
       </c>
       <c r="B391" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D391" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -8068,10 +8080,10 @@
         <v>565</v>
       </c>
       <c r="B392" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D392" t="s">
-        <v>657</v>
+        <v>175</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -8079,10 +8091,10 @@
         <v>565</v>
       </c>
       <c r="B393" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D393" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -8090,10 +8102,10 @@
         <v>565</v>
       </c>
       <c r="B394" t="s">
-        <v>75</v>
+        <v>656</v>
       </c>
       <c r="D394" t="s">
-        <v>76</v>
+        <v>657</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -8101,10 +8113,10 @@
         <v>565</v>
       </c>
       <c r="B395" t="s">
-        <v>77</v>
+        <v>658</v>
       </c>
       <c r="D395" t="s">
-        <v>78</v>
+        <v>659</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8112,10 +8124,10 @@
         <v>565</v>
       </c>
       <c r="B396" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="D396" t="s">
-        <v>380</v>
+        <v>76</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,10 +8135,10 @@
         <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>668</v>
+        <v>77</v>
       </c>
       <c r="D397" t="s">
-        <v>668</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -8134,10 +8146,10 @@
         <v>565</v>
       </c>
       <c r="B398" t="s">
-        <v>669</v>
+        <v>379</v>
       </c>
       <c r="D398" t="s">
-        <v>670</v>
+        <v>380</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8145,10 +8157,10 @@
         <v>565</v>
       </c>
       <c r="B399" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D399" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8156,10 +8168,10 @@
         <v>565</v>
       </c>
       <c r="B400" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D400" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8167,10 +8179,10 @@
         <v>565</v>
       </c>
       <c r="B401" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D401" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8178,10 +8190,10 @@
         <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D402" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,10 +8201,10 @@
         <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D403" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8200,10 +8212,10 @@
         <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>393</v>
+        <v>664</v>
       </c>
       <c r="D404" t="s">
-        <v>394</v>
+        <v>665</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8211,10 +8223,10 @@
         <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D405" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8222,10 +8234,10 @@
         <v>565</v>
       </c>
       <c r="B406" t="s">
-        <v>674</v>
+        <v>393</v>
       </c>
       <c r="D406" t="s">
-        <v>675</v>
+        <v>394</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8233,10 +8245,10 @@
         <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D407" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,10 +8256,10 @@
         <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D408" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8255,10 +8267,10 @@
         <v>565</v>
       </c>
       <c r="B409" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D409" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8266,10 +8278,10 @@
         <v>565</v>
       </c>
       <c r="B410" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D410" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8277,10 +8289,10 @@
         <v>565</v>
       </c>
       <c r="B411" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D411" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8288,10 +8300,10 @@
         <v>565</v>
       </c>
       <c r="B412" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D412" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8299,10 +8311,10 @@
         <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D413" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8310,10 +8322,10 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D414" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8321,10 +8333,10 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D415" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8332,10 +8344,10 @@
         <v>565</v>
       </c>
       <c r="B416" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D416" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8343,10 +8355,10 @@
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D417" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8354,10 +8366,10 @@
         <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D418" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8365,10 +8377,10 @@
         <v>565</v>
       </c>
       <c r="B419" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D419" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8376,10 +8388,10 @@
         <v>565</v>
       </c>
       <c r="B420" t="s">
-        <v>948</v>
+        <v>697</v>
       </c>
       <c r="D420" t="s">
-        <v>949</v>
+        <v>698</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8387,10 +8399,10 @@
         <v>565</v>
       </c>
       <c r="B421" t="s">
-        <v>101</v>
+        <v>699</v>
       </c>
       <c r="D421" t="s">
-        <v>102</v>
+        <v>700</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8398,10 +8410,10 @@
         <v>565</v>
       </c>
       <c r="B422" t="s">
-        <v>103</v>
+        <v>948</v>
       </c>
       <c r="D422" t="s">
-        <v>104</v>
+        <v>949</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8409,10 +8421,10 @@
         <v>565</v>
       </c>
       <c r="B423" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D423" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8420,10 +8432,10 @@
         <v>565</v>
       </c>
       <c r="B424" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D424" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8431,10 +8443,10 @@
         <v>565</v>
       </c>
       <c r="B425" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D425" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8442,10 +8454,10 @@
         <v>565</v>
       </c>
       <c r="B426" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D426" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8453,10 +8465,10 @@
         <v>565</v>
       </c>
       <c r="B427" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D427" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8464,10 +8476,10 @@
         <v>565</v>
       </c>
       <c r="B428" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D428" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8475,10 +8487,10 @@
         <v>565</v>
       </c>
       <c r="B429" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D429" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8486,10 +8498,10 @@
         <v>565</v>
       </c>
       <c r="B430" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D430" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8497,10 +8509,10 @@
         <v>565</v>
       </c>
       <c r="B431" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D431" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8508,10 +8520,10 @@
         <v>565</v>
       </c>
       <c r="B432" t="s">
-        <v>421</v>
+        <v>119</v>
       </c>
       <c r="D432" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8519,10 +8531,10 @@
         <v>565</v>
       </c>
       <c r="B433" t="s">
-        <v>701</v>
+        <v>121</v>
       </c>
       <c r="D433" t="s">
-        <v>702</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8530,10 +8542,10 @@
         <v>565</v>
       </c>
       <c r="B434" t="s">
-        <v>703</v>
+        <v>421</v>
       </c>
       <c r="D434" t="s">
-        <v>704</v>
+        <v>422</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8541,10 +8553,10 @@
         <v>565</v>
       </c>
       <c r="B435" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D435" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8552,10 +8564,10 @@
         <v>565</v>
       </c>
       <c r="B436" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D436" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8563,10 +8575,10 @@
         <v>565</v>
       </c>
       <c r="B437" t="s">
-        <v>125</v>
+        <v>705</v>
       </c>
       <c r="D437" t="s">
-        <v>126</v>
+        <v>706</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8574,10 +8586,10 @@
         <v>565</v>
       </c>
       <c r="B438" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D438" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8585,10 +8597,10 @@
         <v>565</v>
       </c>
       <c r="B439" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D439" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8596,10 +8608,10 @@
         <v>565</v>
       </c>
       <c r="B440" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D440" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8607,10 +8619,10 @@
         <v>565</v>
       </c>
       <c r="B441" t="s">
-        <v>710</v>
+        <v>127</v>
       </c>
       <c r="D441" t="s">
-        <v>710</v>
+        <v>128</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8618,10 +8630,10 @@
         <v>565</v>
       </c>
       <c r="B442" t="s">
-        <v>129</v>
+        <v>709</v>
       </c>
       <c r="D442" t="s">
-        <v>130</v>
+        <v>709</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8629,10 +8641,10 @@
         <v>565</v>
       </c>
       <c r="B443" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D443" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8640,10 +8652,10 @@
         <v>565</v>
       </c>
       <c r="B444" t="s">
-        <v>713</v>
+        <v>129</v>
       </c>
       <c r="D444" t="s">
-        <v>714</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8651,10 +8663,10 @@
         <v>565</v>
       </c>
       <c r="B445" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D445" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8662,10 +8674,10 @@
         <v>565</v>
       </c>
       <c r="B446" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D446" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8673,10 +8685,10 @@
         <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D447" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8684,10 +8696,10 @@
         <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D448" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8695,10 +8707,10 @@
         <v>565</v>
       </c>
       <c r="B449" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D449" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8706,10 +8718,10 @@
         <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>135</v>
+        <v>717</v>
       </c>
       <c r="D450" t="s">
-        <v>136</v>
+        <v>718</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8717,10 +8729,10 @@
         <v>565</v>
       </c>
       <c r="B451" t="s">
-        <v>928</v>
+        <v>723</v>
       </c>
       <c r="D451" t="s">
-        <v>929</v>
+        <v>724</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8728,10 +8740,10 @@
         <v>565</v>
       </c>
       <c r="B452" t="s">
-        <v>930</v>
+        <v>135</v>
       </c>
       <c r="D452" t="s">
-        <v>931</v>
+        <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8739,10 +8751,10 @@
         <v>565</v>
       </c>
       <c r="B453" t="s">
-        <v>725</v>
+        <v>928</v>
       </c>
       <c r="D453" t="s">
-        <v>726</v>
+        <v>929</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8750,10 +8762,10 @@
         <v>565</v>
       </c>
       <c r="B454" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="D454" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8761,10 +8773,10 @@
         <v>565</v>
       </c>
       <c r="B455" t="s">
-        <v>924</v>
+        <v>725</v>
       </c>
       <c r="D455" t="s">
-        <v>925</v>
+        <v>726</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8772,10 +8784,10 @@
         <v>565</v>
       </c>
       <c r="B456" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D456" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8783,10 +8795,10 @@
         <v>565</v>
       </c>
       <c r="B457" t="s">
-        <v>727</v>
+        <v>924</v>
       </c>
       <c r="D457" t="s">
-        <v>728</v>
+        <v>925</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8794,10 +8806,10 @@
         <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="D458" t="s">
-        <v>730</v>
+        <v>926</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8805,10 +8817,10 @@
         <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D459" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,10 +8828,10 @@
         <v>565</v>
       </c>
       <c r="B460" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D460" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8827,10 +8839,10 @@
         <v>565</v>
       </c>
       <c r="B461" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D461" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8838,10 +8850,10 @@
         <v>565</v>
       </c>
       <c r="B462" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D462" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8849,10 +8861,10 @@
         <v>565</v>
       </c>
       <c r="B463" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D463" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8860,10 +8872,10 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D464" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -8871,10 +8883,10 @@
         <v>565</v>
       </c>
       <c r="B465" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D465" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -8882,10 +8894,10 @@
         <v>565</v>
       </c>
       <c r="B466" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D466" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -8893,10 +8905,10 @@
         <v>565</v>
       </c>
       <c r="B467" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D467" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -8904,10 +8916,10 @@
         <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D468" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -8915,10 +8927,10 @@
         <v>565</v>
       </c>
       <c r="B469" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D469" t="s">
-        <v>605</v>
+        <v>748</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -8926,10 +8938,10 @@
         <v>565</v>
       </c>
       <c r="B470" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D470" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -8937,10 +8949,10 @@
         <v>565</v>
       </c>
       <c r="B471" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D471" t="s">
-        <v>754</v>
+        <v>605</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -8948,10 +8960,10 @@
         <v>565</v>
       </c>
       <c r="B472" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D472" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -8959,10 +8971,10 @@
         <v>565</v>
       </c>
       <c r="B473" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D473" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,10 +8982,10 @@
         <v>565</v>
       </c>
       <c r="B474" t="s">
-        <v>448</v>
+        <v>755</v>
       </c>
       <c r="D474" t="s">
-        <v>448</v>
+        <v>756</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -8981,10 +8993,10 @@
         <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D475" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -8992,10 +9004,10 @@
         <v>565</v>
       </c>
       <c r="B476" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D476" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -9003,10 +9015,10 @@
         <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>460</v>
+        <v>759</v>
       </c>
       <c r="D477" t="s">
-        <v>461</v>
+        <v>760</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -9014,10 +9026,10 @@
         <v>565</v>
       </c>
       <c r="B478" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
       <c r="D478" t="s">
-        <v>761</v>
+        <v>459</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -9025,10 +9037,10 @@
         <v>565</v>
       </c>
       <c r="B479" t="s">
-        <v>762</v>
+        <v>460</v>
       </c>
       <c r="D479" t="s">
-        <v>763</v>
+        <v>461</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -9036,10 +9048,10 @@
         <v>565</v>
       </c>
       <c r="B480" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D480" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,10 +9059,10 @@
         <v>565</v>
       </c>
       <c r="B481" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D481" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,10 +9070,10 @@
         <v>565</v>
       </c>
       <c r="B482" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D482" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,10 +9081,10 @@
         <v>565</v>
       </c>
       <c r="B483" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D483" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -9080,10 +9092,10 @@
         <v>565</v>
       </c>
       <c r="B484" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D484" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -9091,10 +9103,10 @@
         <v>565</v>
       </c>
       <c r="B485" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D485" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -9102,10 +9114,10 @@
         <v>565</v>
       </c>
       <c r="B486" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D486" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -9113,10 +9125,10 @@
         <v>565</v>
       </c>
       <c r="B487" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="D487" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,10 +9136,10 @@
         <v>565</v>
       </c>
       <c r="B488" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D488" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -9135,10 +9147,10 @@
         <v>565</v>
       </c>
       <c r="B489" t="s">
-        <v>778</v>
+        <v>470</v>
       </c>
       <c r="D489" t="s">
-        <v>779</v>
+        <v>471</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9146,10 +9158,10 @@
         <v>565</v>
       </c>
       <c r="B490" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D490" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9157,10 +9169,10 @@
         <v>565</v>
       </c>
       <c r="B491" t="s">
-        <v>156</v>
+        <v>778</v>
       </c>
       <c r="D491" t="s">
-        <v>157</v>
+        <v>779</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9168,10 +9180,10 @@
         <v>565</v>
       </c>
       <c r="B492" t="s">
-        <v>472</v>
+        <v>780</v>
       </c>
       <c r="D492" t="s">
-        <v>473</v>
+        <v>781</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9179,10 +9191,10 @@
         <v>565</v>
       </c>
       <c r="B493" t="s">
-        <v>784</v>
+        <v>156</v>
       </c>
       <c r="D493" t="s">
-        <v>479</v>
+        <v>157</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9190,10 +9202,10 @@
         <v>565</v>
       </c>
       <c r="B494" t="s">
-        <v>785</v>
+        <v>472</v>
       </c>
       <c r="D494" t="s">
-        <v>786</v>
+        <v>473</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9201,10 +9213,10 @@
         <v>565</v>
       </c>
       <c r="B495" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D495" t="s">
-        <v>788</v>
+        <v>479</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9212,10 +9224,10 @@
         <v>565</v>
       </c>
       <c r="B496" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D496" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9223,10 +9235,10 @@
         <v>565</v>
       </c>
       <c r="B497" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D497" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9234,10 +9246,10 @@
         <v>565</v>
       </c>
       <c r="B498" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D498" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9245,10 +9257,10 @@
         <v>565</v>
       </c>
       <c r="B499" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D499" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9256,10 +9268,10 @@
         <v>565</v>
       </c>
       <c r="B500" t="s">
-        <v>484</v>
+        <v>793</v>
       </c>
       <c r="D500" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9267,10 +9279,10 @@
         <v>565</v>
       </c>
       <c r="B501" t="s">
-        <v>487</v>
+        <v>795</v>
       </c>
       <c r="D501" t="s">
-        <v>488</v>
+        <v>795</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9278,10 +9290,10 @@
         <v>565</v>
       </c>
       <c r="B502" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D502" t="s">
-        <v>164</v>
+        <v>796</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9289,10 +9301,10 @@
         <v>565</v>
       </c>
       <c r="B503" t="s">
-        <v>797</v>
+        <v>487</v>
       </c>
       <c r="D503" t="s">
-        <v>798</v>
+        <v>488</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9300,10 +9312,10 @@
         <v>565</v>
       </c>
       <c r="B504" t="s">
-        <v>799</v>
+        <v>17</v>
       </c>
       <c r="D504" t="s">
-        <v>800</v>
+        <v>164</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9311,10 +9323,10 @@
         <v>565</v>
       </c>
       <c r="B505" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D505" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9322,10 +9334,10 @@
         <v>565</v>
       </c>
       <c r="B506" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D506" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,10 +9345,10 @@
         <v>565</v>
       </c>
       <c r="B507" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D507" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9344,10 +9356,10 @@
         <v>565</v>
       </c>
       <c r="B508" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D508" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9355,10 +9367,10 @@
         <v>565</v>
       </c>
       <c r="B509" t="s">
-        <v>507</v>
+        <v>805</v>
       </c>
       <c r="D509" t="s">
-        <v>508</v>
+        <v>806</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9366,10 +9378,10 @@
         <v>565</v>
       </c>
       <c r="B510" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D510" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9377,10 +9389,10 @@
         <v>565</v>
       </c>
       <c r="B511" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D511" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9388,10 +9400,10 @@
         <v>565</v>
       </c>
       <c r="B512" t="s">
-        <v>178</v>
+        <v>809</v>
       </c>
       <c r="D512" t="s">
-        <v>179</v>
+        <v>810</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9399,10 +9411,10 @@
         <v>565</v>
       </c>
       <c r="B513" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
       <c r="D513" t="s">
-        <v>181</v>
+        <v>520</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9410,10 +9422,10 @@
         <v>565</v>
       </c>
       <c r="B514" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D514" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9421,10 +9433,10 @@
         <v>565</v>
       </c>
       <c r="B515" t="s">
-        <v>811</v>
+        <v>180</v>
       </c>
       <c r="D515" t="s">
-        <v>812</v>
+        <v>181</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9432,10 +9444,10 @@
         <v>565</v>
       </c>
       <c r="B516" t="s">
-        <v>813</v>
+        <v>182</v>
       </c>
       <c r="D516" t="s">
-        <v>814</v>
+        <v>33</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9443,10 +9455,10 @@
         <v>565</v>
       </c>
       <c r="B517" t="s">
-        <v>187</v>
+        <v>811</v>
       </c>
       <c r="D517" t="s">
-        <v>188</v>
+        <v>812</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9454,10 +9466,10 @@
         <v>565</v>
       </c>
       <c r="B518" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D518" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9465,10 +9477,10 @@
         <v>565</v>
       </c>
       <c r="B519" t="s">
-        <v>817</v>
+        <v>187</v>
       </c>
       <c r="D519" t="s">
-        <v>818</v>
+        <v>188</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9476,10 +9488,10 @@
         <v>565</v>
       </c>
       <c r="B520" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D520" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9487,10 +9499,10 @@
         <v>565</v>
       </c>
       <c r="B521" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D521" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9498,10 +9510,10 @@
         <v>565</v>
       </c>
       <c r="B522" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D522" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9509,10 +9521,10 @@
         <v>565</v>
       </c>
       <c r="B523" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D523" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9520,10 +9532,10 @@
         <v>565</v>
       </c>
       <c r="B524" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D524" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9531,10 +9543,10 @@
         <v>565</v>
       </c>
       <c r="B525" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D525" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9542,10 +9554,10 @@
         <v>565</v>
       </c>
       <c r="B526" t="s">
-        <v>944</v>
+        <v>827</v>
       </c>
       <c r="D526" t="s">
-        <v>945</v>
+        <v>828</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9553,10 +9565,10 @@
         <v>565</v>
       </c>
       <c r="B527" t="s">
-        <v>946</v>
+        <v>829</v>
       </c>
       <c r="D527" t="s">
-        <v>947</v>
+        <v>830</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9564,10 +9576,10 @@
         <v>565</v>
       </c>
       <c r="B528" t="s">
-        <v>831</v>
+        <v>944</v>
       </c>
       <c r="D528" t="s">
-        <v>832</v>
+        <v>945</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9575,10 +9587,10 @@
         <v>565</v>
       </c>
       <c r="B529" t="s">
-        <v>833</v>
+        <v>946</v>
       </c>
       <c r="D529" t="s">
-        <v>834</v>
+        <v>947</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9586,10 +9598,10 @@
         <v>565</v>
       </c>
       <c r="B530" t="s">
-        <v>196</v>
+        <v>831</v>
       </c>
       <c r="D530" t="s">
-        <v>197</v>
+        <v>832</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9597,10 +9609,10 @@
         <v>565</v>
       </c>
       <c r="B531" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D531" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9608,10 +9620,10 @@
         <v>565</v>
       </c>
       <c r="B532" t="s">
-        <v>952</v>
+        <v>196</v>
       </c>
       <c r="D532" t="s">
-        <v>953</v>
+        <v>197</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9619,10 +9631,10 @@
         <v>565</v>
       </c>
       <c r="B533" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D533" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9630,10 +9642,10 @@
         <v>565</v>
       </c>
       <c r="B534" t="s">
-        <v>839</v>
+        <v>952</v>
       </c>
       <c r="D534" t="s">
-        <v>840</v>
+        <v>953</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,10 +9653,10 @@
         <v>565</v>
       </c>
       <c r="B535" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D535" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9652,10 +9664,10 @@
         <v>565</v>
       </c>
       <c r="B536" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D536" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9663,10 +9675,10 @@
         <v>565</v>
       </c>
       <c r="B537" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D537" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9674,10 +9686,10 @@
         <v>565</v>
       </c>
       <c r="B538" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D538" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9685,10 +9697,10 @@
         <v>565</v>
       </c>
       <c r="B539" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D539" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9696,10 +9708,10 @@
         <v>565</v>
       </c>
       <c r="B540" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D540" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9707,10 +9719,10 @@
         <v>565</v>
       </c>
       <c r="B541" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D541" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9718,10 +9730,10 @@
         <v>565</v>
       </c>
       <c r="B542" t="s">
-        <v>954</v>
+        <v>849</v>
       </c>
       <c r="D542" t="s">
-        <v>955</v>
+        <v>850</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9729,10 +9741,10 @@
         <v>565</v>
       </c>
       <c r="B543" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D543" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9740,10 +9752,10 @@
         <v>565</v>
       </c>
       <c r="B544" t="s">
-        <v>857</v>
+        <v>954</v>
       </c>
       <c r="D544" t="s">
-        <v>858</v>
+        <v>955</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9751,10 +9763,10 @@
         <v>565</v>
       </c>
       <c r="B545" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D545" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9762,10 +9774,10 @@
         <v>565</v>
       </c>
       <c r="B546" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D546" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9773,10 +9785,10 @@
         <v>565</v>
       </c>
       <c r="B547" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D547" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9784,10 +9796,10 @@
         <v>565</v>
       </c>
       <c r="B548" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D548" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9795,10 +9807,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D549" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9806,10 +9818,10 @@
         <v>565</v>
       </c>
       <c r="B550" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D550" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9817,10 +9829,10 @@
         <v>565</v>
       </c>
       <c r="B551" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D551" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9828,10 +9840,10 @@
         <v>565</v>
       </c>
       <c r="B552" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D552" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9839,10 +9851,10 @@
         <v>565</v>
       </c>
       <c r="B553" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D553" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9850,10 +9862,10 @@
         <v>565</v>
       </c>
       <c r="B554" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D554" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9861,10 +9873,10 @@
         <v>565</v>
       </c>
       <c r="B555" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D555" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -9872,10 +9884,10 @@
         <v>565</v>
       </c>
       <c r="B556" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D556" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -9883,10 +9895,10 @@
         <v>565</v>
       </c>
       <c r="B557" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D557" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,17 +9906,39 @@
         <v>565</v>
       </c>
       <c r="B558" t="s">
+        <v>885</v>
+      </c>
+      <c r="D558" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>565</v>
+      </c>
+      <c r="B559" t="s">
+        <v>879</v>
+      </c>
+      <c r="D559" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>565</v>
+      </c>
+      <c r="B560" t="s">
         <v>883</v>
       </c>
-      <c r="D558" t="s">
+      <c r="D560" t="s">
         <v>884</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D557" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D558">
-    <sortCondition ref="A2:A558"/>
-    <sortCondition ref="B2:B558"/>
+  <autoFilter ref="A1:D559" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D560">
+    <sortCondition ref="A2:A560"/>
+    <sortCondition ref="B2:B560"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\SealAriacom\eAdvisor\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A013F394-F80B-4072-A2F0-30E04EF524DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC1C99-357F-4344-818A-50F1679A66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="1245" windowWidth="22740" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$559</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$573</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="982">
   <si>
     <t>Context</t>
   </si>
@@ -1396,9 +1396,6 @@
     <t>Nom optionnel du menu</t>
   </si>
   <si>
-    <t>Optional title chart</t>
-  </si>
-  <si>
     <t>Titre optionnel du graphe</t>
   </si>
   <si>
@@ -2779,12 +2776,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Container CSS</t>
-  </si>
-  <si>
-    <t>CSS du cadre</t>
-  </si>
-  <si>
     <t>View type</t>
   </si>
   <si>
@@ -2845,18 +2836,9 @@
     <t>Répertoire spécifique</t>
   </si>
   <si>
-    <t>Card CSS</t>
-  </si>
-  <si>
-    <t>CSS de la carte</t>
-  </si>
-  <si>
     <t>Optional card title</t>
   </si>
   <si>
-    <t>Titre optionnel de la carte</t>
-  </si>
-  <si>
     <t>Show name</t>
   </si>
   <si>
@@ -2903,6 +2885,90 @@
   </si>
   <si>
     <t>Vues</t>
+  </si>
+  <si>
+    <t>Copie</t>
+  </si>
+  <si>
+    <t>Copie de</t>
+  </si>
+  <si>
+    <t>Enregistrer sous</t>
+  </si>
+  <si>
+    <t>Save as</t>
+  </si>
+  <si>
+    <t>Render</t>
+  </si>
+  <si>
+    <t>Visualiser</t>
+  </si>
+  <si>
+    <t>Enter a custom folder path</t>
+  </si>
+  <si>
+    <t>Entrer un répertoire spécifique</t>
+  </si>
+  <si>
+    <t>Titre optionnel</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Cadre</t>
+  </si>
+  <si>
+    <t>Separator</t>
+  </si>
+  <si>
+    <t>Element name</t>
+  </si>
+  <si>
+    <t>Element value</t>
+  </si>
+  <si>
+    <t>Nom de l'élément</t>
+  </si>
+  <si>
+    <t>Valeur de l'élément</t>
+  </si>
+  <si>
+    <t>CSS Format</t>
+  </si>
+  <si>
+    <t>Format CSS</t>
+  </si>
+  <si>
+    <t>Copy of</t>
+  </si>
+  <si>
+    <t>Optional chart title</t>
+  </si>
+  <si>
+    <t>View CSS</t>
+  </si>
+  <si>
+    <t>CSS de la vue</t>
+  </si>
+  <si>
+    <t>Column for title</t>
+  </si>
+  <si>
+    <t>Colonne pour le titre</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>Nombre de lignes</t>
+  </si>
+  <si>
+    <t>Number of columns</t>
+  </si>
+  <si>
+    <t>Nombre de colonnes</t>
   </si>
 </sst>
 </file>
@@ -3461,9 +3527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3501,7 +3567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3607,7 +3673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3749,7 +3815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3757,11 +3823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D326" sqref="D326"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,10 +4197,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
+        <v>905</v>
+      </c>
+      <c r="D33" t="s">
         <v>906</v>
-      </c>
-      <c r="D33" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,10 +4868,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
+        <v>891</v>
+      </c>
+      <c r="D94" t="s">
         <v>892</v>
-      </c>
-      <c r="D94" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,10 +4890,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D96" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,10 +4901,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
+        <v>899</v>
+      </c>
+      <c r="D97" t="s">
         <v>900</v>
-      </c>
-      <c r="D97" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,10 +5462,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
+        <v>854</v>
+      </c>
+      <c r="D148" t="s">
         <v>855</v>
-      </c>
-      <c r="D148" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,10 +5594,10 @@
         <v>286</v>
       </c>
       <c r="B160" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D160" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,10 +5759,10 @@
         <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>976</v>
       </c>
       <c r="D175" t="s">
-        <v>320</v>
+        <v>977</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,10 +5770,10 @@
         <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>918</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
-        <v>919</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,10 +5792,10 @@
         <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>963</v>
       </c>
       <c r="D178" t="s">
-        <v>326</v>
+        <v>964</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,10 +5803,10 @@
         <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D179" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5748,10 +5814,10 @@
         <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,10 +5825,10 @@
         <v>286</v>
       </c>
       <c r="B181" t="s">
-        <v>332</v>
+        <v>970</v>
       </c>
       <c r="D181" t="s">
-        <v>333</v>
+        <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,10 +5836,10 @@
         <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D182" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5847,10 @@
         <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>938</v>
+        <v>332</v>
       </c>
       <c r="D183" t="s">
-        <v>939</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,10 +5858,10 @@
         <v>286</v>
       </c>
       <c r="B184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,10 +5869,10 @@
         <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>336</v>
+        <v>935</v>
       </c>
       <c r="D185" t="s">
-        <v>337</v>
+        <v>936</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,10 +5880,10 @@
         <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D186" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,10 +5891,10 @@
         <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D187" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,10 +5902,10 @@
         <v>286</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D188" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,10 +5913,10 @@
         <v>286</v>
       </c>
       <c r="B189" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D189" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,10 +5924,10 @@
         <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D190" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,10 +5935,10 @@
         <v>286</v>
       </c>
       <c r="B191" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D191" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5946,10 @@
         <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D192" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5891,10 +5957,10 @@
         <v>286</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D193" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,10 +5968,10 @@
         <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="D194" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,10 +5979,10 @@
         <v>286</v>
       </c>
       <c r="B195" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D195" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,10 +5990,10 @@
         <v>286</v>
       </c>
       <c r="B196" t="s">
-        <v>356</v>
+        <v>60</v>
       </c>
       <c r="D196" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,10 +6001,10 @@
         <v>286</v>
       </c>
       <c r="B197" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,10 +6012,10 @@
         <v>286</v>
       </c>
       <c r="B198" t="s">
-        <v>904</v>
+        <v>356</v>
       </c>
       <c r="D198" t="s">
-        <v>905</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +6023,10 @@
         <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>902</v>
+        <v>358</v>
       </c>
       <c r="D199" t="s">
-        <v>903</v>
+        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,10 +6034,10 @@
         <v>286</v>
       </c>
       <c r="B200" t="s">
-        <v>360</v>
+        <v>903</v>
       </c>
       <c r="D200" t="s">
-        <v>360</v>
+        <v>904</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,10 +6045,10 @@
         <v>286</v>
       </c>
       <c r="B201" t="s">
-        <v>361</v>
+        <v>901</v>
       </c>
       <c r="D201" t="s">
-        <v>362</v>
+        <v>902</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,10 +6056,10 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D202" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,10 +6067,10 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D203" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,10 +6078,10 @@
         <v>286</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>966</v>
       </c>
       <c r="D204" t="s">
-        <v>368</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6089,10 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
+        <v>967</v>
       </c>
       <c r="D205" t="s">
-        <v>370</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,10 +6100,10 @@
         <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D206" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,10 +6111,10 @@
         <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D207" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,10 +6122,10 @@
         <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D208" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,10 +6133,10 @@
         <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D209" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,10 +6144,10 @@
         <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>887</v>
+        <v>371</v>
       </c>
       <c r="D210" t="s">
-        <v>888</v>
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,10 +6155,10 @@
         <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6100,10 +6166,10 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D212" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,10 +6177,10 @@
         <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D213" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,10 +6188,10 @@
         <v>286</v>
       </c>
       <c r="B214" t="s">
-        <v>79</v>
+        <v>886</v>
       </c>
       <c r="D214" t="s">
-        <v>80</v>
+        <v>887</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,10 +6199,10 @@
         <v>286</v>
       </c>
       <c r="B215" t="s">
-        <v>385</v>
+        <v>960</v>
       </c>
       <c r="D215" t="s">
-        <v>386</v>
+        <v>961</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,10 +6210,10 @@
         <v>286</v>
       </c>
       <c r="B216" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D216" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,10 +6221,10 @@
         <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D217" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,10 +6232,10 @@
         <v>286</v>
       </c>
       <c r="B218" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D218" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,10 +6243,10 @@
         <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="D219" t="s">
-        <v>394</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,10 +6254,10 @@
         <v>286</v>
       </c>
       <c r="B220" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D220" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,10 +6265,10 @@
         <v>286</v>
       </c>
       <c r="B221" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,10 +6276,10 @@
         <v>286</v>
       </c>
       <c r="B222" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D222" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,10 +6287,10 @@
         <v>286</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D223" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,10 +6298,10 @@
         <v>286</v>
       </c>
       <c r="B224" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D224" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,10 +6309,10 @@
         <v>286</v>
       </c>
       <c r="B225" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D225" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6254,10 +6320,10 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D226" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,10 +6331,10 @@
         <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D227" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6276,10 +6342,10 @@
         <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D228" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6287,10 +6353,10 @@
         <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>899</v>
+        <v>401</v>
       </c>
       <c r="D229" t="s">
-        <v>899</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,10 +6364,10 @@
         <v>286</v>
       </c>
       <c r="B230" t="s">
-        <v>889</v>
+        <v>403</v>
       </c>
       <c r="D230" t="s">
-        <v>890</v>
+        <v>404</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6309,10 +6375,10 @@
         <v>286</v>
       </c>
       <c r="B231" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D231" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,10 +6386,10 @@
         <v>286</v>
       </c>
       <c r="B232" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D232" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,10 +6397,10 @@
         <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D233" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6342,10 +6408,10 @@
         <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
+        <v>898</v>
       </c>
       <c r="D234" t="s">
-        <v>418</v>
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,10 +6419,10 @@
         <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>419</v>
+        <v>888</v>
       </c>
       <c r="D235" t="s">
-        <v>420</v>
+        <v>889</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,10 +6430,10 @@
         <v>286</v>
       </c>
       <c r="B236" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D236" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6375,10 +6441,10 @@
         <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D237" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6386,10 +6452,10 @@
         <v>286</v>
       </c>
       <c r="B238" t="s">
-        <v>936</v>
+        <v>415</v>
       </c>
       <c r="D238" t="s">
-        <v>937</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,10 +6463,10 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D239" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6408,10 +6474,10 @@
         <v>286</v>
       </c>
       <c r="B240" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D240" t="s">
-        <v>320</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,10 +6485,10 @@
         <v>286</v>
       </c>
       <c r="B241" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D241" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6430,10 +6496,10 @@
         <v>286</v>
       </c>
       <c r="B242" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D242" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6441,10 +6507,10 @@
         <v>286</v>
       </c>
       <c r="B243" t="s">
-        <v>432</v>
+        <v>933</v>
       </c>
       <c r="D243" t="s">
-        <v>433</v>
+        <v>934</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,10 +6518,10 @@
         <v>286</v>
       </c>
       <c r="B244" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D244" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6463,10 +6529,10 @@
         <v>286</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D245" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,10 +6540,10 @@
         <v>286</v>
       </c>
       <c r="B246" t="s">
-        <v>129</v>
+        <v>428</v>
       </c>
       <c r="D246" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,10 +6551,10 @@
         <v>286</v>
       </c>
       <c r="B247" t="s">
-        <v>956</v>
+        <v>430</v>
       </c>
       <c r="D247" t="s">
-        <v>957</v>
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6496,10 +6562,10 @@
         <v>286</v>
       </c>
       <c r="B248" t="s">
-        <v>932</v>
+        <v>432</v>
       </c>
       <c r="D248" t="s">
-        <v>933</v>
+        <v>433</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,10 +6573,10 @@
         <v>286</v>
       </c>
       <c r="B249" t="s">
-        <v>719</v>
+        <v>434</v>
       </c>
       <c r="D249" t="s">
-        <v>720</v>
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6518,10 +6584,10 @@
         <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>721</v>
+        <v>436</v>
       </c>
       <c r="D250" t="s">
-        <v>722</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6529,10 +6595,10 @@
         <v>286</v>
       </c>
       <c r="B251" t="s">
-        <v>438</v>
+        <v>129</v>
       </c>
       <c r="D251" t="s">
-        <v>439</v>
+        <v>130</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,10 +6606,10 @@
         <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="D252" t="s">
-        <v>916</v>
+        <v>951</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,10 +6617,10 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>440</v>
+        <v>929</v>
       </c>
       <c r="D253" t="s">
-        <v>441</v>
+        <v>930</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,10 +6628,10 @@
         <v>286</v>
       </c>
       <c r="B254" t="s">
-        <v>442</v>
+        <v>718</v>
       </c>
       <c r="D254" t="s">
-        <v>443</v>
+        <v>719</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,10 +6639,10 @@
         <v>286</v>
       </c>
       <c r="B255" t="s">
-        <v>444</v>
+        <v>720</v>
       </c>
       <c r="D255" t="s">
-        <v>445</v>
+        <v>721</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6584,10 +6650,10 @@
         <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D256" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6595,10 +6661,10 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>448</v>
+        <v>914</v>
       </c>
       <c r="D257" t="s">
-        <v>448</v>
+        <v>915</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,10 +6672,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D258" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6617,10 +6683,10 @@
         <v>286</v>
       </c>
       <c r="B259" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D259" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,10 +6694,10 @@
         <v>286</v>
       </c>
       <c r="B260" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D260" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6705,10 @@
         <v>286</v>
       </c>
       <c r="B261" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D261" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6650,10 +6716,10 @@
         <v>286</v>
       </c>
       <c r="B262" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D262" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6661,10 +6727,10 @@
         <v>286</v>
       </c>
       <c r="B263" t="s">
-        <v>942</v>
+        <v>978</v>
       </c>
       <c r="D263" t="s">
-        <v>943</v>
+        <v>979</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6672,10 +6738,10 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>459</v>
+        <v>980</v>
       </c>
       <c r="D264" t="s">
-        <v>459</v>
+        <v>981</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6683,10 +6749,10 @@
         <v>286</v>
       </c>
       <c r="B265" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D265" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,10 +6760,10 @@
         <v>286</v>
       </c>
       <c r="B266" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D266" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,10 +6771,10 @@
         <v>286</v>
       </c>
       <c r="B267" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D267" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6716,10 +6782,10 @@
         <v>286</v>
       </c>
       <c r="B268" t="s">
-        <v>321</v>
+        <v>455</v>
       </c>
       <c r="D268" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,10 +6793,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>466</v>
+        <v>973</v>
       </c>
       <c r="D269" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6738,10 +6804,10 @@
         <v>286</v>
       </c>
       <c r="B270" t="s">
-        <v>468</v>
+        <v>937</v>
       </c>
       <c r="D270" t="s">
-        <v>469</v>
+        <v>962</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6749,10 +6815,10 @@
         <v>286</v>
       </c>
       <c r="B271" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D271" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,10 +6826,10 @@
         <v>286</v>
       </c>
       <c r="B272" t="s">
-        <v>917</v>
+        <v>459</v>
       </c>
       <c r="D272" t="s">
-        <v>917</v>
+        <v>460</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6771,10 +6837,10 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D273" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6782,10 +6848,10 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D274" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,10 +6859,10 @@
         <v>286</v>
       </c>
       <c r="B275" t="s">
-        <v>476</v>
+        <v>321</v>
       </c>
       <c r="D275" t="s">
-        <v>477</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,10 +6870,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D276" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6815,10 +6881,10 @@
         <v>286</v>
       </c>
       <c r="B277" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D277" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6826,10 +6892,10 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="D278" t="s">
-        <v>231</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6837,10 +6903,10 @@
         <v>286</v>
       </c>
       <c r="B279" t="s">
-        <v>482</v>
+        <v>916</v>
       </c>
       <c r="D279" t="s">
-        <v>483</v>
+        <v>916</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6848,10 +6914,10 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D280" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6859,10 +6925,10 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D281" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,10 +6936,10 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D282" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,10 +6947,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D283" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6892,10 +6958,10 @@
         <v>286</v>
       </c>
       <c r="B284" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D284" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6903,10 +6969,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>497</v>
+        <v>230</v>
       </c>
       <c r="D285" t="s">
-        <v>498</v>
+        <v>231</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,10 +6980,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D286" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,10 +6991,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D287" t="s">
-        <v>496</v>
+        <v>351</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6936,10 +7002,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D288" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,10 +7013,10 @@
         <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D289" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6958,10 +7024,10 @@
         <v>286</v>
       </c>
       <c r="B290" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D290" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,10 +7035,10 @@
         <v>286</v>
       </c>
       <c r="B291" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D291" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6980,10 +7046,10 @@
         <v>286</v>
       </c>
       <c r="B292" t="s">
-        <v>505</v>
+        <v>958</v>
       </c>
       <c r="D292" t="s">
-        <v>506</v>
+        <v>959</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6991,10 +7057,10 @@
         <v>286</v>
       </c>
       <c r="B293" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D293" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,10 +7068,10 @@
         <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D294" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,10 +7079,10 @@
         <v>286</v>
       </c>
       <c r="B295" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D295" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7024,10 +7090,10 @@
         <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>513</v>
+        <v>17</v>
       </c>
       <c r="D296" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,10 +7101,10 @@
         <v>286</v>
       </c>
       <c r="B297" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D297" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7046,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="B298" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D298" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7057,10 +7123,10 @@
         <v>286</v>
       </c>
       <c r="B299" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D299" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,10 +7134,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D300" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,10 +7145,10 @@
         <v>286</v>
       </c>
       <c r="B301" t="s">
-        <v>897</v>
+        <v>506</v>
       </c>
       <c r="D301" t="s">
-        <v>898</v>
+        <v>507</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,10 +7156,10 @@
         <v>286</v>
       </c>
       <c r="B302" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D302" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,10 +7167,10 @@
         <v>286</v>
       </c>
       <c r="B303" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D303" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7112,10 +7178,10 @@
         <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D304" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7123,10 +7189,10 @@
         <v>286</v>
       </c>
       <c r="B305" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D305" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,10 +7200,10 @@
         <v>286</v>
       </c>
       <c r="B306" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D306" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7145,10 +7211,10 @@
         <v>286</v>
       </c>
       <c r="B307" t="s">
-        <v>532</v>
+        <v>957</v>
       </c>
       <c r="D307" t="s">
-        <v>533</v>
+        <v>956</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,10 +7222,10 @@
         <v>286</v>
       </c>
       <c r="B308" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D308" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,10 +7233,10 @@
         <v>286</v>
       </c>
       <c r="B309" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D309" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7178,10 +7244,10 @@
         <v>286</v>
       </c>
       <c r="B310" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="D310" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,10 +7255,10 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>913</v>
+        <v>965</v>
       </c>
       <c r="D311" t="s">
-        <v>914</v>
+        <v>831</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7200,10 +7266,10 @@
         <v>286</v>
       </c>
       <c r="B312" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="D312" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7211,10 +7277,10 @@
         <v>286</v>
       </c>
       <c r="B313" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D313" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,10 +7288,10 @@
         <v>286</v>
       </c>
       <c r="B314" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D314" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7233,10 +7299,10 @@
         <v>286</v>
       </c>
       <c r="B315" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="D315" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7244,10 +7310,10 @@
         <v>286</v>
       </c>
       <c r="B316" t="s">
-        <v>894</v>
+        <v>530</v>
       </c>
       <c r="D316" t="s">
-        <v>895</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,10 +7321,10 @@
         <v>286</v>
       </c>
       <c r="B317" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D317" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7266,10 +7332,10 @@
         <v>286</v>
       </c>
       <c r="B318" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D318" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7277,10 +7343,10 @@
         <v>286</v>
       </c>
       <c r="B319" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D319" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7288,10 +7354,10 @@
         <v>286</v>
       </c>
       <c r="B320" t="s">
-        <v>551</v>
+        <v>910</v>
       </c>
       <c r="D320" t="s">
-        <v>552</v>
+        <v>911</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,10 +7365,10 @@
         <v>286</v>
       </c>
       <c r="B321" t="s">
-        <v>553</v>
+        <v>912</v>
       </c>
       <c r="D321" t="s">
-        <v>554</v>
+        <v>913</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7310,10 +7376,10 @@
         <v>286</v>
       </c>
       <c r="B322" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D322" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7321,10 +7387,10 @@
         <v>286</v>
       </c>
       <c r="B323" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="D323" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,10 +7398,10 @@
         <v>286</v>
       </c>
       <c r="B324" t="s">
-        <v>934</v>
+        <v>541</v>
       </c>
       <c r="D324" t="s">
-        <v>935</v>
+        <v>542</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7343,10 +7409,10 @@
         <v>286</v>
       </c>
       <c r="B325" t="s">
-        <v>920</v>
+        <v>543</v>
       </c>
       <c r="D325" t="s">
-        <v>921</v>
+        <v>544</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7354,10 +7420,10 @@
         <v>286</v>
       </c>
       <c r="B326" t="s">
-        <v>958</v>
+        <v>893</v>
       </c>
       <c r="D326" t="s">
-        <v>959</v>
+        <v>894</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7365,10 +7431,10 @@
         <v>286</v>
       </c>
       <c r="B327" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D327" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,10 +7442,10 @@
         <v>286</v>
       </c>
       <c r="B328" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="D328" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7387,2558 +7453,2712 @@
         <v>286</v>
       </c>
       <c r="B329" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="D329" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B330" t="s">
-        <v>21</v>
+        <v>550</v>
       </c>
       <c r="D330" t="s">
-        <v>22</v>
+        <v>551</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B331" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D331" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B332" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D332" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B333" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D333" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B334" t="s">
-        <v>572</v>
+        <v>931</v>
       </c>
       <c r="D334" t="s">
-        <v>573</v>
+        <v>932</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B335" t="s">
-        <v>574</v>
+        <v>917</v>
       </c>
       <c r="D335" t="s">
-        <v>575</v>
+        <v>918</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B336" t="s">
-        <v>576</v>
+        <v>952</v>
       </c>
       <c r="D336" t="s">
-        <v>577</v>
+        <v>953</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B337" t="s">
-        <v>578</v>
+        <v>974</v>
       </c>
       <c r="D337" t="s">
-        <v>579</v>
+        <v>975</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B338" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="D338" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B339" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
       <c r="D339" t="s">
-        <v>31</v>
+        <v>563</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="B340" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="D340" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B341" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D341" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>564</v>
+      </c>
+      <c r="B342" t="s">
         <v>565</v>
       </c>
-      <c r="B342" t="s">
-        <v>583</v>
-      </c>
       <c r="D342" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B343" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="D343" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B344" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D344" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B345" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="D345" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>38</v>
+        <v>573</v>
       </c>
       <c r="D346" t="s">
-        <v>39</v>
+        <v>574</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B347" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D347" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B348" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D348" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B349" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D349" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B350" t="s">
-        <v>596</v>
+        <v>30</v>
       </c>
       <c r="D350" t="s">
-        <v>597</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B351" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="D351" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B352" t="s">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="D352" t="s">
-        <v>601</v>
+        <v>35</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B353" t="s">
-        <v>44</v>
+        <v>582</v>
       </c>
       <c r="D353" t="s">
-        <v>45</v>
+        <v>582</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B354" t="s">
-        <v>950</v>
+        <v>583</v>
       </c>
       <c r="D354" t="s">
-        <v>951</v>
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B355" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D355" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B356" t="s">
-        <v>50</v>
+        <v>587</v>
       </c>
       <c r="D356" t="s">
-        <v>51</v>
+        <v>588</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B357" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D357" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B358" t="s">
-        <v>52</v>
+        <v>589</v>
       </c>
       <c r="D358" t="s">
-        <v>53</v>
+        <v>590</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B359" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D359" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B360" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D360" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B361" t="s">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D361" t="s">
-        <v>57</v>
+        <v>596</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B362" t="s">
-        <v>909</v>
+        <v>597</v>
       </c>
       <c r="D362" t="s">
-        <v>910</v>
+        <v>598</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B363" t="s">
-        <v>908</v>
+        <v>599</v>
       </c>
       <c r="D363" t="s">
-        <v>907</v>
+        <v>600</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B364" t="s">
-        <v>610</v>
+        <v>44</v>
       </c>
       <c r="D364" t="s">
-        <v>611</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B365" t="s">
-        <v>608</v>
+        <v>944</v>
       </c>
       <c r="D365" t="s">
-        <v>609</v>
+        <v>945</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B366" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="D366" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B367" t="s">
-        <v>612</v>
+        <v>50</v>
       </c>
       <c r="D367" t="s">
-        <v>612</v>
+        <v>51</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B368" t="s">
-        <v>613</v>
+        <v>54</v>
       </c>
       <c r="D368" t="s">
-        <v>614</v>
+        <v>55</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B369" t="s">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c r="D369" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B370" t="s">
-        <v>615</v>
+        <v>323</v>
       </c>
       <c r="D370" t="s">
-        <v>616</v>
+        <v>954</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B371" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D371" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B372" t="s">
-        <v>619</v>
+        <v>972</v>
       </c>
       <c r="D372" t="s">
-        <v>620</v>
+        <v>955</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B373" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="D373" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B374" t="s">
-        <v>623</v>
+        <v>56</v>
       </c>
       <c r="D374" t="s">
-        <v>624</v>
+        <v>57</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B375" t="s">
-        <v>625</v>
+        <v>908</v>
       </c>
       <c r="D375" t="s">
-        <v>626</v>
+        <v>909</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B376" t="s">
-        <v>629</v>
+        <v>907</v>
       </c>
       <c r="D376" t="s">
-        <v>630</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B377" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="D377" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B378" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="D378" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B379" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="D379" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B380" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="D380" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B381" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="D381" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B382" t="s">
-        <v>640</v>
+        <v>332</v>
       </c>
       <c r="D382" t="s">
-        <v>641</v>
+        <v>333</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B383" t="s">
-        <v>642</v>
+        <v>935</v>
       </c>
       <c r="D383" t="s">
-        <v>643</v>
+        <v>936</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B384" t="s">
-        <v>61</v>
+        <v>614</v>
       </c>
       <c r="D384" t="s">
-        <v>64</v>
+        <v>615</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B385" t="s">
-        <v>65</v>
+        <v>616</v>
       </c>
       <c r="D385" t="s">
-        <v>62</v>
+        <v>617</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B386" t="s">
-        <v>63</v>
+        <v>618</v>
       </c>
       <c r="D386" t="s">
-        <v>66</v>
+        <v>619</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B387" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D387" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B388" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="D388" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B389" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="D389" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B390" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="D390" t="s">
-        <v>362</v>
+        <v>629</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B391" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="D391" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B392" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="D392" t="s">
-        <v>175</v>
+        <v>633</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B393" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="D393" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B394" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="D394" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B395" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="D395" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B396" t="s">
-        <v>75</v>
+        <v>639</v>
       </c>
       <c r="D396" t="s">
-        <v>76</v>
+        <v>640</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B397" t="s">
-        <v>77</v>
+        <v>641</v>
       </c>
       <c r="D397" t="s">
-        <v>78</v>
+        <v>642</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B398" t="s">
-        <v>379</v>
+        <v>61</v>
       </c>
       <c r="D398" t="s">
-        <v>380</v>
+        <v>64</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B399" t="s">
-        <v>668</v>
+        <v>65</v>
       </c>
       <c r="D399" t="s">
-        <v>668</v>
+        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B400" t="s">
-        <v>669</v>
+        <v>63</v>
       </c>
       <c r="D400" t="s">
-        <v>670</v>
+        <v>66</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B401" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D401" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B402" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="D402" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B403" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="D403" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B404" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="D404" t="s">
-        <v>665</v>
+        <v>362</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B405" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D405" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B406" t="s">
-        <v>393</v>
+        <v>652</v>
       </c>
       <c r="D406" t="s">
-        <v>394</v>
+        <v>175</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B407" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="D407" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B408" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="D408" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B409" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="D409" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B410" t="s">
-        <v>678</v>
+        <v>75</v>
       </c>
       <c r="D410" t="s">
-        <v>679</v>
+        <v>76</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B411" t="s">
-        <v>680</v>
+        <v>77</v>
       </c>
       <c r="D411" t="s">
-        <v>681</v>
+        <v>78</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B412" t="s">
-        <v>682</v>
+        <v>379</v>
       </c>
       <c r="D412" t="s">
-        <v>683</v>
+        <v>380</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B413" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D413" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B414" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="D414" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B415" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="D415" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B416" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="D416" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B417" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="D417" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B418" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="D418" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B419" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="D419" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B420" t="s">
-        <v>697</v>
+        <v>393</v>
       </c>
       <c r="D420" t="s">
-        <v>698</v>
+        <v>394</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B421" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="D421" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B422" t="s">
-        <v>948</v>
+        <v>673</v>
       </c>
       <c r="D422" t="s">
-        <v>949</v>
+        <v>674</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B423" t="s">
-        <v>101</v>
+        <v>675</v>
       </c>
       <c r="D423" t="s">
-        <v>102</v>
+        <v>676</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B424" t="s">
-        <v>103</v>
+        <v>677</v>
       </c>
       <c r="D424" t="s">
-        <v>104</v>
+        <v>678</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B425" t="s">
-        <v>105</v>
+        <v>679</v>
       </c>
       <c r="D425" t="s">
-        <v>106</v>
+        <v>680</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B426" t="s">
-        <v>107</v>
+        <v>681</v>
       </c>
       <c r="D426" t="s">
-        <v>108</v>
+        <v>682</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B427" t="s">
-        <v>109</v>
+        <v>683</v>
       </c>
       <c r="D427" t="s">
-        <v>110</v>
+        <v>684</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B428" t="s">
-        <v>111</v>
+        <v>685</v>
       </c>
       <c r="D428" t="s">
-        <v>112</v>
+        <v>686</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B429" t="s">
-        <v>113</v>
+        <v>687</v>
       </c>
       <c r="D429" t="s">
-        <v>114</v>
+        <v>688</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B430" t="s">
-        <v>115</v>
+        <v>689</v>
       </c>
       <c r="D430" t="s">
-        <v>116</v>
+        <v>690</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B431" t="s">
-        <v>117</v>
+        <v>691</v>
       </c>
       <c r="D431" t="s">
-        <v>118</v>
+        <v>692</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B432" t="s">
-        <v>119</v>
+        <v>693</v>
       </c>
       <c r="D432" t="s">
-        <v>120</v>
+        <v>694</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B433" t="s">
-        <v>121</v>
+        <v>695</v>
       </c>
       <c r="D433" t="s">
-        <v>122</v>
+        <v>695</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B434" t="s">
-        <v>421</v>
+        <v>696</v>
       </c>
       <c r="D434" t="s">
-        <v>422</v>
+        <v>697</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B435" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D435" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B436" t="s">
-        <v>703</v>
+        <v>942</v>
       </c>
       <c r="D436" t="s">
-        <v>704</v>
+        <v>943</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B437" t="s">
-        <v>705</v>
+        <v>101</v>
       </c>
       <c r="D437" t="s">
-        <v>706</v>
+        <v>102</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B438" t="s">
-        <v>707</v>
+        <v>103</v>
       </c>
       <c r="D438" t="s">
-        <v>707</v>
+        <v>104</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B439" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D439" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B440" t="s">
-        <v>708</v>
+        <v>107</v>
       </c>
       <c r="D440" t="s">
-        <v>708</v>
+        <v>108</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B441" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D441" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B442" t="s">
-        <v>709</v>
+        <v>111</v>
       </c>
       <c r="D442" t="s">
-        <v>709</v>
+        <v>112</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B443" t="s">
-        <v>710</v>
+        <v>113</v>
       </c>
       <c r="D443" t="s">
-        <v>710</v>
+        <v>114</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B444" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D444" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B445" t="s">
-        <v>711</v>
+        <v>117</v>
       </c>
       <c r="D445" t="s">
-        <v>712</v>
+        <v>118</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B446" t="s">
-        <v>713</v>
+        <v>119</v>
       </c>
       <c r="D446" t="s">
-        <v>714</v>
+        <v>120</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B447" t="s">
-        <v>715</v>
+        <v>121</v>
       </c>
       <c r="D447" t="s">
-        <v>716</v>
+        <v>122</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B448" t="s">
-        <v>719</v>
+        <v>421</v>
       </c>
       <c r="D448" t="s">
-        <v>720</v>
+        <v>422</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B449" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D449" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B450" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D450" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B451" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="D451" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B452" t="s">
-        <v>135</v>
+        <v>706</v>
       </c>
       <c r="D452" t="s">
-        <v>136</v>
+        <v>706</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B453" t="s">
-        <v>928</v>
+        <v>125</v>
       </c>
       <c r="D453" t="s">
-        <v>929</v>
+        <v>126</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B454" t="s">
-        <v>930</v>
+        <v>707</v>
       </c>
       <c r="D454" t="s">
-        <v>931</v>
+        <v>707</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B455" t="s">
-        <v>725</v>
+        <v>127</v>
       </c>
       <c r="D455" t="s">
-        <v>726</v>
+        <v>128</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B456" t="s">
-        <v>922</v>
+        <v>708</v>
       </c>
       <c r="D456" t="s">
-        <v>923</v>
+        <v>708</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B457" t="s">
-        <v>924</v>
+        <v>709</v>
       </c>
       <c r="D457" t="s">
-        <v>925</v>
+        <v>709</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B458" t="s">
-        <v>927</v>
+        <v>129</v>
       </c>
       <c r="D458" t="s">
-        <v>926</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B459" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="D459" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B460" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D460" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B461" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="D461" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B462" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="D462" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B463" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D463" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B464" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="D464" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B465" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="D465" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B466" t="s">
-        <v>741</v>
+        <v>135</v>
       </c>
       <c r="D466" t="s">
-        <v>742</v>
+        <v>136</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B467" t="s">
-        <v>743</v>
+        <v>925</v>
       </c>
       <c r="D467" t="s">
-        <v>744</v>
+        <v>926</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B468" t="s">
-        <v>745</v>
+        <v>927</v>
       </c>
       <c r="D468" t="s">
-        <v>746</v>
+        <v>928</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B469" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="D469" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B470" t="s">
-        <v>749</v>
+        <v>919</v>
       </c>
       <c r="D470" t="s">
-        <v>744</v>
+        <v>920</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B471" t="s">
-        <v>750</v>
+        <v>921</v>
       </c>
       <c r="D471" t="s">
-        <v>605</v>
+        <v>922</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B472" t="s">
-        <v>751</v>
+        <v>924</v>
       </c>
       <c r="D472" t="s">
-        <v>752</v>
+        <v>923</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B473" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="D473" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B474" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="D474" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B475" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="D475" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B476" t="s">
-        <v>448</v>
+        <v>732</v>
       </c>
       <c r="D476" t="s">
-        <v>448</v>
+        <v>733</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B477" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="D477" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B478" t="s">
-        <v>459</v>
+        <v>736</v>
       </c>
       <c r="D478" t="s">
-        <v>459</v>
+        <v>737</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B479" t="s">
-        <v>460</v>
+        <v>738</v>
       </c>
       <c r="D479" t="s">
-        <v>461</v>
+        <v>739</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B480" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="D480" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B481" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="D481" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B482" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="D482" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B483" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="D483" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B484" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="D484" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B485" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="D485" t="s">
-        <v>771</v>
+        <v>604</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B486" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="D486" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B487" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="D487" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B488" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="D488" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B489" t="s">
-        <v>470</v>
+        <v>756</v>
       </c>
       <c r="D489" t="s">
-        <v>471</v>
+        <v>757</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B490" t="s">
-        <v>776</v>
+        <v>448</v>
       </c>
       <c r="D490" t="s">
-        <v>777</v>
+        <v>448</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B491" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="D491" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B492" t="s">
-        <v>780</v>
+        <v>458</v>
       </c>
       <c r="D492" t="s">
-        <v>781</v>
+        <v>458</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B493" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="D493" t="s">
-        <v>157</v>
+        <v>460</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B494" t="s">
-        <v>472</v>
+        <v>760</v>
       </c>
       <c r="D494" t="s">
-        <v>473</v>
+        <v>760</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B495" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="D495" t="s">
-        <v>479</v>
+        <v>762</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B496" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="D496" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B497" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="D497" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B498" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="D498" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B499" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="D499" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B500" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="D500" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B501" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="D501" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B502" t="s">
-        <v>484</v>
+        <v>781</v>
       </c>
       <c r="D502" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B503" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="D503" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B504" t="s">
-        <v>17</v>
+        <v>775</v>
       </c>
       <c r="D504" t="s">
-        <v>164</v>
+        <v>776</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B505" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="D505" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B506" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="D506" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B507" t="s">
-        <v>801</v>
+        <v>156</v>
       </c>
       <c r="D507" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B508" t="s">
-        <v>803</v>
+        <v>471</v>
       </c>
       <c r="D508" t="s">
-        <v>804</v>
+        <v>472</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B509" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="D509" t="s">
-        <v>806</v>
+        <v>478</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B510" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="D510" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B511" t="s">
-        <v>507</v>
+        <v>786</v>
       </c>
       <c r="D511" t="s">
-        <v>508</v>
+        <v>787</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B512" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="D512" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B513" t="s">
-        <v>519</v>
+        <v>790</v>
       </c>
       <c r="D513" t="s">
-        <v>520</v>
+        <v>791</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B514" t="s">
-        <v>178</v>
+        <v>792</v>
       </c>
       <c r="D514" t="s">
-        <v>179</v>
+        <v>793</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B515" t="s">
-        <v>180</v>
+        <v>794</v>
       </c>
       <c r="D515" t="s">
-        <v>181</v>
+        <v>794</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B516" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="D516" t="s">
-        <v>33</v>
+        <v>795</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B517" t="s">
-        <v>811</v>
+        <v>486</v>
       </c>
       <c r="D517" t="s">
-        <v>812</v>
+        <v>487</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B518" t="s">
-        <v>813</v>
+        <v>17</v>
       </c>
       <c r="D518" t="s">
-        <v>814</v>
+        <v>164</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B519" t="s">
-        <v>187</v>
+        <v>796</v>
       </c>
       <c r="D519" t="s">
-        <v>188</v>
+        <v>797</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B520" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D520" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B521" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="D521" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B522" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="D522" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B523" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="D523" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B524" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="D524" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B525" t="s">
-        <v>825</v>
+        <v>506</v>
       </c>
       <c r="D525" t="s">
-        <v>826</v>
+        <v>507</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B526" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="D526" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B527" t="s">
-        <v>829</v>
+        <v>518</v>
       </c>
       <c r="D527" t="s">
-        <v>830</v>
+        <v>519</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B528" t="s">
-        <v>944</v>
+        <v>178</v>
       </c>
       <c r="D528" t="s">
-        <v>945</v>
+        <v>179</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B529" t="s">
-        <v>946</v>
+        <v>180</v>
       </c>
       <c r="D529" t="s">
-        <v>947</v>
+        <v>181</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B530" t="s">
-        <v>831</v>
+        <v>182</v>
       </c>
       <c r="D530" t="s">
-        <v>832</v>
+        <v>33</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B531" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="D531" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B532" t="s">
-        <v>196</v>
+        <v>812</v>
       </c>
       <c r="D532" t="s">
-        <v>197</v>
+        <v>813</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B533" t="s">
-        <v>835</v>
+        <v>187</v>
       </c>
       <c r="D533" t="s">
-        <v>836</v>
+        <v>188</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B534" t="s">
-        <v>952</v>
+        <v>814</v>
       </c>
       <c r="D534" t="s">
-        <v>953</v>
+        <v>815</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B535" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="D535" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B536" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="D536" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B537" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D537" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B538" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="D538" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B539" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="D539" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B540" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="D540" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B541" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="D541" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B542" t="s">
-        <v>849</v>
+        <v>938</v>
       </c>
       <c r="D542" t="s">
-        <v>850</v>
+        <v>939</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B543" t="s">
-        <v>851</v>
+        <v>940</v>
       </c>
       <c r="D543" t="s">
-        <v>852</v>
+        <v>941</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B544" t="s">
-        <v>954</v>
+        <v>830</v>
       </c>
       <c r="D544" t="s">
-        <v>955</v>
+        <v>831</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B545" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="D545" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B546" t="s">
-        <v>857</v>
+        <v>196</v>
       </c>
       <c r="D546" t="s">
-        <v>858</v>
+        <v>197</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B547" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="D547" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>861</v>
+        <v>946</v>
       </c>
       <c r="D548" t="s">
-        <v>862</v>
+        <v>947</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B549" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="D549" t="s">
-        <v>864</v>
+        <v>837</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B550" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="D550" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B551" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="D551" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B552" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="D552" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B553" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="D553" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B554" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="D554" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B555" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="D555" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B556" t="s">
-        <v>877</v>
+        <v>848</v>
       </c>
       <c r="D556" t="s">
-        <v>878</v>
+        <v>849</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B557" t="s">
-        <v>881</v>
+        <v>850</v>
       </c>
       <c r="D557" t="s">
-        <v>882</v>
+        <v>851</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B558" t="s">
-        <v>885</v>
+        <v>948</v>
       </c>
       <c r="D558" t="s">
-        <v>886</v>
+        <v>949</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B559" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="D559" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B560" t="s">
+        <v>856</v>
+      </c>
+      <c r="D560" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>564</v>
+      </c>
+      <c r="B561" t="s">
+        <v>858</v>
+      </c>
+      <c r="D561" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>564</v>
+      </c>
+      <c r="B562" t="s">
+        <v>860</v>
+      </c>
+      <c r="D562" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563" t="s">
+        <v>862</v>
+      </c>
+      <c r="D563" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>564</v>
+      </c>
+      <c r="B564" t="s">
+        <v>864</v>
+      </c>
+      <c r="D564" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565" t="s">
+        <v>866</v>
+      </c>
+      <c r="D565" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>868</v>
+      </c>
+      <c r="D566" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>564</v>
+      </c>
+      <c r="B567" t="s">
+        <v>870</v>
+      </c>
+      <c r="D567" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>564</v>
+      </c>
+      <c r="B568" t="s">
+        <v>872</v>
+      </c>
+      <c r="D568" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>564</v>
+      </c>
+      <c r="B569" t="s">
+        <v>874</v>
+      </c>
+      <c r="D569" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>564</v>
+      </c>
+      <c r="B570" t="s">
+        <v>876</v>
+      </c>
+      <c r="D570" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>564</v>
+      </c>
+      <c r="B571" t="s">
+        <v>880</v>
+      </c>
+      <c r="D571" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>564</v>
+      </c>
+      <c r="B572" t="s">
+        <v>884</v>
+      </c>
+      <c r="D572" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>564</v>
+      </c>
+      <c r="B573" t="s">
+        <v>878</v>
+      </c>
+      <c r="D573" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>564</v>
+      </c>
+      <c r="B574" t="s">
+        <v>882</v>
+      </c>
+      <c r="D574" t="s">
         <v>883</v>
       </c>
-      <c r="D560" t="s">
-        <v>884</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D559" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D560">
-    <sortCondition ref="A2:A560"/>
-    <sortCondition ref="B2:B560"/>
+  <autoFilter ref="A1:D573" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D574">
+    <sortCondition ref="A2:A574"/>
+    <sortCondition ref="B2:B574"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\SealAriacom\eAdvisor\Repository\Settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC1C99-357F-4344-818A-50F1679A66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144439A-7F63-424A-9C14-AD2DC3B5BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1245" windowWidth="22740" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$573</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$581</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="996">
   <si>
     <t>Context</t>
   </si>
@@ -745,12 +758,6 @@
     <t>Afficher le résultat PDF</t>
   </si>
   <si>
-    <t>View Print Result</t>
-  </si>
-  <si>
-    <t>Afficher le résultat Impression</t>
-  </si>
-  <si>
     <t>View report result file</t>
   </si>
   <si>
@@ -2969,6 +2976,54 @@
   </si>
   <si>
     <t>Nombre de colonnes</t>
+  </si>
+  <si>
+    <t>View HTML Print Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat Impression HTML</t>
+  </si>
+  <si>
+    <t>View HTML to PDF Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat HTML en PDF</t>
+  </si>
+  <si>
+    <t>View Text Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat Texte</t>
+  </si>
+  <si>
+    <t>View XML Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat XML</t>
+  </si>
+  <si>
+    <t>Afficher le résultat Json</t>
+  </si>
+  <si>
+    <t>View Json Result</t>
+  </si>
+  <si>
+    <t>View Excel Converter Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat Conversion Excel</t>
+  </si>
+  <si>
+    <t>View PDF Converter Result</t>
+  </si>
+  <si>
+    <t>Afficher le résultat Conversion PDF</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Durée</t>
   </si>
 </sst>
 </file>
@@ -3823,11 +3878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D574"/>
+  <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,10 +4186,10 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,10 +4252,10 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D33" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,10 +4263,10 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,10 +4351,10 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>994</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>995</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,10 +4362,10 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,10 +4373,10 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,10 +4384,10 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,10 +4395,10 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,10 +4406,10 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4362,10 +4417,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4373,10 +4428,10 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,10 +4439,10 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,10 +4450,10 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,10 +4461,10 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,10 +4472,10 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4428,10 +4483,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,10 +4494,10 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,10 +4505,10 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,10 +4516,10 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,10 +4527,10 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,10 +4538,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,10 +4549,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,10 +4560,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,10 +4571,10 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,10 +4582,10 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,10 +4593,10 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,10 +4604,10 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4560,10 +4615,10 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,10 +4626,10 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4582,10 +4637,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,10 +4648,10 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,10 +4659,10 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,10 +4670,10 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,10 +4681,10 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,10 +4692,10 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,10 +4714,10 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,10 +4725,10 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4681,10 +4736,10 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,10 +4747,10 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,10 +4758,10 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4714,10 +4769,10 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,10 +4780,10 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4736,10 +4791,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,10 +4802,10 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,10 +4813,10 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,10 +4824,10 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,10 +4835,10 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,10 +4846,10 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,10 +4857,10 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,10 +4868,10 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,10 +4879,10 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,10 +4890,10 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,10 +4901,10 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4912,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,10 +4923,10 @@
         <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>891</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s">
-        <v>892</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,10 +4934,10 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>889</v>
       </c>
       <c r="D95" t="s">
-        <v>155</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,10 +4945,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>890</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>895</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,10 +4956,10 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="D97" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,10 +4967,10 @@
         <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>897</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>898</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,10 +4978,10 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D99" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,10 +4989,10 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,10 +5000,10 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,10 +5011,10 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,10 +5022,10 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4978,10 +5033,10 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,10 +5044,10 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,10 +5055,10 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5066,10 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5022,10 +5077,10 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,10 +5088,10 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,10 +5099,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,10 +5110,10 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,10 +5121,10 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,10 +5132,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,10 +5143,10 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,10 +5154,10 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,10 +5165,10 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,10 +5176,10 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>261</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,10 +5187,10 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D118" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,10 +5198,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="D119" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,10 +5209,10 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5220,10 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,10 +5231,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,10 +5242,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,10 +5253,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,10 +5264,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,10 +5275,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,10 +5286,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D127" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,10 +5297,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D128" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,10 +5308,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D129" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,10 +5319,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="D130" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,10 +5330,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,7 +5341,7 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D132" t="s">
         <v>201</v>
@@ -5297,10 +5352,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,10 +5363,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5374,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5330,10 +5385,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D136" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,10 +5396,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D137" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5352,10 +5407,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D138" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5363,10 +5418,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5374,10 +5429,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,10 +5440,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,10 +5451,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,10 +5462,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,10 +5473,10 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,10 +5484,10 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D145" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5440,10 +5495,10 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="D146" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,10 +5506,10 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,10 +5517,10 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>854</v>
+        <v>228</v>
       </c>
       <c r="D148" t="s">
-        <v>855</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,10 +5528,10 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>232</v>
+        <v>852</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>853</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,10 +5539,10 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D150" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,10 +5550,10 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D151" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,10 +5561,10 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,10 +5572,10 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,4637 +5583,4714 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>242</v>
+        <v>980</v>
       </c>
       <c r="D154" t="s">
-        <v>243</v>
+        <v>981</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D155" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>289</v>
+        <v>982</v>
       </c>
       <c r="D156" t="s">
-        <v>290</v>
+        <v>983</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>291</v>
+        <v>984</v>
       </c>
       <c r="D157" t="s">
-        <v>292</v>
+        <v>985</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>293</v>
+        <v>986</v>
       </c>
       <c r="D158" t="s">
-        <v>293</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>294</v>
+        <v>989</v>
       </c>
       <c r="D159" t="s">
-        <v>295</v>
+        <v>988</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>944</v>
+        <v>990</v>
       </c>
       <c r="D160" t="s">
-        <v>945</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>992</v>
       </c>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>993</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" t="s">
+        <v>285</v>
+      </c>
+      <c r="D162" t="s">
         <v>286</v>
-      </c>
-      <c r="B162" t="s">
-        <v>296</v>
-      </c>
-      <c r="D162" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D163" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D164" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B165" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D165" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>305</v>
+        <v>942</v>
       </c>
       <c r="D167" t="s">
-        <v>306</v>
+        <v>943</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="D168" t="s">
-        <v>308</v>
+        <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B169" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D169" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D170" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D171" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D172" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="D173" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B174" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D174" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>976</v>
+        <v>305</v>
       </c>
       <c r="D175" t="s">
-        <v>977</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D177" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>963</v>
+        <v>311</v>
       </c>
       <c r="D178" t="s">
-        <v>964</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D179" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B180" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="D180" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
-        <v>970</v>
+        <v>315</v>
       </c>
       <c r="D181" t="s">
-        <v>971</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B182" t="s">
-        <v>329</v>
+        <v>974</v>
       </c>
       <c r="D182" t="s">
-        <v>329</v>
+        <v>975</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D183" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D184" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
       <c r="D185" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B186" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D186" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D187" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>338</v>
+        <v>968</v>
       </c>
       <c r="D188" t="s">
-        <v>339</v>
+        <v>969</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D189" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D190" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D191" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>346</v>
+        <v>933</v>
       </c>
       <c r="D192" t="s">
-        <v>347</v>
+        <v>934</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D193" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D194" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D195" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="D196" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D197" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D198" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D199" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>903</v>
+        <v>346</v>
       </c>
       <c r="D200" t="s">
-        <v>904</v>
+        <v>347</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>901</v>
+        <v>348</v>
       </c>
       <c r="D201" t="s">
-        <v>902</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B202" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D202" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="D203" t="s">
-        <v>362</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>966</v>
+        <v>352</v>
       </c>
       <c r="D204" t="s">
-        <v>968</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>967</v>
+        <v>354</v>
       </c>
       <c r="D205" t="s">
-        <v>969</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D206" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>365</v>
+        <v>901</v>
       </c>
       <c r="D207" t="s">
-        <v>366</v>
+        <v>902</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>367</v>
+        <v>899</v>
       </c>
       <c r="D208" t="s">
-        <v>368</v>
+        <v>900</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B209" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B210" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D210" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>373</v>
+        <v>964</v>
       </c>
       <c r="D211" t="s">
-        <v>374</v>
+        <v>966</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>375</v>
+        <v>965</v>
       </c>
       <c r="D212" t="s">
-        <v>376</v>
+        <v>967</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B213" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D213" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B214" t="s">
-        <v>886</v>
+        <v>363</v>
       </c>
       <c r="D214" t="s">
-        <v>887</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B215" t="s">
-        <v>960</v>
+        <v>365</v>
       </c>
       <c r="D215" t="s">
-        <v>961</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D216" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B217" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D217" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B218" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D218" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="D219" t="s">
-        <v>80</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B220" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D220" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B221" t="s">
-        <v>387</v>
+        <v>884</v>
       </c>
       <c r="D221" t="s">
-        <v>388</v>
+        <v>885</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B222" t="s">
-        <v>389</v>
+        <v>958</v>
       </c>
       <c r="D222" t="s">
-        <v>390</v>
+        <v>959</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B223" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D223" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D224" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D225" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="D226" t="s">
-        <v>397</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B227" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D227" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B228" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B229" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D229" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B230" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D230" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B231" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D231" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B232" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D232" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B233" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D233" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B234" t="s">
-        <v>898</v>
+        <v>396</v>
       </c>
       <c r="D234" t="s">
-        <v>898</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>888</v>
+        <v>397</v>
       </c>
       <c r="D235" t="s">
-        <v>889</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B236" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D236" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B237" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D237" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B238" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D238" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B239" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D239" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B240" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D240" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B241" t="s">
-        <v>421</v>
+        <v>896</v>
       </c>
       <c r="D241" t="s">
-        <v>422</v>
+        <v>896</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B242" t="s">
-        <v>423</v>
+        <v>886</v>
       </c>
       <c r="D242" t="s">
-        <v>424</v>
+        <v>887</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B243" t="s">
-        <v>933</v>
+        <v>409</v>
       </c>
       <c r="D243" t="s">
-        <v>934</v>
+        <v>410</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B244" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D244" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B245" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="D245" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D246" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B247" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D247" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D248" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B249" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D249" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B250" t="s">
-        <v>436</v>
+        <v>931</v>
       </c>
       <c r="D250" t="s">
-        <v>437</v>
+        <v>932</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
       <c r="D251" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>950</v>
+        <v>425</v>
       </c>
       <c r="D252" t="s">
-        <v>951</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B253" t="s">
-        <v>929</v>
+        <v>426</v>
       </c>
       <c r="D253" t="s">
-        <v>930</v>
+        <v>427</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B254" t="s">
-        <v>718</v>
+        <v>428</v>
       </c>
       <c r="D254" t="s">
-        <v>719</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="D255" t="s">
-        <v>721</v>
+        <v>431</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D256" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B257" t="s">
-        <v>914</v>
+        <v>434</v>
       </c>
       <c r="D257" t="s">
-        <v>915</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="D258" t="s">
-        <v>441</v>
+        <v>130</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>442</v>
+        <v>948</v>
       </c>
       <c r="D259" t="s">
-        <v>443</v>
+        <v>949</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>444</v>
+        <v>927</v>
       </c>
       <c r="D260" t="s">
-        <v>445</v>
+        <v>928</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>446</v>
+        <v>716</v>
       </c>
       <c r="D261" t="s">
-        <v>447</v>
+        <v>717</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s">
-        <v>448</v>
+        <v>718</v>
       </c>
       <c r="D262" t="s">
-        <v>448</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B263" t="s">
-        <v>978</v>
+        <v>436</v>
       </c>
       <c r="D263" t="s">
-        <v>979</v>
+        <v>437</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B264" t="s">
-        <v>980</v>
+        <v>912</v>
       </c>
       <c r="D264" t="s">
-        <v>981</v>
+        <v>913</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D265" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B266" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D266" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D267" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D268" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>973</v>
+        <v>446</v>
       </c>
       <c r="D269" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>937</v>
+        <v>976</v>
       </c>
       <c r="D270" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>458</v>
+        <v>978</v>
       </c>
       <c r="D271" t="s">
-        <v>458</v>
+        <v>979</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D272" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D273" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D274" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
       <c r="D275" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B276" t="s">
-        <v>465</v>
+        <v>971</v>
       </c>
       <c r="D276" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B277" t="s">
-        <v>467</v>
+        <v>935</v>
       </c>
       <c r="D277" t="s">
-        <v>468</v>
+        <v>960</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D278" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>916</v>
+        <v>457</v>
       </c>
       <c r="D279" t="s">
-        <v>916</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D280" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D281" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="D282" t="s">
-        <v>476</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D283" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D284" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="D285" t="s">
-        <v>231</v>
+        <v>468</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>481</v>
+        <v>914</v>
       </c>
       <c r="D286" t="s">
-        <v>482</v>
+        <v>914</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D287" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D288" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D289" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D290" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D291" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>958</v>
+        <v>230</v>
       </c>
       <c r="D292" t="s">
-        <v>959</v>
+        <v>231</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D293" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B294" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D294" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B295" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D295" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D296" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B297" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D297" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B298" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D298" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B299" t="s">
-        <v>502</v>
+        <v>956</v>
       </c>
       <c r="D299" t="s">
-        <v>503</v>
+        <v>957</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B300" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D300" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B301" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D301" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B302" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D302" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B303" t="s">
-        <v>510</v>
+        <v>17</v>
       </c>
       <c r="D303" t="s">
-        <v>511</v>
+        <v>164</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D304" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B305" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D305" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B306" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D306" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B307" t="s">
-        <v>957</v>
+        <v>502</v>
       </c>
       <c r="D307" t="s">
-        <v>956</v>
+        <v>503</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D308" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B309" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D309" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B310" t="s">
-        <v>896</v>
+        <v>508</v>
       </c>
       <c r="D310" t="s">
-        <v>897</v>
+        <v>509</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B311" t="s">
-        <v>965</v>
+        <v>510</v>
       </c>
       <c r="D311" t="s">
-        <v>831</v>
+        <v>511</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D312" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B313" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D313" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B314" t="s">
-        <v>526</v>
+        <v>955</v>
       </c>
       <c r="D314" t="s">
-        <v>527</v>
+        <v>954</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B315" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D315" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B316" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D316" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B317" t="s">
-        <v>531</v>
+        <v>894</v>
       </c>
       <c r="D317" t="s">
-        <v>532</v>
+        <v>895</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B318" t="s">
-        <v>533</v>
+        <v>963</v>
       </c>
       <c r="D318" t="s">
-        <v>534</v>
+        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D319" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B320" t="s">
-        <v>910</v>
+        <v>522</v>
       </c>
       <c r="D320" t="s">
-        <v>911</v>
+        <v>523</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B321" t="s">
-        <v>912</v>
+        <v>524</v>
       </c>
       <c r="D321" t="s">
-        <v>913</v>
+        <v>525</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B322" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D322" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B323" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D323" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B324" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D324" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B325" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D325" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B326" t="s">
-        <v>893</v>
+        <v>533</v>
       </c>
       <c r="D326" t="s">
-        <v>894</v>
+        <v>534</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B327" t="s">
-        <v>545</v>
+        <v>908</v>
       </c>
       <c r="D327" t="s">
-        <v>545</v>
+        <v>909</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B328" t="s">
-        <v>546</v>
+        <v>910</v>
       </c>
       <c r="D328" t="s">
-        <v>547</v>
+        <v>911</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B329" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D329" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B330" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D330" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B331" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D331" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B332" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D332" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B333" t="s">
-        <v>554</v>
+        <v>891</v>
       </c>
       <c r="D333" t="s">
-        <v>555</v>
+        <v>892</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B334" t="s">
-        <v>931</v>
+        <v>543</v>
       </c>
       <c r="D334" t="s">
-        <v>932</v>
+        <v>543</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B335" t="s">
-        <v>917</v>
+        <v>544</v>
       </c>
       <c r="D335" t="s">
-        <v>918</v>
+        <v>545</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B336" t="s">
-        <v>952</v>
+        <v>546</v>
       </c>
       <c r="D336" t="s">
-        <v>953</v>
+        <v>547</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B337" t="s">
-        <v>974</v>
+        <v>548</v>
       </c>
       <c r="D337" t="s">
-        <v>975</v>
+        <v>549</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B338" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D338" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B339" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D339" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B340" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D340" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B341" t="s">
-        <v>21</v>
+        <v>929</v>
       </c>
       <c r="D341" t="s">
-        <v>22</v>
+        <v>930</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B342" t="s">
-        <v>565</v>
+        <v>915</v>
       </c>
       <c r="D342" t="s">
-        <v>566</v>
+        <v>916</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B343" t="s">
-        <v>567</v>
+        <v>950</v>
       </c>
       <c r="D343" t="s">
-        <v>568</v>
+        <v>951</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B344" t="s">
-        <v>569</v>
+        <v>972</v>
       </c>
       <c r="D344" t="s">
-        <v>570</v>
+        <v>973</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B345" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D345" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B346" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D346" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>564</v>
+        <v>284</v>
       </c>
       <c r="B347" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D347" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B348" t="s">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>562</v>
+      </c>
+      <c r="B349" t="s">
+        <v>563</v>
+      </c>
+      <c r="D349" t="s">
         <v>564</v>
-      </c>
-      <c r="B349" t="s">
-        <v>579</v>
-      </c>
-      <c r="D349" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B350" t="s">
-        <v>30</v>
+        <v>565</v>
       </c>
       <c r="D350" t="s">
-        <v>31</v>
+        <v>566</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B351" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D351" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B352" t="s">
-        <v>34</v>
+        <v>569</v>
       </c>
       <c r="D352" t="s">
-        <v>35</v>
+        <v>570</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B353" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D353" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B354" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D354" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B355" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D355" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B356" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D356" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B357" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D357" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B358" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D358" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B359" t="s">
-        <v>591</v>
+        <v>34</v>
       </c>
       <c r="D359" t="s">
-        <v>592</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B360" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="D360" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B361" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D361" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B362" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="D362" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B363" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="D363" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B364" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D364" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B365" t="s">
-        <v>944</v>
+        <v>587</v>
       </c>
       <c r="D365" t="s">
-        <v>945</v>
+        <v>588</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B366" t="s">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="D366" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B367" t="s">
-        <v>50</v>
+        <v>591</v>
       </c>
       <c r="D367" t="s">
-        <v>51</v>
+        <v>592</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B368" t="s">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D368" t="s">
-        <v>55</v>
+        <v>594</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B369" t="s">
-        <v>52</v>
+        <v>595</v>
       </c>
       <c r="D369" t="s">
-        <v>53</v>
+        <v>596</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B370" t="s">
-        <v>323</v>
+        <v>597</v>
       </c>
       <c r="D370" t="s">
-        <v>954</v>
+        <v>598</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B371" t="s">
-        <v>601</v>
+        <v>44</v>
       </c>
       <c r="D371" t="s">
-        <v>602</v>
+        <v>45</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B372" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="D372" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B373" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="D373" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B374" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D374" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B375" t="s">
-        <v>908</v>
+        <v>54</v>
       </c>
       <c r="D375" t="s">
-        <v>909</v>
+        <v>55</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B376" t="s">
-        <v>907</v>
+        <v>52</v>
       </c>
       <c r="D376" t="s">
-        <v>906</v>
+        <v>53</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B377" t="s">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="D377" t="s">
-        <v>610</v>
+        <v>952</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B378" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D378" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B379" t="s">
-        <v>605</v>
+        <v>970</v>
       </c>
       <c r="D379" t="s">
-        <v>606</v>
+        <v>953</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B380" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D380" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B381" t="s">
-        <v>612</v>
+        <v>56</v>
       </c>
       <c r="D381" t="s">
-        <v>613</v>
+        <v>57</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B382" t="s">
-        <v>332</v>
+        <v>906</v>
       </c>
       <c r="D382" t="s">
-        <v>333</v>
+        <v>907</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B383" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="D383" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B384" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D384" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B385" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D385" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B386" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D386" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B387" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D387" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B388" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="D388" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B389" t="s">
-        <v>624</v>
+        <v>330</v>
       </c>
       <c r="D389" t="s">
-        <v>625</v>
+        <v>331</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B390" t="s">
-        <v>628</v>
+        <v>933</v>
       </c>
       <c r="D390" t="s">
-        <v>629</v>
+        <v>934</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B391" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="D391" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B392" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="D392" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B393" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="D393" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B394" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="D394" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B395" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="D395" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B396" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="D396" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B397" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="D397" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B398" t="s">
-        <v>61</v>
+        <v>628</v>
       </c>
       <c r="D398" t="s">
-        <v>64</v>
+        <v>629</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B399" t="s">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="D399" t="s">
-        <v>62</v>
+        <v>631</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>63</v>
+        <v>632</v>
       </c>
       <c r="D400" t="s">
-        <v>66</v>
+        <v>633</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B401" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D401" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B402" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D402" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B403" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D403" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B404" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D404" t="s">
-        <v>362</v>
+        <v>640</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B405" t="s">
-        <v>650</v>
+        <v>61</v>
       </c>
       <c r="D405" t="s">
-        <v>651</v>
+        <v>64</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B406" t="s">
-        <v>652</v>
+        <v>65</v>
       </c>
       <c r="D406" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B407" t="s">
-        <v>653</v>
+        <v>63</v>
       </c>
       <c r="D407" t="s">
-        <v>654</v>
+        <v>66</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B408" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="D408" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B409" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="D409" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>75</v>
+        <v>645</v>
       </c>
       <c r="D410" t="s">
-        <v>76</v>
+        <v>646</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B411" t="s">
-        <v>77</v>
+        <v>647</v>
       </c>
       <c r="D411" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B412" t="s">
-        <v>379</v>
+        <v>648</v>
       </c>
       <c r="D412" t="s">
-        <v>380</v>
+        <v>649</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B413" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="D413" t="s">
-        <v>667</v>
+        <v>175</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B414" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="D414" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B415" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D415" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B416" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="D416" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B417" t="s">
-        <v>661</v>
+        <v>75</v>
       </c>
       <c r="D417" t="s">
-        <v>662</v>
+        <v>76</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B418" t="s">
-        <v>663</v>
+        <v>77</v>
       </c>
       <c r="D418" t="s">
-        <v>664</v>
+        <v>78</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B419" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="D419" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B420" t="s">
-        <v>393</v>
+        <v>665</v>
       </c>
       <c r="D420" t="s">
-        <v>394</v>
+        <v>665</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B421" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D421" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B422" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="D422" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B423" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D423" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B424" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="D424" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B425" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="D425" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B426" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="D426" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B427" t="s">
-        <v>683</v>
+        <v>391</v>
       </c>
       <c r="D427" t="s">
-        <v>684</v>
+        <v>392</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B428" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="D428" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B429" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="D429" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B430" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="D430" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B431" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="D431" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B432" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D432" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B433" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="D433" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B434" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D434" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B435" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="D435" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B436" t="s">
-        <v>942</v>
+        <v>685</v>
       </c>
       <c r="D436" t="s">
-        <v>943</v>
+        <v>686</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B437" t="s">
-        <v>101</v>
+        <v>687</v>
       </c>
       <c r="D437" t="s">
-        <v>102</v>
+        <v>688</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B438" t="s">
-        <v>103</v>
+        <v>689</v>
       </c>
       <c r="D438" t="s">
-        <v>104</v>
+        <v>690</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B439" t="s">
-        <v>105</v>
+        <v>691</v>
       </c>
       <c r="D439" t="s">
-        <v>106</v>
+        <v>692</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B440" t="s">
-        <v>107</v>
+        <v>693</v>
       </c>
       <c r="D440" t="s">
-        <v>108</v>
+        <v>693</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B441" t="s">
-        <v>109</v>
+        <v>694</v>
       </c>
       <c r="D441" t="s">
-        <v>110</v>
+        <v>695</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B442" t="s">
-        <v>111</v>
+        <v>696</v>
       </c>
       <c r="D442" t="s">
-        <v>112</v>
+        <v>697</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B443" t="s">
-        <v>113</v>
+        <v>940</v>
       </c>
       <c r="D443" t="s">
-        <v>114</v>
+        <v>941</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B444" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D444" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B445" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D445" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B446" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D446" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B447" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D447" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B448" t="s">
-        <v>421</v>
+        <v>109</v>
       </c>
       <c r="D448" t="s">
-        <v>422</v>
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B449" t="s">
-        <v>700</v>
+        <v>111</v>
       </c>
       <c r="D449" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B450" t="s">
-        <v>702</v>
+        <v>113</v>
       </c>
       <c r="D450" t="s">
-        <v>703</v>
+        <v>114</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B451" t="s">
-        <v>704</v>
+        <v>115</v>
       </c>
       <c r="D451" t="s">
-        <v>705</v>
+        <v>116</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B452" t="s">
-        <v>706</v>
+        <v>117</v>
       </c>
       <c r="D452" t="s">
-        <v>706</v>
+        <v>118</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B453" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D453" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B454" t="s">
-        <v>707</v>
+        <v>121</v>
       </c>
       <c r="D454" t="s">
-        <v>707</v>
+        <v>122</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B455" t="s">
-        <v>127</v>
+        <v>419</v>
       </c>
       <c r="D455" t="s">
-        <v>128</v>
+        <v>420</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B456" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D456" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B457" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D457" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B458" t="s">
-        <v>129</v>
+        <v>702</v>
       </c>
       <c r="D458" t="s">
-        <v>130</v>
+        <v>703</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B459" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D459" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B460" t="s">
-        <v>712</v>
+        <v>125</v>
       </c>
       <c r="D460" t="s">
-        <v>713</v>
+        <v>126</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B461" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D461" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B462" t="s">
-        <v>718</v>
+        <v>127</v>
       </c>
       <c r="D462" t="s">
-        <v>719</v>
+        <v>128</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B463" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D463" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B464" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D464" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B465" t="s">
-        <v>722</v>
+        <v>129</v>
       </c>
       <c r="D465" t="s">
-        <v>723</v>
+        <v>130</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B466" t="s">
-        <v>135</v>
+        <v>708</v>
       </c>
       <c r="D466" t="s">
-        <v>136</v>
+        <v>709</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B467" t="s">
-        <v>925</v>
+        <v>710</v>
       </c>
       <c r="D467" t="s">
-        <v>926</v>
+        <v>711</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B468" t="s">
-        <v>927</v>
+        <v>712</v>
       </c>
       <c r="D468" t="s">
-        <v>928</v>
+        <v>713</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B469" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="D469" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B470" t="s">
-        <v>919</v>
+        <v>718</v>
       </c>
       <c r="D470" t="s">
-        <v>920</v>
+        <v>719</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B471" t="s">
-        <v>921</v>
+        <v>714</v>
       </c>
       <c r="D471" t="s">
-        <v>922</v>
+        <v>715</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B472" t="s">
-        <v>924</v>
+        <v>720</v>
       </c>
       <c r="D472" t="s">
-        <v>923</v>
+        <v>721</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B473" t="s">
-        <v>726</v>
+        <v>135</v>
       </c>
       <c r="D473" t="s">
-        <v>727</v>
+        <v>136</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B474" t="s">
-        <v>728</v>
+        <v>923</v>
       </c>
       <c r="D474" t="s">
-        <v>729</v>
+        <v>924</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B475" t="s">
-        <v>730</v>
+        <v>925</v>
       </c>
       <c r="D475" t="s">
-        <v>731</v>
+        <v>926</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B476" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D476" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B477" t="s">
-        <v>734</v>
+        <v>917</v>
       </c>
       <c r="D477" t="s">
-        <v>735</v>
+        <v>918</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B478" t="s">
-        <v>736</v>
+        <v>919</v>
       </c>
       <c r="D478" t="s">
-        <v>737</v>
+        <v>920</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B479" t="s">
-        <v>738</v>
+        <v>922</v>
       </c>
       <c r="D479" t="s">
-        <v>739</v>
+        <v>921</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B480" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="D480" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B481" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="D481" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B482" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="D482" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B483" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="D483" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B484" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="D484" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B485" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="D485" t="s">
-        <v>604</v>
+        <v>735</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B486" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="D486" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B487" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D487" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B488" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="D488" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B489" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D489" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B490" t="s">
-        <v>448</v>
+        <v>744</v>
       </c>
       <c r="D490" t="s">
-        <v>448</v>
+        <v>745</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B491" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="D491" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B492" t="s">
-        <v>458</v>
+        <v>747</v>
       </c>
       <c r="D492" t="s">
-        <v>458</v>
+        <v>602</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B493" t="s">
-        <v>459</v>
+        <v>748</v>
       </c>
       <c r="D493" t="s">
-        <v>460</v>
+        <v>749</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B494" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D494" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B495" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D495" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B496" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D496" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B497" t="s">
-        <v>765</v>
+        <v>446</v>
       </c>
       <c r="D497" t="s">
-        <v>766</v>
+        <v>446</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B498" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D498" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B499" t="s">
-        <v>769</v>
+        <v>456</v>
       </c>
       <c r="D499" t="s">
-        <v>770</v>
+        <v>456</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B500" t="s">
-        <v>771</v>
+        <v>457</v>
       </c>
       <c r="D500" t="s">
-        <v>772</v>
+        <v>458</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B501" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="D501" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B502" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="D502" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B503" t="s">
-        <v>469</v>
+        <v>761</v>
       </c>
       <c r="D503" t="s">
-        <v>470</v>
+        <v>762</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B504" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D504" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B505" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D505" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B506" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D506" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B507" t="s">
-        <v>156</v>
+        <v>769</v>
       </c>
       <c r="D507" t="s">
-        <v>157</v>
+        <v>770</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B508" t="s">
-        <v>471</v>
+        <v>771</v>
       </c>
       <c r="D508" t="s">
-        <v>472</v>
+        <v>772</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B509" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D509" t="s">
-        <v>478</v>
+        <v>780</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B510" t="s">
-        <v>784</v>
+        <v>467</v>
       </c>
       <c r="D510" t="s">
-        <v>785</v>
+        <v>468</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B511" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="D511" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B512" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="D512" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B513" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="D513" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B514" t="s">
-        <v>792</v>
+        <v>156</v>
       </c>
       <c r="D514" t="s">
-        <v>793</v>
+        <v>157</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B515" t="s">
-        <v>794</v>
+        <v>469</v>
       </c>
       <c r="D515" t="s">
-        <v>794</v>
+        <v>470</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B516" t="s">
-        <v>483</v>
+        <v>781</v>
       </c>
       <c r="D516" t="s">
-        <v>795</v>
+        <v>476</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B517" t="s">
-        <v>486</v>
+        <v>782</v>
       </c>
       <c r="D517" t="s">
-        <v>487</v>
+        <v>783</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B518" t="s">
-        <v>17</v>
+        <v>784</v>
       </c>
       <c r="D518" t="s">
-        <v>164</v>
+        <v>785</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B519" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D519" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B520" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="D520" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B521" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D521" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B522" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D522" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B523" t="s">
-        <v>804</v>
+        <v>481</v>
       </c>
       <c r="D523" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B524" t="s">
-        <v>806</v>
+        <v>484</v>
       </c>
       <c r="D524" t="s">
-        <v>807</v>
+        <v>485</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B525" t="s">
-        <v>506</v>
+        <v>17</v>
       </c>
       <c r="D525" t="s">
-        <v>507</v>
+        <v>164</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B526" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="D526" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B527" t="s">
-        <v>518</v>
+        <v>796</v>
       </c>
       <c r="D527" t="s">
-        <v>519</v>
+        <v>797</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B528" t="s">
-        <v>178</v>
+        <v>798</v>
       </c>
       <c r="D528" t="s">
-        <v>179</v>
+        <v>799</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B529" t="s">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="D529" t="s">
-        <v>181</v>
+        <v>801</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B530" t="s">
-        <v>182</v>
+        <v>802</v>
       </c>
       <c r="D530" t="s">
-        <v>33</v>
+        <v>803</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B531" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D531" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B532" t="s">
-        <v>812</v>
+        <v>504</v>
       </c>
       <c r="D532" t="s">
-        <v>813</v>
+        <v>505</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B533" t="s">
-        <v>187</v>
+        <v>806</v>
       </c>
       <c r="D533" t="s">
-        <v>188</v>
+        <v>807</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B534" t="s">
-        <v>814</v>
+        <v>516</v>
       </c>
       <c r="D534" t="s">
-        <v>815</v>
+        <v>517</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B535" t="s">
-        <v>816</v>
+        <v>178</v>
       </c>
       <c r="D535" t="s">
-        <v>817</v>
+        <v>179</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B536" t="s">
-        <v>818</v>
+        <v>180</v>
       </c>
       <c r="D536" t="s">
-        <v>819</v>
+        <v>181</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B537" t="s">
-        <v>820</v>
+        <v>182</v>
       </c>
       <c r="D537" t="s">
-        <v>821</v>
+        <v>33</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B538" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D538" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B539" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D539" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B540" t="s">
-        <v>826</v>
+        <v>187</v>
       </c>
       <c r="D540" t="s">
-        <v>827</v>
+        <v>188</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B541" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="D541" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B542" t="s">
-        <v>938</v>
+        <v>814</v>
       </c>
       <c r="D542" t="s">
-        <v>939</v>
+        <v>815</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B543" t="s">
-        <v>940</v>
+        <v>816</v>
       </c>
       <c r="D543" t="s">
-        <v>941</v>
+        <v>817</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B544" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D544" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B545" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="D545" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>196</v>
+        <v>822</v>
       </c>
       <c r="D546" t="s">
-        <v>197</v>
+        <v>823</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B547" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D547" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B548" t="s">
-        <v>946</v>
+        <v>826</v>
       </c>
       <c r="D548" t="s">
-        <v>947</v>
+        <v>827</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B549" t="s">
-        <v>836</v>
+        <v>936</v>
       </c>
       <c r="D549" t="s">
-        <v>837</v>
+        <v>937</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B550" t="s">
-        <v>838</v>
+        <v>938</v>
       </c>
       <c r="D550" t="s">
-        <v>839</v>
+        <v>939</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B551" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D551" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B552" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D552" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B553" t="s">
-        <v>844</v>
+        <v>196</v>
       </c>
       <c r="D553" t="s">
-        <v>845</v>
+        <v>197</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B554" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="D554" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B555" t="s">
-        <v>852</v>
+        <v>944</v>
       </c>
       <c r="D555" t="s">
-        <v>853</v>
+        <v>945</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B556" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="D556" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B557" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D557" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B558" t="s">
-        <v>948</v>
+        <v>838</v>
       </c>
       <c r="D558" t="s">
-        <v>949</v>
+        <v>839</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="D559" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B560" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D560" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B561" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D561" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D562" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="D563" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="D564" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B565" t="s">
-        <v>866</v>
+        <v>946</v>
       </c>
       <c r="D565" t="s">
-        <v>867</v>
+        <v>947</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B566" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="D566" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B567" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="D567" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B568" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="D568" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B569" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="D569" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B570" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="D570" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B571" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="D571" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B572" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="D572" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B573" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="D573" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B574" t="s">
+        <v>868</v>
+      </c>
+      <c r="D574" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>562</v>
+      </c>
+      <c r="B575" t="s">
+        <v>870</v>
+      </c>
+      <c r="D575" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>562</v>
+      </c>
+      <c r="B576" t="s">
+        <v>872</v>
+      </c>
+      <c r="D576" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>562</v>
+      </c>
+      <c r="B577" t="s">
+        <v>874</v>
+      </c>
+      <c r="D577" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>562</v>
+      </c>
+      <c r="B578" t="s">
+        <v>878</v>
+      </c>
+      <c r="D578" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>562</v>
+      </c>
+      <c r="B579" t="s">
         <v>882</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D579" t="s">
         <v>883</v>
       </c>
     </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>562</v>
+      </c>
+      <c r="B580" t="s">
+        <v>876</v>
+      </c>
+      <c r="D580" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>562</v>
+      </c>
+      <c r="B581" t="s">
+        <v>880</v>
+      </c>
+      <c r="D581" t="s">
+        <v>881</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D573" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D574">
-    <sortCondition ref="A2:A574"/>
-    <sortCondition ref="B2:B574"/>
+  <autoFilter ref="A1:D581" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D581">
+    <sortCondition ref="A2:A581"/>
+    <sortCondition ref="B2:B581"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144439A-7F63-424A-9C14-AD2DC3B5BD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774494F9-1F32-4B47-B0F9-66061F520ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$581</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$582</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="998">
   <si>
     <t>Context</t>
   </si>
@@ -3024,6 +3024,12 @@
   </si>
   <si>
     <t>Durée</t>
+  </si>
+  <si>
+    <t>Warning: The maximum number of records is reached</t>
+  </si>
+  <si>
+    <t>Attention: Le nombre maximum d'enregistrements est atteint</t>
   </si>
 </sst>
 </file>
@@ -3878,11 +3884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,13 +5674,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>996</v>
       </c>
       <c r="D162" t="s">
-        <v>286</v>
+        <v>997</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,10 +5688,10 @@
         <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,10 +5699,10 @@
         <v>284</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D164" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,10 +5710,10 @@
         <v>284</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,10 +5721,10 @@
         <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D166" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,10 +5732,10 @@
         <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>942</v>
+        <v>292</v>
       </c>
       <c r="D167" t="s">
-        <v>943</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,10 +5743,10 @@
         <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>942</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>943</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5748,10 +5754,10 @@
         <v>284</v>
       </c>
       <c r="B169" t="s">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="D169" t="s">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,10 +5765,10 @@
         <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,10 +5776,10 @@
         <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D171" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5787,10 @@
         <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,10 +5798,10 @@
         <v>284</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D173" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,10 +5809,10 @@
         <v>284</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D174" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,10 +5820,10 @@
         <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D175" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,10 +5831,10 @@
         <v>284</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D176" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,10 +5842,10 @@
         <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D177" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,10 +5853,10 @@
         <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D178" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,10 +5864,10 @@
         <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D179" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,10 +5875,10 @@
         <v>284</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="D180" t="s">
-        <v>59</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5886,10 @@
         <v>284</v>
       </c>
       <c r="B181" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="D181" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5891,10 +5897,10 @@
         <v>284</v>
       </c>
       <c r="B182" t="s">
-        <v>974</v>
+        <v>315</v>
       </c>
       <c r="D182" t="s">
-        <v>975</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,10 +5908,10 @@
         <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>317</v>
+        <v>974</v>
       </c>
       <c r="D183" t="s">
-        <v>318</v>
+        <v>975</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,10 +5919,10 @@
         <v>284</v>
       </c>
       <c r="B184" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D184" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,10 +5930,10 @@
         <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>961</v>
+        <v>321</v>
       </c>
       <c r="D185" t="s">
-        <v>962</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,10 +5941,10 @@
         <v>284</v>
       </c>
       <c r="B186" t="s">
-        <v>323</v>
+        <v>961</v>
       </c>
       <c r="D186" t="s">
-        <v>324</v>
+        <v>962</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,10 +5952,10 @@
         <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +5963,10 @@
         <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>968</v>
+        <v>325</v>
       </c>
       <c r="D188" t="s">
-        <v>969</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,10 +5974,10 @@
         <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>968</v>
       </c>
       <c r="D189" t="s">
-        <v>327</v>
+        <v>969</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,10 +5985,10 @@
         <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D190" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,10 +5996,10 @@
         <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D191" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,10 +6007,10 @@
         <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>933</v>
+        <v>328</v>
       </c>
       <c r="D192" t="s">
-        <v>934</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,10 +6018,10 @@
         <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>332</v>
+        <v>933</v>
       </c>
       <c r="D193" t="s">
-        <v>333</v>
+        <v>934</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6029,10 @@
         <v>284</v>
       </c>
       <c r="B194" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D194" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,10 +6040,10 @@
         <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D195" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,10 +6051,10 @@
         <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D196" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,10 +6062,10 @@
         <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D197" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,10 +6073,10 @@
         <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D198" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,10 +6084,10 @@
         <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D199" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,10 +6095,10 @@
         <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6100,10 +6106,10 @@
         <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D201" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,10 +6117,10 @@
         <v>284</v>
       </c>
       <c r="B202" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D202" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,10 +6128,10 @@
         <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="D203" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,10 +6139,10 @@
         <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
-        <v>353</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,10 +6150,10 @@
         <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D205" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,10 +6161,10 @@
         <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,10 +6172,10 @@
         <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>901</v>
+        <v>356</v>
       </c>
       <c r="D207" t="s">
-        <v>902</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,10 +6183,10 @@
         <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D208" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,10 +6194,10 @@
         <v>284</v>
       </c>
       <c r="B209" t="s">
-        <v>358</v>
+        <v>899</v>
       </c>
       <c r="D209" t="s">
-        <v>358</v>
+        <v>900</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,10 +6205,10 @@
         <v>284</v>
       </c>
       <c r="B210" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,10 +6216,10 @@
         <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>964</v>
+        <v>359</v>
       </c>
       <c r="D211" t="s">
-        <v>966</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,10 +6227,10 @@
         <v>284</v>
       </c>
       <c r="B212" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D212" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,10 +6238,10 @@
         <v>284</v>
       </c>
       <c r="B213" t="s">
-        <v>361</v>
+        <v>965</v>
       </c>
       <c r="D213" t="s">
-        <v>362</v>
+        <v>967</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,10 +6249,10 @@
         <v>284</v>
       </c>
       <c r="B214" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6254,10 +6260,10 @@
         <v>284</v>
       </c>
       <c r="B215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D215" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,10 +6271,10 @@
         <v>284</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D216" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6276,10 +6282,10 @@
         <v>284</v>
       </c>
       <c r="B217" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6287,10 +6293,10 @@
         <v>284</v>
       </c>
       <c r="B218" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D218" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,10 +6304,10 @@
         <v>284</v>
       </c>
       <c r="B219" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D219" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6309,10 +6315,10 @@
         <v>284</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D220" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6320,10 +6326,10 @@
         <v>284</v>
       </c>
       <c r="B221" t="s">
-        <v>884</v>
+        <v>375</v>
       </c>
       <c r="D221" t="s">
-        <v>885</v>
+        <v>376</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,10 +6337,10 @@
         <v>284</v>
       </c>
       <c r="B222" t="s">
-        <v>958</v>
+        <v>884</v>
       </c>
       <c r="D222" t="s">
-        <v>959</v>
+        <v>885</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6342,10 +6348,10 @@
         <v>284</v>
       </c>
       <c r="B223" t="s">
-        <v>377</v>
+        <v>958</v>
       </c>
       <c r="D223" t="s">
-        <v>378</v>
+        <v>959</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,10 +6359,10 @@
         <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D224" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6364,10 +6370,10 @@
         <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D225" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6375,10 +6381,10 @@
         <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="D226" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6386,10 +6392,10 @@
         <v>284</v>
       </c>
       <c r="B227" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="D227" t="s">
-        <v>384</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,10 +6403,10 @@
         <v>284</v>
       </c>
       <c r="B228" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D228" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6408,10 +6414,10 @@
         <v>284</v>
       </c>
       <c r="B229" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D229" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,10 +6425,10 @@
         <v>284</v>
       </c>
       <c r="B230" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D230" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6430,10 +6436,10 @@
         <v>284</v>
       </c>
       <c r="B231" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D231" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6441,7 +6447,7 @@
         <v>284</v>
       </c>
       <c r="B232" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D232" t="s">
         <v>392</v>
@@ -6452,10 +6458,10 @@
         <v>284</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D233" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6463,10 +6469,10 @@
         <v>284</v>
       </c>
       <c r="B234" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D234" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,10 +6480,10 @@
         <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,10 +6491,10 @@
         <v>284</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D236" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6496,10 +6502,10 @@
         <v>284</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D237" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,10 +6513,10 @@
         <v>284</v>
       </c>
       <c r="B238" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D238" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6518,10 +6524,10 @@
         <v>284</v>
       </c>
       <c r="B239" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D239" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6529,10 +6535,10 @@
         <v>284</v>
       </c>
       <c r="B240" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D240" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,10 +6546,10 @@
         <v>284</v>
       </c>
       <c r="B241" t="s">
-        <v>896</v>
+        <v>407</v>
       </c>
       <c r="D241" t="s">
-        <v>896</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,10 +6557,10 @@
         <v>284</v>
       </c>
       <c r="B242" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D242" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,10 +6568,10 @@
         <v>284</v>
       </c>
       <c r="B243" t="s">
-        <v>409</v>
+        <v>886</v>
       </c>
       <c r="D243" t="s">
-        <v>410</v>
+        <v>887</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,10 +6579,10 @@
         <v>284</v>
       </c>
       <c r="B244" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D244" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6584,10 +6590,10 @@
         <v>284</v>
       </c>
       <c r="B245" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D245" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6595,10 +6601,10 @@
         <v>284</v>
       </c>
       <c r="B246" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D246" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6606,10 +6612,10 @@
         <v>284</v>
       </c>
       <c r="B247" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D247" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6617,10 +6623,10 @@
         <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D248" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6628,10 +6634,10 @@
         <v>284</v>
       </c>
       <c r="B249" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D249" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6645,10 @@
         <v>284</v>
       </c>
       <c r="B250" t="s">
-        <v>931</v>
+        <v>421</v>
       </c>
       <c r="D250" t="s">
-        <v>932</v>
+        <v>422</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6650,10 +6656,10 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>423</v>
+        <v>931</v>
       </c>
       <c r="D251" t="s">
-        <v>424</v>
+        <v>932</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6661,10 +6667,10 @@
         <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D252" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6672,10 +6678,10 @@
         <v>284</v>
       </c>
       <c r="B253" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D253" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6683,10 +6689,10 @@
         <v>284</v>
       </c>
       <c r="B254" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D254" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,10 +6700,10 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D255" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,10 +6711,10 @@
         <v>284</v>
       </c>
       <c r="B256" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D256" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6716,10 +6722,10 @@
         <v>284</v>
       </c>
       <c r="B257" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D257" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,10 +6733,10 @@
         <v>284</v>
       </c>
       <c r="B258" t="s">
-        <v>129</v>
+        <v>434</v>
       </c>
       <c r="D258" t="s">
-        <v>130</v>
+        <v>435</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6738,10 +6744,10 @@
         <v>284</v>
       </c>
       <c r="B259" t="s">
-        <v>948</v>
+        <v>129</v>
       </c>
       <c r="D259" t="s">
-        <v>949</v>
+        <v>130</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6749,10 +6755,10 @@
         <v>284</v>
       </c>
       <c r="B260" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="D260" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,10 +6766,10 @@
         <v>284</v>
       </c>
       <c r="B261" t="s">
-        <v>716</v>
+        <v>927</v>
       </c>
       <c r="D261" t="s">
-        <v>717</v>
+        <v>928</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6771,10 +6777,10 @@
         <v>284</v>
       </c>
       <c r="B262" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D262" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6782,10 +6788,10 @@
         <v>284</v>
       </c>
       <c r="B263" t="s">
-        <v>436</v>
+        <v>718</v>
       </c>
       <c r="D263" t="s">
-        <v>437</v>
+        <v>719</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,10 +6799,10 @@
         <v>284</v>
       </c>
       <c r="B264" t="s">
-        <v>912</v>
+        <v>436</v>
       </c>
       <c r="D264" t="s">
-        <v>913</v>
+        <v>437</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,10 +6810,10 @@
         <v>284</v>
       </c>
       <c r="B265" t="s">
-        <v>438</v>
+        <v>912</v>
       </c>
       <c r="D265" t="s">
-        <v>439</v>
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6815,10 +6821,10 @@
         <v>284</v>
       </c>
       <c r="B266" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D266" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6826,10 +6832,10 @@
         <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D267" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6837,10 +6843,10 @@
         <v>284</v>
       </c>
       <c r="B268" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D268" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6848,10 +6854,10 @@
         <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D269" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6859,10 +6865,10 @@
         <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>976</v>
+        <v>446</v>
       </c>
       <c r="D270" t="s">
-        <v>977</v>
+        <v>446</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,10 +6876,10 @@
         <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D271" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6881,10 +6887,10 @@
         <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>447</v>
+        <v>978</v>
       </c>
       <c r="D272" t="s">
-        <v>448</v>
+        <v>979</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6892,10 +6898,10 @@
         <v>284</v>
       </c>
       <c r="B273" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D273" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6903,10 +6909,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D274" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6914,10 +6920,10 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D275" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,10 +6931,10 @@
         <v>284</v>
       </c>
       <c r="B276" t="s">
-        <v>971</v>
+        <v>453</v>
       </c>
       <c r="D276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6936,10 +6942,10 @@
         <v>284</v>
       </c>
       <c r="B277" t="s">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="D277" t="s">
-        <v>960</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,10 +6953,10 @@
         <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>456</v>
+        <v>935</v>
       </c>
       <c r="D278" t="s">
-        <v>456</v>
+        <v>960</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6958,10 +6964,10 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D279" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,10 +6975,10 @@
         <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D280" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6980,10 +6986,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D281" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6991,10 +6997,10 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>319</v>
+        <v>461</v>
       </c>
       <c r="D282" t="s">
-        <v>320</v>
+        <v>462</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,10 +7008,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>463</v>
+        <v>319</v>
       </c>
       <c r="D283" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,10 +7019,10 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D284" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7024,10 +7030,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D285" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,10 +7041,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>914</v>
+        <v>467</v>
       </c>
       <c r="D286" t="s">
-        <v>914</v>
+        <v>468</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7046,10 +7052,10 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>469</v>
+        <v>914</v>
       </c>
       <c r="D287" t="s">
-        <v>470</v>
+        <v>914</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7057,10 +7063,10 @@
         <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D288" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7068,10 +7074,10 @@
         <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D289" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,10 +7085,10 @@
         <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D290" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,10 +7096,10 @@
         <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D291" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,10 +7107,10 @@
         <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>230</v>
+        <v>477</v>
       </c>
       <c r="D292" t="s">
-        <v>231</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7112,10 +7118,10 @@
         <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>479</v>
+        <v>230</v>
       </c>
       <c r="D293" t="s">
-        <v>480</v>
+        <v>231</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7123,10 +7129,10 @@
         <v>284</v>
       </c>
       <c r="B294" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D294" t="s">
-        <v>349</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7134,10 +7140,10 @@
         <v>284</v>
       </c>
       <c r="B295" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D295" t="s">
-        <v>483</v>
+        <v>349</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7145,10 +7151,10 @@
         <v>284</v>
       </c>
       <c r="B296" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D296" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,10 +7162,10 @@
         <v>284</v>
       </c>
       <c r="B297" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D297" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,10 +7173,10 @@
         <v>284</v>
       </c>
       <c r="B298" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D298" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7178,10 +7184,10 @@
         <v>284</v>
       </c>
       <c r="B299" t="s">
-        <v>956</v>
+        <v>488</v>
       </c>
       <c r="D299" t="s">
-        <v>957</v>
+        <v>489</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7189,10 +7195,10 @@
         <v>284</v>
       </c>
       <c r="B300" t="s">
-        <v>494</v>
+        <v>956</v>
       </c>
       <c r="D300" t="s">
-        <v>495</v>
+        <v>957</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7200,10 +7206,10 @@
         <v>284</v>
       </c>
       <c r="B301" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D301" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7211,10 +7217,10 @@
         <v>284</v>
       </c>
       <c r="B302" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D302" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7222,10 +7228,10 @@
         <v>284</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>492</v>
       </c>
       <c r="D303" t="s">
-        <v>164</v>
+        <v>493</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7233,10 +7239,10 @@
         <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>496</v>
+        <v>17</v>
       </c>
       <c r="D304" t="s">
-        <v>497</v>
+        <v>164</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7244,10 +7250,10 @@
         <v>284</v>
       </c>
       <c r="B305" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D305" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,10 +7261,10 @@
         <v>284</v>
       </c>
       <c r="B306" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D306" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7266,10 +7272,10 @@
         <v>284</v>
       </c>
       <c r="B307" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D307" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7277,10 +7283,10 @@
         <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D308" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7288,10 +7294,10 @@
         <v>284</v>
       </c>
       <c r="B309" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D309" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,10 +7305,10 @@
         <v>284</v>
       </c>
       <c r="B310" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D310" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7310,10 +7316,10 @@
         <v>284</v>
       </c>
       <c r="B311" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D311" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7321,10 +7327,10 @@
         <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D312" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,10 +7338,10 @@
         <v>284</v>
       </c>
       <c r="B313" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D313" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7343,10 +7349,10 @@
         <v>284</v>
       </c>
       <c r="B314" t="s">
-        <v>955</v>
+        <v>514</v>
       </c>
       <c r="D314" t="s">
-        <v>954</v>
+        <v>515</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7354,10 +7360,10 @@
         <v>284</v>
       </c>
       <c r="B315" t="s">
-        <v>516</v>
+        <v>955</v>
       </c>
       <c r="D315" t="s">
-        <v>517</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7365,10 +7371,10 @@
         <v>284</v>
       </c>
       <c r="B316" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D316" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7376,10 +7382,10 @@
         <v>284</v>
       </c>
       <c r="B317" t="s">
-        <v>894</v>
+        <v>518</v>
       </c>
       <c r="D317" t="s">
-        <v>895</v>
+        <v>519</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7387,10 +7393,10 @@
         <v>284</v>
       </c>
       <c r="B318" t="s">
-        <v>963</v>
+        <v>894</v>
       </c>
       <c r="D318" t="s">
-        <v>829</v>
+        <v>895</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7398,10 +7404,10 @@
         <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>963</v>
       </c>
       <c r="D319" t="s">
-        <v>521</v>
+        <v>829</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,10 +7415,10 @@
         <v>284</v>
       </c>
       <c r="B320" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D320" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7420,10 +7426,10 @@
         <v>284</v>
       </c>
       <c r="B321" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D321" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7431,10 +7437,10 @@
         <v>284</v>
       </c>
       <c r="B322" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D322" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7442,10 +7448,10 @@
         <v>284</v>
       </c>
       <c r="B323" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D323" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7453,10 +7459,10 @@
         <v>284</v>
       </c>
       <c r="B324" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D324" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,10 +7470,10 @@
         <v>284</v>
       </c>
       <c r="B325" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D325" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7475,10 +7481,10 @@
         <v>284</v>
       </c>
       <c r="B326" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D326" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7486,10 +7492,10 @@
         <v>284</v>
       </c>
       <c r="B327" t="s">
-        <v>908</v>
+        <v>533</v>
       </c>
       <c r="D327" t="s">
-        <v>909</v>
+        <v>534</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7497,10 +7503,10 @@
         <v>284</v>
       </c>
       <c r="B328" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D328" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7508,10 +7514,10 @@
         <v>284</v>
       </c>
       <c r="B329" t="s">
-        <v>535</v>
+        <v>910</v>
       </c>
       <c r="D329" t="s">
-        <v>536</v>
+        <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7519,10 +7525,10 @@
         <v>284</v>
       </c>
       <c r="B330" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D330" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7530,10 +7536,10 @@
         <v>284</v>
       </c>
       <c r="B331" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D331" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7541,10 +7547,10 @@
         <v>284</v>
       </c>
       <c r="B332" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D332" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7552,10 +7558,10 @@
         <v>284</v>
       </c>
       <c r="B333" t="s">
-        <v>891</v>
+        <v>541</v>
       </c>
       <c r="D333" t="s">
-        <v>892</v>
+        <v>542</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7563,10 +7569,10 @@
         <v>284</v>
       </c>
       <c r="B334" t="s">
-        <v>543</v>
+        <v>891</v>
       </c>
       <c r="D334" t="s">
-        <v>543</v>
+        <v>892</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7574,10 +7580,10 @@
         <v>284</v>
       </c>
       <c r="B335" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D335" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7585,10 +7591,10 @@
         <v>284</v>
       </c>
       <c r="B336" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D336" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7596,10 +7602,10 @@
         <v>284</v>
       </c>
       <c r="B337" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D337" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7607,10 +7613,10 @@
         <v>284</v>
       </c>
       <c r="B338" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D338" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7618,10 +7624,10 @@
         <v>284</v>
       </c>
       <c r="B339" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D339" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,10 +7635,10 @@
         <v>284</v>
       </c>
       <c r="B340" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D340" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7640,10 +7646,10 @@
         <v>284</v>
       </c>
       <c r="B341" t="s">
-        <v>929</v>
+        <v>552</v>
       </c>
       <c r="D341" t="s">
-        <v>930</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7651,10 +7657,10 @@
         <v>284</v>
       </c>
       <c r="B342" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="D342" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7662,10 +7668,10 @@
         <v>284</v>
       </c>
       <c r="B343" t="s">
-        <v>950</v>
+        <v>915</v>
       </c>
       <c r="D343" t="s">
-        <v>951</v>
+        <v>916</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7673,10 +7679,10 @@
         <v>284</v>
       </c>
       <c r="B344" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="D344" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7684,10 +7690,10 @@
         <v>284</v>
       </c>
       <c r="B345" t="s">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="D345" t="s">
-        <v>557</v>
+        <v>973</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7695,10 +7701,10 @@
         <v>284</v>
       </c>
       <c r="B346" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D346" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7706,21 +7712,21 @@
         <v>284</v>
       </c>
       <c r="B347" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D347" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>562</v>
+        <v>284</v>
       </c>
       <c r="B348" t="s">
-        <v>21</v>
+        <v>558</v>
       </c>
       <c r="D348" t="s">
-        <v>22</v>
+        <v>559</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7728,10 +7734,10 @@
         <v>562</v>
       </c>
       <c r="B349" t="s">
-        <v>563</v>
+        <v>21</v>
       </c>
       <c r="D349" t="s">
-        <v>564</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7739,10 +7745,10 @@
         <v>562</v>
       </c>
       <c r="B350" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D350" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7750,10 +7756,10 @@
         <v>562</v>
       </c>
       <c r="B351" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D351" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7761,10 +7767,10 @@
         <v>562</v>
       </c>
       <c r="B352" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D352" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7772,10 +7778,10 @@
         <v>562</v>
       </c>
       <c r="B353" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D353" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7783,10 +7789,10 @@
         <v>562</v>
       </c>
       <c r="B354" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D354" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7794,10 +7800,10 @@
         <v>562</v>
       </c>
       <c r="B355" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D355" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7805,10 +7811,10 @@
         <v>562</v>
       </c>
       <c r="B356" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D356" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7816,10 +7822,10 @@
         <v>562</v>
       </c>
       <c r="B357" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D357" t="s">
-        <v>31</v>
+        <v>577</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7827,10 +7833,10 @@
         <v>562</v>
       </c>
       <c r="B358" t="s">
-        <v>578</v>
+        <v>30</v>
       </c>
       <c r="D358" t="s">
-        <v>579</v>
+        <v>31</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7838,10 +7844,10 @@
         <v>562</v>
       </c>
       <c r="B359" t="s">
-        <v>34</v>
+        <v>578</v>
       </c>
       <c r="D359" t="s">
-        <v>35</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7849,10 +7855,10 @@
         <v>562</v>
       </c>
       <c r="B360" t="s">
-        <v>580</v>
+        <v>34</v>
       </c>
       <c r="D360" t="s">
-        <v>580</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7860,10 +7866,10 @@
         <v>562</v>
       </c>
       <c r="B361" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D361" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7871,10 +7877,10 @@
         <v>562</v>
       </c>
       <c r="B362" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D362" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7882,10 +7888,10 @@
         <v>562</v>
       </c>
       <c r="B363" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D363" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7893,10 +7899,10 @@
         <v>562</v>
       </c>
       <c r="B364" t="s">
-        <v>38</v>
+        <v>585</v>
       </c>
       <c r="D364" t="s">
-        <v>39</v>
+        <v>586</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7904,10 +7910,10 @@
         <v>562</v>
       </c>
       <c r="B365" t="s">
-        <v>587</v>
+        <v>38</v>
       </c>
       <c r="D365" t="s">
-        <v>588</v>
+        <v>39</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7915,10 +7921,10 @@
         <v>562</v>
       </c>
       <c r="B366" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D366" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7926,10 +7932,10 @@
         <v>562</v>
       </c>
       <c r="B367" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D367" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7937,10 +7943,10 @@
         <v>562</v>
       </c>
       <c r="B368" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D368" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7948,10 +7954,10 @@
         <v>562</v>
       </c>
       <c r="B369" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D369" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,10 +7965,10 @@
         <v>562</v>
       </c>
       <c r="B370" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D370" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7970,10 +7976,10 @@
         <v>562</v>
       </c>
       <c r="B371" t="s">
-        <v>44</v>
+        <v>597</v>
       </c>
       <c r="D371" t="s">
-        <v>45</v>
+        <v>598</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7981,10 +7987,10 @@
         <v>562</v>
       </c>
       <c r="B372" t="s">
-        <v>942</v>
+        <v>44</v>
       </c>
       <c r="D372" t="s">
-        <v>943</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7992,10 +7998,10 @@
         <v>562</v>
       </c>
       <c r="B373" t="s">
-        <v>624</v>
+        <v>942</v>
       </c>
       <c r="D373" t="s">
-        <v>625</v>
+        <v>943</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -8003,10 +8009,10 @@
         <v>562</v>
       </c>
       <c r="B374" t="s">
-        <v>50</v>
+        <v>624</v>
       </c>
       <c r="D374" t="s">
-        <v>51</v>
+        <v>625</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -8014,10 +8020,10 @@
         <v>562</v>
       </c>
       <c r="B375" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D375" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,10 +8031,10 @@
         <v>562</v>
       </c>
       <c r="B376" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D376" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -8036,10 +8042,10 @@
         <v>562</v>
       </c>
       <c r="B377" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="D377" t="s">
-        <v>952</v>
+        <v>53</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -8047,10 +8053,10 @@
         <v>562</v>
       </c>
       <c r="B378" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="D378" t="s">
-        <v>600</v>
+        <v>952</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -8058,10 +8064,10 @@
         <v>562</v>
       </c>
       <c r="B379" t="s">
-        <v>970</v>
+        <v>599</v>
       </c>
       <c r="D379" t="s">
-        <v>953</v>
+        <v>600</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -8069,10 +8075,10 @@
         <v>562</v>
       </c>
       <c r="B380" t="s">
-        <v>601</v>
+        <v>970</v>
       </c>
       <c r="D380" t="s">
-        <v>602</v>
+        <v>953</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -8080,10 +8086,10 @@
         <v>562</v>
       </c>
       <c r="B381" t="s">
-        <v>56</v>
+        <v>601</v>
       </c>
       <c r="D381" t="s">
-        <v>57</v>
+        <v>602</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -8091,10 +8097,10 @@
         <v>562</v>
       </c>
       <c r="B382" t="s">
-        <v>906</v>
+        <v>56</v>
       </c>
       <c r="D382" t="s">
-        <v>907</v>
+        <v>57</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -8102,10 +8108,10 @@
         <v>562</v>
       </c>
       <c r="B383" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D383" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,10 +8119,10 @@
         <v>562</v>
       </c>
       <c r="B384" t="s">
-        <v>607</v>
+        <v>905</v>
       </c>
       <c r="D384" t="s">
-        <v>608</v>
+        <v>904</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -8124,10 +8130,10 @@
         <v>562</v>
       </c>
       <c r="B385" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D385" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -8135,10 +8141,10 @@
         <v>562</v>
       </c>
       <c r="B386" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D386" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8146,10 +8152,10 @@
         <v>562</v>
       </c>
       <c r="B387" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D387" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -8157,10 +8163,10 @@
         <v>562</v>
       </c>
       <c r="B388" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D388" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8168,10 +8174,10 @@
         <v>562</v>
       </c>
       <c r="B389" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D389" t="s">
-        <v>331</v>
+        <v>611</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,10 +8185,10 @@
         <v>562</v>
       </c>
       <c r="B390" t="s">
-        <v>933</v>
+        <v>330</v>
       </c>
       <c r="D390" t="s">
-        <v>934</v>
+        <v>331</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8190,10 +8196,10 @@
         <v>562</v>
       </c>
       <c r="B391" t="s">
-        <v>612</v>
+        <v>933</v>
       </c>
       <c r="D391" t="s">
-        <v>613</v>
+        <v>934</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -8201,10 +8207,10 @@
         <v>562</v>
       </c>
       <c r="B392" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D392" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -8212,10 +8218,10 @@
         <v>562</v>
       </c>
       <c r="B393" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D393" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -8223,10 +8229,10 @@
         <v>562</v>
       </c>
       <c r="B394" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D394" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -8234,10 +8240,10 @@
         <v>562</v>
       </c>
       <c r="B395" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D395" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,10 +8251,10 @@
         <v>562</v>
       </c>
       <c r="B396" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D396" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -8256,10 +8262,10 @@
         <v>562</v>
       </c>
       <c r="B397" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D397" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -8267,10 +8273,10 @@
         <v>562</v>
       </c>
       <c r="B398" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D398" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8278,10 +8284,10 @@
         <v>562</v>
       </c>
       <c r="B399" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D399" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8289,10 +8295,10 @@
         <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D400" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8300,10 +8306,10 @@
         <v>562</v>
       </c>
       <c r="B401" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D401" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8311,10 +8317,10 @@
         <v>562</v>
       </c>
       <c r="B402" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D402" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8322,10 +8328,10 @@
         <v>562</v>
       </c>
       <c r="B403" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D403" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8333,10 +8339,10 @@
         <v>562</v>
       </c>
       <c r="B404" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D404" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8344,10 +8350,10 @@
         <v>562</v>
       </c>
       <c r="B405" t="s">
-        <v>61</v>
+        <v>639</v>
       </c>
       <c r="D405" t="s">
-        <v>64</v>
+        <v>640</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8355,10 +8361,10 @@
         <v>562</v>
       </c>
       <c r="B406" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D406" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8366,10 +8372,10 @@
         <v>562</v>
       </c>
       <c r="B407" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8377,10 +8383,10 @@
         <v>562</v>
       </c>
       <c r="B408" t="s">
-        <v>641</v>
+        <v>63</v>
       </c>
       <c r="D408" t="s">
-        <v>642</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8388,10 +8394,10 @@
         <v>562</v>
       </c>
       <c r="B409" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D409" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8399,10 +8405,10 @@
         <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D410" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8410,10 +8416,10 @@
         <v>562</v>
       </c>
       <c r="B411" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D411" t="s">
-        <v>360</v>
+        <v>646</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8421,10 +8427,10 @@
         <v>562</v>
       </c>
       <c r="B412" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D412" t="s">
-        <v>649</v>
+        <v>360</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8432,10 +8438,10 @@
         <v>562</v>
       </c>
       <c r="B413" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D413" t="s">
-        <v>175</v>
+        <v>649</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8443,10 +8449,10 @@
         <v>562</v>
       </c>
       <c r="B414" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D414" t="s">
-        <v>652</v>
+        <v>175</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,10 +8460,10 @@
         <v>562</v>
       </c>
       <c r="B415" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D415" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8465,10 +8471,10 @@
         <v>562</v>
       </c>
       <c r="B416" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D416" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8476,10 +8482,10 @@
         <v>562</v>
       </c>
       <c r="B417" t="s">
-        <v>75</v>
+        <v>655</v>
       </c>
       <c r="D417" t="s">
-        <v>76</v>
+        <v>656</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8487,10 +8493,10 @@
         <v>562</v>
       </c>
       <c r="B418" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D418" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8498,10 +8504,10 @@
         <v>562</v>
       </c>
       <c r="B419" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="D419" t="s">
-        <v>378</v>
+        <v>78</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8509,10 +8515,10 @@
         <v>562</v>
       </c>
       <c r="B420" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="D420" t="s">
-        <v>665</v>
+        <v>378</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8520,10 +8526,10 @@
         <v>562</v>
       </c>
       <c r="B421" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D421" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8531,10 +8537,10 @@
         <v>562</v>
       </c>
       <c r="B422" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D422" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8542,7 +8548,7 @@
         <v>562</v>
       </c>
       <c r="B423" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D423" t="s">
         <v>658</v>
@@ -8553,10 +8559,10 @@
         <v>562</v>
       </c>
       <c r="B424" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D424" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8564,10 +8570,10 @@
         <v>562</v>
       </c>
       <c r="B425" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D425" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8575,10 +8581,10 @@
         <v>562</v>
       </c>
       <c r="B426" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D426" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8586,10 +8592,10 @@
         <v>562</v>
       </c>
       <c r="B427" t="s">
-        <v>391</v>
+        <v>663</v>
       </c>
       <c r="D427" t="s">
-        <v>392</v>
+        <v>664</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8597,10 +8603,10 @@
         <v>562</v>
       </c>
       <c r="B428" t="s">
-        <v>669</v>
+        <v>391</v>
       </c>
       <c r="D428" t="s">
-        <v>670</v>
+        <v>392</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8608,10 +8614,10 @@
         <v>562</v>
       </c>
       <c r="B429" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D429" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8619,10 +8625,10 @@
         <v>562</v>
       </c>
       <c r="B430" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D430" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8630,10 +8636,10 @@
         <v>562</v>
       </c>
       <c r="B431" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D431" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8641,10 +8647,10 @@
         <v>562</v>
       </c>
       <c r="B432" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D432" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -8652,10 +8658,10 @@
         <v>562</v>
       </c>
       <c r="B433" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D433" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,10 +8669,10 @@
         <v>562</v>
       </c>
       <c r="B434" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D434" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8674,10 +8680,10 @@
         <v>562</v>
       </c>
       <c r="B435" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D435" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -8685,10 +8691,10 @@
         <v>562</v>
       </c>
       <c r="B436" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D436" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -8696,10 +8702,10 @@
         <v>562</v>
       </c>
       <c r="B437" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D437" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,10 +8713,10 @@
         <v>562</v>
       </c>
       <c r="B438" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D438" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,10 +8724,10 @@
         <v>562</v>
       </c>
       <c r="B439" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D439" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -8729,10 +8735,10 @@
         <v>562</v>
       </c>
       <c r="B440" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D440" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -8740,10 +8746,10 @@
         <v>562</v>
       </c>
       <c r="B441" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D441" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -8751,10 +8757,10 @@
         <v>562</v>
       </c>
       <c r="B442" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D442" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -8762,10 +8768,10 @@
         <v>562</v>
       </c>
       <c r="B443" t="s">
-        <v>940</v>
+        <v>696</v>
       </c>
       <c r="D443" t="s">
-        <v>941</v>
+        <v>697</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -8773,10 +8779,10 @@
         <v>562</v>
       </c>
       <c r="B444" t="s">
-        <v>101</v>
+        <v>940</v>
       </c>
       <c r="D444" t="s">
-        <v>102</v>
+        <v>941</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -8784,10 +8790,10 @@
         <v>562</v>
       </c>
       <c r="B445" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D445" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -8795,10 +8801,10 @@
         <v>562</v>
       </c>
       <c r="B446" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D446" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,10 +8812,10 @@
         <v>562</v>
       </c>
       <c r="B447" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D447" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8817,10 +8823,10 @@
         <v>562</v>
       </c>
       <c r="B448" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D448" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -8828,10 +8834,10 @@
         <v>562</v>
       </c>
       <c r="B449" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D449" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -8839,10 +8845,10 @@
         <v>562</v>
       </c>
       <c r="B450" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D450" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -8850,10 +8856,10 @@
         <v>562</v>
       </c>
       <c r="B451" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D451" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -8861,10 +8867,10 @@
         <v>562</v>
       </c>
       <c r="B452" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D452" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -8872,10 +8878,10 @@
         <v>562</v>
       </c>
       <c r="B453" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D453" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -8883,10 +8889,10 @@
         <v>562</v>
       </c>
       <c r="B454" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D454" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -8894,10 +8900,10 @@
         <v>562</v>
       </c>
       <c r="B455" t="s">
-        <v>419</v>
+        <v>121</v>
       </c>
       <c r="D455" t="s">
-        <v>420</v>
+        <v>122</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -8905,10 +8911,10 @@
         <v>562</v>
       </c>
       <c r="B456" t="s">
-        <v>698</v>
+        <v>419</v>
       </c>
       <c r="D456" t="s">
-        <v>699</v>
+        <v>420</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -8916,10 +8922,10 @@
         <v>562</v>
       </c>
       <c r="B457" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D457" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -8927,10 +8933,10 @@
         <v>562</v>
       </c>
       <c r="B458" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D458" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -8938,10 +8944,10 @@
         <v>562</v>
       </c>
       <c r="B459" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D459" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -8949,10 +8955,10 @@
         <v>562</v>
       </c>
       <c r="B460" t="s">
-        <v>125</v>
+        <v>704</v>
       </c>
       <c r="D460" t="s">
-        <v>126</v>
+        <v>704</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -8960,10 +8966,10 @@
         <v>562</v>
       </c>
       <c r="B461" t="s">
-        <v>705</v>
+        <v>125</v>
       </c>
       <c r="D461" t="s">
-        <v>705</v>
+        <v>126</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -8971,10 +8977,10 @@
         <v>562</v>
       </c>
       <c r="B462" t="s">
-        <v>127</v>
+        <v>705</v>
       </c>
       <c r="D462" t="s">
-        <v>128</v>
+        <v>705</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -8982,10 +8988,10 @@
         <v>562</v>
       </c>
       <c r="B463" t="s">
-        <v>706</v>
+        <v>127</v>
       </c>
       <c r="D463" t="s">
-        <v>706</v>
+        <v>128</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -8993,10 +8999,10 @@
         <v>562</v>
       </c>
       <c r="B464" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D464" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -9004,10 +9010,10 @@
         <v>562</v>
       </c>
       <c r="B465" t="s">
-        <v>129</v>
+        <v>707</v>
       </c>
       <c r="D465" t="s">
-        <v>130</v>
+        <v>707</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -9015,10 +9021,10 @@
         <v>562</v>
       </c>
       <c r="B466" t="s">
-        <v>708</v>
+        <v>129</v>
       </c>
       <c r="D466" t="s">
-        <v>709</v>
+        <v>130</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -9026,10 +9032,10 @@
         <v>562</v>
       </c>
       <c r="B467" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D467" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -9037,10 +9043,10 @@
         <v>562</v>
       </c>
       <c r="B468" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D468" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -9048,10 +9054,10 @@
         <v>562</v>
       </c>
       <c r="B469" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D469" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -9059,10 +9065,10 @@
         <v>562</v>
       </c>
       <c r="B470" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D470" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -9070,10 +9076,10 @@
         <v>562</v>
       </c>
       <c r="B471" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D471" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -9081,10 +9087,10 @@
         <v>562</v>
       </c>
       <c r="B472" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D472" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -9092,10 +9098,10 @@
         <v>562</v>
       </c>
       <c r="B473" t="s">
-        <v>135</v>
+        <v>720</v>
       </c>
       <c r="D473" t="s">
-        <v>136</v>
+        <v>721</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -9103,10 +9109,10 @@
         <v>562</v>
       </c>
       <c r="B474" t="s">
-        <v>923</v>
+        <v>135</v>
       </c>
       <c r="D474" t="s">
-        <v>924</v>
+        <v>136</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -9114,10 +9120,10 @@
         <v>562</v>
       </c>
       <c r="B475" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D475" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -9125,10 +9131,10 @@
         <v>562</v>
       </c>
       <c r="B476" t="s">
-        <v>722</v>
+        <v>925</v>
       </c>
       <c r="D476" t="s">
-        <v>723</v>
+        <v>926</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -9136,10 +9142,10 @@
         <v>562</v>
       </c>
       <c r="B477" t="s">
-        <v>917</v>
+        <v>722</v>
       </c>
       <c r="D477" t="s">
-        <v>918</v>
+        <v>723</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -9147,10 +9153,10 @@
         <v>562</v>
       </c>
       <c r="B478" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D478" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -9158,10 +9164,10 @@
         <v>562</v>
       </c>
       <c r="B479" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D479" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -9169,10 +9175,10 @@
         <v>562</v>
       </c>
       <c r="B480" t="s">
-        <v>724</v>
+        <v>922</v>
       </c>
       <c r="D480" t="s">
-        <v>725</v>
+        <v>921</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -9180,10 +9186,10 @@
         <v>562</v>
       </c>
       <c r="B481" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D481" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -9191,10 +9197,10 @@
         <v>562</v>
       </c>
       <c r="B482" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D482" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -9202,10 +9208,10 @@
         <v>562</v>
       </c>
       <c r="B483" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D483" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -9213,10 +9219,10 @@
         <v>562</v>
       </c>
       <c r="B484" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D484" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -9224,10 +9230,10 @@
         <v>562</v>
       </c>
       <c r="B485" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D485" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -9235,10 +9241,10 @@
         <v>562</v>
       </c>
       <c r="B486" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D486" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -9246,10 +9252,10 @@
         <v>562</v>
       </c>
       <c r="B487" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D487" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -9257,10 +9263,10 @@
         <v>562</v>
       </c>
       <c r="B488" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D488" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -9268,10 +9274,10 @@
         <v>562</v>
       </c>
       <c r="B489" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D489" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9279,10 +9285,10 @@
         <v>562</v>
       </c>
       <c r="B490" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D490" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9290,10 +9296,10 @@
         <v>562</v>
       </c>
       <c r="B491" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D491" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -9301,10 +9307,10 @@
         <v>562</v>
       </c>
       <c r="B492" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D492" t="s">
-        <v>602</v>
+        <v>741</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -9312,10 +9318,10 @@
         <v>562</v>
       </c>
       <c r="B493" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D493" t="s">
-        <v>749</v>
+        <v>602</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -9323,10 +9329,10 @@
         <v>562</v>
       </c>
       <c r="B494" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D494" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -9334,10 +9340,10 @@
         <v>562</v>
       </c>
       <c r="B495" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D495" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -9345,10 +9351,10 @@
         <v>562</v>
       </c>
       <c r="B496" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D496" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -9356,10 +9362,10 @@
         <v>562</v>
       </c>
       <c r="B497" t="s">
-        <v>446</v>
+        <v>754</v>
       </c>
       <c r="D497" t="s">
-        <v>446</v>
+        <v>755</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -9367,10 +9373,10 @@
         <v>562</v>
       </c>
       <c r="B498" t="s">
-        <v>756</v>
+        <v>446</v>
       </c>
       <c r="D498" t="s">
-        <v>757</v>
+        <v>446</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -9378,10 +9384,10 @@
         <v>562</v>
       </c>
       <c r="B499" t="s">
-        <v>456</v>
+        <v>756</v>
       </c>
       <c r="D499" t="s">
-        <v>456</v>
+        <v>757</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -9389,10 +9395,10 @@
         <v>562</v>
       </c>
       <c r="B500" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D500" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -9400,10 +9406,10 @@
         <v>562</v>
       </c>
       <c r="B501" t="s">
-        <v>758</v>
+        <v>457</v>
       </c>
       <c r="D501" t="s">
-        <v>758</v>
+        <v>458</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -9411,10 +9417,10 @@
         <v>562</v>
       </c>
       <c r="B502" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D502" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -9422,10 +9428,10 @@
         <v>562</v>
       </c>
       <c r="B503" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D503" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -9433,10 +9439,10 @@
         <v>562</v>
       </c>
       <c r="B504" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D504" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -9444,10 +9450,10 @@
         <v>562</v>
       </c>
       <c r="B505" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D505" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -9455,10 +9461,10 @@
         <v>562</v>
       </c>
       <c r="B506" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D506" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,10 +9472,10 @@
         <v>562</v>
       </c>
       <c r="B507" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D507" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -9477,10 +9483,10 @@
         <v>562</v>
       </c>
       <c r="B508" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D508" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -9488,10 +9494,10 @@
         <v>562</v>
       </c>
       <c r="B509" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D509" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,10 +9505,10 @@
         <v>562</v>
       </c>
       <c r="B510" t="s">
-        <v>467</v>
+        <v>779</v>
       </c>
       <c r="D510" t="s">
-        <v>468</v>
+        <v>780</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
@@ -9510,10 +9516,10 @@
         <v>562</v>
       </c>
       <c r="B511" t="s">
-        <v>773</v>
+        <v>467</v>
       </c>
       <c r="D511" t="s">
-        <v>774</v>
+        <v>468</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
@@ -9521,10 +9527,10 @@
         <v>562</v>
       </c>
       <c r="B512" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D512" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -9532,10 +9538,10 @@
         <v>562</v>
       </c>
       <c r="B513" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D513" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
@@ -9543,10 +9549,10 @@
         <v>562</v>
       </c>
       <c r="B514" t="s">
-        <v>156</v>
+        <v>777</v>
       </c>
       <c r="D514" t="s">
-        <v>157</v>
+        <v>778</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -9554,10 +9560,10 @@
         <v>562</v>
       </c>
       <c r="B515" t="s">
-        <v>469</v>
+        <v>156</v>
       </c>
       <c r="D515" t="s">
-        <v>470</v>
+        <v>157</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
@@ -9565,10 +9571,10 @@
         <v>562</v>
       </c>
       <c r="B516" t="s">
-        <v>781</v>
+        <v>469</v>
       </c>
       <c r="D516" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -9576,10 +9582,10 @@
         <v>562</v>
       </c>
       <c r="B517" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D517" t="s">
-        <v>783</v>
+        <v>476</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
@@ -9587,10 +9593,10 @@
         <v>562</v>
       </c>
       <c r="B518" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D518" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
@@ -9598,10 +9604,10 @@
         <v>562</v>
       </c>
       <c r="B519" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D519" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -9609,10 +9615,10 @@
         <v>562</v>
       </c>
       <c r="B520" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D520" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
@@ -9620,10 +9626,10 @@
         <v>562</v>
       </c>
       <c r="B521" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D521" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
@@ -9631,10 +9637,10 @@
         <v>562</v>
       </c>
       <c r="B522" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D522" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
@@ -9642,10 +9648,10 @@
         <v>562</v>
       </c>
       <c r="B523" t="s">
-        <v>481</v>
+        <v>792</v>
       </c>
       <c r="D523" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -9653,10 +9659,10 @@
         <v>562</v>
       </c>
       <c r="B524" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D524" t="s">
-        <v>485</v>
+        <v>793</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
@@ -9664,10 +9670,10 @@
         <v>562</v>
       </c>
       <c r="B525" t="s">
-        <v>17</v>
+        <v>484</v>
       </c>
       <c r="D525" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
@@ -9675,10 +9681,10 @@
         <v>562</v>
       </c>
       <c r="B526" t="s">
-        <v>794</v>
+        <v>17</v>
       </c>
       <c r="D526" t="s">
-        <v>795</v>
+        <v>164</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
@@ -9686,10 +9692,10 @@
         <v>562</v>
       </c>
       <c r="B527" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D527" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -9697,10 +9703,10 @@
         <v>562</v>
       </c>
       <c r="B528" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D528" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -9708,10 +9714,10 @@
         <v>562</v>
       </c>
       <c r="B529" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D529" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -9719,10 +9725,10 @@
         <v>562</v>
       </c>
       <c r="B530" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D530" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
@@ -9730,10 +9736,10 @@
         <v>562</v>
       </c>
       <c r="B531" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D531" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -9741,10 +9747,10 @@
         <v>562</v>
       </c>
       <c r="B532" t="s">
-        <v>504</v>
+        <v>804</v>
       </c>
       <c r="D532" t="s">
-        <v>505</v>
+        <v>805</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -9752,10 +9758,10 @@
         <v>562</v>
       </c>
       <c r="B533" t="s">
-        <v>806</v>
+        <v>504</v>
       </c>
       <c r="D533" t="s">
-        <v>807</v>
+        <v>505</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -9763,10 +9769,10 @@
         <v>562</v>
       </c>
       <c r="B534" t="s">
-        <v>516</v>
+        <v>806</v>
       </c>
       <c r="D534" t="s">
-        <v>517</v>
+        <v>807</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
@@ -9774,10 +9780,10 @@
         <v>562</v>
       </c>
       <c r="B535" t="s">
-        <v>178</v>
+        <v>516</v>
       </c>
       <c r="D535" t="s">
-        <v>179</v>
+        <v>517</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -9785,10 +9791,10 @@
         <v>562</v>
       </c>
       <c r="B536" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D536" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
@@ -9796,10 +9802,10 @@
         <v>562</v>
       </c>
       <c r="B537" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D537" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -9807,10 +9813,10 @@
         <v>562</v>
       </c>
       <c r="B538" t="s">
-        <v>808</v>
+        <v>182</v>
       </c>
       <c r="D538" t="s">
-        <v>809</v>
+        <v>33</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -9818,10 +9824,10 @@
         <v>562</v>
       </c>
       <c r="B539" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D539" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
@@ -9829,10 +9835,10 @@
         <v>562</v>
       </c>
       <c r="B540" t="s">
-        <v>187</v>
+        <v>810</v>
       </c>
       <c r="D540" t="s">
-        <v>188</v>
+        <v>811</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
@@ -9840,10 +9846,10 @@
         <v>562</v>
       </c>
       <c r="B541" t="s">
-        <v>812</v>
+        <v>187</v>
       </c>
       <c r="D541" t="s">
-        <v>813</v>
+        <v>188</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,10 +9857,10 @@
         <v>562</v>
       </c>
       <c r="B542" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D542" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
@@ -9862,10 +9868,10 @@
         <v>562</v>
       </c>
       <c r="B543" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D543" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
@@ -9873,10 +9879,10 @@
         <v>562</v>
       </c>
       <c r="B544" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D544" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -9884,10 +9890,10 @@
         <v>562</v>
       </c>
       <c r="B545" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D545" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
@@ -9895,10 +9901,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D546" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
@@ -9906,10 +9912,10 @@
         <v>562</v>
       </c>
       <c r="B547" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D547" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
@@ -9917,10 +9923,10 @@
         <v>562</v>
       </c>
       <c r="B548" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D548" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
@@ -9928,10 +9934,10 @@
         <v>562</v>
       </c>
       <c r="B549" t="s">
-        <v>936</v>
+        <v>826</v>
       </c>
       <c r="D549" t="s">
-        <v>937</v>
+        <v>827</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -9939,10 +9945,10 @@
         <v>562</v>
       </c>
       <c r="B550" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D550" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -9950,10 +9956,10 @@
         <v>562</v>
       </c>
       <c r="B551" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="D551" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -9961,10 +9967,10 @@
         <v>562</v>
       </c>
       <c r="B552" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D552" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -9972,10 +9978,10 @@
         <v>562</v>
       </c>
       <c r="B553" t="s">
-        <v>196</v>
+        <v>830</v>
       </c>
       <c r="D553" t="s">
-        <v>197</v>
+        <v>831</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -9983,10 +9989,10 @@
         <v>562</v>
       </c>
       <c r="B554" t="s">
-        <v>832</v>
+        <v>196</v>
       </c>
       <c r="D554" t="s">
-        <v>833</v>
+        <v>197</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
@@ -9994,10 +10000,10 @@
         <v>562</v>
       </c>
       <c r="B555" t="s">
-        <v>944</v>
+        <v>832</v>
       </c>
       <c r="D555" t="s">
-        <v>945</v>
+        <v>833</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -10005,10 +10011,10 @@
         <v>562</v>
       </c>
       <c r="B556" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
       <c r="D556" t="s">
-        <v>835</v>
+        <v>945</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -10016,10 +10022,10 @@
         <v>562</v>
       </c>
       <c r="B557" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D557" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -10027,10 +10033,10 @@
         <v>562</v>
       </c>
       <c r="B558" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D558" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -10038,10 +10044,10 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D559" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
@@ -10049,10 +10055,10 @@
         <v>562</v>
       </c>
       <c r="B560" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D560" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -10060,10 +10066,10 @@
         <v>562</v>
       </c>
       <c r="B561" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D561" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -10071,10 +10077,10 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D562" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -10082,10 +10088,10 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D563" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -10093,10 +10099,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D564" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -10104,10 +10110,10 @@
         <v>562</v>
       </c>
       <c r="B565" t="s">
-        <v>946</v>
+        <v>848</v>
       </c>
       <c r="D565" t="s">
-        <v>947</v>
+        <v>849</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -10115,10 +10121,10 @@
         <v>562</v>
       </c>
       <c r="B566" t="s">
-        <v>852</v>
+        <v>946</v>
       </c>
       <c r="D566" t="s">
-        <v>853</v>
+        <v>947</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -10126,10 +10132,10 @@
         <v>562</v>
       </c>
       <c r="B567" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D567" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -10137,10 +10143,10 @@
         <v>562</v>
       </c>
       <c r="B568" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D568" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
@@ -10148,10 +10154,10 @@
         <v>562</v>
       </c>
       <c r="B569" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D569" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -10159,10 +10165,10 @@
         <v>562</v>
       </c>
       <c r="B570" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D570" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -10170,10 +10176,10 @@
         <v>562</v>
       </c>
       <c r="B571" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D571" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -10181,10 +10187,10 @@
         <v>562</v>
       </c>
       <c r="B572" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D572" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
@@ -10192,10 +10198,10 @@
         <v>562</v>
       </c>
       <c r="B573" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D573" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
@@ -10203,10 +10209,10 @@
         <v>562</v>
       </c>
       <c r="B574" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D574" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -10214,10 +10220,10 @@
         <v>562</v>
       </c>
       <c r="B575" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D575" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
@@ -10225,10 +10231,10 @@
         <v>562</v>
       </c>
       <c r="B576" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D576" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -10236,10 +10242,10 @@
         <v>562</v>
       </c>
       <c r="B577" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D577" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
@@ -10247,10 +10253,10 @@
         <v>562</v>
       </c>
       <c r="B578" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D578" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -10258,10 +10264,10 @@
         <v>562</v>
       </c>
       <c r="B579" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D579" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -10269,10 +10275,10 @@
         <v>562</v>
       </c>
       <c r="B580" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="D580" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -10280,17 +10286,28 @@
         <v>562</v>
       </c>
       <c r="B581" t="s">
+        <v>876</v>
+      </c>
+      <c r="D581" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>562</v>
+      </c>
+      <c r="B582" t="s">
         <v>880</v>
       </c>
-      <c r="D581" t="s">
+      <c r="D582" t="s">
         <v>881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D581" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D581">
-    <sortCondition ref="A2:A581"/>
-    <sortCondition ref="B2:B581"/>
+  <autoFilter ref="A1:D582" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D582">
+    <sortCondition ref="A2:A582"/>
+    <sortCondition ref="B2:B582"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Repository/Settings/Translations.xlsx
+++ b/Repository/Settings/Translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774494F9-1F32-4B47-B0F9-66061F520ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BDA373-B266-4AD2-A5DB-77CBF8FB57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$582</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$D$583</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="1000">
   <si>
     <t>Context</t>
   </si>
@@ -3030,6 +3030,12 @@
   </si>
   <si>
     <t>Attention: Le nombre maximum d'enregistrements est atteint</t>
+  </si>
+  <si>
+    <t>Startup report name</t>
+  </si>
+  <si>
+    <t>Nom du rapport au démarrage</t>
   </si>
 </sst>
 </file>
@@ -3884,11 +3890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7492,10 +7498,10 @@
         <v>284</v>
       </c>
       <c r="B327" t="s">
-        <v>533</v>
+        <v>998</v>
       </c>
       <c r="D327" t="s">
-        <v>534</v>
+        <v>999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7503,10 +7509,10 @@
         <v>284</v>
       </c>
       <c r="B328" t="s">
-        <v>908</v>
+        <v>533</v>
       </c>
       <c r="D328" t="s">
-        <v>909</v>
+        <v>534</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7514,10 +7520,10 @@
         <v>284</v>
       </c>
       <c r="B329" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D329" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7525,10 +7531,10 @@
         <v>284</v>
       </c>
       <c r="B330" t="s">
-        <v>535</v>
+        <v>910</v>
       </c>
       <c r="D330" t="s">
-        <v>536</v>
+        <v>911</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7536,10 +7542,10 @@
         <v>284</v>
       </c>
       <c r="B331" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D331" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7547,10 +7553,10 @@
         <v>284</v>
       </c>
       <c r="B332" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D332" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7558,10 +7564,10 @@
         <v>284</v>
       </c>
       <c r="B333" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D333" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7569,10 +7575,10 @@
         <v>284</v>
       </c>
       <c r="B334" t="s">
-        <v>891</v>
+        <v>541</v>
       </c>
       <c r="D334" t="s">
-        <v>892</v>
+        <v>542</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7580,10 +7586,10 @@
         <v>284</v>
       </c>
       <c r="B335" t="s">
-        <v>543</v>
+        <v>891</v>
       </c>
       <c r="D335" t="s">
-        <v>543</v>
+        <v>892</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7591,10 +7597,10 @@
         <v>284</v>
       </c>
       <c r="B336" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D336" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7602,10 +7608,10 @@
         <v>284</v>
       </c>
       <c r="B337" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D337" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7613,10 +7619,10 @@
         <v>284</v>
       </c>
       <c r="B338" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D338" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7624,10 +7630,10 @@
         <v>284</v>
       </c>
       <c r="B339" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D339" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7635,10 +7641,10 @@
         <v>284</v>
       </c>
       <c r="B340" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D340" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7646,10 +7652,10 @@
         <v>284</v>
       </c>
       <c r="B341" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D341" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,10 +7663,10 @@
         <v>284</v>
       </c>
       <c r="B342" t="s">
-        <v>929</v>
+        <v>552</v>
       </c>
       <c r="D342" t="s">
-        <v>930</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7668,10 +7674,10 @@
         <v>284</v>
       </c>
       <c r="B343" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="D343" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7679,10 +7685,10 @@
         <v>284</v>
       </c>
       <c r="B344" t="s">
-        <v>950</v>
+        <v>915</v>
       </c>
       <c r="D344" t="s">
-        <v>951</v>
+        <v>916</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7690,10 +7696,10 @@
         <v>284</v>
       </c>
       <c r="B345" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="D345" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7701,10 +7707,10 @@
         <v>284</v>
       </c>
       <c r="B346" t="s">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="D346" t="s">
-        <v>557</v>
+        <v>973</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7712,10 +7718,10 @@
         <v>284</v>
       </c>
       <c r="B347" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D347" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7723,21 +7729,21 @@
         <v>284</v>
       </c>
       <c r="B348" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D348" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>562</v>
+        <v>284</v>
       </c>
       <c r="B349" t="s">
-        <v>21</v>
+        <v>558</v>
       </c>
       <c r="D349" t="s">
-        <v>22</v>
+        <v>559</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,10 +7751,10 @@
         <v>562</v>
       </c>
       <c r="B350" t="s">
-        <v>563</v>
+        <v>21</v>
       </c>
       <c r="D350" t="s">
-        <v>564</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7756,10 +7762,10 @@
         <v>562</v>
       </c>
       <c r="B351" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D351" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7767,10 +7773,10 @@
         <v>562</v>
       </c>
       <c r="B352" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D352" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7778,10 +7784,10 @@
         <v>562</v>
       </c>
       <c r="B353" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D353" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7789,10 +7795,10 @@
         <v>562</v>
       </c>
       <c r="B354" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D354" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,10 +7806,10 @@
         <v>562</v>
       </c>
       <c r="B355" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D355" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7811,10 +7817,10 @@
         <v>562</v>
       </c>
       <c r="B356" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D356" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7822,10 +7828,10 @@
         <v>562</v>
       </c>
       <c r="B357" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D357" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7833,10 +7839,10 @@
         <v>562</v>
       </c>
       <c r="B358" t="s">
-        <v>30</v>
+        <v>577</v>
       </c>
       <c r="D358" t="s">
-        <v>31</v>
+        <v>577</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7844,10 +7850,10 @@
         <v>562</v>
       </c>
       <c r="B359" t="s">
-        <v>578</v>
+        <v>30</v>
       </c>
       <c r="D359" t="s">
-        <v>579</v>
+        <v>31</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7855,10 +7861,10 @@
         <v>562</v>
       </c>
       <c r="B360" t="s">
-        <v>34</v>
+        <v>578</v>
       </c>
       <c r="D360" t="s">
-        <v>35</v>
+        <v>579</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -7866,10 +7872,10 @@
         <v>562</v>
       </c>
       <c r="B361" t="s">
-        <v>580</v>
+        <v>34</v>
       </c>
       <c r="D361" t="s">
-        <v>580</v>
+        <v>35</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -7877,10 +7883,10 @@
         <v>562</v>
       </c>
       <c r="B362" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D362" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -7888,10 +7894,10 @@
         <v>562</v>
       </c>
       <c r="B363" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D363" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,10 +7905,10 @@
         <v>562</v>
       </c>
       <c r="B364" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D364" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -7910,10 +7916,10 @@
         <v>562</v>
       </c>
       <c r="B365" t="s">
-        <v>38</v>
+        <v>585</v>
       </c>
       <c r="D365" t="s">
-        <v>39</v>
+        <v>586</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -7921,10 +7927,10 @@
         <v>562</v>
       </c>
       <c r="B366" t="s">
-        <v>587</v>
+        <v>38</v>
       </c>
       <c r="D366" t="s">
-        <v>588</v>
+        <v>39</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -7932,10 +7938,10 @@
         <v>562</v>
       </c>
       <c r="B367" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D367" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -7943,10 +7949,10 @@
         <v>562</v>
       </c>
       <c r="B368" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D368" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -7954,10 +7960,10 @@
         <v>562</v>
       </c>
       <c r="B369" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D369" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -7965,10 +7971,10 @@
         <v>562</v>
       </c>
       <c r="B370" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D370" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -7976,10 +7982,10 @@
         <v>562</v>
       </c>
       <c r="B371" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D371" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -7987,10 +7993,10 @@
         <v>562</v>
       </c>
       <c r="B372" t="s">
-        <v>44</v>
+        <v>597</v>
       </c>
       <c r="D372" t="s">
-        <v>45</v>
+        <v>598</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -7998,10 +8004,10 @@
         <v>562</v>
       </c>
       <c r="B373" t="s">
-        <v>942</v>
+        <v>44</v>
       </c>
       <c r="D373" t="s">
-        <v>943</v>
+        <v>45</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -8009,10 +8015,10 @@
         <v>562</v>
       </c>
       <c r="B374" t="s">
-        <v>624</v>
+        <v>942</v>
       </c>
       <c r="D374" t="s">
-        <v>625</v>
+        <v>943</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -8020,10 +8026,10 @@
         <v>562</v>
       </c>
       <c r="B375" t="s">
-        <v>50</v>
+        <v>624</v>
       </c>
       <c r="D375" t="s">
-        <v>51</v>
+        <v>625</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -8031,10 +8037,10 @@
         <v>562</v>
       </c>
       <c r="B376" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D376" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -8042,10 +8048,10 @@
         <v>562</v>
       </c>
       <c r="B377" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D377" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -8053,10 +8059,10 @@
         <v>562</v>
       </c>
       <c r="B378" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="D378" t="s">
-        <v>952</v>
+        <v>53</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -8064,10 +8070,10 @@
         <v>562</v>
       </c>
       <c r="B379" t="s">
-        <v>599</v>
+        <v>321</v>
       </c>
       <c r="D379" t="s">
-        <v>600</v>
+        <v>952</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -8075,10 +8081,10 @@
         <v>562</v>
       </c>
       <c r="B380" t="s">
-        <v>970</v>
+        <v>599</v>
       </c>
       <c r="D380" t="s">
-        <v>953</v>
+        <v>600</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -8086,10 +8092,10 @@
         <v>562</v>
       </c>
       <c r="B381" t="s">
-        <v>601</v>
+        <v>970</v>
       </c>
       <c r="D381" t="s">
-        <v>602</v>
+        <v>953</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -8097,10 +8103,10 @@
         <v>562</v>
       </c>
       <c r="B382" t="s">
-        <v>56</v>
+        <v>601</v>
       </c>
       <c r="D382" t="s">
-        <v>57</v>
+        <v>602</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -8108,10 +8114,10 @@
         <v>562</v>
       </c>
       <c r="B383" t="s">
-        <v>906</v>
+        <v>56</v>
       </c>
       <c r="D383" t="s">
-        <v>907</v>
+        <v>57</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -8119,10 +8125,10 @@
         <v>562</v>
       </c>
       <c r="B384" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D384" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -8130,10 +8136,10 @@
         <v>562</v>
       </c>
       <c r="B385" t="s">
-        <v>607</v>
+        <v>905</v>
       </c>
       <c r="D385" t="s">
-        <v>608</v>
+        <v>904</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -8141,10 +8147,10 @@
         <v>562</v>
       </c>
       <c r="B386" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D386" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8152,10 +8158,10 @@
         <v>562</v>
       </c>
       <c r="B387" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D387" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -8163,10 +8169,10 @@
         <v>562</v>
       </c>
       <c r="B388" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D388" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8174,10 +8180,10 @@
         <v>562</v>
       </c>
       <c r="B389" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D389" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8185,10 +8191,10 @@
         <v>562</v>
       </c>
       <c r="B390" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D390" t="s">
-        <v>331</v>
+        <v>611</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8196,10 +8202,10 @@
         <v>562</v>
       </c>
       <c r="B391" t="s">
-        <v>933</v>
+        <v>330</v>
       </c>
       <c r="D391" t="s">
-        <v>934</v>
+        <v>331</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,10 +8213,10 @@
         <v>562</v>
       </c>
       <c r="B392" t="s">
-        <v>612</v>
+        <v>933</v>
       </c>
       <c r="D392" t="s">
-        <v>613</v>
+        <v>934</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -8218,10 +8224,10 @@
         <v>562</v>
       </c>
       <c r="B393" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D393" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -8229,10 +8235,10 @@
         <v>562</v>
       </c>
       <c r="B394" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D394" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -8240,10 +8246,10 @@
         <v>562</v>
       </c>
       <c r="B395" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D395" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8251,10 +8257,10 @@
         <v>562</v>
       </c>
       <c r="B396" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D396" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -8262,10 +8268,10 @@
         <v>562</v>
       </c>
       <c r="B397" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D397" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -8273,10 +8279,10 @@
         <v>562</v>
       </c>
       <c r="B398" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D398" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8284,10 +8290,10 @@
         <v>562</v>
       </c>
       <c r="B399" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D399" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,10 +8301,10 @@
         <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D400" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8306,10 +8312,10 @@
         <v>562</v>
       </c>
       <c r="B401" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D401" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8317,10 +8323,10 @@
         <v>562</v>
       </c>
       <c r="B402" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D402" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8328,10 +8334,10 @@
         <v>562</v>
       </c>
       <c r="B403" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D403" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8339,10 +8345,10 @@
         <v>562</v>
       </c>
       <c r="B404" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D404" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8350,10 +8356,10 @@
         <v>562</v>
       </c>
       <c r="B405" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D405" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8361,10 +8367,10 @@
         <v>562</v>
       </c>
       <c r="B406" t="s">
-        <v>61</v>
+        <v>639</v>
       </c>
       <c r="D406" t="s">
-        <v>64</v>
+        <v>640</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8372,10 +8378,10 @@
         <v>562</v>
       </c>
       <c r="B407" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D407" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8383,10 +8389,10 @@
         <v>562</v>
       </c>
       <c r="B408" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8394,10 +8400,10 @@
         <v>562</v>
       </c>
       <c r="B409" t="s">
-        <v>641</v>
+        <v>63</v>
       </c>
       <c r="D409" t="s">
-        <v>642</v>
+        <v>66</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8405,10 +8411,10 @@
         <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D410" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8416,10 +8422,10 @@
         <v>562</v>
       </c>
       <c r="B411" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D411" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8427,10 +8433,10 @@
         <v>562</v>
       </c>
       <c r="B412" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D412" t="s">
-        <v>360</v>
+        <v>646</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8438,10 +8444,10 @@
         <v>562</v>
       </c>
       <c r="B413" t="s">
-